--- a/Test Cases/Prapancha/Test Case- EMR IP_Reviewed.xlsx
+++ b/Test Cases/Prapancha/Test Case- EMR IP_Reviewed.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="582">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1797,6 +1797,171 @@
   </si>
   <si>
     <t xml:space="preserve">Click on the Discharge summary&gt;&gt;  Investigation  </t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_079</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>Test case to verify the Patient Information Section in Patient IP consultation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Patient Information </t>
+  </si>
+  <si>
+    <t>Patient Information tab should be displayed</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teset case to verify the Contents in Patient Information is properly working </t>
+  </si>
+  <si>
+    <t>Check whether the information in the tab is corespond to the patient</t>
+  </si>
+  <si>
+    <t>Details should be same</t>
+  </si>
+  <si>
+    <t>Click on the Patient Information button</t>
+  </si>
+  <si>
+    <t>User should be click on the button and the information regarding to the patient should be displayed in a page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Add Remarks button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be click ont button and a field should be dispalyed to enter the remarks </t>
+  </si>
+  <si>
+    <t>Enter the Remarks in the displayed field and click on save button</t>
+  </si>
+  <si>
+    <t>User should be enter the data in the firld and the data should be saved</t>
+  </si>
+  <si>
+    <t>Click on the Patient message button</t>
+  </si>
+  <si>
+    <t>User should be click on the buttton and a new page should be displayed for send the message</t>
+  </si>
+  <si>
+    <t>Enter the message to be sen in the field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able enter the message </t>
+  </si>
+  <si>
+    <t>Select the priority of the message from the list</t>
+  </si>
+  <si>
+    <t>User should be able to select the detsil from the list</t>
+  </si>
+  <si>
+    <t>Click on the send button</t>
+  </si>
+  <si>
+    <t>The entered message should be send</t>
+  </si>
+  <si>
+    <t>Test case to verify the Capture photo section in Patient Information is proper or not</t>
+  </si>
+  <si>
+    <t>Click on the Capture image button</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_081</t>
+  </si>
+  <si>
+    <t>User should be click on the button and a new window should be appear</t>
+  </si>
+  <si>
+    <t>Click on the Upload fron Computer button</t>
+  </si>
+  <si>
+    <t>User should be click on the button  and a new window should be appear</t>
+  </si>
+  <si>
+    <t>Select the image the system</t>
+  </si>
+  <si>
+    <t>User should be able to select the required image</t>
+  </si>
+  <si>
+    <t>Click on the Capture from Computer button</t>
+  </si>
+  <si>
+    <t>User should be  able to click the button and the new window should be display</t>
+  </si>
+  <si>
+    <t>Click on the Snap Photo button</t>
+  </si>
+  <si>
+    <t>The image should be taken</t>
+  </si>
+  <si>
+    <t>Select the image size and width and click on the crop button</t>
+  </si>
+  <si>
+    <t>The  image should be resized</t>
+  </si>
+  <si>
+    <t>Click on the save photo button</t>
+  </si>
+  <si>
+    <t>The image should be saved as the patients image</t>
+  </si>
+  <si>
+    <t>Select the Expected Discharge date from the list by click on it</t>
+  </si>
+  <si>
+    <t>User should be able to select the date</t>
+  </si>
+  <si>
+    <t>Click on the Medical record button</t>
+  </si>
+  <si>
+    <t>User should be click on the button and Medical records should be appear</t>
+  </si>
+  <si>
+    <t>Click on the Patient Tracker button</t>
+  </si>
+  <si>
+    <t>User should be click on the button and and Patient record page should be display</t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the close button </t>
+  </si>
+  <si>
+    <t>The patient page should be closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case to verify the  button and fields  in Patient Information is properly working </t>
+  </si>
+  <si>
+    <t>Test case to verify the Favorite button in the Diagnosis in general entries of Patient IP Consultation</t>
+  </si>
+  <si>
+    <t>Click on the General Entries&gt;&gt;Diagnosis</t>
+  </si>
+  <si>
+    <t>Diagnosis list should be displayed</t>
+  </si>
+  <si>
+    <t>Click on the Favorite icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be click on the icon and the list is added as Favorite list </t>
+  </si>
+  <si>
+    <t>MED_EMR IP_TC_083</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +2070,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1921,6 +2086,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,7 +2144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2132,13 +2303,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2147,14 +2330,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2463,7 +2656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2474,8 +2667,8 @@
   <dimension ref="A1:R1308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G760" sqref="G760"/>
+      <pane ySplit="1" topLeftCell="A802" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A809" sqref="A809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2550,7 +2743,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="61" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="7"/>
@@ -2568,7 +2761,7 @@
       </c>
       <c r="O2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>16</v>
@@ -2582,7 +2775,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="58"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="15">
         <v>1</v>
       </c>
@@ -2608,7 +2801,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="58"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="15">
         <v>2</v>
       </c>
@@ -2634,7 +2827,7 @@
       <c r="A5" s="9"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
-      <c r="D5" s="58"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="15">
         <v>3</v>
       </c>
@@ -2658,7 +2851,7 @@
       <c r="A6" s="9"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="55"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="15">
         <v>4</v>
       </c>
@@ -2692,7 +2885,7 @@
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="55"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="15">
         <v>5</v>
       </c>
@@ -2723,7 +2916,7 @@
     </row>
     <row r="8" spans="1:18" ht="30">
       <c r="A8" s="9"/>
-      <c r="D8" s="55"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="15">
         <v>6</v>
       </c>
@@ -2747,7 +2940,7 @@
     </row>
     <row r="9" spans="1:18" ht="165">
       <c r="A9" s="9"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="15">
         <v>7</v>
       </c>
@@ -2761,7 +2954,7 @@
     </row>
     <row r="10" spans="1:18" ht="30">
       <c r="A10" s="9"/>
-      <c r="D10" s="55"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="15">
         <v>8</v>
       </c>
@@ -2775,7 +2968,7 @@
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="15">
         <v>9</v>
       </c>
@@ -2806,7 +2999,7 @@
       <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="59" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="7"/>
@@ -2819,7 +3012,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="56"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="7">
         <v>1</v>
       </c>
@@ -2838,7 +3031,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="56"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="7">
         <v>2</v>
       </c>
@@ -2857,7 +3050,7 @@
       <c r="A16" s="9"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="56"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="7">
         <v>3</v>
       </c>
@@ -2871,7 +3064,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="9"/>
-      <c r="D17" s="56"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="7">
         <v>4</v>
       </c>
@@ -2886,7 +3079,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="9"/>
-      <c r="D18" s="56"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="7">
         <v>5</v>
       </c>
@@ -2900,7 +3093,7 @@
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="9"/>
-      <c r="D19" s="56"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="7">
         <v>6</v>
       </c>
@@ -2914,7 +3107,7 @@
     </row>
     <row r="20" spans="1:11" ht="45" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="D20" s="56"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="7">
         <v>7</v>
       </c>
@@ -2928,7 +3121,7 @@
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="9"/>
-      <c r="D21" s="56"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="7">
         <v>8</v>
       </c>
@@ -2942,7 +3135,7 @@
     </row>
     <row r="22" spans="1:11" ht="30">
       <c r="A22" s="9"/>
-      <c r="D22" s="56"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="7">
         <v>9</v>
       </c>
@@ -2956,7 +3149,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="9"/>
-      <c r="D23" s="56"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="7">
         <v>10</v>
       </c>
@@ -2988,7 +3181,7 @@
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="56" t="s">
         <v>207</v>
       </c>
       <c r="E25" s="37"/>
@@ -3001,7 +3194,7 @@
       <c r="A26" s="9"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="7">
         <v>1</v>
       </c>
@@ -3020,7 +3213,7 @@
       <c r="A27" s="9"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="55"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="7">
         <v>2</v>
       </c>
@@ -3039,7 +3232,7 @@
       <c r="A28" s="9"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="7">
         <v>3</v>
       </c>
@@ -3055,7 +3248,7 @@
       <c r="A29" s="9"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="55"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="7">
         <v>4</v>
       </c>
@@ -3069,7 +3262,7 @@
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="D30" s="55"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="7">
         <v>5</v>
       </c>
@@ -3083,7 +3276,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="7"/>
-      <c r="D31" s="55"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="7">
         <v>6</v>
       </c>
@@ -3097,7 +3290,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="7"/>
-      <c r="D32" s="55"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="7">
         <v>7</v>
       </c>
@@ -3128,7 +3321,7 @@
       <c r="C34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="59" t="s">
         <v>63</v>
       </c>
       <c r="E34" s="23"/>
@@ -3142,7 +3335,7 @@
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
-      <c r="D35" s="56"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="7">
         <v>1</v>
       </c>
@@ -3161,7 +3354,7 @@
       <c r="A36" s="9"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="56"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="7">
         <v>2</v>
       </c>
@@ -3180,7 +3373,7 @@
       <c r="A37" s="9"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="56"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="7">
         <v>3</v>
       </c>
@@ -3196,7 +3389,7 @@
       <c r="A38" s="9"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="56"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="7">
         <v>4</v>
       </c>
@@ -3210,7 +3403,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="7"/>
-      <c r="D39" s="56"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="7">
         <v>5</v>
       </c>
@@ -3244,7 +3437,7 @@
       <c r="C41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="59" t="s">
         <v>68</v>
       </c>
       <c r="E41" s="23"/>
@@ -3258,7 +3451,7 @@
       <c r="A42" s="38"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="56"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="7">
         <v>1</v>
       </c>
@@ -3277,7 +3470,7 @@
       <c r="A43" s="9"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
-      <c r="D43" s="56"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="7">
         <v>2</v>
       </c>
@@ -3296,7 +3489,7 @@
       <c r="A44" s="9"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
-      <c r="D44" s="56"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="7">
         <v>3</v>
       </c>
@@ -3312,7 +3505,7 @@
       <c r="A45" s="9"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
-      <c r="D45" s="56"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="7">
         <v>4</v>
       </c>
@@ -3328,7 +3521,7 @@
       <c r="A46" s="9"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="56"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="7">
         <v>5</v>
       </c>
@@ -3490,7 +3683,7 @@
       <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="56" t="s">
+      <c r="D56" s="59" t="s">
         <v>71</v>
       </c>
       <c r="E56" s="23"/>
@@ -3504,7 +3697,7 @@
       <c r="A57" s="9"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
-      <c r="D57" s="56"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="7">
         <v>1</v>
       </c>
@@ -3523,7 +3716,7 @@
       <c r="A58" s="9"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
-      <c r="D58" s="56"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="7">
         <v>2</v>
       </c>
@@ -3542,7 +3735,7 @@
       <c r="A59" s="9"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
-      <c r="D59" s="56"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="7">
         <v>3</v>
       </c>
@@ -3558,7 +3751,7 @@
       <c r="A60" s="9"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="56"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="7">
         <v>4</v>
       </c>
@@ -3573,7 +3766,7 @@
     </row>
     <row r="61" spans="1:11" ht="30">
       <c r="A61" s="7"/>
-      <c r="D61" s="56"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="7">
         <v>5</v>
       </c>
@@ -3605,7 +3798,7 @@
       <c r="C63" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="56" t="s">
+      <c r="D63" s="59" t="s">
         <v>74</v>
       </c>
       <c r="E63" s="7"/>
@@ -3618,7 +3811,7 @@
       <c r="A64" s="9"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
-      <c r="D64" s="56"/>
+      <c r="D64" s="59"/>
       <c r="E64" s="7">
         <v>1</v>
       </c>
@@ -3637,7 +3830,7 @@
       <c r="A65" s="9"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
-      <c r="D65" s="56"/>
+      <c r="D65" s="59"/>
       <c r="E65" s="7">
         <v>2</v>
       </c>
@@ -3656,7 +3849,7 @@
       <c r="A66" s="9"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
-      <c r="D66" s="56"/>
+      <c r="D66" s="59"/>
       <c r="E66" s="7">
         <v>3</v>
       </c>
@@ -3673,7 +3866,7 @@
       <c r="A67" s="9"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
-      <c r="D67" s="56"/>
+      <c r="D67" s="59"/>
       <c r="E67" s="7">
         <v>4</v>
       </c>
@@ -3688,7 +3881,7 @@
     </row>
     <row r="68" spans="1:11" ht="30">
       <c r="A68" s="7"/>
-      <c r="D68" s="56"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="7">
         <v>5</v>
       </c>
@@ -3702,7 +3895,7 @@
     </row>
     <row r="69" spans="1:11" ht="105">
       <c r="A69" s="7"/>
-      <c r="D69" s="56"/>
+      <c r="D69" s="59"/>
       <c r="E69" s="7">
         <v>6</v>
       </c>
@@ -3716,7 +3909,7 @@
     </row>
     <row r="70" spans="1:11" ht="45">
       <c r="A70" s="7"/>
-      <c r="D70" s="56"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="7">
         <v>7</v>
       </c>
@@ -3730,7 +3923,7 @@
     </row>
     <row r="71" spans="1:11" ht="60" customHeight="1">
       <c r="A71" s="7"/>
-      <c r="D71" s="56"/>
+      <c r="D71" s="59"/>
       <c r="E71" s="7">
         <v>8</v>
       </c>
@@ -3744,7 +3937,7 @@
     </row>
     <row r="72" spans="1:11" ht="30">
       <c r="A72" s="7"/>
-      <c r="D72" s="56"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="7">
         <v>9</v>
       </c>
@@ -3758,7 +3951,7 @@
     </row>
     <row r="73" spans="1:11" ht="30">
       <c r="A73" s="7"/>
-      <c r="D73" s="56"/>
+      <c r="D73" s="59"/>
       <c r="E73" s="7">
         <v>10</v>
       </c>
@@ -3772,7 +3965,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="7"/>
-      <c r="D74" s="56"/>
+      <c r="D74" s="59"/>
       <c r="E74" s="7">
         <v>11</v>
       </c>
@@ -3806,7 +3999,7 @@
       <c r="C76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D76" s="58" t="s">
         <v>316</v>
       </c>
       <c r="E76" s="23"/>
@@ -3820,7 +4013,7 @@
       <c r="A77" s="9"/>
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
-      <c r="D77" s="54"/>
+      <c r="D77" s="58"/>
       <c r="E77" s="7">
         <v>1</v>
       </c>
@@ -3839,7 +4032,7 @@
       <c r="A78" s="9"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
-      <c r="D78" s="54"/>
+      <c r="D78" s="58"/>
       <c r="E78" s="7">
         <v>2</v>
       </c>
@@ -3858,7 +4051,7 @@
       <c r="A79" s="9"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
-      <c r="D79" s="54"/>
+      <c r="D79" s="58"/>
       <c r="E79" s="7">
         <v>3</v>
       </c>
@@ -3875,7 +4068,7 @@
       <c r="A80" s="9"/>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
-      <c r="D80" s="54"/>
+      <c r="D80" s="58"/>
       <c r="E80" s="7">
         <v>4</v>
       </c>
@@ -3892,7 +4085,7 @@
       <c r="A81" s="9"/>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
-      <c r="D81" s="54"/>
+      <c r="D81" s="58"/>
       <c r="E81" s="43">
         <v>5</v>
       </c>
@@ -3926,7 +4119,7 @@
       <c r="C83" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="54" t="s">
+      <c r="D83" s="58" t="s">
         <v>320</v>
       </c>
       <c r="E83" s="7"/>
@@ -3940,7 +4133,7 @@
       <c r="A84" s="9"/>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
-      <c r="D84" s="54"/>
+      <c r="D84" s="58"/>
       <c r="E84" s="7">
         <v>1</v>
       </c>
@@ -3959,7 +4152,7 @@
       <c r="A85" s="9"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
-      <c r="D85" s="54"/>
+      <c r="D85" s="58"/>
       <c r="E85" s="7">
         <v>2</v>
       </c>
@@ -3978,7 +4171,7 @@
       <c r="A86" s="9"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
-      <c r="D86" s="54"/>
+      <c r="D86" s="58"/>
       <c r="E86" s="7">
         <v>3</v>
       </c>
@@ -3994,7 +4187,7 @@
       <c r="A87" s="9"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
-      <c r="D87" s="54"/>
+      <c r="D87" s="58"/>
       <c r="E87" s="7">
         <v>4</v>
       </c>
@@ -4008,7 +4201,7 @@
     </row>
     <row r="88" spans="1:11" ht="30">
       <c r="A88" s="7"/>
-      <c r="D88" s="54"/>
+      <c r="D88" s="58"/>
       <c r="E88" s="7">
         <v>5</v>
       </c>
@@ -4023,7 +4216,7 @@
     </row>
     <row r="89" spans="1:11" ht="45" customHeight="1">
       <c r="A89" s="7"/>
-      <c r="D89" s="54"/>
+      <c r="D89" s="58"/>
       <c r="E89" s="7">
         <v>6</v>
       </c>
@@ -4037,7 +4230,7 @@
     </row>
     <row r="90" spans="1:11" ht="30">
       <c r="A90" s="7"/>
-      <c r="D90" s="54"/>
+      <c r="D90" s="58"/>
       <c r="E90" s="7">
         <v>7</v>
       </c>
@@ -4051,7 +4244,7 @@
     </row>
     <row r="91" spans="1:11" ht="30">
       <c r="A91" s="7"/>
-      <c r="D91" s="54"/>
+      <c r="D91" s="58"/>
       <c r="E91" s="7">
         <v>8</v>
       </c>
@@ -4065,7 +4258,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="7"/>
-      <c r="D92" s="54"/>
+      <c r="D92" s="58"/>
       <c r="E92" s="7">
         <v>9</v>
       </c>
@@ -4079,7 +4272,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="7"/>
-      <c r="D93" s="54"/>
+      <c r="D93" s="58"/>
       <c r="E93" s="7">
         <v>10</v>
       </c>
@@ -4111,7 +4304,7 @@
       <c r="C95" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="56" t="s">
+      <c r="D95" s="59" t="s">
         <v>92</v>
       </c>
       <c r="E95" s="23"/>
@@ -4124,7 +4317,7 @@
       <c r="A96" s="9"/>
       <c r="B96" s="31"/>
       <c r="C96" s="31"/>
-      <c r="D96" s="56"/>
+      <c r="D96" s="59"/>
       <c r="E96" s="7">
         <v>1</v>
       </c>
@@ -4143,7 +4336,7 @@
       <c r="A97" s="9"/>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
-      <c r="D97" s="56"/>
+      <c r="D97" s="59"/>
       <c r="E97" s="7">
         <v>2</v>
       </c>
@@ -4162,7 +4355,7 @@
       <c r="A98" s="9"/>
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
-      <c r="D98" s="56"/>
+      <c r="D98" s="59"/>
       <c r="E98" s="7">
         <v>3</v>
       </c>
@@ -4177,7 +4370,7 @@
     </row>
     <row r="99" spans="1:11" ht="45" customHeight="1">
       <c r="A99" s="7"/>
-      <c r="D99" s="56"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="7">
         <v>4</v>
       </c>
@@ -4193,7 +4386,7 @@
       <c r="A100" s="7"/>
       <c r="B100" s="31"/>
       <c r="C100" s="31"/>
-      <c r="D100" s="56"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="7">
         <v>5</v>
       </c>
@@ -4210,7 +4403,7 @@
       <c r="A101" s="7"/>
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
-      <c r="D101" s="56"/>
+      <c r="D101" s="59"/>
       <c r="E101" s="7">
         <v>6</v>
       </c>
@@ -4227,7 +4420,7 @@
       <c r="A102" s="7"/>
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
-      <c r="D102" s="56"/>
+      <c r="D102" s="59"/>
       <c r="E102" s="7">
         <v>7</v>
       </c>
@@ -4244,7 +4437,7 @@
       <c r="A103" s="7"/>
       <c r="B103" s="31"/>
       <c r="C103" s="31"/>
-      <c r="D103" s="56"/>
+      <c r="D103" s="59"/>
       <c r="E103" s="7">
         <v>8</v>
       </c>
@@ -4277,7 +4470,7 @@
       <c r="C105" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="54" t="s">
+      <c r="D105" s="58" t="s">
         <v>333</v>
       </c>
       <c r="E105" s="7"/>
@@ -4290,7 +4483,7 @@
       <c r="A106" s="9"/>
       <c r="B106" s="31"/>
       <c r="C106" s="31"/>
-      <c r="D106" s="54"/>
+      <c r="D106" s="58"/>
       <c r="E106" s="7">
         <v>1</v>
       </c>
@@ -4309,7 +4502,7 @@
       <c r="A107" s="9"/>
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
-      <c r="D107" s="54"/>
+      <c r="D107" s="58"/>
       <c r="E107" s="7">
         <v>2</v>
       </c>
@@ -4328,7 +4521,7 @@
       <c r="A108" s="9"/>
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
-      <c r="D108" s="54"/>
+      <c r="D108" s="58"/>
       <c r="E108" s="7">
         <v>3</v>
       </c>
@@ -4343,7 +4536,7 @@
     </row>
     <row r="109" spans="1:11" ht="45">
       <c r="A109" s="9"/>
-      <c r="D109" s="54"/>
+      <c r="D109" s="58"/>
       <c r="E109" s="7">
         <v>4</v>
       </c>
@@ -4376,7 +4569,7 @@
       <c r="C111" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="55" t="s">
+      <c r="D111" s="56" t="s">
         <v>208</v>
       </c>
       <c r="E111" s="7"/>
@@ -4390,7 +4583,7 @@
       <c r="A112" s="9"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
-      <c r="D112" s="55"/>
+      <c r="D112" s="56"/>
       <c r="E112" s="7">
         <v>1</v>
       </c>
@@ -4409,7 +4602,7 @@
       <c r="A113" s="9"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
-      <c r="D113" s="55"/>
+      <c r="D113" s="56"/>
       <c r="E113" s="7">
         <v>2</v>
       </c>
@@ -4428,7 +4621,7 @@
       <c r="A114" s="9"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41"/>
-      <c r="D114" s="55"/>
+      <c r="D114" s="56"/>
       <c r="E114" s="7">
         <v>3</v>
       </c>
@@ -4445,7 +4638,7 @@
       <c r="A115" s="9"/>
       <c r="B115" s="41"/>
       <c r="C115" s="41"/>
-      <c r="D115" s="55"/>
+      <c r="D115" s="56"/>
       <c r="E115" s="7">
         <v>4</v>
       </c>
@@ -4459,7 +4652,7 @@
     </row>
     <row r="116" spans="1:11" ht="150">
       <c r="A116" s="7"/>
-      <c r="D116" s="55"/>
+      <c r="D116" s="56"/>
       <c r="E116" s="7">
         <v>5</v>
       </c>
@@ -4491,7 +4684,7 @@
       <c r="C118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D118" s="55" t="s">
+      <c r="D118" s="56" t="s">
         <v>340</v>
       </c>
       <c r="E118" s="7"/>
@@ -4504,7 +4697,7 @@
     <row r="119" spans="1:11" ht="30">
       <c r="B119" s="41"/>
       <c r="C119" s="41"/>
-      <c r="D119" s="55"/>
+      <c r="D119" s="56"/>
       <c r="E119" s="7">
         <v>1</v>
       </c>
@@ -4522,7 +4715,7 @@
     <row r="120" spans="1:11" ht="30">
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
-      <c r="D120" s="55"/>
+      <c r="D120" s="56"/>
       <c r="E120" s="7">
         <v>2</v>
       </c>
@@ -4540,7 +4733,7 @@
     <row r="121" spans="1:11">
       <c r="B121" s="41"/>
       <c r="C121" s="41"/>
-      <c r="D121" s="55"/>
+      <c r="D121" s="56"/>
       <c r="E121" s="7">
         <v>3</v>
       </c>
@@ -4556,7 +4749,7 @@
     <row r="122" spans="1:11" ht="30">
       <c r="B122" s="41"/>
       <c r="C122" s="41"/>
-      <c r="D122" s="55"/>
+      <c r="D122" s="56"/>
       <c r="E122" s="7">
         <v>4</v>
       </c>
@@ -4570,7 +4763,7 @@
     </row>
     <row r="123" spans="1:11" ht="45" customHeight="1">
       <c r="A123" s="7"/>
-      <c r="D123" s="55"/>
+      <c r="D123" s="56"/>
       <c r="E123" s="36">
         <v>5</v>
       </c>
@@ -4602,7 +4795,7 @@
       <c r="C125" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="56" t="s">
+      <c r="D125" s="59" t="s">
         <v>339</v>
       </c>
       <c r="E125" s="7"/>
@@ -4616,7 +4809,7 @@
       <c r="A126" s="9"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
-      <c r="D126" s="56"/>
+      <c r="D126" s="59"/>
       <c r="E126" s="7">
         <v>1</v>
       </c>
@@ -4635,7 +4828,7 @@
       <c r="A127" s="9"/>
       <c r="B127" s="41"/>
       <c r="C127" s="41"/>
-      <c r="D127" s="56"/>
+      <c r="D127" s="59"/>
       <c r="E127" s="7">
         <v>2</v>
       </c>
@@ -4654,7 +4847,7 @@
       <c r="A128" s="9"/>
       <c r="B128" s="41"/>
       <c r="C128" s="41"/>
-      <c r="D128" s="56"/>
+      <c r="D128" s="59"/>
       <c r="E128" s="7">
         <v>3</v>
       </c>
@@ -4671,7 +4864,7 @@
       <c r="A129" s="9"/>
       <c r="B129" s="41"/>
       <c r="C129" s="41"/>
-      <c r="D129" s="56"/>
+      <c r="D129" s="59"/>
       <c r="E129" s="7">
         <v>4</v>
       </c>
@@ -4717,7 +4910,7 @@
       <c r="C132" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="56" t="s">
+      <c r="D132" s="59" t="s">
         <v>350</v>
       </c>
       <c r="E132" s="7"/>
@@ -4733,7 +4926,7 @@
       <c r="A133" s="9"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
-      <c r="D133" s="56"/>
+      <c r="D133" s="59"/>
       <c r="E133" s="7">
         <v>1</v>
       </c>
@@ -4752,7 +4945,7 @@
       <c r="A134" s="9"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
-      <c r="D134" s="56"/>
+      <c r="D134" s="59"/>
       <c r="E134" s="7">
         <v>2</v>
       </c>
@@ -4771,7 +4964,7 @@
       <c r="A135" s="9"/>
       <c r="B135" s="41"/>
       <c r="C135" s="41"/>
-      <c r="D135" s="56"/>
+      <c r="D135" s="59"/>
       <c r="E135" s="7">
         <v>3</v>
       </c>
@@ -4788,7 +4981,7 @@
       <c r="A136" s="9"/>
       <c r="B136" s="41"/>
       <c r="C136" s="41"/>
-      <c r="D136" s="56"/>
+      <c r="D136" s="59"/>
       <c r="E136" s="7">
         <v>4</v>
       </c>
@@ -4804,7 +4997,7 @@
       <c r="A137" s="9"/>
       <c r="B137" s="41"/>
       <c r="C137" s="41"/>
-      <c r="D137" s="56"/>
+      <c r="D137" s="59"/>
       <c r="E137" s="7">
         <v>5</v>
       </c>
@@ -4820,7 +5013,7 @@
       <c r="A138" s="9"/>
       <c r="B138" s="41"/>
       <c r="C138" s="41"/>
-      <c r="D138" s="56"/>
+      <c r="D138" s="59"/>
       <c r="E138" s="7">
         <v>6</v>
       </c>
@@ -4834,7 +5027,7 @@
     </row>
     <row r="139" spans="1:11" ht="24" customHeight="1">
       <c r="A139" s="7"/>
-      <c r="D139" s="56"/>
+      <c r="D139" s="59"/>
       <c r="E139" s="7">
         <v>7</v>
       </c>
@@ -4865,7 +5058,7 @@
       <c r="C141" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D141" s="56" t="s">
+      <c r="D141" s="59" t="s">
         <v>349</v>
       </c>
       <c r="E141" s="7"/>
@@ -4881,7 +5074,7 @@
       <c r="A142" s="9"/>
       <c r="B142" s="41"/>
       <c r="C142" s="41"/>
-      <c r="D142" s="56"/>
+      <c r="D142" s="59"/>
       <c r="E142" s="7">
         <v>1</v>
       </c>
@@ -4900,7 +5093,7 @@
       <c r="A143" s="9"/>
       <c r="B143" s="41"/>
       <c r="C143" s="41"/>
-      <c r="D143" s="56"/>
+      <c r="D143" s="59"/>
       <c r="E143" s="7">
         <v>2</v>
       </c>
@@ -4919,7 +5112,7 @@
       <c r="A144" s="9"/>
       <c r="B144" s="41"/>
       <c r="C144" s="41"/>
-      <c r="D144" s="56"/>
+      <c r="D144" s="59"/>
       <c r="E144" s="7">
         <v>3</v>
       </c>
@@ -4936,7 +5129,7 @@
       <c r="A145" s="9"/>
       <c r="B145" s="41"/>
       <c r="C145" s="41"/>
-      <c r="D145" s="56"/>
+      <c r="D145" s="59"/>
       <c r="E145" s="7">
         <v>4</v>
       </c>
@@ -4952,7 +5145,7 @@
       <c r="A146" s="9"/>
       <c r="B146" s="41"/>
       <c r="C146" s="41"/>
-      <c r="D146" s="56"/>
+      <c r="D146" s="59"/>
       <c r="E146" s="7">
         <v>5</v>
       </c>
@@ -4968,7 +5161,7 @@
       <c r="A147" s="9"/>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
-      <c r="D147" s="56"/>
+      <c r="D147" s="59"/>
       <c r="E147" s="7">
         <v>6</v>
       </c>
@@ -4984,7 +5177,7 @@
       <c r="A148" s="9"/>
       <c r="B148" s="41"/>
       <c r="C148" s="41"/>
-      <c r="D148" s="56"/>
+      <c r="D148" s="59"/>
       <c r="E148" s="7">
         <v>7</v>
       </c>
@@ -5016,7 +5209,7 @@
       <c r="C150" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D150" s="54" t="s">
+      <c r="D150" s="58" t="s">
         <v>354</v>
       </c>
       <c r="E150" s="7"/>
@@ -5030,7 +5223,7 @@
       <c r="A151" s="9"/>
       <c r="B151" s="41"/>
       <c r="C151" s="41"/>
-      <c r="D151" s="54"/>
+      <c r="D151" s="58"/>
       <c r="E151" s="7">
         <v>1</v>
       </c>
@@ -5049,7 +5242,7 @@
       <c r="A152" s="9"/>
       <c r="B152" s="41"/>
       <c r="C152" s="41"/>
-      <c r="D152" s="54"/>
+      <c r="D152" s="58"/>
       <c r="E152" s="7">
         <v>2</v>
       </c>
@@ -5068,7 +5261,7 @@
       <c r="A153" s="9"/>
       <c r="B153" s="41"/>
       <c r="C153" s="41"/>
-      <c r="D153" s="54"/>
+      <c r="D153" s="58"/>
       <c r="E153" s="7">
         <v>3</v>
       </c>
@@ -5085,7 +5278,7 @@
       <c r="A154" s="9"/>
       <c r="B154" s="41"/>
       <c r="C154" s="41"/>
-      <c r="D154" s="54"/>
+      <c r="D154" s="58"/>
       <c r="E154" s="7">
         <v>4</v>
       </c>
@@ -5101,7 +5294,7 @@
       <c r="A155" s="9"/>
       <c r="B155" s="41"/>
       <c r="C155" s="41"/>
-      <c r="D155" s="54"/>
+      <c r="D155" s="58"/>
       <c r="E155" s="7">
         <v>5</v>
       </c>
@@ -5203,7 +5396,7 @@
       <c r="C162" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D162" s="54" t="s">
+      <c r="D162" s="58" t="s">
         <v>361</v>
       </c>
       <c r="E162" s="9"/>
@@ -5218,7 +5411,7 @@
       <c r="A163" s="9"/>
       <c r="B163" s="41"/>
       <c r="C163" s="41"/>
-      <c r="D163" s="54"/>
+      <c r="D163" s="58"/>
       <c r="E163" s="7">
         <v>1</v>
       </c>
@@ -5237,7 +5430,7 @@
       <c r="A164" s="9"/>
       <c r="B164" s="41"/>
       <c r="C164" s="41"/>
-      <c r="D164" s="54"/>
+      <c r="D164" s="58"/>
       <c r="E164" s="7">
         <v>2</v>
       </c>
@@ -5256,7 +5449,7 @@
       <c r="A165" s="9"/>
       <c r="B165" s="41"/>
       <c r="C165" s="41"/>
-      <c r="D165" s="54"/>
+      <c r="D165" s="58"/>
       <c r="E165" s="7">
         <v>3</v>
       </c>
@@ -5273,7 +5466,7 @@
       <c r="A166" s="9"/>
       <c r="B166" s="41"/>
       <c r="C166" s="41"/>
-      <c r="D166" s="54"/>
+      <c r="D166" s="58"/>
       <c r="E166" s="7">
         <v>4</v>
       </c>
@@ -5289,7 +5482,7 @@
       <c r="A167" s="9"/>
       <c r="B167" s="41"/>
       <c r="C167" s="41"/>
-      <c r="D167" s="54"/>
+      <c r="D167" s="58"/>
       <c r="E167" s="7">
         <v>5</v>
       </c>
@@ -5323,7 +5516,7 @@
       <c r="C169" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D169" s="54" t="s">
+      <c r="D169" s="58" t="s">
         <v>363</v>
       </c>
       <c r="E169" s="7"/>
@@ -5338,7 +5531,7 @@
       <c r="A170" s="9"/>
       <c r="B170" s="41"/>
       <c r="C170" s="41"/>
-      <c r="D170" s="54"/>
+      <c r="D170" s="58"/>
       <c r="E170" s="7">
         <v>1</v>
       </c>
@@ -5357,7 +5550,7 @@
       <c r="A171" s="9"/>
       <c r="B171" s="41"/>
       <c r="C171" s="41"/>
-      <c r="D171" s="54"/>
+      <c r="D171" s="58"/>
       <c r="E171" s="7">
         <v>2</v>
       </c>
@@ -5376,7 +5569,7 @@
       <c r="A172" s="9"/>
       <c r="B172" s="41"/>
       <c r="C172" s="41"/>
-      <c r="D172" s="54"/>
+      <c r="D172" s="58"/>
       <c r="E172" s="7">
         <v>3</v>
       </c>
@@ -5393,7 +5586,7 @@
       <c r="A173" s="9"/>
       <c r="B173" s="41"/>
       <c r="C173" s="41"/>
-      <c r="D173" s="54"/>
+      <c r="D173" s="58"/>
       <c r="E173" s="7">
         <v>4</v>
       </c>
@@ -5409,7 +5602,7 @@
       <c r="A174" s="9"/>
       <c r="B174" s="41"/>
       <c r="C174" s="41"/>
-      <c r="D174" s="54"/>
+      <c r="D174" s="58"/>
       <c r="E174" s="7">
         <v>5</v>
       </c>
@@ -5443,7 +5636,7 @@
       <c r="C176" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="54" t="s">
+      <c r="D176" s="58" t="s">
         <v>368</v>
       </c>
       <c r="E176" s="7"/>
@@ -5458,7 +5651,7 @@
       <c r="A177" s="9"/>
       <c r="B177" s="41"/>
       <c r="C177" s="41"/>
-      <c r="D177" s="54"/>
+      <c r="D177" s="58"/>
       <c r="E177" s="7">
         <v>1</v>
       </c>
@@ -5477,7 +5670,7 @@
       <c r="A178" s="9"/>
       <c r="B178" s="41"/>
       <c r="C178" s="41"/>
-      <c r="D178" s="54"/>
+      <c r="D178" s="58"/>
       <c r="E178" s="7">
         <v>2</v>
       </c>
@@ -5496,7 +5689,7 @@
       <c r="A179" s="9"/>
       <c r="B179" s="41"/>
       <c r="C179" s="41"/>
-      <c r="D179" s="54"/>
+      <c r="D179" s="58"/>
       <c r="E179" s="7">
         <v>3</v>
       </c>
@@ -5513,7 +5706,7 @@
       <c r="A180" s="9"/>
       <c r="B180" s="41"/>
       <c r="C180" s="41"/>
-      <c r="D180" s="54"/>
+      <c r="D180" s="58"/>
       <c r="E180" s="7">
         <v>4</v>
       </c>
@@ -5529,7 +5722,7 @@
       <c r="A181" s="9"/>
       <c r="B181" s="41"/>
       <c r="C181" s="41"/>
-      <c r="D181" s="54"/>
+      <c r="D181" s="58"/>
       <c r="E181" s="7">
         <v>5</v>
       </c>
@@ -5563,7 +5756,7 @@
       <c r="C183" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D183" s="56" t="s">
+      <c r="D183" s="59" t="s">
         <v>108</v>
       </c>
       <c r="E183" s="7"/>
@@ -5578,7 +5771,7 @@
       <c r="A184" s="9"/>
       <c r="B184" s="41"/>
       <c r="C184" s="41"/>
-      <c r="D184" s="56"/>
+      <c r="D184" s="59"/>
       <c r="E184" s="7">
         <v>1</v>
       </c>
@@ -5597,7 +5790,7 @@
       <c r="A185" s="9"/>
       <c r="B185" s="41"/>
       <c r="C185" s="41"/>
-      <c r="D185" s="56"/>
+      <c r="D185" s="59"/>
       <c r="E185" s="7">
         <v>2</v>
       </c>
@@ -5616,7 +5809,7 @@
       <c r="A186" s="9"/>
       <c r="B186" s="41"/>
       <c r="C186" s="41"/>
-      <c r="D186" s="56"/>
+      <c r="D186" s="59"/>
       <c r="E186" s="7">
         <v>3</v>
       </c>
@@ -5633,7 +5826,7 @@
       <c r="A187" s="9"/>
       <c r="B187" s="41"/>
       <c r="C187" s="41"/>
-      <c r="D187" s="56"/>
+      <c r="D187" s="59"/>
       <c r="E187" s="7">
         <v>4</v>
       </c>
@@ -5649,7 +5842,7 @@
       <c r="A188" s="9"/>
       <c r="B188" s="41"/>
       <c r="C188" s="41"/>
-      <c r="D188" s="56"/>
+      <c r="D188" s="59"/>
       <c r="E188" s="7">
         <v>5</v>
       </c>
@@ -5666,7 +5859,7 @@
       <c r="A189" s="9"/>
       <c r="B189" s="41"/>
       <c r="C189" s="41"/>
-      <c r="D189" s="56"/>
+      <c r="D189" s="59"/>
       <c r="E189" s="7">
         <v>6</v>
       </c>
@@ -5700,7 +5893,7 @@
       <c r="C191" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D191" s="56" t="s">
+      <c r="D191" s="59" t="s">
         <v>109</v>
       </c>
       <c r="E191" s="7">
@@ -5717,7 +5910,7 @@
       <c r="A192" s="9"/>
       <c r="B192" s="41"/>
       <c r="C192" s="41"/>
-      <c r="D192" s="56"/>
+      <c r="D192" s="59"/>
       <c r="E192" s="7">
         <v>1</v>
       </c>
@@ -5736,7 +5929,7 @@
       <c r="A193" s="9"/>
       <c r="B193" s="41"/>
       <c r="C193" s="41"/>
-      <c r="D193" s="56"/>
+      <c r="D193" s="59"/>
       <c r="E193" s="7">
         <v>2</v>
       </c>
@@ -5755,7 +5948,7 @@
       <c r="A194" s="9"/>
       <c r="B194" s="41"/>
       <c r="C194" s="41"/>
-      <c r="D194" s="56"/>
+      <c r="D194" s="59"/>
       <c r="E194" s="7">
         <v>3</v>
       </c>
@@ -5772,7 +5965,7 @@
       <c r="A195" s="9"/>
       <c r="B195" s="41"/>
       <c r="C195" s="41"/>
-      <c r="D195" s="56"/>
+      <c r="D195" s="59"/>
       <c r="E195" s="7">
         <v>4</v>
       </c>
@@ -5788,7 +5981,7 @@
       <c r="A196" s="9"/>
       <c r="B196" s="41"/>
       <c r="C196" s="41"/>
-      <c r="D196" s="56"/>
+      <c r="D196" s="59"/>
       <c r="E196" s="7">
         <v>5</v>
       </c>
@@ -5805,7 +5998,7 @@
       <c r="A197" s="9"/>
       <c r="B197" s="41"/>
       <c r="C197" s="41"/>
-      <c r="D197" s="56"/>
+      <c r="D197" s="59"/>
       <c r="E197" s="7">
         <v>6</v>
       </c>
@@ -5822,7 +6015,7 @@
       <c r="A198" s="9"/>
       <c r="B198" s="41"/>
       <c r="C198" s="41"/>
-      <c r="D198" s="56"/>
+      <c r="D198" s="59"/>
       <c r="E198" s="7">
         <v>7</v>
       </c>
@@ -5856,7 +6049,7 @@
       <c r="C200" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D200" s="54" t="s">
+      <c r="D200" s="58" t="s">
         <v>375</v>
       </c>
       <c r="E200" s="7"/>
@@ -5871,7 +6064,7 @@
       <c r="A201" s="9"/>
       <c r="B201" s="41"/>
       <c r="C201" s="41"/>
-      <c r="D201" s="54"/>
+      <c r="D201" s="58"/>
       <c r="E201" s="7">
         <v>1</v>
       </c>
@@ -5890,7 +6083,7 @@
       <c r="A202" s="9"/>
       <c r="B202" s="41"/>
       <c r="C202" s="41"/>
-      <c r="D202" s="54"/>
+      <c r="D202" s="58"/>
       <c r="E202" s="7">
         <v>2</v>
       </c>
@@ -5909,7 +6102,7 @@
       <c r="A203" s="9"/>
       <c r="B203" s="41"/>
       <c r="C203" s="41"/>
-      <c r="D203" s="54"/>
+      <c r="D203" s="58"/>
       <c r="E203" s="7">
         <v>3</v>
       </c>
@@ -5926,7 +6119,7 @@
       <c r="A204" s="9"/>
       <c r="B204" s="41"/>
       <c r="C204" s="41"/>
-      <c r="D204" s="54"/>
+      <c r="D204" s="58"/>
       <c r="E204" s="7">
         <v>4</v>
       </c>
@@ -5942,7 +6135,7 @@
       <c r="A205" s="9"/>
       <c r="B205" s="41"/>
       <c r="C205" s="41"/>
-      <c r="D205" s="54"/>
+      <c r="D205" s="58"/>
       <c r="E205" s="7">
         <v>5</v>
       </c>
@@ -5959,7 +6152,7 @@
       <c r="A206" s="9"/>
       <c r="B206" s="41"/>
       <c r="C206" s="41"/>
-      <c r="D206" s="54"/>
+      <c r="D206" s="58"/>
       <c r="E206" s="7">
         <v>6</v>
       </c>
@@ -5976,7 +6169,7 @@
       <c r="A207" s="9"/>
       <c r="B207" s="41"/>
       <c r="C207" s="41"/>
-      <c r="D207" s="54"/>
+      <c r="D207" s="58"/>
       <c r="E207" s="7">
         <v>7</v>
       </c>
@@ -5991,7 +6184,7 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="7"/>
-      <c r="D208" s="54"/>
+      <c r="D208" s="58"/>
       <c r="E208" s="7">
         <v>8</v>
       </c>
@@ -6025,7 +6218,7 @@
       <c r="C210" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D210" s="59" t="s">
+      <c r="D210" s="60" t="s">
         <v>115</v>
       </c>
       <c r="E210" s="27">
@@ -6044,7 +6237,7 @@
       <c r="A211" s="25"/>
       <c r="B211" s="46"/>
       <c r="C211" s="40"/>
-      <c r="D211" s="59"/>
+      <c r="D211" s="60"/>
       <c r="E211" s="7">
         <v>1</v>
       </c>
@@ -6063,7 +6256,7 @@
       <c r="A212" s="25"/>
       <c r="B212" s="40"/>
       <c r="C212" s="40"/>
-      <c r="D212" s="59"/>
+      <c r="D212" s="60"/>
       <c r="E212" s="7">
         <v>2</v>
       </c>
@@ -6082,7 +6275,7 @@
       <c r="A213" s="25"/>
       <c r="B213" s="46"/>
       <c r="C213" s="46"/>
-      <c r="D213" s="59"/>
+      <c r="D213" s="60"/>
       <c r="E213" s="7">
         <v>3</v>
       </c>
@@ -6099,7 +6292,7 @@
       <c r="A214" s="25"/>
       <c r="B214" s="46"/>
       <c r="C214" s="46"/>
-      <c r="D214" s="59"/>
+      <c r="D214" s="60"/>
       <c r="E214" s="7">
         <v>4</v>
       </c>
@@ -6115,7 +6308,7 @@
       <c r="A215" s="25"/>
       <c r="B215" s="40"/>
       <c r="C215" s="40"/>
-      <c r="D215" s="59"/>
+      <c r="D215" s="60"/>
       <c r="E215" s="7">
         <v>5</v>
       </c>
@@ -6132,7 +6325,7 @@
       <c r="A216" s="25"/>
       <c r="B216" s="40"/>
       <c r="C216" s="40"/>
-      <c r="D216" s="59"/>
+      <c r="D216" s="60"/>
       <c r="E216" s="7">
         <v>6</v>
       </c>
@@ -6149,7 +6342,7 @@
       <c r="A217" s="25"/>
       <c r="B217" s="40"/>
       <c r="C217" s="40"/>
-      <c r="D217" s="59"/>
+      <c r="D217" s="60"/>
       <c r="E217" s="7">
         <v>7</v>
       </c>
@@ -6166,7 +6359,7 @@
       <c r="A218" s="25"/>
       <c r="B218" s="40"/>
       <c r="C218" s="46"/>
-      <c r="D218" s="59"/>
+      <c r="D218" s="60"/>
       <c r="E218" s="7">
         <v>8</v>
       </c>
@@ -6183,7 +6376,7 @@
       <c r="A219" s="27"/>
       <c r="B219" s="26"/>
       <c r="C219" s="46"/>
-      <c r="D219" s="59"/>
+      <c r="D219" s="60"/>
       <c r="E219" s="27">
         <v>9</v>
       </c>
@@ -6217,7 +6410,7 @@
       <c r="C221" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D221" s="56" t="s">
+      <c r="D221" s="59" t="s">
         <v>118</v>
       </c>
       <c r="E221" s="7">
@@ -6234,7 +6427,7 @@
       <c r="A222" s="9"/>
       <c r="B222" s="47"/>
       <c r="C222" s="47"/>
-      <c r="D222" s="56"/>
+      <c r="D222" s="59"/>
       <c r="E222" s="7">
         <v>1</v>
       </c>
@@ -6253,7 +6446,7 @@
       <c r="A223" s="9"/>
       <c r="B223" s="47"/>
       <c r="C223" s="47"/>
-      <c r="D223" s="56"/>
+      <c r="D223" s="59"/>
       <c r="E223" s="7">
         <v>2</v>
       </c>
@@ -6270,7 +6463,7 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="7"/>
-      <c r="D224" s="56"/>
+      <c r="D224" s="59"/>
       <c r="E224" s="7">
         <v>3</v>
       </c>
@@ -6287,7 +6480,7 @@
       <c r="A225" s="7"/>
       <c r="B225" s="47"/>
       <c r="C225" s="47"/>
-      <c r="D225" s="56"/>
+      <c r="D225" s="59"/>
       <c r="E225" s="7">
         <v>4</v>
       </c>
@@ -6303,7 +6496,7 @@
       <c r="A226" s="7"/>
       <c r="B226" s="47"/>
       <c r="C226" s="47"/>
-      <c r="D226" s="56"/>
+      <c r="D226" s="59"/>
       <c r="E226" s="7">
         <v>5</v>
       </c>
@@ -6320,7 +6513,7 @@
       <c r="A227" s="7"/>
       <c r="B227" s="47"/>
       <c r="C227" s="47"/>
-      <c r="D227" s="56"/>
+      <c r="D227" s="59"/>
       <c r="E227" s="7">
         <v>6</v>
       </c>
@@ -6337,7 +6530,7 @@
       <c r="A228" s="7"/>
       <c r="B228" s="47"/>
       <c r="C228" s="47"/>
-      <c r="D228" s="56"/>
+      <c r="D228" s="59"/>
       <c r="E228" s="7">
         <v>7</v>
       </c>
@@ -6354,7 +6547,7 @@
       <c r="A229" s="7"/>
       <c r="B229" s="47"/>
       <c r="C229" s="47"/>
-      <c r="D229" s="56"/>
+      <c r="D229" s="59"/>
       <c r="E229" s="7">
         <v>8</v>
       </c>
@@ -6371,7 +6564,7 @@
       <c r="A230" s="7"/>
       <c r="B230" s="47"/>
       <c r="C230" s="47"/>
-      <c r="D230" s="56"/>
+      <c r="D230" s="59"/>
       <c r="E230" s="27">
         <v>9</v>
       </c>
@@ -6388,7 +6581,7 @@
       <c r="A231" s="7"/>
       <c r="B231" s="47"/>
       <c r="C231" s="47"/>
-      <c r="D231" s="56"/>
+      <c r="D231" s="59"/>
       <c r="E231" s="7">
         <v>10</v>
       </c>
@@ -6422,7 +6615,7 @@
       <c r="C233" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D233" s="55" t="s">
+      <c r="D233" s="56" t="s">
         <v>209</v>
       </c>
       <c r="E233" s="7"/>
@@ -6437,7 +6630,7 @@
       <c r="A234" s="9"/>
       <c r="B234" s="47"/>
       <c r="C234" s="47"/>
-      <c r="D234" s="55"/>
+      <c r="D234" s="56"/>
       <c r="E234" s="7">
         <v>1</v>
       </c>
@@ -6456,7 +6649,7 @@
       <c r="A235" s="9"/>
       <c r="B235" s="47"/>
       <c r="C235" s="47"/>
-      <c r="D235" s="55"/>
+      <c r="D235" s="56"/>
       <c r="E235" s="7">
         <v>2</v>
       </c>
@@ -6473,7 +6666,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="7"/>
-      <c r="D236" s="55"/>
+      <c r="D236" s="56"/>
       <c r="E236" s="7">
         <v>3</v>
       </c>
@@ -6490,7 +6683,7 @@
       <c r="A237" s="7"/>
       <c r="B237" s="47"/>
       <c r="C237" s="47"/>
-      <c r="D237" s="55"/>
+      <c r="D237" s="56"/>
       <c r="E237" s="7">
         <v>4</v>
       </c>
@@ -6506,7 +6699,7 @@
       <c r="A238" s="7"/>
       <c r="B238" s="47"/>
       <c r="C238" s="47"/>
-      <c r="D238" s="55"/>
+      <c r="D238" s="56"/>
       <c r="E238" s="7">
         <v>5</v>
       </c>
@@ -6523,7 +6716,7 @@
       <c r="A239" s="7"/>
       <c r="B239" s="47"/>
       <c r="C239" s="47"/>
-      <c r="D239" s="55"/>
+      <c r="D239" s="56"/>
       <c r="E239" s="7">
         <v>6</v>
       </c>
@@ -6540,7 +6733,7 @@
       <c r="A240" s="7"/>
       <c r="B240" s="47"/>
       <c r="C240" s="47"/>
-      <c r="D240" s="55"/>
+      <c r="D240" s="56"/>
       <c r="E240" s="7">
         <v>7</v>
       </c>
@@ -6557,7 +6750,7 @@
       <c r="A241" s="7"/>
       <c r="B241" s="47"/>
       <c r="C241" s="47"/>
-      <c r="D241" s="55"/>
+      <c r="D241" s="56"/>
       <c r="E241" s="7">
         <v>8</v>
       </c>
@@ -6591,7 +6784,7 @@
       <c r="C243" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D243" s="55" t="s">
+      <c r="D243" s="56" t="s">
         <v>210</v>
       </c>
       <c r="E243" s="7"/>
@@ -6606,7 +6799,7 @@
       <c r="A244" s="9"/>
       <c r="B244" s="47"/>
       <c r="C244" s="47"/>
-      <c r="D244" s="55"/>
+      <c r="D244" s="56"/>
       <c r="E244" s="7">
         <v>1</v>
       </c>
@@ -6625,7 +6818,7 @@
       <c r="A245" s="9"/>
       <c r="B245" s="47"/>
       <c r="C245" s="47"/>
-      <c r="D245" s="55"/>
+      <c r="D245" s="56"/>
       <c r="E245" s="7">
         <v>2</v>
       </c>
@@ -6644,7 +6837,7 @@
       <c r="A246" s="9"/>
       <c r="B246" s="47"/>
       <c r="C246" s="47"/>
-      <c r="D246" s="55"/>
+      <c r="D246" s="56"/>
       <c r="E246" s="7">
         <v>3</v>
       </c>
@@ -6661,7 +6854,7 @@
       <c r="A247" s="9"/>
       <c r="B247" s="47"/>
       <c r="C247" s="47"/>
-      <c r="D247" s="55"/>
+      <c r="D247" s="56"/>
       <c r="E247" s="7">
         <v>4</v>
       </c>
@@ -6677,7 +6870,7 @@
       <c r="A248" s="9"/>
       <c r="B248" s="47"/>
       <c r="C248" s="47"/>
-      <c r="D248" s="55"/>
+      <c r="D248" s="56"/>
       <c r="E248" s="7">
         <v>5</v>
       </c>
@@ -6694,7 +6887,7 @@
       <c r="A249" s="9"/>
       <c r="B249" s="47"/>
       <c r="C249" s="47"/>
-      <c r="D249" s="55"/>
+      <c r="D249" s="56"/>
       <c r="E249" s="7">
         <v>6</v>
       </c>
@@ -6711,7 +6904,7 @@
       <c r="A250" s="9"/>
       <c r="B250" s="47"/>
       <c r="C250" s="47"/>
-      <c r="D250" s="55"/>
+      <c r="D250" s="56"/>
       <c r="E250" s="7">
         <v>7</v>
       </c>
@@ -6745,7 +6938,7 @@
       <c r="C252" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D252" s="55" t="s">
+      <c r="D252" s="56" t="s">
         <v>211</v>
       </c>
       <c r="E252" s="7"/>
@@ -6758,7 +6951,7 @@
     </row>
     <row r="253" spans="1:11" ht="30">
       <c r="A253" s="7"/>
-      <c r="D253" s="55"/>
+      <c r="D253" s="56"/>
       <c r="E253" s="7">
         <v>1</v>
       </c>
@@ -6777,7 +6970,7 @@
       <c r="A254" s="7"/>
       <c r="B254" s="47"/>
       <c r="C254" s="47"/>
-      <c r="D254" s="55"/>
+      <c r="D254" s="56"/>
       <c r="E254" s="7">
         <v>2</v>
       </c>
@@ -6796,7 +6989,7 @@
       <c r="A255" s="7"/>
       <c r="B255" s="47"/>
       <c r="C255" s="47"/>
-      <c r="D255" s="55"/>
+      <c r="D255" s="56"/>
       <c r="E255" s="7">
         <v>3</v>
       </c>
@@ -6813,7 +7006,7 @@
       <c r="A256" s="7"/>
       <c r="B256" s="47"/>
       <c r="C256" s="47"/>
-      <c r="D256" s="55"/>
+      <c r="D256" s="56"/>
       <c r="E256" s="7">
         <v>4</v>
       </c>
@@ -6829,7 +7022,7 @@
       <c r="A257" s="7"/>
       <c r="B257" s="47"/>
       <c r="C257" s="47"/>
-      <c r="D257" s="55"/>
+      <c r="D257" s="56"/>
       <c r="E257" s="7">
         <v>5</v>
       </c>
@@ -6846,7 +7039,7 @@
       <c r="A258" s="7"/>
       <c r="B258" s="47"/>
       <c r="C258" s="47"/>
-      <c r="D258" s="55"/>
+      <c r="D258" s="56"/>
       <c r="E258" s="7">
         <v>6</v>
       </c>
@@ -6863,7 +7056,7 @@
       <c r="A259" s="7"/>
       <c r="B259" s="47"/>
       <c r="C259" s="47"/>
-      <c r="D259" s="55"/>
+      <c r="D259" s="56"/>
       <c r="E259" s="7">
         <v>7</v>
       </c>
@@ -6880,7 +7073,7 @@
       <c r="A260" s="7"/>
       <c r="B260" s="47"/>
       <c r="C260" s="47"/>
-      <c r="D260" s="55"/>
+      <c r="D260" s="56"/>
       <c r="E260" s="7">
         <v>8</v>
       </c>
@@ -6914,7 +7107,7 @@
       <c r="C262" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D262" s="55" t="s">
+      <c r="D262" s="56" t="s">
         <v>212</v>
       </c>
       <c r="E262" s="7"/>
@@ -6929,7 +7122,7 @@
       <c r="A263" s="9"/>
       <c r="B263" s="47"/>
       <c r="C263" s="47"/>
-      <c r="D263" s="55"/>
+      <c r="D263" s="56"/>
       <c r="E263" s="7">
         <v>1</v>
       </c>
@@ -6948,7 +7141,7 @@
       <c r="A264" s="9"/>
       <c r="B264" s="47"/>
       <c r="C264" s="47"/>
-      <c r="D264" s="55"/>
+      <c r="D264" s="56"/>
       <c r="E264" s="7">
         <v>2</v>
       </c>
@@ -6967,7 +7160,7 @@
       <c r="A265" s="9"/>
       <c r="B265" s="47"/>
       <c r="C265" s="47"/>
-      <c r="D265" s="55"/>
+      <c r="D265" s="56"/>
       <c r="E265" s="7">
         <v>3</v>
       </c>
@@ -6984,7 +7177,7 @@
       <c r="A266" s="9"/>
       <c r="B266" s="47"/>
       <c r="C266" s="47"/>
-      <c r="D266" s="55"/>
+      <c r="D266" s="56"/>
       <c r="E266" s="7">
         <v>4</v>
       </c>
@@ -7000,7 +7193,7 @@
       <c r="A267" s="9"/>
       <c r="B267" s="47"/>
       <c r="C267" s="47"/>
-      <c r="D267" s="55"/>
+      <c r="D267" s="56"/>
       <c r="E267" s="7">
         <v>5</v>
       </c>
@@ -7017,7 +7210,7 @@
       <c r="A268" s="9"/>
       <c r="B268" s="47"/>
       <c r="C268" s="47"/>
-      <c r="D268" s="55"/>
+      <c r="D268" s="56"/>
       <c r="E268" s="7">
         <v>6</v>
       </c>
@@ -7034,7 +7227,7 @@
       <c r="A269" s="9"/>
       <c r="B269" s="47"/>
       <c r="C269" s="47"/>
-      <c r="D269" s="55"/>
+      <c r="D269" s="56"/>
       <c r="E269" s="7">
         <v>7</v>
       </c>
@@ -7068,7 +7261,7 @@
       <c r="C271" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D271" s="55" t="s">
+      <c r="D271" s="56" t="s">
         <v>213</v>
       </c>
       <c r="E271" s="7"/>
@@ -7083,7 +7276,7 @@
       <c r="A272" s="9"/>
       <c r="B272" s="47"/>
       <c r="C272" s="47"/>
-      <c r="D272" s="55"/>
+      <c r="D272" s="56"/>
       <c r="E272" s="7">
         <v>1</v>
       </c>
@@ -7102,7 +7295,7 @@
       <c r="A273" s="9"/>
       <c r="B273" s="47"/>
       <c r="C273" s="47"/>
-      <c r="D273" s="55"/>
+      <c r="D273" s="56"/>
       <c r="E273" s="7">
         <v>2</v>
       </c>
@@ -7121,7 +7314,7 @@
       <c r="A274" s="9"/>
       <c r="B274" s="47"/>
       <c r="C274" s="47"/>
-      <c r="D274" s="55"/>
+      <c r="D274" s="56"/>
       <c r="E274" s="7">
         <v>3</v>
       </c>
@@ -7138,7 +7331,7 @@
       <c r="A275" s="9"/>
       <c r="B275" s="47"/>
       <c r="C275" s="47"/>
-      <c r="D275" s="55"/>
+      <c r="D275" s="56"/>
       <c r="E275" s="7">
         <v>4</v>
       </c>
@@ -7154,7 +7347,7 @@
       <c r="A276" s="9"/>
       <c r="B276" s="47"/>
       <c r="C276" s="47"/>
-      <c r="D276" s="55"/>
+      <c r="D276" s="56"/>
       <c r="E276" s="7">
         <v>5</v>
       </c>
@@ -7171,7 +7364,7 @@
       <c r="A277" s="9"/>
       <c r="B277" s="47"/>
       <c r="C277" s="47"/>
-      <c r="D277" s="55"/>
+      <c r="D277" s="56"/>
       <c r="E277" s="7">
         <v>6</v>
       </c>
@@ -7205,7 +7398,7 @@
       <c r="C279" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D279" s="55" t="s">
+      <c r="D279" s="56" t="s">
         <v>390</v>
       </c>
       <c r="E279" s="7"/>
@@ -7220,7 +7413,7 @@
       <c r="A280" s="9"/>
       <c r="B280" s="47"/>
       <c r="C280" s="47"/>
-      <c r="D280" s="55"/>
+      <c r="D280" s="56"/>
       <c r="E280" s="7">
         <v>1</v>
       </c>
@@ -7239,7 +7432,7 @@
       <c r="A281" s="9"/>
       <c r="B281" s="47"/>
       <c r="C281" s="47"/>
-      <c r="D281" s="55"/>
+      <c r="D281" s="56"/>
       <c r="E281" s="7">
         <v>2</v>
       </c>
@@ -7258,7 +7451,7 @@
       <c r="A282" s="9"/>
       <c r="B282" s="47"/>
       <c r="C282" s="47"/>
-      <c r="D282" s="55"/>
+      <c r="D282" s="56"/>
       <c r="E282" s="7">
         <v>3</v>
       </c>
@@ -7275,7 +7468,7 @@
       <c r="A283" s="9"/>
       <c r="B283" s="47"/>
       <c r="C283" s="47"/>
-      <c r="D283" s="55"/>
+      <c r="D283" s="56"/>
       <c r="E283" s="7">
         <v>4</v>
       </c>
@@ -7291,7 +7484,7 @@
       <c r="A284" s="9"/>
       <c r="B284" s="47"/>
       <c r="C284" s="47"/>
-      <c r="D284" s="55"/>
+      <c r="D284" s="56"/>
       <c r="E284" s="7">
         <v>5</v>
       </c>
@@ -7308,7 +7501,7 @@
       <c r="A285" s="9"/>
       <c r="B285" s="47"/>
       <c r="C285" s="47"/>
-      <c r="D285" s="55"/>
+      <c r="D285" s="56"/>
       <c r="E285" s="7">
         <v>6</v>
       </c>
@@ -7323,7 +7516,7 @@
     </row>
     <row r="286" spans="1:11" ht="38.25" customHeight="1">
       <c r="A286" s="7"/>
-      <c r="D286" s="55"/>
+      <c r="D286" s="56"/>
       <c r="E286" s="7">
         <v>7</v>
       </c>
@@ -7338,7 +7531,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="7"/>
-      <c r="D287" s="55"/>
+      <c r="D287" s="56"/>
       <c r="E287" s="7">
         <v>8</v>
       </c>
@@ -7353,7 +7546,7 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="7"/>
-      <c r="D288" s="55"/>
+      <c r="D288" s="56"/>
       <c r="E288" s="7">
         <v>9</v>
       </c>
@@ -7386,7 +7579,7 @@
       <c r="C290" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D290" s="54" t="s">
+      <c r="D290" s="58" t="s">
         <v>391</v>
       </c>
       <c r="E290" s="7"/>
@@ -7401,7 +7594,7 @@
       <c r="A291" s="9"/>
       <c r="B291" s="49"/>
       <c r="C291" s="49"/>
-      <c r="D291" s="54"/>
+      <c r="D291" s="58"/>
       <c r="E291" s="7">
         <v>1</v>
       </c>
@@ -7420,7 +7613,7 @@
       <c r="A292" s="9"/>
       <c r="B292" s="49"/>
       <c r="C292" s="49"/>
-      <c r="D292" s="54"/>
+      <c r="D292" s="58"/>
       <c r="E292" s="7">
         <v>2</v>
       </c>
@@ -7439,7 +7632,7 @@
       <c r="A293" s="9"/>
       <c r="B293" s="49"/>
       <c r="C293" s="49"/>
-      <c r="D293" s="54"/>
+      <c r="D293" s="58"/>
       <c r="E293" s="7">
         <v>3</v>
       </c>
@@ -7456,7 +7649,7 @@
       <c r="A294" s="9"/>
       <c r="B294" s="49"/>
       <c r="C294" s="49"/>
-      <c r="D294" s="54"/>
+      <c r="D294" s="58"/>
       <c r="E294" s="7">
         <v>4</v>
       </c>
@@ -7472,7 +7665,7 @@
       <c r="A295" s="9"/>
       <c r="B295" s="49"/>
       <c r="C295" s="49"/>
-      <c r="D295" s="54"/>
+      <c r="D295" s="58"/>
       <c r="E295" s="7">
         <v>5</v>
       </c>
@@ -7489,7 +7682,7 @@
       <c r="A296" s="9"/>
       <c r="B296" s="49"/>
       <c r="C296" s="49"/>
-      <c r="D296" s="54"/>
+      <c r="D296" s="58"/>
       <c r="E296" s="7">
         <v>6</v>
       </c>
@@ -7506,7 +7699,7 @@
       <c r="A297" s="9"/>
       <c r="B297" s="49"/>
       <c r="C297" s="49"/>
-      <c r="D297" s="54"/>
+      <c r="D297" s="58"/>
       <c r="E297" s="7">
         <v>7</v>
       </c>
@@ -7523,7 +7716,7 @@
       <c r="A298" s="9"/>
       <c r="B298" s="49"/>
       <c r="C298" s="49"/>
-      <c r="D298" s="54"/>
+      <c r="D298" s="58"/>
       <c r="E298" s="7">
         <v>8</v>
       </c>
@@ -7540,7 +7733,7 @@
       <c r="A299" s="9"/>
       <c r="B299" s="49"/>
       <c r="C299" s="49"/>
-      <c r="D299" s="54"/>
+      <c r="D299" s="58"/>
       <c r="E299" s="7">
         <v>9</v>
       </c>
@@ -7555,7 +7748,7 @@
     </row>
     <row r="300" spans="1:11" ht="30">
       <c r="A300" s="7"/>
-      <c r="D300" s="54"/>
+      <c r="D300" s="58"/>
       <c r="E300" s="7">
         <v>10</v>
       </c>
@@ -7570,7 +7763,7 @@
     </row>
     <row r="301" spans="1:11" ht="39.75" customHeight="1">
       <c r="A301" s="7"/>
-      <c r="D301" s="54"/>
+      <c r="D301" s="58"/>
       <c r="E301" s="7">
         <v>11</v>
       </c>
@@ -7604,7 +7797,7 @@
       <c r="C303" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D303" s="54" t="s">
+      <c r="D303" s="58" t="s">
         <v>392</v>
       </c>
       <c r="E303" s="7"/>
@@ -7617,7 +7810,7 @@
     </row>
     <row r="304" spans="1:11" ht="30">
       <c r="A304" s="7"/>
-      <c r="D304" s="54"/>
+      <c r="D304" s="58"/>
       <c r="E304" s="7">
         <v>1</v>
       </c>
@@ -7636,7 +7829,7 @@
       <c r="A305" s="7"/>
       <c r="B305" s="49"/>
       <c r="C305" s="49"/>
-      <c r="D305" s="54"/>
+      <c r="D305" s="58"/>
       <c r="E305" s="7">
         <v>2</v>
       </c>
@@ -7655,7 +7848,7 @@
       <c r="A306" s="7"/>
       <c r="B306" s="49"/>
       <c r="C306" s="49"/>
-      <c r="D306" s="54"/>
+      <c r="D306" s="58"/>
       <c r="E306" s="7">
         <v>3</v>
       </c>
@@ -7672,7 +7865,7 @@
       <c r="A307" s="7"/>
       <c r="B307" s="49"/>
       <c r="C307" s="49"/>
-      <c r="D307" s="54"/>
+      <c r="D307" s="58"/>
       <c r="E307" s="7">
         <v>4</v>
       </c>
@@ -7688,7 +7881,7 @@
       <c r="A308" s="7"/>
       <c r="B308" s="49"/>
       <c r="C308" s="49"/>
-      <c r="D308" s="54"/>
+      <c r="D308" s="58"/>
       <c r="E308" s="7">
         <v>5</v>
       </c>
@@ -7705,7 +7898,7 @@
       <c r="A309" s="7"/>
       <c r="B309" s="49"/>
       <c r="C309" s="49"/>
-      <c r="D309" s="54"/>
+      <c r="D309" s="58"/>
       <c r="E309" s="7">
         <v>6</v>
       </c>
@@ -7722,7 +7915,7 @@
       <c r="A310" s="7"/>
       <c r="B310" s="49"/>
       <c r="C310" s="49"/>
-      <c r="D310" s="54"/>
+      <c r="D310" s="58"/>
       <c r="E310" s="7">
         <v>7</v>
       </c>
@@ -7739,7 +7932,7 @@
       <c r="A311" s="7"/>
       <c r="B311" s="49"/>
       <c r="C311" s="49"/>
-      <c r="D311" s="54"/>
+      <c r="D311" s="58"/>
       <c r="E311" s="7">
         <v>8</v>
       </c>
@@ -7756,7 +7949,7 @@
       <c r="A312" s="7"/>
       <c r="B312" s="49"/>
       <c r="C312" s="49"/>
-      <c r="D312" s="54"/>
+      <c r="D312" s="58"/>
       <c r="E312" s="7">
         <v>9</v>
       </c>
@@ -7790,7 +7983,7 @@
       <c r="C314" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D314" s="54" t="s">
+      <c r="D314" s="58" t="s">
         <v>393</v>
       </c>
       <c r="E314" s="7"/>
@@ -7805,7 +7998,7 @@
       <c r="A315" s="9"/>
       <c r="B315" s="49"/>
       <c r="C315" s="49"/>
-      <c r="D315" s="54"/>
+      <c r="D315" s="58"/>
       <c r="E315" s="7">
         <v>1</v>
       </c>
@@ -7824,7 +8017,7 @@
       <c r="A316" s="9"/>
       <c r="B316" s="49"/>
       <c r="C316" s="49"/>
-      <c r="D316" s="54"/>
+      <c r="D316" s="58"/>
       <c r="E316" s="7">
         <v>2</v>
       </c>
@@ -7843,7 +8036,7 @@
       <c r="A317" s="9"/>
       <c r="B317" s="49"/>
       <c r="C317" s="49"/>
-      <c r="D317" s="54"/>
+      <c r="D317" s="58"/>
       <c r="E317" s="7">
         <v>3</v>
       </c>
@@ -7860,7 +8053,7 @@
       <c r="A318" s="9"/>
       <c r="B318" s="49"/>
       <c r="C318" s="49"/>
-      <c r="D318" s="54"/>
+      <c r="D318" s="58"/>
       <c r="E318" s="7">
         <v>4</v>
       </c>
@@ -7876,7 +8069,7 @@
       <c r="A319" s="9"/>
       <c r="B319" s="49"/>
       <c r="C319" s="49"/>
-      <c r="D319" s="54"/>
+      <c r="D319" s="58"/>
       <c r="E319" s="7">
         <v>5</v>
       </c>
@@ -7893,7 +8086,7 @@
       <c r="A320" s="9"/>
       <c r="B320" s="49"/>
       <c r="C320" s="49"/>
-      <c r="D320" s="54"/>
+      <c r="D320" s="58"/>
       <c r="E320" s="7">
         <v>6</v>
       </c>
@@ -7910,7 +8103,7 @@
       <c r="A321" s="9"/>
       <c r="B321" s="49"/>
       <c r="C321" s="49"/>
-      <c r="D321" s="54"/>
+      <c r="D321" s="58"/>
       <c r="E321" s="7">
         <v>7</v>
       </c>
@@ -7927,7 +8120,7 @@
       <c r="A322" s="9"/>
       <c r="B322" s="49"/>
       <c r="C322" s="49"/>
-      <c r="D322" s="54"/>
+      <c r="D322" s="58"/>
       <c r="E322" s="7">
         <v>8</v>
       </c>
@@ -7944,7 +8137,7 @@
       <c r="A323" s="9"/>
       <c r="B323" s="49"/>
       <c r="C323" s="49"/>
-      <c r="D323" s="54"/>
+      <c r="D323" s="58"/>
       <c r="E323" s="7">
         <v>9</v>
       </c>
@@ -7961,7 +8154,7 @@
       <c r="A324" s="9"/>
       <c r="B324" s="49"/>
       <c r="C324" s="49"/>
-      <c r="D324" s="54"/>
+      <c r="D324" s="58"/>
       <c r="E324" s="7">
         <v>10</v>
       </c>
@@ -7978,7 +8171,7 @@
       <c r="A325" s="9"/>
       <c r="B325" s="49"/>
       <c r="C325" s="49"/>
-      <c r="D325" s="54"/>
+      <c r="D325" s="58"/>
       <c r="E325" s="7">
         <v>11</v>
       </c>
@@ -8012,7 +8205,7 @@
       <c r="C327" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D327" s="54" t="s">
+      <c r="D327" s="58" t="s">
         <v>394</v>
       </c>
       <c r="E327" s="7"/>
@@ -8027,7 +8220,7 @@
       <c r="A328" s="9"/>
       <c r="B328" s="49"/>
       <c r="C328" s="49"/>
-      <c r="D328" s="54"/>
+      <c r="D328" s="58"/>
       <c r="E328" s="7">
         <v>1</v>
       </c>
@@ -8046,7 +8239,7 @@
       <c r="A329" s="9"/>
       <c r="B329" s="49"/>
       <c r="C329" s="49"/>
-      <c r="D329" s="54"/>
+      <c r="D329" s="58"/>
       <c r="E329" s="7">
         <v>2</v>
       </c>
@@ -8065,7 +8258,7 @@
       <c r="A330" s="9"/>
       <c r="B330" s="49"/>
       <c r="C330" s="49"/>
-      <c r="D330" s="54"/>
+      <c r="D330" s="58"/>
       <c r="E330" s="7">
         <v>3</v>
       </c>
@@ -8082,7 +8275,7 @@
       <c r="A331" s="9"/>
       <c r="B331" s="49"/>
       <c r="C331" s="49"/>
-      <c r="D331" s="54"/>
+      <c r="D331" s="58"/>
       <c r="E331" s="7">
         <v>4</v>
       </c>
@@ -8098,7 +8291,7 @@
       <c r="A332" s="9"/>
       <c r="B332" s="49"/>
       <c r="C332" s="49"/>
-      <c r="D332" s="54"/>
+      <c r="D332" s="58"/>
       <c r="E332" s="7">
         <v>5</v>
       </c>
@@ -8115,7 +8308,7 @@
       <c r="A333" s="9"/>
       <c r="B333" s="49"/>
       <c r="C333" s="49"/>
-      <c r="D333" s="54"/>
+      <c r="D333" s="58"/>
       <c r="E333" s="7">
         <v>6</v>
       </c>
@@ -8132,7 +8325,7 @@
       <c r="A334" s="9"/>
       <c r="B334" s="49"/>
       <c r="C334" s="49"/>
-      <c r="D334" s="54"/>
+      <c r="D334" s="58"/>
       <c r="E334" s="7">
         <v>7</v>
       </c>
@@ -8149,7 +8342,7 @@
       <c r="A335" s="9"/>
       <c r="B335" s="49"/>
       <c r="C335" s="49"/>
-      <c r="D335" s="54"/>
+      <c r="D335" s="58"/>
       <c r="E335" s="7">
         <v>8</v>
       </c>
@@ -8166,7 +8359,7 @@
       <c r="A336" s="9"/>
       <c r="B336" s="49"/>
       <c r="C336" s="49"/>
-      <c r="D336" s="54"/>
+      <c r="D336" s="58"/>
       <c r="E336" s="7">
         <v>9</v>
       </c>
@@ -8183,7 +8376,7 @@
       <c r="A337" s="9"/>
       <c r="B337" s="49"/>
       <c r="C337" s="49"/>
-      <c r="D337" s="54"/>
+      <c r="D337" s="58"/>
       <c r="E337" s="7">
         <v>10</v>
       </c>
@@ -8215,7 +8408,7 @@
       <c r="C339" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D339" s="54" t="s">
+      <c r="D339" s="58" t="s">
         <v>403</v>
       </c>
       <c r="E339" s="7"/>
@@ -8230,7 +8423,7 @@
       <c r="A340" s="9"/>
       <c r="B340" s="49"/>
       <c r="C340" s="49"/>
-      <c r="D340" s="54"/>
+      <c r="D340" s="58"/>
       <c r="E340" s="7">
         <v>1</v>
       </c>
@@ -8249,7 +8442,7 @@
       <c r="A341" s="9"/>
       <c r="B341" s="49"/>
       <c r="C341" s="49"/>
-      <c r="D341" s="54"/>
+      <c r="D341" s="58"/>
       <c r="E341" s="7">
         <v>2</v>
       </c>
@@ -8268,7 +8461,7 @@
       <c r="A342" s="9"/>
       <c r="B342" s="49"/>
       <c r="C342" s="49"/>
-      <c r="D342" s="54"/>
+      <c r="D342" s="58"/>
       <c r="E342" s="7">
         <v>3</v>
       </c>
@@ -8285,7 +8478,7 @@
       <c r="A343" s="9"/>
       <c r="B343" s="49"/>
       <c r="C343" s="49"/>
-      <c r="D343" s="54"/>
+      <c r="D343" s="58"/>
       <c r="E343" s="7">
         <v>4</v>
       </c>
@@ -8301,7 +8494,7 @@
       <c r="A344" s="9"/>
       <c r="B344" s="49"/>
       <c r="C344" s="49"/>
-      <c r="D344" s="54"/>
+      <c r="D344" s="58"/>
       <c r="E344" s="7">
         <v>5</v>
       </c>
@@ -8318,7 +8511,7 @@
       <c r="A345" s="9"/>
       <c r="B345" s="49"/>
       <c r="C345" s="49"/>
-      <c r="D345" s="54"/>
+      <c r="D345" s="58"/>
       <c r="E345" s="7">
         <v>6</v>
       </c>
@@ -8335,7 +8528,7 @@
       <c r="A346" s="9"/>
       <c r="B346" s="49"/>
       <c r="C346" s="49"/>
-      <c r="D346" s="54"/>
+      <c r="D346" s="58"/>
       <c r="E346" s="7">
         <v>7</v>
       </c>
@@ -8352,7 +8545,7 @@
       <c r="A347" s="9"/>
       <c r="B347" s="49"/>
       <c r="C347" s="49"/>
-      <c r="D347" s="54"/>
+      <c r="D347" s="58"/>
       <c r="E347" s="7">
         <v>8</v>
       </c>
@@ -8369,7 +8562,7 @@
       <c r="A348" s="9"/>
       <c r="B348" s="49"/>
       <c r="C348" s="49"/>
-      <c r="D348" s="54"/>
+      <c r="D348" s="58"/>
       <c r="E348" s="7">
         <v>9</v>
       </c>
@@ -8386,7 +8579,7 @@
       <c r="A349" s="9"/>
       <c r="B349" s="49"/>
       <c r="C349" s="49"/>
-      <c r="D349" s="54"/>
+      <c r="D349" s="58"/>
       <c r="E349" s="7">
         <v>10</v>
       </c>
@@ -8403,7 +8596,7 @@
       <c r="A350" s="9"/>
       <c r="B350" s="49"/>
       <c r="C350" s="49"/>
-      <c r="D350" s="54"/>
+      <c r="D350" s="58"/>
       <c r="E350" s="7">
         <v>11</v>
       </c>
@@ -8437,7 +8630,7 @@
       <c r="C352" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D352" s="54" t="s">
+      <c r="D352" s="58" t="s">
         <v>406</v>
       </c>
       <c r="E352" s="7"/>
@@ -8452,7 +8645,7 @@
       <c r="A353" s="9"/>
       <c r="B353" s="49"/>
       <c r="C353" s="49"/>
-      <c r="D353" s="54"/>
+      <c r="D353" s="58"/>
       <c r="E353" s="7">
         <v>1</v>
       </c>
@@ -8471,7 +8664,7 @@
       <c r="A354" s="9"/>
       <c r="B354" s="49"/>
       <c r="C354" s="49"/>
-      <c r="D354" s="54"/>
+      <c r="D354" s="58"/>
       <c r="E354" s="7">
         <v>2</v>
       </c>
@@ -8490,7 +8683,7 @@
       <c r="A355" s="9"/>
       <c r="B355" s="49"/>
       <c r="C355" s="49"/>
-      <c r="D355" s="54"/>
+      <c r="D355" s="58"/>
       <c r="E355" s="7">
         <v>3</v>
       </c>
@@ -8507,7 +8700,7 @@
       <c r="A356" s="9"/>
       <c r="B356" s="49"/>
       <c r="C356" s="49"/>
-      <c r="D356" s="54"/>
+      <c r="D356" s="58"/>
       <c r="E356" s="7">
         <v>4</v>
       </c>
@@ -8523,7 +8716,7 @@
       <c r="A357" s="9"/>
       <c r="B357" s="49"/>
       <c r="C357" s="49"/>
-      <c r="D357" s="54"/>
+      <c r="D357" s="58"/>
       <c r="E357" s="7">
         <v>5</v>
       </c>
@@ -8540,7 +8733,7 @@
       <c r="A358" s="9"/>
       <c r="B358" s="49"/>
       <c r="C358" s="49"/>
-      <c r="D358" s="54"/>
+      <c r="D358" s="58"/>
       <c r="E358" s="7">
         <v>6</v>
       </c>
@@ -8557,7 +8750,7 @@
       <c r="A359" s="9"/>
       <c r="B359" s="49"/>
       <c r="C359" s="49"/>
-      <c r="D359" s="54"/>
+      <c r="D359" s="58"/>
       <c r="E359" s="7">
         <v>7</v>
       </c>
@@ -8574,7 +8767,7 @@
       <c r="A360" s="9"/>
       <c r="B360" s="49"/>
       <c r="C360" s="49"/>
-      <c r="D360" s="54"/>
+      <c r="D360" s="58"/>
       <c r="E360" s="7">
         <v>8</v>
       </c>
@@ -8591,7 +8784,7 @@
       <c r="A361" s="9"/>
       <c r="B361" s="49"/>
       <c r="C361" s="49"/>
-      <c r="D361" s="54"/>
+      <c r="D361" s="58"/>
       <c r="E361" s="7">
         <v>9</v>
       </c>
@@ -8608,7 +8801,7 @@
       <c r="A362" s="9"/>
       <c r="B362" s="49"/>
       <c r="C362" s="49"/>
-      <c r="D362" s="54"/>
+      <c r="D362" s="58"/>
       <c r="E362" s="7">
         <v>10</v>
       </c>
@@ -8625,7 +8818,7 @@
       <c r="A363" s="9"/>
       <c r="B363" s="49"/>
       <c r="C363" s="49"/>
-      <c r="D363" s="54"/>
+      <c r="D363" s="58"/>
       <c r="E363" s="7">
         <v>11</v>
       </c>
@@ -8657,7 +8850,7 @@
       <c r="C365" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D365" s="54" t="s">
+      <c r="D365" s="58" t="s">
         <v>395</v>
       </c>
       <c r="E365" s="7"/>
@@ -8672,7 +8865,7 @@
       <c r="A366" s="9"/>
       <c r="B366" s="49"/>
       <c r="C366" s="49"/>
-      <c r="D366" s="54"/>
+      <c r="D366" s="58"/>
       <c r="E366" s="7">
         <v>1</v>
       </c>
@@ -8691,7 +8884,7 @@
       <c r="A367" s="9"/>
       <c r="B367" s="49"/>
       <c r="C367" s="49"/>
-      <c r="D367" s="54"/>
+      <c r="D367" s="58"/>
       <c r="E367" s="7">
         <v>2</v>
       </c>
@@ -8710,7 +8903,7 @@
       <c r="A368" s="9"/>
       <c r="B368" s="49"/>
       <c r="C368" s="49"/>
-      <c r="D368" s="54"/>
+      <c r="D368" s="58"/>
       <c r="E368" s="7">
         <v>3</v>
       </c>
@@ -8727,7 +8920,7 @@
       <c r="A369" s="9"/>
       <c r="B369" s="49"/>
       <c r="C369" s="49"/>
-      <c r="D369" s="54"/>
+      <c r="D369" s="58"/>
       <c r="E369" s="7">
         <v>4</v>
       </c>
@@ -8743,7 +8936,7 @@
       <c r="A370" s="9"/>
       <c r="B370" s="49"/>
       <c r="C370" s="49"/>
-      <c r="D370" s="54"/>
+      <c r="D370" s="58"/>
       <c r="E370" s="7">
         <v>5</v>
       </c>
@@ -8760,7 +8953,7 @@
       <c r="A371" s="9"/>
       <c r="B371" s="49"/>
       <c r="C371" s="49"/>
-      <c r="D371" s="54"/>
+      <c r="D371" s="58"/>
       <c r="E371" s="7">
         <v>6</v>
       </c>
@@ -8777,7 +8970,7 @@
       <c r="A372" s="9"/>
       <c r="B372" s="49"/>
       <c r="C372" s="49"/>
-      <c r="D372" s="54"/>
+      <c r="D372" s="58"/>
       <c r="E372" s="7">
         <v>7</v>
       </c>
@@ -8794,7 +8987,7 @@
       <c r="A373" s="9"/>
       <c r="B373" s="49"/>
       <c r="C373" s="49"/>
-      <c r="D373" s="54"/>
+      <c r="D373" s="58"/>
       <c r="E373" s="7">
         <v>8</v>
       </c>
@@ -8811,7 +9004,7 @@
       <c r="A374" s="9"/>
       <c r="B374" s="49"/>
       <c r="C374" s="49"/>
-      <c r="D374" s="54"/>
+      <c r="D374" s="58"/>
       <c r="E374" s="7">
         <v>9</v>
       </c>
@@ -8844,7 +9037,7 @@
       <c r="C376" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D376" s="54" t="s">
+      <c r="D376" s="58" t="s">
         <v>408</v>
       </c>
       <c r="E376" s="7"/>
@@ -8857,7 +9050,7 @@
     </row>
     <row r="377" spans="1:11" ht="30">
       <c r="A377" s="7"/>
-      <c r="D377" s="54"/>
+      <c r="D377" s="58"/>
       <c r="E377" s="7">
         <v>1</v>
       </c>
@@ -8876,7 +9069,7 @@
       <c r="A378" s="7"/>
       <c r="B378" s="49"/>
       <c r="C378" s="49"/>
-      <c r="D378" s="54"/>
+      <c r="D378" s="58"/>
       <c r="E378" s="7">
         <v>2</v>
       </c>
@@ -8895,7 +9088,7 @@
       <c r="A379" s="7"/>
       <c r="B379" s="49"/>
       <c r="C379" s="49"/>
-      <c r="D379" s="54"/>
+      <c r="D379" s="58"/>
       <c r="E379" s="7">
         <v>3</v>
       </c>
@@ -8912,7 +9105,7 @@
       <c r="A380" s="7"/>
       <c r="B380" s="49"/>
       <c r="C380" s="49"/>
-      <c r="D380" s="54"/>
+      <c r="D380" s="58"/>
       <c r="E380" s="7">
         <v>4</v>
       </c>
@@ -8928,7 +9121,7 @@
       <c r="A381" s="7"/>
       <c r="B381" s="49"/>
       <c r="C381" s="49"/>
-      <c r="D381" s="54"/>
+      <c r="D381" s="58"/>
       <c r="E381" s="7">
         <v>5</v>
       </c>
@@ -8945,7 +9138,7 @@
       <c r="A382" s="7"/>
       <c r="B382" s="49"/>
       <c r="C382" s="49"/>
-      <c r="D382" s="54"/>
+      <c r="D382" s="58"/>
       <c r="E382" s="7">
         <v>6</v>
       </c>
@@ -8962,7 +9155,7 @@
       <c r="A383" s="7"/>
       <c r="B383" s="49"/>
       <c r="C383" s="49"/>
-      <c r="D383" s="54"/>
+      <c r="D383" s="58"/>
       <c r="E383" s="7">
         <v>7</v>
       </c>
@@ -8979,7 +9172,7 @@
       <c r="A384" s="7"/>
       <c r="B384" s="49"/>
       <c r="C384" s="49"/>
-      <c r="D384" s="54"/>
+      <c r="D384" s="58"/>
       <c r="E384" s="7">
         <v>8</v>
       </c>
@@ -8996,7 +9189,7 @@
       <c r="A385" s="7"/>
       <c r="B385" s="49"/>
       <c r="C385" s="49"/>
-      <c r="D385" s="54"/>
+      <c r="D385" s="58"/>
       <c r="E385" s="7">
         <v>9</v>
       </c>
@@ -9028,7 +9221,7 @@
       <c r="C387" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D387" s="54" t="s">
+      <c r="D387" s="58" t="s">
         <v>410</v>
       </c>
       <c r="E387" s="7"/>
@@ -9040,7 +9233,7 @@
     </row>
     <row r="388" spans="1:11" ht="30">
       <c r="A388" s="20"/>
-      <c r="D388" s="54"/>
+      <c r="D388" s="58"/>
       <c r="E388" s="7">
         <v>1</v>
       </c>
@@ -9059,7 +9252,7 @@
       <c r="A389" s="20"/>
       <c r="B389" s="49"/>
       <c r="C389" s="49"/>
-      <c r="D389" s="54"/>
+      <c r="D389" s="58"/>
       <c r="E389" s="7">
         <v>2</v>
       </c>
@@ -9078,7 +9271,7 @@
       <c r="A390" s="20"/>
       <c r="B390" s="49"/>
       <c r="C390" s="49"/>
-      <c r="D390" s="54"/>
+      <c r="D390" s="58"/>
       <c r="E390" s="7">
         <v>3</v>
       </c>
@@ -9095,7 +9288,7 @@
       <c r="A391" s="20"/>
       <c r="B391" s="49"/>
       <c r="C391" s="49"/>
-      <c r="D391" s="54"/>
+      <c r="D391" s="58"/>
       <c r="E391" s="7">
         <v>4</v>
       </c>
@@ -9111,7 +9304,7 @@
       <c r="A392" s="20"/>
       <c r="B392" s="49"/>
       <c r="C392" s="49"/>
-      <c r="D392" s="54"/>
+      <c r="D392" s="58"/>
       <c r="E392" s="7">
         <v>5</v>
       </c>
@@ -9145,7 +9338,7 @@
       <c r="C394" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D394" s="55" t="s">
+      <c r="D394" s="56" t="s">
         <v>214</v>
       </c>
       <c r="E394" s="9" t="s">
@@ -9162,7 +9355,7 @@
       <c r="A395" s="9"/>
       <c r="B395" s="49"/>
       <c r="C395" s="49"/>
-      <c r="D395" s="55"/>
+      <c r="D395" s="56"/>
       <c r="E395" s="7">
         <v>1</v>
       </c>
@@ -9181,7 +9374,7 @@
       <c r="A396" s="9"/>
       <c r="B396" s="49"/>
       <c r="C396" s="49"/>
-      <c r="D396" s="55"/>
+      <c r="D396" s="56"/>
       <c r="E396" s="7">
         <v>2</v>
       </c>
@@ -9200,7 +9393,7 @@
       <c r="A397" s="9"/>
       <c r="B397" s="49"/>
       <c r="C397" s="49"/>
-      <c r="D397" s="55"/>
+      <c r="D397" s="56"/>
       <c r="E397" s="7">
         <v>3</v>
       </c>
@@ -9217,7 +9410,7 @@
       <c r="A398" s="9"/>
       <c r="B398" s="49"/>
       <c r="C398" s="49"/>
-      <c r="D398" s="55"/>
+      <c r="D398" s="56"/>
       <c r="E398" s="7">
         <v>4</v>
       </c>
@@ -9233,7 +9426,7 @@
       <c r="A399" s="9"/>
       <c r="B399" s="49"/>
       <c r="C399" s="49"/>
-      <c r="D399" s="55"/>
+      <c r="D399" s="56"/>
       <c r="E399" s="7">
         <v>5</v>
       </c>
@@ -9250,7 +9443,7 @@
       <c r="A400" s="9"/>
       <c r="B400" s="49"/>
       <c r="C400" s="49"/>
-      <c r="D400" s="55"/>
+      <c r="D400" s="56"/>
       <c r="E400" s="7">
         <v>6</v>
       </c>
@@ -9267,7 +9460,7 @@
       <c r="A401" s="9"/>
       <c r="B401" s="49"/>
       <c r="C401" s="49"/>
-      <c r="D401" s="55"/>
+      <c r="D401" s="56"/>
       <c r="E401" s="9">
         <v>7</v>
       </c>
@@ -9300,7 +9493,7 @@
       <c r="C403" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D403" s="54" t="s">
+      <c r="D403" s="58" t="s">
         <v>415</v>
       </c>
       <c r="E403" s="7"/>
@@ -9312,7 +9505,7 @@
     </row>
     <row r="404" spans="1:11" ht="54.75" customHeight="1">
       <c r="A404" s="7"/>
-      <c r="D404" s="54"/>
+      <c r="D404" s="58"/>
       <c r="E404" s="7">
         <v>1</v>
       </c>
@@ -9329,7 +9522,7 @@
     </row>
     <row r="405" spans="1:11" ht="30" customHeight="1">
       <c r="A405" s="7"/>
-      <c r="D405" s="54"/>
+      <c r="D405" s="58"/>
       <c r="E405" s="7">
         <v>2</v>
       </c>
@@ -9348,7 +9541,7 @@
       <c r="A406" s="7"/>
       <c r="B406" s="49"/>
       <c r="C406" s="49"/>
-      <c r="D406" s="54"/>
+      <c r="D406" s="58"/>
       <c r="E406" s="7">
         <v>3</v>
       </c>
@@ -9365,7 +9558,7 @@
       <c r="A407" s="7"/>
       <c r="B407" s="49"/>
       <c r="C407" s="49"/>
-      <c r="D407" s="54"/>
+      <c r="D407" s="58"/>
       <c r="E407" s="7">
         <v>4</v>
       </c>
@@ -9381,7 +9574,7 @@
       <c r="A408" s="7"/>
       <c r="B408" s="49"/>
       <c r="C408" s="49"/>
-      <c r="D408" s="54"/>
+      <c r="D408" s="58"/>
       <c r="E408" s="7">
         <v>5</v>
       </c>
@@ -9398,7 +9591,7 @@
       <c r="A409" s="7"/>
       <c r="B409" s="49"/>
       <c r="C409" s="49"/>
-      <c r="D409" s="54"/>
+      <c r="D409" s="58"/>
       <c r="E409" s="7">
         <v>6</v>
       </c>
@@ -9415,7 +9608,7 @@
       <c r="A410" s="7"/>
       <c r="B410" s="49"/>
       <c r="C410" s="49"/>
-      <c r="D410" s="54"/>
+      <c r="D410" s="58"/>
       <c r="E410" s="7">
         <v>7</v>
       </c>
@@ -9431,7 +9624,7 @@
       <c r="A411" s="7"/>
       <c r="B411" s="49"/>
       <c r="C411" s="49"/>
-      <c r="D411" s="54"/>
+      <c r="D411" s="58"/>
       <c r="E411" s="7">
         <v>8</v>
       </c>
@@ -9461,7 +9654,7 @@
       <c r="C413" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D413" s="54" t="s">
+      <c r="D413" s="58" t="s">
         <v>416</v>
       </c>
       <c r="E413" s="7"/>
@@ -9476,7 +9669,7 @@
     </row>
     <row r="414" spans="1:11" ht="30">
       <c r="A414" s="7"/>
-      <c r="D414" s="54"/>
+      <c r="D414" s="58"/>
       <c r="E414" s="7">
         <v>1</v>
       </c>
@@ -9495,7 +9688,7 @@
       <c r="A415" s="7"/>
       <c r="B415" s="49"/>
       <c r="C415" s="49"/>
-      <c r="D415" s="54"/>
+      <c r="D415" s="58"/>
       <c r="E415" s="7">
         <v>2</v>
       </c>
@@ -9514,7 +9707,7 @@
       <c r="A416" s="7"/>
       <c r="B416" s="49"/>
       <c r="C416" s="49"/>
-      <c r="D416" s="54"/>
+      <c r="D416" s="58"/>
       <c r="E416" s="7">
         <v>3</v>
       </c>
@@ -9531,7 +9724,7 @@
       <c r="A417" s="7"/>
       <c r="B417" s="49"/>
       <c r="C417" s="49"/>
-      <c r="D417" s="54"/>
+      <c r="D417" s="58"/>
       <c r="E417" s="7">
         <v>4</v>
       </c>
@@ -9547,7 +9740,7 @@
       <c r="A418" s="7"/>
       <c r="B418" s="49"/>
       <c r="C418" s="49"/>
-      <c r="D418" s="54"/>
+      <c r="D418" s="58"/>
       <c r="E418" s="7">
         <v>5</v>
       </c>
@@ -9564,7 +9757,7 @@
       <c r="A419" s="7"/>
       <c r="B419" s="49"/>
       <c r="C419" s="49"/>
-      <c r="D419" s="54"/>
+      <c r="D419" s="58"/>
       <c r="E419" s="7">
         <v>6</v>
       </c>
@@ -9581,7 +9774,7 @@
       <c r="A420" s="7"/>
       <c r="B420" s="49"/>
       <c r="C420" s="49"/>
-      <c r="D420" s="54"/>
+      <c r="D420" s="58"/>
       <c r="E420" s="7">
         <v>7</v>
       </c>
@@ -9597,7 +9790,7 @@
       <c r="A421" s="7"/>
       <c r="B421" s="49"/>
       <c r="C421" s="49"/>
-      <c r="D421" s="54"/>
+      <c r="D421" s="58"/>
       <c r="E421" s="7">
         <v>8</v>
       </c>
@@ -9613,7 +9806,7 @@
       <c r="A422" s="7"/>
       <c r="B422" s="49"/>
       <c r="C422" s="49"/>
-      <c r="D422" s="54"/>
+      <c r="D422" s="58"/>
       <c r="E422" s="7">
         <v>9</v>
       </c>
@@ -9643,7 +9836,7 @@
       <c r="C424" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D424" s="54" t="s">
+      <c r="D424" s="58" t="s">
         <v>418</v>
       </c>
       <c r="E424" s="7">
@@ -9660,7 +9853,7 @@
     </row>
     <row r="425" spans="1:11" ht="64.5" customHeight="1">
       <c r="A425" s="7"/>
-      <c r="D425" s="54"/>
+      <c r="D425" s="58"/>
       <c r="E425" s="7">
         <v>1</v>
       </c>
@@ -9679,7 +9872,7 @@
       <c r="A426" s="7"/>
       <c r="B426" s="49"/>
       <c r="C426" s="49"/>
-      <c r="D426" s="54"/>
+      <c r="D426" s="58"/>
       <c r="E426" s="7">
         <v>2</v>
       </c>
@@ -9698,7 +9891,7 @@
       <c r="A427" s="7"/>
       <c r="B427" s="49"/>
       <c r="C427" s="49"/>
-      <c r="D427" s="54"/>
+      <c r="D427" s="58"/>
       <c r="E427" s="7">
         <v>3</v>
       </c>
@@ -9715,7 +9908,7 @@
       <c r="A428" s="7"/>
       <c r="B428" s="49"/>
       <c r="C428" s="49"/>
-      <c r="D428" s="54"/>
+      <c r="D428" s="58"/>
       <c r="E428" s="7">
         <v>4</v>
       </c>
@@ -9731,7 +9924,7 @@
       <c r="A429" s="7"/>
       <c r="B429" s="49"/>
       <c r="C429" s="49"/>
-      <c r="D429" s="54"/>
+      <c r="D429" s="58"/>
       <c r="E429" s="7">
         <v>5</v>
       </c>
@@ -9748,7 +9941,7 @@
       <c r="A430" s="7"/>
       <c r="B430" s="49"/>
       <c r="C430" s="49"/>
-      <c r="D430" s="54"/>
+      <c r="D430" s="58"/>
       <c r="E430" s="7">
         <v>6</v>
       </c>
@@ -9765,7 +9958,7 @@
       <c r="A431" s="7"/>
       <c r="B431" s="49"/>
       <c r="C431" s="49"/>
-      <c r="D431" s="54"/>
+      <c r="D431" s="58"/>
       <c r="E431" s="7">
         <v>7</v>
       </c>
@@ -9781,7 +9974,7 @@
       <c r="A432" s="7"/>
       <c r="B432" s="49"/>
       <c r="C432" s="49"/>
-      <c r="D432" s="54"/>
+      <c r="D432" s="58"/>
       <c r="E432" s="7">
         <v>8</v>
       </c>
@@ -9797,7 +9990,7 @@
       <c r="A433" s="7"/>
       <c r="B433" s="49"/>
       <c r="C433" s="49"/>
-      <c r="D433" s="54"/>
+      <c r="D433" s="58"/>
       <c r="E433" s="7">
         <v>9</v>
       </c>
@@ -9829,7 +10022,7 @@
       <c r="C435" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D435" s="54" t="s">
+      <c r="D435" s="58" t="s">
         <v>420</v>
       </c>
       <c r="E435" s="7"/>
@@ -9844,7 +10037,7 @@
     </row>
     <row r="436" spans="1:11" ht="30">
       <c r="A436" s="7"/>
-      <c r="D436" s="54"/>
+      <c r="D436" s="58"/>
       <c r="E436" s="7">
         <v>1</v>
       </c>
@@ -9863,7 +10056,7 @@
       <c r="A437" s="7"/>
       <c r="B437" s="49"/>
       <c r="C437" s="49"/>
-      <c r="D437" s="54"/>
+      <c r="D437" s="58"/>
       <c r="E437" s="7">
         <v>2</v>
       </c>
@@ -9882,7 +10075,7 @@
       <c r="A438" s="7"/>
       <c r="B438" s="49"/>
       <c r="C438" s="49"/>
-      <c r="D438" s="54"/>
+      <c r="D438" s="58"/>
       <c r="E438" s="7">
         <v>3</v>
       </c>
@@ -9899,7 +10092,7 @@
       <c r="A439" s="7"/>
       <c r="B439" s="49"/>
       <c r="C439" s="49"/>
-      <c r="D439" s="54"/>
+      <c r="D439" s="58"/>
       <c r="E439" s="7">
         <v>4</v>
       </c>
@@ -9915,7 +10108,7 @@
       <c r="A440" s="7"/>
       <c r="B440" s="49"/>
       <c r="C440" s="49"/>
-      <c r="D440" s="54"/>
+      <c r="D440" s="58"/>
       <c r="E440" s="7">
         <v>5</v>
       </c>
@@ -9932,7 +10125,7 @@
       <c r="A441" s="7"/>
       <c r="B441" s="49"/>
       <c r="C441" s="49"/>
-      <c r="D441" s="54"/>
+      <c r="D441" s="58"/>
       <c r="E441" s="7">
         <v>6</v>
       </c>
@@ -9949,7 +10142,7 @@
       <c r="A442" s="7"/>
       <c r="B442" s="49"/>
       <c r="C442" s="49"/>
-      <c r="D442" s="54"/>
+      <c r="D442" s="58"/>
       <c r="E442" s="7">
         <v>7</v>
       </c>
@@ -9965,7 +10158,7 @@
       <c r="A443" s="7"/>
       <c r="B443" s="49"/>
       <c r="C443" s="49"/>
-      <c r="D443" s="54"/>
+      <c r="D443" s="58"/>
       <c r="E443" s="7">
         <v>8</v>
       </c>
@@ -9981,7 +10174,7 @@
       <c r="A444" s="7"/>
       <c r="B444" s="49"/>
       <c r="C444" s="49"/>
-      <c r="D444" s="54"/>
+      <c r="D444" s="58"/>
       <c r="E444" s="7">
         <v>9</v>
       </c>
@@ -10011,7 +10204,7 @@
       <c r="C446" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D446" s="54" t="s">
+      <c r="D446" s="58" t="s">
         <v>425</v>
       </c>
       <c r="E446" s="7"/>
@@ -10024,7 +10217,7 @@
     </row>
     <row r="447" spans="1:11" ht="15" customHeight="1">
       <c r="A447" s="9"/>
-      <c r="D447" s="54"/>
+      <c r="D447" s="58"/>
       <c r="E447" s="7">
         <v>1</v>
       </c>
@@ -10043,7 +10236,7 @@
       <c r="A448" s="9"/>
       <c r="B448" s="49"/>
       <c r="C448" s="49"/>
-      <c r="D448" s="54"/>
+      <c r="D448" s="58"/>
       <c r="E448" s="7">
         <v>2</v>
       </c>
@@ -10062,7 +10255,7 @@
       <c r="A449" s="9"/>
       <c r="B449" s="49"/>
       <c r="C449" s="49"/>
-      <c r="D449" s="54"/>
+      <c r="D449" s="58"/>
       <c r="E449" s="7">
         <v>3</v>
       </c>
@@ -10079,7 +10272,7 @@
       <c r="A450" s="9"/>
       <c r="B450" s="49"/>
       <c r="C450" s="49"/>
-      <c r="D450" s="54"/>
+      <c r="D450" s="58"/>
       <c r="E450" s="7">
         <v>4</v>
       </c>
@@ -10095,7 +10288,7 @@
       <c r="A451" s="9"/>
       <c r="B451" s="49"/>
       <c r="C451" s="49"/>
-      <c r="D451" s="54"/>
+      <c r="D451" s="58"/>
       <c r="E451" s="7">
         <v>5</v>
       </c>
@@ -10112,7 +10305,7 @@
       <c r="A452" s="9"/>
       <c r="B452" s="49"/>
       <c r="C452" s="49"/>
-      <c r="D452" s="54"/>
+      <c r="D452" s="58"/>
       <c r="E452" s="7">
         <v>6</v>
       </c>
@@ -10129,7 +10322,7 @@
       <c r="A453" s="9"/>
       <c r="B453" s="49"/>
       <c r="C453" s="49"/>
-      <c r="D453" s="54"/>
+      <c r="D453" s="58"/>
       <c r="E453" s="7">
         <v>7</v>
       </c>
@@ -10145,7 +10338,7 @@
       <c r="A454" s="9"/>
       <c r="B454" s="49"/>
       <c r="C454" s="49"/>
-      <c r="D454" s="54"/>
+      <c r="D454" s="58"/>
       <c r="E454" s="7">
         <v>8</v>
       </c>
@@ -10161,7 +10354,7 @@
       <c r="A455" s="9"/>
       <c r="B455" s="49"/>
       <c r="C455" s="49"/>
-      <c r="D455" s="54"/>
+      <c r="D455" s="58"/>
       <c r="E455" s="15">
         <v>9</v>
       </c>
@@ -10192,7 +10385,7 @@
       <c r="C457" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D457" s="54" t="s">
+      <c r="D457" s="58" t="s">
         <v>426</v>
       </c>
       <c r="E457" s="7"/>
@@ -10207,7 +10400,7 @@
       <c r="A458" s="9"/>
       <c r="B458" s="49"/>
       <c r="C458" s="49"/>
-      <c r="D458" s="54"/>
+      <c r="D458" s="58"/>
       <c r="E458" s="7">
         <v>1</v>
       </c>
@@ -10226,7 +10419,7 @@
       <c r="A459" s="9"/>
       <c r="B459" s="49"/>
       <c r="C459" s="49"/>
-      <c r="D459" s="54"/>
+      <c r="D459" s="58"/>
       <c r="E459" s="7">
         <v>2</v>
       </c>
@@ -10245,7 +10438,7 @@
       <c r="A460" s="9"/>
       <c r="B460" s="49"/>
       <c r="C460" s="49"/>
-      <c r="D460" s="54"/>
+      <c r="D460" s="58"/>
       <c r="E460" s="7">
         <v>3</v>
       </c>
@@ -10262,7 +10455,7 @@
       <c r="A461" s="9"/>
       <c r="B461" s="49"/>
       <c r="C461" s="49"/>
-      <c r="D461" s="54"/>
+      <c r="D461" s="58"/>
       <c r="E461" s="7">
         <v>4</v>
       </c>
@@ -10278,7 +10471,7 @@
       <c r="A462" s="9"/>
       <c r="B462" s="49"/>
       <c r="C462" s="49"/>
-      <c r="D462" s="54"/>
+      <c r="D462" s="58"/>
       <c r="E462" s="7">
         <v>5</v>
       </c>
@@ -10295,7 +10488,7 @@
       <c r="A463" s="9"/>
       <c r="B463" s="49"/>
       <c r="C463" s="49"/>
-      <c r="D463" s="54"/>
+      <c r="D463" s="58"/>
       <c r="E463" s="7">
         <v>6</v>
       </c>
@@ -10312,7 +10505,7 @@
       <c r="A464" s="9"/>
       <c r="B464" s="49"/>
       <c r="C464" s="49"/>
-      <c r="D464" s="54"/>
+      <c r="D464" s="58"/>
       <c r="E464" s="7">
         <v>7</v>
       </c>
@@ -10328,7 +10521,7 @@
       <c r="A465" s="9"/>
       <c r="B465" s="49"/>
       <c r="C465" s="49"/>
-      <c r="D465" s="54"/>
+      <c r="D465" s="58"/>
       <c r="E465" s="7">
         <v>8</v>
       </c>
@@ -10344,7 +10537,7 @@
       <c r="A466" s="9"/>
       <c r="B466" s="49"/>
       <c r="C466" s="49"/>
-      <c r="D466" s="54"/>
+      <c r="D466" s="58"/>
       <c r="E466" s="15">
         <v>9</v>
       </c>
@@ -10360,7 +10553,7 @@
       <c r="A467" s="9"/>
       <c r="B467" s="49"/>
       <c r="C467" s="49"/>
-      <c r="D467" s="54"/>
+      <c r="D467" s="58"/>
       <c r="E467" s="7">
         <v>10</v>
       </c>
@@ -10394,7 +10587,7 @@
       <c r="C469" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D469" s="54" t="s">
+      <c r="D469" s="58" t="s">
         <v>430</v>
       </c>
       <c r="E469" s="7"/>
@@ -10409,7 +10602,7 @@
       <c r="A470" s="9"/>
       <c r="B470" s="49"/>
       <c r="C470" s="49"/>
-      <c r="D470" s="54"/>
+      <c r="D470" s="58"/>
       <c r="E470" s="7">
         <v>1</v>
       </c>
@@ -10428,7 +10621,7 @@
       <c r="A471" s="9"/>
       <c r="B471" s="49"/>
       <c r="C471" s="49"/>
-      <c r="D471" s="54"/>
+      <c r="D471" s="58"/>
       <c r="E471" s="7">
         <v>2</v>
       </c>
@@ -10447,7 +10640,7 @@
       <c r="A472" s="9"/>
       <c r="B472" s="49"/>
       <c r="C472" s="49"/>
-      <c r="D472" s="54"/>
+      <c r="D472" s="58"/>
       <c r="E472" s="7">
         <v>3</v>
       </c>
@@ -10464,7 +10657,7 @@
       <c r="A473" s="9"/>
       <c r="B473" s="49"/>
       <c r="C473" s="49"/>
-      <c r="D473" s="54"/>
+      <c r="D473" s="58"/>
       <c r="E473" s="7">
         <v>4</v>
       </c>
@@ -10480,7 +10673,7 @@
       <c r="A474" s="9"/>
       <c r="B474" s="49"/>
       <c r="C474" s="49"/>
-      <c r="D474" s="54"/>
+      <c r="D474" s="58"/>
       <c r="E474" s="7">
         <v>5</v>
       </c>
@@ -10497,7 +10690,7 @@
       <c r="A475" s="9"/>
       <c r="B475" s="49"/>
       <c r="C475" s="49"/>
-      <c r="D475" s="54"/>
+      <c r="D475" s="58"/>
       <c r="E475" s="7">
         <v>6</v>
       </c>
@@ -10514,7 +10707,7 @@
       <c r="A476" s="9"/>
       <c r="B476" s="49"/>
       <c r="C476" s="49"/>
-      <c r="D476" s="54"/>
+      <c r="D476" s="58"/>
       <c r="E476" s="7">
         <v>7</v>
       </c>
@@ -10530,7 +10723,7 @@
       <c r="A477" s="9"/>
       <c r="B477" s="49"/>
       <c r="C477" s="49"/>
-      <c r="D477" s="54"/>
+      <c r="D477" s="58"/>
       <c r="E477" s="7">
         <v>8</v>
       </c>
@@ -10546,7 +10739,7 @@
       <c r="A478" s="9"/>
       <c r="B478" s="49"/>
       <c r="C478" s="49"/>
-      <c r="D478" s="54"/>
+      <c r="D478" s="58"/>
       <c r="E478" s="15">
         <v>9</v>
       </c>
@@ -10562,7 +10755,7 @@
       <c r="A479" s="9"/>
       <c r="B479" s="49"/>
       <c r="C479" s="49"/>
-      <c r="D479" s="54"/>
+      <c r="D479" s="58"/>
       <c r="E479" s="7">
         <v>10</v>
       </c>
@@ -10579,7 +10772,7 @@
       <c r="A480" s="9"/>
       <c r="B480" s="49"/>
       <c r="C480" s="49"/>
-      <c r="D480" s="54"/>
+      <c r="D480" s="58"/>
       <c r="E480" s="7">
         <v>11</v>
       </c>
@@ -10613,7 +10806,7 @@
       <c r="C482" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D482" s="54" t="s">
+      <c r="D482" s="58" t="s">
         <v>435</v>
       </c>
       <c r="E482" s="7"/>
@@ -10627,7 +10820,7 @@
       <c r="A483" s="9"/>
       <c r="B483" s="49"/>
       <c r="C483" s="49"/>
-      <c r="D483" s="54"/>
+      <c r="D483" s="58"/>
       <c r="E483" s="7">
         <v>1</v>
       </c>
@@ -10646,7 +10839,7 @@
       <c r="A484" s="9"/>
       <c r="B484" s="49"/>
       <c r="C484" s="49"/>
-      <c r="D484" s="54"/>
+      <c r="D484" s="58"/>
       <c r="E484" s="7">
         <v>2</v>
       </c>
@@ -10665,7 +10858,7 @@
       <c r="A485" s="9"/>
       <c r="B485" s="49"/>
       <c r="C485" s="49"/>
-      <c r="D485" s="54"/>
+      <c r="D485" s="58"/>
       <c r="E485" s="7">
         <v>3</v>
       </c>
@@ -10682,7 +10875,7 @@
       <c r="A486" s="9"/>
       <c r="B486" s="49"/>
       <c r="C486" s="49"/>
-      <c r="D486" s="54"/>
+      <c r="D486" s="58"/>
       <c r="E486" s="7">
         <v>4</v>
       </c>
@@ -10698,7 +10891,7 @@
       <c r="A487" s="9"/>
       <c r="B487" s="49"/>
       <c r="C487" s="49"/>
-      <c r="D487" s="54"/>
+      <c r="D487" s="58"/>
       <c r="E487" s="7">
         <v>5</v>
       </c>
@@ -10715,7 +10908,7 @@
       <c r="A488" s="9"/>
       <c r="B488" s="49"/>
       <c r="C488" s="49"/>
-      <c r="D488" s="54"/>
+      <c r="D488" s="58"/>
       <c r="E488" s="7">
         <v>6</v>
       </c>
@@ -10749,7 +10942,7 @@
       <c r="C490" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D490" s="54" t="s">
+      <c r="D490" s="58" t="s">
         <v>438</v>
       </c>
       <c r="E490" s="7"/>
@@ -10764,7 +10957,7 @@
       <c r="A491" s="9"/>
       <c r="B491" s="49"/>
       <c r="C491" s="49"/>
-      <c r="D491" s="54"/>
+      <c r="D491" s="58"/>
       <c r="E491" s="7">
         <v>1</v>
       </c>
@@ -10783,7 +10976,7 @@
       <c r="A492" s="9"/>
       <c r="B492" s="49"/>
       <c r="C492" s="49"/>
-      <c r="D492" s="54"/>
+      <c r="D492" s="58"/>
       <c r="E492" s="7">
         <v>2</v>
       </c>
@@ -10802,7 +10995,7 @@
       <c r="A493" s="9"/>
       <c r="B493" s="49"/>
       <c r="C493" s="49"/>
-      <c r="D493" s="54"/>
+      <c r="D493" s="58"/>
       <c r="E493" s="7">
         <v>3</v>
       </c>
@@ -10819,7 +11012,7 @@
       <c r="A494" s="9"/>
       <c r="B494" s="49"/>
       <c r="C494" s="49"/>
-      <c r="D494" s="54"/>
+      <c r="D494" s="58"/>
       <c r="E494" s="7">
         <v>4</v>
       </c>
@@ -10835,7 +11028,7 @@
       <c r="A495" s="9"/>
       <c r="B495" s="49"/>
       <c r="C495" s="49"/>
-      <c r="D495" s="54"/>
+      <c r="D495" s="58"/>
       <c r="E495" s="7">
         <v>5</v>
       </c>
@@ -10852,7 +11045,7 @@
       <c r="A496" s="9"/>
       <c r="B496" s="49"/>
       <c r="C496" s="49"/>
-      <c r="D496" s="54"/>
+      <c r="D496" s="58"/>
       <c r="E496" s="7">
         <v>6</v>
       </c>
@@ -10869,7 +11062,7 @@
       <c r="A497" s="9"/>
       <c r="B497" s="49"/>
       <c r="C497" s="49"/>
-      <c r="D497" s="54"/>
+      <c r="D497" s="58"/>
       <c r="E497" s="7">
         <v>7</v>
       </c>
@@ -10903,7 +11096,7 @@
       <c r="C499" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D499" s="54" t="s">
+      <c r="D499" s="58" t="s">
         <v>443</v>
       </c>
       <c r="E499" s="7"/>
@@ -10917,7 +11110,7 @@
       <c r="A500" s="9"/>
       <c r="B500" s="49"/>
       <c r="C500" s="49"/>
-      <c r="D500" s="54"/>
+      <c r="D500" s="58"/>
       <c r="E500" s="7">
         <v>1</v>
       </c>
@@ -10936,7 +11129,7 @@
       <c r="A501" s="9"/>
       <c r="B501" s="49"/>
       <c r="C501" s="49"/>
-      <c r="D501" s="54"/>
+      <c r="D501" s="58"/>
       <c r="E501" s="7">
         <v>2</v>
       </c>
@@ -10955,7 +11148,7 @@
       <c r="A502" s="9"/>
       <c r="B502" s="49"/>
       <c r="C502" s="49"/>
-      <c r="D502" s="54"/>
+      <c r="D502" s="58"/>
       <c r="E502" s="7">
         <v>3</v>
       </c>
@@ -10972,7 +11165,7 @@
       <c r="A503" s="9"/>
       <c r="B503" s="49"/>
       <c r="C503" s="49"/>
-      <c r="D503" s="54"/>
+      <c r="D503" s="58"/>
       <c r="E503" s="7">
         <v>4</v>
       </c>
@@ -10988,7 +11181,7 @@
       <c r="A504" s="9"/>
       <c r="B504" s="49"/>
       <c r="C504" s="49"/>
-      <c r="D504" s="54"/>
+      <c r="D504" s="58"/>
       <c r="E504" s="7">
         <v>5</v>
       </c>
@@ -11005,7 +11198,7 @@
       <c r="A505" s="9"/>
       <c r="B505" s="49"/>
       <c r="C505" s="49"/>
-      <c r="D505" s="54"/>
+      <c r="D505" s="58"/>
       <c r="E505" s="7">
         <v>6</v>
       </c>
@@ -11022,7 +11215,7 @@
       <c r="A506" s="9"/>
       <c r="B506" s="49"/>
       <c r="C506" s="49"/>
-      <c r="D506" s="54"/>
+      <c r="D506" s="58"/>
       <c r="E506" s="7">
         <v>7</v>
       </c>
@@ -11039,7 +11232,7 @@
       <c r="A507" s="9"/>
       <c r="B507" s="49"/>
       <c r="C507" s="49"/>
-      <c r="D507" s="54"/>
+      <c r="D507" s="58"/>
       <c r="E507" s="7">
         <v>8</v>
       </c>
@@ -11072,7 +11265,7 @@
       <c r="C509" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D509" s="54" t="s">
+      <c r="D509" s="58" t="s">
         <v>447</v>
       </c>
       <c r="E509" s="7"/>
@@ -11086,7 +11279,7 @@
       <c r="A510" s="9"/>
       <c r="B510" s="49"/>
       <c r="C510" s="49"/>
-      <c r="D510" s="54"/>
+      <c r="D510" s="58"/>
       <c r="E510" s="7">
         <v>1</v>
       </c>
@@ -11105,7 +11298,7 @@
       <c r="A511" s="9"/>
       <c r="B511" s="49"/>
       <c r="C511" s="49"/>
-      <c r="D511" s="54"/>
+      <c r="D511" s="58"/>
       <c r="E511" s="7">
         <v>2</v>
       </c>
@@ -11124,7 +11317,7 @@
       <c r="A512" s="9"/>
       <c r="B512" s="49"/>
       <c r="C512" s="49"/>
-      <c r="D512" s="54"/>
+      <c r="D512" s="58"/>
       <c r="E512" s="7">
         <v>3</v>
       </c>
@@ -11141,7 +11334,7 @@
       <c r="A513" s="9"/>
       <c r="B513" s="49"/>
       <c r="C513" s="49"/>
-      <c r="D513" s="54"/>
+      <c r="D513" s="58"/>
       <c r="E513" s="7">
         <v>4</v>
       </c>
@@ -11157,7 +11350,7 @@
       <c r="A514" s="9"/>
       <c r="B514" s="49"/>
       <c r="C514" s="49"/>
-      <c r="D514" s="54"/>
+      <c r="D514" s="58"/>
       <c r="E514" s="7">
         <v>5</v>
       </c>
@@ -11174,7 +11367,7 @@
       <c r="A515" s="9"/>
       <c r="B515" s="49"/>
       <c r="C515" s="49"/>
-      <c r="D515" s="54"/>
+      <c r="D515" s="58"/>
       <c r="E515" s="7">
         <v>6</v>
       </c>
@@ -11191,7 +11384,7 @@
       <c r="A516" s="9"/>
       <c r="B516" s="49"/>
       <c r="C516" s="49"/>
-      <c r="D516" s="54"/>
+      <c r="D516" s="58"/>
       <c r="E516" s="7">
         <v>7</v>
       </c>
@@ -11208,7 +11401,7 @@
       <c r="A517" s="9"/>
       <c r="B517" s="49"/>
       <c r="C517" s="49"/>
-      <c r="D517" s="54"/>
+      <c r="D517" s="58"/>
       <c r="E517" s="7">
         <v>8</v>
       </c>
@@ -11225,7 +11418,7 @@
       <c r="A518" s="9"/>
       <c r="B518" s="49"/>
       <c r="C518" s="49"/>
-      <c r="D518" s="54"/>
+      <c r="D518" s="58"/>
       <c r="E518" s="7">
         <v>9</v>
       </c>
@@ -11259,7 +11452,7 @@
       <c r="C520" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D520" s="54" t="s">
+      <c r="D520" s="58" t="s">
         <v>450</v>
       </c>
       <c r="E520" s="7"/>
@@ -11273,7 +11466,7 @@
       <c r="A521" s="9"/>
       <c r="B521" s="49"/>
       <c r="C521" s="49"/>
-      <c r="D521" s="54"/>
+      <c r="D521" s="58"/>
       <c r="E521" s="7">
         <v>1</v>
       </c>
@@ -11292,7 +11485,7 @@
       <c r="A522" s="9"/>
       <c r="B522" s="49"/>
       <c r="C522" s="49"/>
-      <c r="D522" s="54"/>
+      <c r="D522" s="58"/>
       <c r="E522" s="7">
         <v>2</v>
       </c>
@@ -11311,7 +11504,7 @@
       <c r="A523" s="9"/>
       <c r="B523" s="49"/>
       <c r="C523" s="49"/>
-      <c r="D523" s="54"/>
+      <c r="D523" s="58"/>
       <c r="E523" s="7">
         <v>3</v>
       </c>
@@ -11328,7 +11521,7 @@
       <c r="A524" s="9"/>
       <c r="B524" s="49"/>
       <c r="C524" s="49"/>
-      <c r="D524" s="54"/>
+      <c r="D524" s="58"/>
       <c r="E524" s="7">
         <v>4</v>
       </c>
@@ -11344,7 +11537,7 @@
       <c r="A525" s="9"/>
       <c r="B525" s="49"/>
       <c r="C525" s="49"/>
-      <c r="D525" s="54"/>
+      <c r="D525" s="58"/>
       <c r="E525" s="7">
         <v>5</v>
       </c>
@@ -11361,7 +11554,7 @@
       <c r="A526" s="9"/>
       <c r="B526" s="49"/>
       <c r="C526" s="49"/>
-      <c r="D526" s="54"/>
+      <c r="D526" s="58"/>
       <c r="E526" s="7">
         <v>6</v>
       </c>
@@ -11378,7 +11571,7 @@
       <c r="A527" s="9"/>
       <c r="B527" s="49"/>
       <c r="C527" s="49"/>
-      <c r="D527" s="54"/>
+      <c r="D527" s="58"/>
       <c r="E527" s="7">
         <v>7</v>
       </c>
@@ -11395,7 +11588,7 @@
       <c r="A528" s="9"/>
       <c r="B528" s="49"/>
       <c r="C528" s="49"/>
-      <c r="D528" s="54"/>
+      <c r="D528" s="58"/>
       <c r="E528" s="7">
         <v>8</v>
       </c>
@@ -11412,7 +11605,7 @@
       <c r="A529" s="9"/>
       <c r="B529" s="49"/>
       <c r="C529" s="49"/>
-      <c r="D529" s="54"/>
+      <c r="D529" s="58"/>
       <c r="E529" s="7">
         <v>9</v>
       </c>
@@ -11429,7 +11622,7 @@
       <c r="A530" s="9"/>
       <c r="B530" s="49"/>
       <c r="C530" s="49"/>
-      <c r="D530" s="54"/>
+      <c r="D530" s="58"/>
       <c r="E530" s="7">
         <v>10</v>
       </c>
@@ -11463,7 +11656,7 @@
       <c r="C532" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D532" s="54" t="s">
+      <c r="D532" s="58" t="s">
         <v>453</v>
       </c>
       <c r="E532" s="7"/>
@@ -11477,7 +11670,7 @@
       <c r="A533" s="9"/>
       <c r="B533" s="49"/>
       <c r="C533" s="49"/>
-      <c r="D533" s="54"/>
+      <c r="D533" s="58"/>
       <c r="E533" s="7">
         <v>1</v>
       </c>
@@ -11496,7 +11689,7 @@
       <c r="A534" s="9"/>
       <c r="B534" s="49"/>
       <c r="C534" s="49"/>
-      <c r="D534" s="54"/>
+      <c r="D534" s="58"/>
       <c r="E534" s="7">
         <v>2</v>
       </c>
@@ -11515,7 +11708,7 @@
       <c r="A535" s="9"/>
       <c r="B535" s="49"/>
       <c r="C535" s="49"/>
-      <c r="D535" s="54"/>
+      <c r="D535" s="58"/>
       <c r="E535" s="7">
         <v>3</v>
       </c>
@@ -11532,7 +11725,7 @@
       <c r="A536" s="9"/>
       <c r="B536" s="49"/>
       <c r="C536" s="49"/>
-      <c r="D536" s="54"/>
+      <c r="D536" s="58"/>
       <c r="E536" s="7">
         <v>4</v>
       </c>
@@ -11548,7 +11741,7 @@
       <c r="A537" s="9"/>
       <c r="B537" s="49"/>
       <c r="C537" s="49"/>
-      <c r="D537" s="54"/>
+      <c r="D537" s="58"/>
       <c r="E537" s="7">
         <v>5</v>
       </c>
@@ -11565,7 +11758,7 @@
       <c r="A538" s="9"/>
       <c r="B538" s="49"/>
       <c r="C538" s="49"/>
-      <c r="D538" s="54"/>
+      <c r="D538" s="58"/>
       <c r="E538" s="7">
         <v>6</v>
       </c>
@@ -11582,7 +11775,7 @@
       <c r="A539" s="9"/>
       <c r="B539" s="49"/>
       <c r="C539" s="49"/>
-      <c r="D539" s="54"/>
+      <c r="D539" s="58"/>
       <c r="E539" s="7">
         <v>7</v>
       </c>
@@ -11599,7 +11792,7 @@
       <c r="A540" s="9"/>
       <c r="B540" s="49"/>
       <c r="C540" s="49"/>
-      <c r="D540" s="54"/>
+      <c r="D540" s="58"/>
       <c r="E540" s="7">
         <v>8</v>
       </c>
@@ -11616,7 +11809,7 @@
       <c r="A541" s="9"/>
       <c r="B541" s="49"/>
       <c r="C541" s="49"/>
-      <c r="D541" s="54"/>
+      <c r="D541" s="58"/>
       <c r="E541" s="7">
         <v>9</v>
       </c>
@@ -11633,7 +11826,7 @@
       <c r="A542" s="9"/>
       <c r="B542" s="49"/>
       <c r="C542" s="49"/>
-      <c r="D542" s="54"/>
+      <c r="D542" s="58"/>
       <c r="E542" s="7">
         <v>10</v>
       </c>
@@ -11650,7 +11843,7 @@
       <c r="A543" s="9"/>
       <c r="B543" s="49"/>
       <c r="C543" s="49"/>
-      <c r="D543" s="54"/>
+      <c r="D543" s="58"/>
       <c r="E543" s="7">
         <v>11</v>
       </c>
@@ -11684,7 +11877,7 @@
       <c r="C545" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D545" s="54" t="s">
+      <c r="D545" s="58" t="s">
         <v>454</v>
       </c>
       <c r="E545" s="7"/>
@@ -11698,7 +11891,7 @@
       <c r="A546" s="9"/>
       <c r="B546" s="49"/>
       <c r="C546" s="49"/>
-      <c r="D546" s="54"/>
+      <c r="D546" s="58"/>
       <c r="E546" s="7">
         <v>1</v>
       </c>
@@ -11717,7 +11910,7 @@
       <c r="A547" s="9"/>
       <c r="B547" s="49"/>
       <c r="C547" s="49"/>
-      <c r="D547" s="54"/>
+      <c r="D547" s="58"/>
       <c r="E547" s="7">
         <v>2</v>
       </c>
@@ -11736,7 +11929,7 @@
       <c r="A548" s="9"/>
       <c r="B548" s="49"/>
       <c r="C548" s="49"/>
-      <c r="D548" s="54"/>
+      <c r="D548" s="58"/>
       <c r="E548" s="7">
         <v>3</v>
       </c>
@@ -11753,7 +11946,7 @@
       <c r="A549" s="9"/>
       <c r="B549" s="49"/>
       <c r="C549" s="49"/>
-      <c r="D549" s="54"/>
+      <c r="D549" s="58"/>
       <c r="E549" s="7">
         <v>4</v>
       </c>
@@ -11769,7 +11962,7 @@
       <c r="A550" s="9"/>
       <c r="B550" s="49"/>
       <c r="C550" s="49"/>
-      <c r="D550" s="54"/>
+      <c r="D550" s="58"/>
       <c r="E550" s="7">
         <v>5</v>
       </c>
@@ -11786,7 +11979,7 @@
       <c r="A551" s="9"/>
       <c r="B551" s="49"/>
       <c r="C551" s="49"/>
-      <c r="D551" s="54"/>
+      <c r="D551" s="58"/>
       <c r="E551" s="7">
         <v>6</v>
       </c>
@@ -11803,7 +11996,7 @@
       <c r="A552" s="9"/>
       <c r="B552" s="49"/>
       <c r="C552" s="49"/>
-      <c r="D552" s="54"/>
+      <c r="D552" s="58"/>
       <c r="E552" s="7">
         <v>7</v>
       </c>
@@ -11820,7 +12013,7 @@
       <c r="A553" s="9"/>
       <c r="B553" s="49"/>
       <c r="C553" s="49"/>
-      <c r="D553" s="54"/>
+      <c r="D553" s="58"/>
       <c r="E553" s="7">
         <v>8</v>
       </c>
@@ -11837,7 +12030,7 @@
       <c r="A554" s="9"/>
       <c r="B554" s="49"/>
       <c r="C554" s="49"/>
-      <c r="D554" s="54"/>
+      <c r="D554" s="58"/>
       <c r="E554" s="7">
         <v>9</v>
       </c>
@@ -11871,7 +12064,7 @@
       <c r="C556" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D556" s="54" t="s">
+      <c r="D556" s="58" t="s">
         <v>457</v>
       </c>
       <c r="E556" s="7"/>
@@ -11885,7 +12078,7 @@
       <c r="A557" s="9"/>
       <c r="B557" s="49"/>
       <c r="C557" s="49"/>
-      <c r="D557" s="54"/>
+      <c r="D557" s="58"/>
       <c r="E557" s="7">
         <v>1</v>
       </c>
@@ -11904,7 +12097,7 @@
       <c r="A558" s="9"/>
       <c r="B558" s="49"/>
       <c r="C558" s="49"/>
-      <c r="D558" s="54"/>
+      <c r="D558" s="58"/>
       <c r="E558" s="7">
         <v>2</v>
       </c>
@@ -11923,7 +12116,7 @@
       <c r="A559" s="9"/>
       <c r="B559" s="49"/>
       <c r="C559" s="49"/>
-      <c r="D559" s="54"/>
+      <c r="D559" s="58"/>
       <c r="E559" s="7">
         <v>3</v>
       </c>
@@ -11940,7 +12133,7 @@
       <c r="A560" s="9"/>
       <c r="B560" s="49"/>
       <c r="C560" s="49"/>
-      <c r="D560" s="54"/>
+      <c r="D560" s="58"/>
       <c r="E560" s="7">
         <v>4</v>
       </c>
@@ -11956,7 +12149,7 @@
       <c r="A561" s="9"/>
       <c r="B561" s="49"/>
       <c r="C561" s="49"/>
-      <c r="D561" s="54"/>
+      <c r="D561" s="58"/>
       <c r="E561" s="7">
         <v>5</v>
       </c>
@@ -11973,7 +12166,7 @@
       <c r="A562" s="9"/>
       <c r="B562" s="49"/>
       <c r="C562" s="49"/>
-      <c r="D562" s="54"/>
+      <c r="D562" s="58"/>
       <c r="E562" s="7">
         <v>6</v>
       </c>
@@ -11990,7 +12183,7 @@
       <c r="A563" s="9"/>
       <c r="B563" s="49"/>
       <c r="C563" s="49"/>
-      <c r="D563" s="54"/>
+      <c r="D563" s="58"/>
       <c r="E563" s="7">
         <v>7</v>
       </c>
@@ -12007,7 +12200,7 @@
       <c r="A564" s="9"/>
       <c r="B564" s="49"/>
       <c r="C564" s="49"/>
-      <c r="D564" s="54"/>
+      <c r="D564" s="58"/>
       <c r="E564" s="7">
         <v>8</v>
       </c>
@@ -12024,7 +12217,7 @@
       <c r="A565" s="9"/>
       <c r="B565" s="49"/>
       <c r="C565" s="49"/>
-      <c r="D565" s="54"/>
+      <c r="D565" s="58"/>
       <c r="E565" s="7">
         <v>9</v>
       </c>
@@ -12058,7 +12251,7 @@
       <c r="C567" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D567" s="55" t="s">
+      <c r="D567" s="56" t="s">
         <v>458</v>
       </c>
       <c r="E567" s="7"/>
@@ -12073,7 +12266,7 @@
       <c r="A568" s="9"/>
       <c r="B568" s="49"/>
       <c r="C568" s="49"/>
-      <c r="D568" s="55"/>
+      <c r="D568" s="56"/>
       <c r="E568" s="7">
         <v>1</v>
       </c>
@@ -12092,7 +12285,7 @@
       <c r="A569" s="9"/>
       <c r="B569" s="49"/>
       <c r="C569" s="49"/>
-      <c r="D569" s="55"/>
+      <c r="D569" s="56"/>
       <c r="E569" s="7">
         <v>2</v>
       </c>
@@ -12111,7 +12304,7 @@
       <c r="A570" s="9"/>
       <c r="B570" s="49"/>
       <c r="C570" s="49"/>
-      <c r="D570" s="55"/>
+      <c r="D570" s="56"/>
       <c r="E570" s="7">
         <v>3</v>
       </c>
@@ -12128,7 +12321,7 @@
       <c r="A571" s="9"/>
       <c r="B571" s="49"/>
       <c r="C571" s="49"/>
-      <c r="D571" s="55"/>
+      <c r="D571" s="56"/>
       <c r="E571" s="7">
         <v>4</v>
       </c>
@@ -12144,7 +12337,7 @@
       <c r="A572" s="9"/>
       <c r="B572" s="49"/>
       <c r="C572" s="49"/>
-      <c r="D572" s="55"/>
+      <c r="D572" s="56"/>
       <c r="E572" s="7">
         <v>5</v>
       </c>
@@ -12158,7 +12351,7 @@
     </row>
     <row r="573" spans="1:11" ht="30">
       <c r="A573" s="7"/>
-      <c r="D573" s="55"/>
+      <c r="D573" s="56"/>
       <c r="E573" s="7">
         <v>6</v>
       </c>
@@ -12172,7 +12365,7 @@
     </row>
     <row r="574" spans="1:11">
       <c r="A574" s="7"/>
-      <c r="D574" s="55"/>
+      <c r="D574" s="56"/>
       <c r="E574" s="7">
         <v>7</v>
       </c>
@@ -12186,7 +12379,7 @@
     </row>
     <row r="575" spans="1:11" ht="30" customHeight="1">
       <c r="A575" s="7"/>
-      <c r="D575" s="55"/>
+      <c r="D575" s="56"/>
       <c r="E575" s="7">
         <v>8</v>
       </c>
@@ -12218,7 +12411,7 @@
       <c r="C577" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D577" s="55" t="s">
+      <c r="D577" s="56" t="s">
         <v>215</v>
       </c>
       <c r="E577" s="7"/>
@@ -12233,7 +12426,7 @@
       <c r="A578" s="9"/>
       <c r="B578" s="49"/>
       <c r="C578" s="49"/>
-      <c r="D578" s="55"/>
+      <c r="D578" s="56"/>
       <c r="E578" s="7">
         <v>1</v>
       </c>
@@ -12252,7 +12445,7 @@
       <c r="A579" s="9"/>
       <c r="B579" s="49"/>
       <c r="C579" s="49"/>
-      <c r="D579" s="55"/>
+      <c r="D579" s="56"/>
       <c r="E579" s="7">
         <v>2</v>
       </c>
@@ -12271,7 +12464,7 @@
       <c r="A580" s="9"/>
       <c r="B580" s="49"/>
       <c r="C580" s="49"/>
-      <c r="D580" s="55"/>
+      <c r="D580" s="56"/>
       <c r="E580" s="7">
         <v>3</v>
       </c>
@@ -12288,7 +12481,7 @@
       <c r="A581" s="9"/>
       <c r="B581" s="49"/>
       <c r="C581" s="49"/>
-      <c r="D581" s="55"/>
+      <c r="D581" s="56"/>
       <c r="E581" s="7">
         <v>4</v>
       </c>
@@ -12304,7 +12497,7 @@
       <c r="A582" s="9"/>
       <c r="B582" s="49"/>
       <c r="C582" s="49"/>
-      <c r="D582" s="55"/>
+      <c r="D582" s="56"/>
       <c r="E582" s="7">
         <v>5</v>
       </c>
@@ -12320,7 +12513,7 @@
       <c r="A583" s="9"/>
       <c r="B583" s="49"/>
       <c r="C583" s="49"/>
-      <c r="D583" s="55"/>
+      <c r="D583" s="56"/>
       <c r="E583" s="7">
         <v>6</v>
       </c>
@@ -12354,7 +12547,7 @@
       <c r="C585" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D585" s="55" t="s">
+      <c r="D585" s="56" t="s">
         <v>216</v>
       </c>
       <c r="E585" s="7">
@@ -12370,7 +12563,7 @@
       <c r="A586" s="9"/>
       <c r="B586" s="49"/>
       <c r="C586" s="49"/>
-      <c r="D586" s="55"/>
+      <c r="D586" s="56"/>
       <c r="E586" s="7">
         <v>1</v>
       </c>
@@ -12389,7 +12582,7 @@
       <c r="A587" s="9"/>
       <c r="B587" s="49"/>
       <c r="C587" s="49"/>
-      <c r="D587" s="55"/>
+      <c r="D587" s="56"/>
       <c r="E587" s="7">
         <v>2</v>
       </c>
@@ -12408,7 +12601,7 @@
       <c r="A588" s="9"/>
       <c r="B588" s="49"/>
       <c r="C588" s="49"/>
-      <c r="D588" s="55"/>
+      <c r="D588" s="56"/>
       <c r="E588" s="7">
         <v>3</v>
       </c>
@@ -12425,7 +12618,7 @@
       <c r="A589" s="9"/>
       <c r="B589" s="49"/>
       <c r="C589" s="49"/>
-      <c r="D589" s="55"/>
+      <c r="D589" s="56"/>
       <c r="E589" s="7">
         <v>4</v>
       </c>
@@ -12441,7 +12634,7 @@
       <c r="A590" s="9"/>
       <c r="B590" s="49"/>
       <c r="C590" s="49"/>
-      <c r="D590" s="55"/>
+      <c r="D590" s="56"/>
       <c r="E590" s="7">
         <v>5</v>
       </c>
@@ -12457,7 +12650,7 @@
       <c r="A591" s="9"/>
       <c r="B591" s="49"/>
       <c r="C591" s="49"/>
-      <c r="D591" s="55"/>
+      <c r="D591" s="56"/>
       <c r="E591" s="7">
         <v>6</v>
       </c>
@@ -12489,7 +12682,7 @@
       <c r="C593" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D593" s="54" t="s">
+      <c r="D593" s="58" t="s">
         <v>468</v>
       </c>
       <c r="E593" s="7"/>
@@ -12503,7 +12696,7 @@
       <c r="A594" s="9"/>
       <c r="B594" s="51"/>
       <c r="C594" s="51"/>
-      <c r="D594" s="54"/>
+      <c r="D594" s="58"/>
       <c r="E594" s="7">
         <v>1</v>
       </c>
@@ -12522,7 +12715,7 @@
       <c r="A595" s="9"/>
       <c r="B595" s="51"/>
       <c r="C595" s="51"/>
-      <c r="D595" s="54"/>
+      <c r="D595" s="58"/>
       <c r="E595" s="7">
         <v>2</v>
       </c>
@@ -12541,7 +12734,7 @@
       <c r="A596" s="9"/>
       <c r="B596" s="51"/>
       <c r="C596" s="51"/>
-      <c r="D596" s="54"/>
+      <c r="D596" s="58"/>
       <c r="E596" s="7">
         <v>3</v>
       </c>
@@ -12558,7 +12751,7 @@
       <c r="A597" s="9"/>
       <c r="B597" s="51"/>
       <c r="C597" s="51"/>
-      <c r="D597" s="54"/>
+      <c r="D597" s="58"/>
       <c r="E597" s="7">
         <v>4</v>
       </c>
@@ -12574,7 +12767,7 @@
       <c r="A598" s="9"/>
       <c r="B598" s="51"/>
       <c r="C598" s="51"/>
-      <c r="D598" s="54"/>
+      <c r="D598" s="58"/>
       <c r="E598" s="7">
         <v>5</v>
       </c>
@@ -12590,7 +12783,7 @@
       <c r="A599" s="9"/>
       <c r="B599" s="51"/>
       <c r="C599" s="51"/>
-      <c r="D599" s="54"/>
+      <c r="D599" s="58"/>
       <c r="E599" s="7">
         <v>6</v>
       </c>
@@ -12622,7 +12815,7 @@
       <c r="C601" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D601" s="54" t="s">
+      <c r="D601" s="58" t="s">
         <v>472</v>
       </c>
       <c r="E601" s="7"/>
@@ -12636,7 +12829,7 @@
       <c r="A602" s="9"/>
       <c r="B602" s="51"/>
       <c r="C602" s="51"/>
-      <c r="D602" s="54"/>
+      <c r="D602" s="58"/>
       <c r="E602" s="7">
         <v>1</v>
       </c>
@@ -12655,7 +12848,7 @@
       <c r="A603" s="9"/>
       <c r="B603" s="51"/>
       <c r="C603" s="51"/>
-      <c r="D603" s="54"/>
+      <c r="D603" s="58"/>
       <c r="E603" s="7">
         <v>2</v>
       </c>
@@ -12674,7 +12867,7 @@
       <c r="A604" s="9"/>
       <c r="B604" s="51"/>
       <c r="C604" s="51"/>
-      <c r="D604" s="54"/>
+      <c r="D604" s="58"/>
       <c r="E604" s="7">
         <v>3</v>
       </c>
@@ -12691,7 +12884,7 @@
       <c r="A605" s="9"/>
       <c r="B605" s="51"/>
       <c r="C605" s="51"/>
-      <c r="D605" s="54"/>
+      <c r="D605" s="58"/>
       <c r="E605" s="7">
         <v>4</v>
       </c>
@@ -12707,7 +12900,7 @@
       <c r="A606" s="9"/>
       <c r="B606" s="51"/>
       <c r="C606" s="51"/>
-      <c r="D606" s="54"/>
+      <c r="D606" s="58"/>
       <c r="E606" s="7">
         <v>5</v>
       </c>
@@ -12723,7 +12916,7 @@
       <c r="A607" s="9"/>
       <c r="B607" s="51"/>
       <c r="C607" s="51"/>
-      <c r="D607" s="54"/>
+      <c r="D607" s="58"/>
       <c r="E607" s="7">
         <v>6</v>
       </c>
@@ -12756,7 +12949,7 @@
       <c r="C609" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D609" s="54" t="s">
+      <c r="D609" s="58" t="s">
         <v>474</v>
       </c>
       <c r="E609" s="7"/>
@@ -12769,7 +12962,7 @@
       <c r="A610" s="9"/>
       <c r="B610" s="51"/>
       <c r="C610" s="51"/>
-      <c r="D610" s="54"/>
+      <c r="D610" s="58"/>
       <c r="E610" s="7">
         <v>1</v>
       </c>
@@ -12788,7 +12981,7 @@
       <c r="A611" s="9"/>
       <c r="B611" s="51"/>
       <c r="C611" s="51"/>
-      <c r="D611" s="54"/>
+      <c r="D611" s="58"/>
       <c r="E611" s="7">
         <v>2</v>
       </c>
@@ -12807,7 +13000,7 @@
       <c r="A612" s="9"/>
       <c r="B612" s="51"/>
       <c r="C612" s="51"/>
-      <c r="D612" s="54"/>
+      <c r="D612" s="58"/>
       <c r="E612" s="7">
         <v>3</v>
       </c>
@@ -12824,7 +13017,7 @@
       <c r="A613" s="9"/>
       <c r="B613" s="51"/>
       <c r="C613" s="51"/>
-      <c r="D613" s="54"/>
+      <c r="D613" s="58"/>
       <c r="E613" s="7">
         <v>4</v>
       </c>
@@ -12840,7 +13033,7 @@
       <c r="A614" s="9"/>
       <c r="B614" s="51"/>
       <c r="C614" s="51"/>
-      <c r="D614" s="54"/>
+      <c r="D614" s="58"/>
       <c r="E614" s="7">
         <v>5</v>
       </c>
@@ -12856,7 +13049,7 @@
       <c r="A615" s="9"/>
       <c r="B615" s="51"/>
       <c r="C615" s="51"/>
-      <c r="D615" s="54"/>
+      <c r="D615" s="58"/>
       <c r="E615" s="7">
         <v>6</v>
       </c>
@@ -12888,7 +13081,7 @@
       <c r="C617" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D617" s="54" t="s">
+      <c r="D617" s="58" t="s">
         <v>476</v>
       </c>
       <c r="E617" s="7"/>
@@ -12903,7 +13096,7 @@
       <c r="A618" s="9"/>
       <c r="B618" s="51"/>
       <c r="C618" s="51"/>
-      <c r="D618" s="54"/>
+      <c r="D618" s="58"/>
       <c r="E618" s="7">
         <v>1</v>
       </c>
@@ -12922,7 +13115,7 @@
       <c r="A619" s="9"/>
       <c r="B619" s="51"/>
       <c r="C619" s="51"/>
-      <c r="D619" s="54"/>
+      <c r="D619" s="58"/>
       <c r="E619" s="7">
         <v>2</v>
       </c>
@@ -12941,7 +13134,7 @@
       <c r="A620" s="9"/>
       <c r="B620" s="51"/>
       <c r="C620" s="51"/>
-      <c r="D620" s="54"/>
+      <c r="D620" s="58"/>
       <c r="E620" s="7">
         <v>3</v>
       </c>
@@ -12958,7 +13151,7 @@
       <c r="A621" s="9"/>
       <c r="B621" s="51"/>
       <c r="C621" s="51"/>
-      <c r="D621" s="54"/>
+      <c r="D621" s="58"/>
       <c r="E621" s="7">
         <v>4</v>
       </c>
@@ -12974,7 +13167,7 @@
       <c r="A622" s="9"/>
       <c r="B622" s="51"/>
       <c r="C622" s="51"/>
-      <c r="D622" s="54"/>
+      <c r="D622" s="58"/>
       <c r="E622" s="7">
         <v>5</v>
       </c>
@@ -12990,7 +13183,7 @@
       <c r="A623" s="9"/>
       <c r="B623" s="51"/>
       <c r="C623" s="51"/>
-      <c r="D623" s="54"/>
+      <c r="D623" s="58"/>
       <c r="E623" s="7">
         <v>6</v>
       </c>
@@ -13023,7 +13216,7 @@
       <c r="C625" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D625" s="54" t="s">
+      <c r="D625" s="58" t="s">
         <v>480</v>
       </c>
       <c r="E625" s="9"/>
@@ -13038,7 +13231,7 @@
       <c r="A626" s="9"/>
       <c r="B626" s="51"/>
       <c r="C626" s="51"/>
-      <c r="D626" s="54"/>
+      <c r="D626" s="58"/>
       <c r="E626" s="7">
         <v>1</v>
       </c>
@@ -13057,7 +13250,7 @@
       <c r="A627" s="9"/>
       <c r="B627" s="51"/>
       <c r="C627" s="51"/>
-      <c r="D627" s="54"/>
+      <c r="D627" s="58"/>
       <c r="E627" s="7">
         <v>2</v>
       </c>
@@ -13076,7 +13269,7 @@
       <c r="A628" s="9"/>
       <c r="B628" s="51"/>
       <c r="C628" s="51"/>
-      <c r="D628" s="54"/>
+      <c r="D628" s="58"/>
       <c r="E628" s="7">
         <v>3</v>
       </c>
@@ -13093,7 +13286,7 @@
       <c r="A629" s="9"/>
       <c r="B629" s="51"/>
       <c r="C629" s="51"/>
-      <c r="D629" s="54"/>
+      <c r="D629" s="58"/>
       <c r="E629" s="7">
         <v>4</v>
       </c>
@@ -13109,7 +13302,7 @@
       <c r="A630" s="9"/>
       <c r="B630" s="51"/>
       <c r="C630" s="51"/>
-      <c r="D630" s="54"/>
+      <c r="D630" s="58"/>
       <c r="E630" s="7">
         <v>5</v>
       </c>
@@ -13125,7 +13318,7 @@
       <c r="A631" s="9"/>
       <c r="B631" s="51"/>
       <c r="C631" s="51"/>
-      <c r="D631" s="54"/>
+      <c r="D631" s="58"/>
       <c r="E631" s="7">
         <v>6</v>
       </c>
@@ -13157,7 +13350,7 @@
       <c r="C633" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D633" s="54" t="s">
+      <c r="D633" s="58" t="s">
         <v>484</v>
       </c>
       <c r="E633" s="9"/>
@@ -13171,7 +13364,7 @@
       <c r="A634" s="9"/>
       <c r="B634" s="51"/>
       <c r="C634" s="51"/>
-      <c r="D634" s="54"/>
+      <c r="D634" s="58"/>
       <c r="E634" s="7">
         <v>1</v>
       </c>
@@ -13190,7 +13383,7 @@
       <c r="A635" s="9"/>
       <c r="B635" s="51"/>
       <c r="C635" s="51"/>
-      <c r="D635" s="54"/>
+      <c r="D635" s="58"/>
       <c r="E635" s="7">
         <v>2</v>
       </c>
@@ -13209,7 +13402,7 @@
       <c r="A636" s="9"/>
       <c r="B636" s="51"/>
       <c r="C636" s="51"/>
-      <c r="D636" s="54"/>
+      <c r="D636" s="58"/>
       <c r="E636" s="7">
         <v>3</v>
       </c>
@@ -13226,7 +13419,7 @@
       <c r="A637" s="9"/>
       <c r="B637" s="51"/>
       <c r="C637" s="51"/>
-      <c r="D637" s="54"/>
+      <c r="D637" s="58"/>
       <c r="E637" s="7">
         <v>4</v>
       </c>
@@ -13242,7 +13435,7 @@
       <c r="A638" s="9"/>
       <c r="B638" s="51"/>
       <c r="C638" s="51"/>
-      <c r="D638" s="54"/>
+      <c r="D638" s="58"/>
       <c r="E638" s="7">
         <v>5</v>
       </c>
@@ -13258,7 +13451,7 @@
       <c r="A639" s="9"/>
       <c r="B639" s="51"/>
       <c r="C639" s="51"/>
-      <c r="D639" s="54"/>
+      <c r="D639" s="58"/>
       <c r="E639" s="7">
         <v>6</v>
       </c>
@@ -13290,7 +13483,7 @@
       <c r="C641" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D641" s="54" t="s">
+      <c r="D641" s="58" t="s">
         <v>490</v>
       </c>
       <c r="E641" s="9"/>
@@ -13305,7 +13498,7 @@
       <c r="A642" s="9"/>
       <c r="B642" s="51"/>
       <c r="C642" s="51"/>
-      <c r="D642" s="54"/>
+      <c r="D642" s="58"/>
       <c r="E642" s="7">
         <v>1</v>
       </c>
@@ -13324,7 +13517,7 @@
       <c r="A643" s="9"/>
       <c r="B643" s="51"/>
       <c r="C643" s="51"/>
-      <c r="D643" s="54"/>
+      <c r="D643" s="58"/>
       <c r="E643" s="7">
         <v>2</v>
       </c>
@@ -13343,7 +13536,7 @@
       <c r="A644" s="9"/>
       <c r="B644" s="51"/>
       <c r="C644" s="51"/>
-      <c r="D644" s="54"/>
+      <c r="D644" s="58"/>
       <c r="E644" s="7">
         <v>3</v>
       </c>
@@ -13360,7 +13553,7 @@
       <c r="A645" s="9"/>
       <c r="B645" s="51"/>
       <c r="C645" s="51"/>
-      <c r="D645" s="54"/>
+      <c r="D645" s="58"/>
       <c r="E645" s="7">
         <v>4</v>
       </c>
@@ -13376,7 +13569,7 @@
       <c r="A646" s="9"/>
       <c r="B646" s="51"/>
       <c r="C646" s="51"/>
-      <c r="D646" s="54"/>
+      <c r="D646" s="58"/>
       <c r="E646" s="7">
         <v>5</v>
       </c>
@@ -13392,7 +13585,7 @@
       <c r="A647" s="9"/>
       <c r="B647" s="51"/>
       <c r="C647" s="51"/>
-      <c r="D647" s="54"/>
+      <c r="D647" s="58"/>
       <c r="E647" s="7">
         <v>6</v>
       </c>
@@ -13425,7 +13618,7 @@
       <c r="C649" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D649" s="55" t="s">
+      <c r="D649" s="56" t="s">
         <v>493</v>
       </c>
       <c r="E649" s="7"/>
@@ -13439,7 +13632,7 @@
       <c r="A650" s="9"/>
       <c r="B650" s="51"/>
       <c r="C650" s="51"/>
-      <c r="D650" s="55"/>
+      <c r="D650" s="56"/>
       <c r="E650" s="7">
         <v>1</v>
       </c>
@@ -13458,7 +13651,7 @@
       <c r="A651" s="9"/>
       <c r="B651" s="51"/>
       <c r="C651" s="51"/>
-      <c r="D651" s="55"/>
+      <c r="D651" s="56"/>
       <c r="E651" s="7">
         <v>2</v>
       </c>
@@ -13477,7 +13670,7 @@
       <c r="A652" s="9"/>
       <c r="B652" s="51"/>
       <c r="C652" s="51"/>
-      <c r="D652" s="55"/>
+      <c r="D652" s="56"/>
       <c r="E652" s="7">
         <v>3</v>
       </c>
@@ -13494,7 +13687,7 @@
       <c r="A653" s="9"/>
       <c r="B653" s="51"/>
       <c r="C653" s="51"/>
-      <c r="D653" s="55"/>
+      <c r="D653" s="56"/>
       <c r="E653" s="7">
         <v>4</v>
       </c>
@@ -13510,7 +13703,7 @@
       <c r="A654" s="9"/>
       <c r="B654" s="51"/>
       <c r="C654" s="51"/>
-      <c r="D654" s="55"/>
+      <c r="D654" s="56"/>
       <c r="E654" s="7">
         <v>5</v>
       </c>
@@ -13526,7 +13719,7 @@
       <c r="A655" s="9"/>
       <c r="B655" s="51"/>
       <c r="C655" s="51"/>
-      <c r="D655" s="55"/>
+      <c r="D655" s="56"/>
       <c r="E655" s="7">
         <v>6</v>
       </c>
@@ -13540,7 +13733,7 @@
     </row>
     <row r="656" spans="1:11">
       <c r="A656" s="7"/>
-      <c r="D656" s="55"/>
+      <c r="D656" s="56"/>
       <c r="E656" s="7">
         <v>7</v>
       </c>
@@ -13555,7 +13748,7 @@
     </row>
     <row r="657" spans="1:11" ht="30">
       <c r="A657" s="7"/>
-      <c r="D657" s="55"/>
+      <c r="D657" s="56"/>
       <c r="E657" s="7">
         <v>8</v>
       </c>
@@ -13570,7 +13763,7 @@
     </row>
     <row r="658" spans="1:11">
       <c r="A658" s="7"/>
-      <c r="D658" s="55"/>
+      <c r="D658" s="56"/>
       <c r="E658" s="7">
         <v>9</v>
       </c>
@@ -13587,7 +13780,7 @@
       <c r="A659" s="7"/>
       <c r="B659" s="51"/>
       <c r="C659" s="51"/>
-      <c r="D659" s="55"/>
+      <c r="D659" s="56"/>
       <c r="E659" s="7">
         <v>10</v>
       </c>
@@ -13621,7 +13814,7 @@
       <c r="C661" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D661" s="55" t="s">
+      <c r="D661" s="56" t="s">
         <v>496</v>
       </c>
       <c r="E661" s="9"/>
@@ -13635,7 +13828,7 @@
       <c r="A662" s="9"/>
       <c r="B662" s="51"/>
       <c r="C662" s="51"/>
-      <c r="D662" s="55"/>
+      <c r="D662" s="56"/>
       <c r="E662" s="7">
         <v>1</v>
       </c>
@@ -13654,7 +13847,7 @@
       <c r="A663" s="9"/>
       <c r="B663" s="51"/>
       <c r="C663" s="51"/>
-      <c r="D663" s="55"/>
+      <c r="D663" s="56"/>
       <c r="E663" s="7">
         <v>2</v>
       </c>
@@ -13673,7 +13866,7 @@
       <c r="A664" s="9"/>
       <c r="B664" s="51"/>
       <c r="C664" s="51"/>
-      <c r="D664" s="55"/>
+      <c r="D664" s="56"/>
       <c r="E664" s="7">
         <v>3</v>
       </c>
@@ -13690,7 +13883,7 @@
       <c r="A665" s="9"/>
       <c r="B665" s="51"/>
       <c r="C665" s="51"/>
-      <c r="D665" s="55"/>
+      <c r="D665" s="56"/>
       <c r="E665" s="7">
         <v>4</v>
       </c>
@@ -13706,7 +13899,7 @@
       <c r="A666" s="9"/>
       <c r="B666" s="51"/>
       <c r="C666" s="51"/>
-      <c r="D666" s="55"/>
+      <c r="D666" s="56"/>
       <c r="E666" s="7">
         <v>5</v>
       </c>
@@ -13722,7 +13915,7 @@
       <c r="A667" s="9"/>
       <c r="B667" s="51"/>
       <c r="C667" s="51"/>
-      <c r="D667" s="55"/>
+      <c r="D667" s="56"/>
       <c r="E667" s="7">
         <v>6</v>
       </c>
@@ -13736,7 +13929,7 @@
     </row>
     <row r="668" spans="1:11" ht="30">
       <c r="A668" s="7"/>
-      <c r="D668" s="55"/>
+      <c r="D668" s="56"/>
       <c r="E668" s="7">
         <v>7</v>
       </c>
@@ -13751,7 +13944,7 @@
     </row>
     <row r="669" spans="1:11" ht="45" customHeight="1">
       <c r="A669" s="7"/>
-      <c r="D669" s="55"/>
+      <c r="D669" s="56"/>
       <c r="E669" s="7">
         <v>8</v>
       </c>
@@ -13767,7 +13960,7 @@
       <c r="A670" s="7"/>
       <c r="B670" s="51"/>
       <c r="C670" s="51"/>
-      <c r="D670" s="55"/>
+      <c r="D670" s="56"/>
       <c r="E670" s="7">
         <v>9</v>
       </c>
@@ -13798,7 +13991,7 @@
       <c r="C672" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D672" s="55" t="s">
+      <c r="D672" s="56" t="s">
         <v>502</v>
       </c>
       <c r="E672" s="7"/>
@@ -13811,7 +14004,7 @@
       <c r="A673" s="9"/>
       <c r="B673" s="51"/>
       <c r="C673" s="51"/>
-      <c r="D673" s="55"/>
+      <c r="D673" s="56"/>
       <c r="E673" s="7">
         <v>1</v>
       </c>
@@ -13830,7 +14023,7 @@
       <c r="A674" s="9"/>
       <c r="B674" s="51"/>
       <c r="C674" s="51"/>
-      <c r="D674" s="55"/>
+      <c r="D674" s="56"/>
       <c r="E674" s="7">
         <v>2</v>
       </c>
@@ -13849,7 +14042,7 @@
       <c r="A675" s="9"/>
       <c r="B675" s="51"/>
       <c r="C675" s="51"/>
-      <c r="D675" s="55"/>
+      <c r="D675" s="56"/>
       <c r="E675" s="7">
         <v>3</v>
       </c>
@@ -13866,7 +14059,7 @@
       <c r="A676" s="9"/>
       <c r="B676" s="51"/>
       <c r="C676" s="51"/>
-      <c r="D676" s="55"/>
+      <c r="D676" s="56"/>
       <c r="E676" s="7">
         <v>4</v>
       </c>
@@ -13882,7 +14075,7 @@
       <c r="A677" s="9"/>
       <c r="B677" s="51"/>
       <c r="C677" s="51"/>
-      <c r="D677" s="55"/>
+      <c r="D677" s="56"/>
       <c r="E677" s="7">
         <v>5</v>
       </c>
@@ -13898,7 +14091,7 @@
       <c r="A678" s="9"/>
       <c r="B678" s="51"/>
       <c r="C678" s="51"/>
-      <c r="D678" s="55"/>
+      <c r="D678" s="56"/>
       <c r="E678" s="7">
         <v>6</v>
       </c>
@@ -13927,7 +14120,7 @@
       <c r="C680" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D680" s="55" t="s">
+      <c r="D680" s="56" t="s">
         <v>217</v>
       </c>
       <c r="E680" s="7"/>
@@ -13940,7 +14133,7 @@
       <c r="A681" s="7"/>
       <c r="B681" s="51"/>
       <c r="C681" s="51"/>
-      <c r="D681" s="55"/>
+      <c r="D681" s="56"/>
       <c r="E681" s="7">
         <v>1</v>
       </c>
@@ -13959,7 +14152,7 @@
       <c r="A682" s="7"/>
       <c r="B682" s="51"/>
       <c r="C682" s="51"/>
-      <c r="D682" s="55"/>
+      <c r="D682" s="56"/>
       <c r="E682" s="7">
         <v>2</v>
       </c>
@@ -13978,7 +14171,7 @@
       <c r="A683" s="7"/>
       <c r="B683" s="51"/>
       <c r="C683" s="51"/>
-      <c r="D683" s="55"/>
+      <c r="D683" s="56"/>
       <c r="E683" s="7">
         <v>3</v>
       </c>
@@ -13995,7 +14188,7 @@
       <c r="A684" s="7"/>
       <c r="B684" s="51"/>
       <c r="C684" s="51"/>
-      <c r="D684" s="55"/>
+      <c r="D684" s="56"/>
       <c r="E684" s="7">
         <v>4</v>
       </c>
@@ -14011,7 +14204,7 @@
       <c r="A685" s="7"/>
       <c r="B685" s="51"/>
       <c r="C685" s="51"/>
-      <c r="D685" s="55"/>
+      <c r="D685" s="56"/>
       <c r="E685" s="7">
         <v>5</v>
       </c>
@@ -14027,7 +14220,7 @@
       <c r="A686" s="7"/>
       <c r="B686" s="51"/>
       <c r="C686" s="51"/>
-      <c r="D686" s="55"/>
+      <c r="D686" s="56"/>
       <c r="E686" s="7">
         <v>6</v>
       </c>
@@ -14043,7 +14236,7 @@
       <c r="A687" s="7"/>
       <c r="B687" s="51"/>
       <c r="C687" s="51"/>
-      <c r="D687" s="55"/>
+      <c r="D687" s="56"/>
       <c r="E687" s="7">
         <v>7</v>
       </c>
@@ -14059,7 +14252,7 @@
       <c r="A688" s="7"/>
       <c r="B688" s="51"/>
       <c r="C688" s="51"/>
-      <c r="D688" s="55"/>
+      <c r="D688" s="56"/>
       <c r="E688" s="7">
         <v>8</v>
       </c>
@@ -14090,7 +14283,7 @@
       <c r="C690" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D690" s="55" t="s">
+      <c r="D690" s="56" t="s">
         <v>218</v>
       </c>
       <c r="E690" s="7"/>
@@ -14104,7 +14297,7 @@
       <c r="A691" s="9"/>
       <c r="B691" s="51"/>
       <c r="C691" s="51"/>
-      <c r="D691" s="55"/>
+      <c r="D691" s="56"/>
       <c r="E691" s="7">
         <v>1</v>
       </c>
@@ -14123,7 +14316,7 @@
       <c r="A692" s="9"/>
       <c r="B692" s="51"/>
       <c r="C692" s="51"/>
-      <c r="D692" s="55"/>
+      <c r="D692" s="56"/>
       <c r="E692" s="7">
         <v>2</v>
       </c>
@@ -14142,7 +14335,7 @@
       <c r="A693" s="9"/>
       <c r="B693" s="51"/>
       <c r="C693" s="51"/>
-      <c r="D693" s="55"/>
+      <c r="D693" s="56"/>
       <c r="E693" s="7">
         <v>3</v>
       </c>
@@ -14159,7 +14352,7 @@
       <c r="A694" s="9"/>
       <c r="B694" s="51"/>
       <c r="C694" s="51"/>
-      <c r="D694" s="55"/>
+      <c r="D694" s="56"/>
       <c r="E694" s="7">
         <v>4</v>
       </c>
@@ -14175,7 +14368,7 @@
       <c r="A695" s="9"/>
       <c r="B695" s="51"/>
       <c r="C695" s="51"/>
-      <c r="D695" s="55"/>
+      <c r="D695" s="56"/>
       <c r="E695" s="7">
         <v>5</v>
       </c>
@@ -14189,7 +14382,7 @@
     </row>
     <row r="696" spans="1:11" ht="45">
       <c r="A696" s="7"/>
-      <c r="D696" s="55"/>
+      <c r="D696" s="56"/>
       <c r="E696" s="7">
         <v>6</v>
       </c>
@@ -14203,7 +14396,7 @@
     </row>
     <row r="697" spans="1:11" ht="45">
       <c r="A697" s="7"/>
-      <c r="D697" s="55"/>
+      <c r="D697" s="56"/>
       <c r="E697" s="7">
         <v>7</v>
       </c>
@@ -14217,7 +14410,7 @@
     </row>
     <row r="698" spans="1:11" ht="36.75" customHeight="1">
       <c r="A698" s="7"/>
-      <c r="D698" s="55"/>
+      <c r="D698" s="56"/>
       <c r="E698" s="7">
         <v>8</v>
       </c>
@@ -14231,7 +14424,7 @@
     </row>
     <row r="699" spans="1:11">
       <c r="A699" s="7"/>
-      <c r="D699" s="55"/>
+      <c r="D699" s="56"/>
       <c r="E699" s="7">
         <v>9</v>
       </c>
@@ -14245,7 +14438,7 @@
     </row>
     <row r="700" spans="1:11" ht="42" customHeight="1">
       <c r="A700" s="7"/>
-      <c r="D700" s="55"/>
+      <c r="D700" s="56"/>
       <c r="E700" s="7">
         <v>10</v>
       </c>
@@ -14259,7 +14452,7 @@
     </row>
     <row r="701" spans="1:11" ht="25.5" customHeight="1">
       <c r="A701" s="7"/>
-      <c r="D701" s="55"/>
+      <c r="D701" s="56"/>
       <c r="E701" s="7">
         <v>11</v>
       </c>
@@ -14291,7 +14484,7 @@
       <c r="C703" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D703" s="55" t="s">
+      <c r="D703" s="56" t="s">
         <v>514</v>
       </c>
       <c r="E703" s="7"/>
@@ -14308,7 +14501,7 @@
       <c r="A704" s="9"/>
       <c r="B704" s="51"/>
       <c r="C704" s="51"/>
-      <c r="D704" s="55"/>
+      <c r="D704" s="56"/>
       <c r="E704" s="7">
         <v>1</v>
       </c>
@@ -14327,7 +14520,7 @@
       <c r="A705" s="9"/>
       <c r="B705" s="51"/>
       <c r="C705" s="51"/>
-      <c r="D705" s="55"/>
+      <c r="D705" s="56"/>
       <c r="E705" s="7">
         <v>2</v>
       </c>
@@ -14346,7 +14539,7 @@
       <c r="A706" s="9"/>
       <c r="B706" s="51"/>
       <c r="C706" s="51"/>
-      <c r="D706" s="55"/>
+      <c r="D706" s="56"/>
       <c r="E706" s="7">
         <v>3</v>
       </c>
@@ -14363,7 +14556,7 @@
       <c r="A707" s="9"/>
       <c r="B707" s="51"/>
       <c r="C707" s="51"/>
-      <c r="D707" s="55"/>
+      <c r="D707" s="56"/>
       <c r="E707" s="7">
         <v>4</v>
       </c>
@@ -14379,7 +14572,7 @@
       <c r="A708" s="9"/>
       <c r="B708" s="51"/>
       <c r="C708" s="51"/>
-      <c r="D708" s="55"/>
+      <c r="D708" s="56"/>
       <c r="E708" s="7">
         <v>5</v>
       </c>
@@ -14393,7 +14586,7 @@
     </row>
     <row r="709" spans="1:11">
       <c r="A709" s="7"/>
-      <c r="D709" s="55"/>
+      <c r="D709" s="56"/>
       <c r="E709" s="7">
         <v>6</v>
       </c>
@@ -14408,7 +14601,7 @@
     </row>
     <row r="710" spans="1:11">
       <c r="A710" s="7"/>
-      <c r="D710" s="55"/>
+      <c r="D710" s="56"/>
       <c r="E710" s="7">
         <v>7</v>
       </c>
@@ -14442,7 +14635,7 @@
       <c r="C712" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D712" s="55" t="s">
+      <c r="D712" s="56" t="s">
         <v>515</v>
       </c>
       <c r="E712" s="7">
@@ -14456,7 +14649,7 @@
     </row>
     <row r="713" spans="1:11" ht="30">
       <c r="A713" s="7"/>
-      <c r="D713" s="55"/>
+      <c r="D713" s="56"/>
       <c r="E713" s="7">
         <v>1</v>
       </c>
@@ -14473,7 +14666,7 @@
     </row>
     <row r="714" spans="1:11" ht="30">
       <c r="A714" s="7"/>
-      <c r="D714" s="55"/>
+      <c r="D714" s="56"/>
       <c r="E714" s="7">
         <v>2</v>
       </c>
@@ -14492,7 +14685,7 @@
       <c r="A715" s="7"/>
       <c r="B715" s="51"/>
       <c r="C715" s="51"/>
-      <c r="D715" s="55"/>
+      <c r="D715" s="56"/>
       <c r="E715" s="7">
         <v>3</v>
       </c>
@@ -14509,7 +14702,7 @@
       <c r="A716" s="7"/>
       <c r="B716" s="51"/>
       <c r="C716" s="51"/>
-      <c r="D716" s="55"/>
+      <c r="D716" s="56"/>
       <c r="E716" s="7">
         <v>4</v>
       </c>
@@ -14525,7 +14718,7 @@
       <c r="A717" s="7"/>
       <c r="B717" s="51"/>
       <c r="C717" s="51"/>
-      <c r="D717" s="55"/>
+      <c r="D717" s="56"/>
       <c r="E717" s="7">
         <v>5</v>
       </c>
@@ -14541,7 +14734,7 @@
       <c r="A718" s="7"/>
       <c r="B718" s="51"/>
       <c r="C718" s="51"/>
-      <c r="D718" s="55"/>
+      <c r="D718" s="56"/>
       <c r="E718" s="7">
         <v>6</v>
       </c>
@@ -14558,7 +14751,7 @@
       <c r="A719" s="7"/>
       <c r="B719" s="51"/>
       <c r="C719" s="51"/>
-      <c r="D719" s="55"/>
+      <c r="D719" s="56"/>
       <c r="E719" s="7">
         <v>7</v>
       </c>
@@ -14592,7 +14785,7 @@
       <c r="C721" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D721" s="55" t="s">
+      <c r="D721" s="56" t="s">
         <v>517</v>
       </c>
       <c r="E721" s="7">
@@ -14608,7 +14801,7 @@
       <c r="A722" s="9"/>
       <c r="B722" s="51"/>
       <c r="C722" s="51"/>
-      <c r="D722" s="55"/>
+      <c r="D722" s="56"/>
       <c r="E722" s="7">
         <v>1</v>
       </c>
@@ -14627,7 +14820,7 @@
       <c r="A723" s="9"/>
       <c r="B723" s="51"/>
       <c r="C723" s="51"/>
-      <c r="D723" s="55"/>
+      <c r="D723" s="56"/>
       <c r="E723" s="7">
         <v>2</v>
       </c>
@@ -14646,7 +14839,7 @@
       <c r="A724" s="9"/>
       <c r="B724" s="51"/>
       <c r="C724" s="51"/>
-      <c r="D724" s="55"/>
+      <c r="D724" s="56"/>
       <c r="E724" s="7">
         <v>3</v>
       </c>
@@ -14663,7 +14856,7 @@
       <c r="A725" s="9"/>
       <c r="B725" s="51"/>
       <c r="C725" s="51"/>
-      <c r="D725" s="55"/>
+      <c r="D725" s="56"/>
       <c r="E725" s="7">
         <v>4</v>
       </c>
@@ -14679,7 +14872,7 @@
       <c r="A726" s="9"/>
       <c r="B726" s="51"/>
       <c r="C726" s="51"/>
-      <c r="D726" s="55"/>
+      <c r="D726" s="56"/>
       <c r="E726" s="7">
         <v>5</v>
       </c>
@@ -14693,7 +14886,7 @@
     </row>
     <row r="727" spans="1:11" ht="30">
       <c r="A727" s="7"/>
-      <c r="D727" s="55"/>
+      <c r="D727" s="56"/>
       <c r="E727" s="7">
         <v>6</v>
       </c>
@@ -14708,7 +14901,7 @@
     </row>
     <row r="728" spans="1:11">
       <c r="A728" s="7"/>
-      <c r="D728" s="55"/>
+      <c r="D728" s="56"/>
       <c r="E728" s="7">
         <v>7</v>
       </c>
@@ -14723,7 +14916,7 @@
     </row>
     <row r="729" spans="1:11">
       <c r="A729" s="7"/>
-      <c r="D729" s="55"/>
+      <c r="D729" s="56"/>
       <c r="E729" s="7">
         <v>8</v>
       </c>
@@ -14738,7 +14931,7 @@
     </row>
     <row r="730" spans="1:11">
       <c r="A730" s="7"/>
-      <c r="D730" s="55"/>
+      <c r="D730" s="56"/>
       <c r="E730" s="7">
         <v>9</v>
       </c>
@@ -14772,7 +14965,7 @@
       <c r="C732" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D732" s="55" t="s">
+      <c r="D732" s="56" t="s">
         <v>519</v>
       </c>
       <c r="E732" s="7"/>
@@ -14786,7 +14979,7 @@
       <c r="A733" s="9"/>
       <c r="B733" s="51"/>
       <c r="C733" s="51"/>
-      <c r="D733" s="55"/>
+      <c r="D733" s="56"/>
       <c r="E733" s="7">
         <v>1</v>
       </c>
@@ -14805,7 +14998,7 @@
       <c r="A734" s="9"/>
       <c r="B734" s="51"/>
       <c r="C734" s="51"/>
-      <c r="D734" s="55"/>
+      <c r="D734" s="56"/>
       <c r="E734" s="7">
         <v>2</v>
       </c>
@@ -14824,7 +15017,7 @@
       <c r="A735" s="9"/>
       <c r="B735" s="51"/>
       <c r="C735" s="51"/>
-      <c r="D735" s="55"/>
+      <c r="D735" s="56"/>
       <c r="E735" s="7">
         <v>3</v>
       </c>
@@ -14841,7 +15034,7 @@
       <c r="A736" s="9"/>
       <c r="B736" s="51"/>
       <c r="C736" s="51"/>
-      <c r="D736" s="55"/>
+      <c r="D736" s="56"/>
       <c r="E736" s="7">
         <v>4</v>
       </c>
@@ -14857,7 +15050,7 @@
       <c r="A737" s="9"/>
       <c r="B737" s="51"/>
       <c r="C737" s="51"/>
-      <c r="D737" s="55"/>
+      <c r="D737" s="56"/>
       <c r="E737" s="7">
         <v>5</v>
       </c>
@@ -14873,7 +15066,7 @@
       <c r="A738" s="9"/>
       <c r="B738" s="51"/>
       <c r="C738" s="51"/>
-      <c r="D738" s="55"/>
+      <c r="D738" s="56"/>
       <c r="E738" s="7">
         <v>6</v>
       </c>
@@ -14906,7 +15099,7 @@
       <c r="C740" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D740" s="55" t="s">
+      <c r="D740" s="56" t="s">
         <v>521</v>
       </c>
       <c r="E740" s="22"/>
@@ -14920,7 +15113,7 @@
       <c r="A741" s="9"/>
       <c r="B741" s="51"/>
       <c r="C741" s="51"/>
-      <c r="D741" s="60"/>
+      <c r="D741" s="57"/>
       <c r="E741" s="7">
         <v>1</v>
       </c>
@@ -14939,7 +15132,7 @@
       <c r="A742" s="9"/>
       <c r="B742" s="51"/>
       <c r="C742" s="51"/>
-      <c r="D742" s="60"/>
+      <c r="D742" s="57"/>
       <c r="E742" s="7">
         <v>2</v>
       </c>
@@ -14958,7 +15151,7 @@
       <c r="A743" s="9"/>
       <c r="B743" s="51"/>
       <c r="C743" s="51"/>
-      <c r="D743" s="60"/>
+      <c r="D743" s="57"/>
       <c r="E743" s="7">
         <v>3</v>
       </c>
@@ -14975,7 +15168,7 @@
       <c r="A744" s="9"/>
       <c r="B744" s="51"/>
       <c r="C744" s="51"/>
-      <c r="D744" s="60"/>
+      <c r="D744" s="57"/>
       <c r="E744" s="7">
         <v>4</v>
       </c>
@@ -14991,7 +15184,7 @@
       <c r="A745" s="9"/>
       <c r="B745" s="51"/>
       <c r="C745" s="51"/>
-      <c r="D745" s="60"/>
+      <c r="D745" s="57"/>
       <c r="E745" s="7">
         <v>5</v>
       </c>
@@ -15007,7 +15200,7 @@
       <c r="A746" s="9"/>
       <c r="B746" s="51"/>
       <c r="C746" s="51"/>
-      <c r="D746" s="60"/>
+      <c r="D746" s="57"/>
       <c r="E746" s="36">
         <v>6</v>
       </c>
@@ -15040,7 +15233,7 @@
       <c r="C748" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D748" s="55" t="s">
+      <c r="D748" s="56" t="s">
         <v>525</v>
       </c>
       <c r="E748" s="7">
@@ -15054,7 +15247,7 @@
     </row>
     <row r="749" spans="1:11" ht="30">
       <c r="A749" s="7"/>
-      <c r="D749" s="55"/>
+      <c r="D749" s="56"/>
       <c r="E749" s="7">
         <v>1</v>
       </c>
@@ -15073,7 +15266,7 @@
       <c r="A750" s="7"/>
       <c r="B750" s="51"/>
       <c r="C750" s="51"/>
-      <c r="D750" s="55"/>
+      <c r="D750" s="56"/>
       <c r="E750" s="7">
         <v>2</v>
       </c>
@@ -15092,7 +15285,7 @@
       <c r="A751" s="7"/>
       <c r="B751" s="51"/>
       <c r="C751" s="51"/>
-      <c r="D751" s="55"/>
+      <c r="D751" s="56"/>
       <c r="E751" s="7">
         <v>3</v>
       </c>
@@ -15109,7 +15302,7 @@
       <c r="A752" s="7"/>
       <c r="B752" s="51"/>
       <c r="C752" s="51"/>
-      <c r="D752" s="55"/>
+      <c r="D752" s="56"/>
       <c r="E752" s="7">
         <v>4</v>
       </c>
@@ -15125,7 +15318,7 @@
       <c r="A753" s="7"/>
       <c r="B753" s="51"/>
       <c r="C753" s="51"/>
-      <c r="D753" s="55"/>
+      <c r="D753" s="56"/>
       <c r="E753" s="7">
         <v>5</v>
       </c>
@@ -15141,7 +15334,7 @@
       <c r="A754" s="7"/>
       <c r="B754" s="51"/>
       <c r="C754" s="51"/>
-      <c r="D754" s="55"/>
+      <c r="D754" s="56"/>
       <c r="E754" s="7">
         <v>6</v>
       </c>
@@ -15158,7 +15351,7 @@
       <c r="A755" s="7"/>
       <c r="B755" s="51"/>
       <c r="C755" s="51"/>
-      <c r="D755" s="55"/>
+      <c r="D755" s="56"/>
       <c r="E755" s="7">
         <v>7</v>
       </c>
@@ -15174,7 +15367,7 @@
       <c r="A756" s="7"/>
       <c r="B756" s="51"/>
       <c r="C756" s="51"/>
-      <c r="D756" s="55"/>
+      <c r="D756" s="56"/>
       <c r="E756" s="7">
         <v>8</v>
       </c>
@@ -15187,11 +15380,16 @@
       <c r="H756" s="16"/>
       <c r="K756" s="10"/>
     </row>
-    <row r="757" spans="1:11">
-      <c r="A757" s="7"/>
-      <c r="D757" s="28"/>
-      <c r="E757" s="7"/>
-      <c r="H757" s="16"/>
+    <row r="757" spans="1:11" ht="6.75" customHeight="1">
+      <c r="A757" s="63"/>
+      <c r="B757" s="64"/>
+      <c r="C757" s="64"/>
+      <c r="D757" s="65"/>
+      <c r="E757" s="63"/>
+      <c r="F757" s="66"/>
+      <c r="G757" s="66"/>
+      <c r="H757" s="67"/>
+      <c r="I757" s="66"/>
       <c r="K757" s="10"/>
     </row>
     <row r="758" spans="1:11">
@@ -15201,346 +15399,654 @@
       <c r="H758" s="16"/>
       <c r="K758" s="10"/>
     </row>
-    <row r="759" spans="1:11">
-      <c r="A759" s="20"/>
-      <c r="D759" s="7"/>
-      <c r="F759" s="7"/>
-      <c r="G759" s="7"/>
+    <row r="759" spans="1:11" ht="60" customHeight="1">
+      <c r="A759" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="B759" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C759" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="D759" s="56" t="s">
+        <v>529</v>
+      </c>
+      <c r="E759" s="24">
+        <v>1</v>
+      </c>
+      <c r="F759" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G759" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="H759" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="K759" s="10"/>
     </row>
-    <row r="760" spans="1:11">
+    <row r="760" spans="1:11" ht="30">
       <c r="A760" s="20"/>
-      <c r="D760" s="7"/>
-      <c r="E760" s="7"/>
-      <c r="F760" s="7"/>
-      <c r="G760" s="7"/>
+      <c r="D760" s="56"/>
+      <c r="E760" s="24">
+        <v>2</v>
+      </c>
+      <c r="F760" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="G760" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H760" s="33" t="s">
+        <v>301</v>
+      </c>
       <c r="K760" s="10"/>
     </row>
     <row r="761" spans="1:11">
       <c r="A761" s="20"/>
-      <c r="D761" s="7"/>
-      <c r="F761" s="7"/>
-      <c r="G761" s="7"/>
+      <c r="D761" s="56"/>
+      <c r="E761" s="24">
+        <v>3</v>
+      </c>
+      <c r="F761" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G761" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="H761" s="18"/>
       <c r="K761" s="10"/>
     </row>
-    <row r="762" spans="1:11">
+    <row r="762" spans="1:11" ht="30">
       <c r="A762" s="20"/>
-      <c r="B762" s="61"/>
-      <c r="D762" s="7"/>
-      <c r="F762" s="7"/>
-      <c r="G762" s="7"/>
+      <c r="B762" s="55"/>
+      <c r="D762" s="56"/>
+      <c r="E762" s="24">
+        <v>4</v>
+      </c>
+      <c r="F762" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G762" s="24" t="s">
+        <v>336</v>
+      </c>
       <c r="K762" s="10"/>
     </row>
     <row r="763" spans="1:11">
       <c r="A763" s="20"/>
-      <c r="D763" s="7"/>
-      <c r="E763" s="7"/>
-      <c r="F763" s="7"/>
+      <c r="D763" s="56"/>
+      <c r="E763" s="24">
+        <v>5</v>
+      </c>
+      <c r="F763" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="G763" s="24" t="s">
+        <v>531</v>
+      </c>
       <c r="H763" s="18"/>
       <c r="K763" s="10"/>
     </row>
     <row r="764" spans="1:11">
-      <c r="F764" s="7"/>
-      <c r="G764" s="7"/>
+      <c r="E764" s="69"/>
+      <c r="F764" s="24"/>
+      <c r="G764" s="24"/>
       <c r="K764" s="10"/>
     </row>
-    <row r="765" spans="1:11">
-      <c r="F765" s="7"/>
-      <c r="G765" s="7"/>
+    <row r="765" spans="1:11" ht="60" customHeight="1">
+      <c r="A765" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="B765" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C765" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="D765" s="56" t="s">
+        <v>533</v>
+      </c>
+      <c r="E765" s="24">
+        <v>1</v>
+      </c>
+      <c r="F765" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G765" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="H765" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="K765" s="10"/>
     </row>
-    <row r="766" spans="1:11">
-      <c r="F766" s="7"/>
-      <c r="G766" s="7"/>
+    <row r="766" spans="1:11" ht="30">
+      <c r="D766" s="56"/>
+      <c r="E766" s="24">
+        <v>2</v>
+      </c>
+      <c r="F766" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="G766" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H766" s="33" t="s">
+        <v>301</v>
+      </c>
       <c r="K766" s="10"/>
     </row>
     <row r="767" spans="1:11">
       <c r="A767" s="20"/>
-      <c r="D767" s="9"/>
-      <c r="E767" s="7"/>
-      <c r="F767" s="7"/>
-      <c r="G767" s="7"/>
+      <c r="D767" s="56"/>
+      <c r="E767" s="24">
+        <v>3</v>
+      </c>
+      <c r="F767" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G767" s="24" t="s">
+        <v>306</v>
+      </c>
       <c r="H767" s="18"/>
       <c r="K767" s="10"/>
     </row>
-    <row r="768" spans="1:11">
+    <row r="768" spans="1:11" ht="30">
       <c r="A768" s="20"/>
-      <c r="D768" s="9"/>
-      <c r="E768" s="7"/>
-      <c r="F768" s="7"/>
-      <c r="G768" s="7"/>
+      <c r="D768" s="56"/>
+      <c r="E768" s="24">
+        <v>4</v>
+      </c>
+      <c r="F768" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G768" s="24" t="s">
+        <v>336</v>
+      </c>
       <c r="K768" s="10"/>
     </row>
     <row r="769" spans="1:11">
       <c r="A769" s="20"/>
-      <c r="D769" s="7"/>
-      <c r="E769" s="7"/>
-      <c r="F769" s="7"/>
-      <c r="G769" s="7"/>
+      <c r="D769" s="56"/>
+      <c r="E769" s="24">
+        <v>5</v>
+      </c>
+      <c r="F769" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="G769" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="H769" s="18"/>
       <c r="K769" s="10"/>
     </row>
-    <row r="770" spans="1:11">
+    <row r="770" spans="1:11" ht="30">
       <c r="A770" s="20"/>
-      <c r="D770" s="7"/>
-      <c r="E770" s="7"/>
-      <c r="F770" s="7"/>
-      <c r="G770" s="7"/>
+      <c r="D770" s="56"/>
+      <c r="E770" s="24">
+        <v>6</v>
+      </c>
+      <c r="F770" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="G770" s="24" t="s">
+        <v>535</v>
+      </c>
       <c r="K770" s="10"/>
     </row>
-    <row r="771" spans="1:11">
+    <row r="771" spans="1:11" ht="30">
       <c r="A771" s="20"/>
-      <c r="D771" s="9"/>
-      <c r="E771" s="7"/>
-      <c r="F771" s="7"/>
-      <c r="G771" s="7"/>
+      <c r="D771" s="56"/>
+      <c r="E771" s="24">
+        <v>7</v>
+      </c>
+      <c r="F771" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="G771" s="24" t="s">
+        <v>537</v>
+      </c>
       <c r="H771" s="18"/>
       <c r="K771" s="10"/>
     </row>
-    <row r="772" spans="1:11">
+    <row r="772" spans="1:11" ht="30">
       <c r="A772" s="20"/>
-      <c r="D772" s="7"/>
-      <c r="E772" s="7"/>
-      <c r="F772" s="7"/>
-      <c r="G772" s="7"/>
+      <c r="D772" s="56"/>
+      <c r="E772" s="24">
+        <v>8</v>
+      </c>
+      <c r="F772" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="G772" s="24" t="s">
+        <v>539</v>
+      </c>
       <c r="K772" s="10"/>
     </row>
-    <row r="773" spans="1:11">
+    <row r="773" spans="1:11" ht="30">
       <c r="A773" s="20"/>
-      <c r="D773" s="9"/>
-      <c r="E773" s="7"/>
-      <c r="G773" s="7"/>
+      <c r="D773" s="56"/>
+      <c r="E773" s="24">
+        <v>9</v>
+      </c>
+      <c r="F773" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="G773" s="24" t="s">
+        <v>541</v>
+      </c>
       <c r="H773" s="18"/>
       <c r="K773" s="10"/>
     </row>
-    <row r="774" spans="1:11">
+    <row r="774" spans="1:11" ht="30">
       <c r="A774" s="20"/>
-      <c r="D774" s="7"/>
-      <c r="E774" s="7"/>
-      <c r="F774" s="7"/>
-      <c r="G774" s="7"/>
+      <c r="D774" s="56"/>
+      <c r="E774" s="24">
+        <v>10</v>
+      </c>
+      <c r="F774" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="G774" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="K774" s="10"/>
     </row>
     <row r="775" spans="1:11">
       <c r="A775" s="20"/>
-      <c r="D775" s="9"/>
-      <c r="E775" s="7"/>
-      <c r="F775" s="7"/>
-      <c r="G775" s="7"/>
+      <c r="D775" s="56"/>
+      <c r="E775" s="24">
+        <v>11</v>
+      </c>
+      <c r="F775" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="G775" s="9" t="s">
+        <v>545</v>
+      </c>
       <c r="H775" s="18"/>
       <c r="K775" s="10"/>
     </row>
     <row r="776" spans="1:11">
       <c r="A776" s="20"/>
-      <c r="D776" s="7"/>
-      <c r="E776" s="7"/>
-      <c r="F776" s="7"/>
-      <c r="G776" s="7"/>
+      <c r="D776" s="56"/>
+      <c r="E776" s="24">
+        <v>12</v>
+      </c>
+      <c r="F776" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="G776" s="24" t="s">
+        <v>547</v>
+      </c>
       <c r="K776" s="10"/>
     </row>
     <row r="777" spans="1:11">
       <c r="A777" s="20"/>
-      <c r="D777" s="9"/>
-      <c r="E777" s="7"/>
-      <c r="F777" s="7"/>
-      <c r="G777" s="7"/>
+      <c r="D777" s="56"/>
+      <c r="E777" s="24">
+        <v>13</v>
+      </c>
+      <c r="F777" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="G777" s="24" t="s">
+        <v>549</v>
+      </c>
       <c r="H777" s="18"/>
       <c r="K777" s="10"/>
     </row>
     <row r="778" spans="1:11">
-      <c r="F778" s="7"/>
-      <c r="G778" s="7"/>
+      <c r="E778" s="69"/>
+      <c r="F778" s="24"/>
+      <c r="G778" s="24"/>
       <c r="K778" s="10"/>
     </row>
-    <row r="779" spans="1:11">
-      <c r="A779" s="20"/>
-      <c r="D779" s="9"/>
-      <c r="E779" s="7"/>
-      <c r="F779" s="7"/>
-      <c r="G779" s="7"/>
-      <c r="H779" s="18"/>
+    <row r="779" spans="1:11" ht="60" customHeight="1">
+      <c r="A779" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="B779" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C779" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="D779" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="E779" s="24">
+        <v>1</v>
+      </c>
+      <c r="F779" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G779" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="H779" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="K779" s="10"/>
     </row>
-    <row r="780" spans="1:11">
+    <row r="780" spans="1:11" ht="30">
       <c r="A780" s="20"/>
-      <c r="D780" s="9"/>
-      <c r="E780" s="7"/>
-      <c r="F780" s="7"/>
-      <c r="G780" s="7"/>
-      <c r="H780" s="18"/>
+      <c r="D780" s="56"/>
+      <c r="E780" s="24">
+        <v>2</v>
+      </c>
+      <c r="F780" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="G780" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H780" s="33" t="s">
+        <v>301</v>
+      </c>
       <c r="K780" s="10"/>
     </row>
     <row r="781" spans="1:11">
       <c r="A781" s="20"/>
-      <c r="D781" s="9"/>
-      <c r="E781" s="7"/>
-      <c r="F781" s="7"/>
-      <c r="G781" s="7"/>
+      <c r="D781" s="56"/>
+      <c r="E781" s="24">
+        <v>3</v>
+      </c>
+      <c r="F781" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G781" s="24" t="s">
+        <v>306</v>
+      </c>
       <c r="H781" s="18"/>
       <c r="K781" s="10"/>
     </row>
-    <row r="782" spans="1:11">
+    <row r="782" spans="1:11" ht="30">
       <c r="A782" s="20"/>
-      <c r="D782" s="9"/>
-      <c r="E782" s="7"/>
-      <c r="F782" s="7"/>
-      <c r="G782" s="7"/>
-      <c r="H782" s="18"/>
+      <c r="D782" s="56"/>
+      <c r="E782" s="24">
+        <v>4</v>
+      </c>
+      <c r="F782" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G782" s="24" t="s">
+        <v>336</v>
+      </c>
       <c r="K782" s="10"/>
     </row>
     <row r="783" spans="1:11">
       <c r="A783" s="20"/>
-      <c r="D783" s="9"/>
-      <c r="E783" s="7"/>
-      <c r="F783" s="7"/>
-      <c r="G783" s="7"/>
+      <c r="D783" s="56"/>
+      <c r="E783" s="24">
+        <v>5</v>
+      </c>
+      <c r="F783" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="G783" s="24" t="s">
+        <v>531</v>
+      </c>
       <c r="H783" s="18"/>
       <c r="K783" s="10"/>
     </row>
-    <row r="784" spans="1:11">
+    <row r="784" spans="1:11" ht="30">
       <c r="A784" s="20"/>
-      <c r="D784" s="9"/>
-      <c r="E784" s="7"/>
-      <c r="F784" s="7"/>
-      <c r="G784" s="7"/>
+      <c r="D784" s="56"/>
+      <c r="E784" s="24">
+        <v>6</v>
+      </c>
+      <c r="F784" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="G784" s="24" t="s">
+        <v>553</v>
+      </c>
       <c r="H784" s="18"/>
       <c r="K784" s="10"/>
     </row>
-    <row r="785" spans="1:11">
+    <row r="785" spans="1:11" ht="30">
       <c r="A785" s="20"/>
-      <c r="D785" s="9"/>
-      <c r="E785" s="7"/>
-      <c r="F785" s="7"/>
-      <c r="G785" s="7"/>
+      <c r="D785" s="56"/>
+      <c r="E785" s="24">
+        <v>7</v>
+      </c>
+      <c r="F785" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="G785" s="24" t="s">
+        <v>555</v>
+      </c>
       <c r="H785" s="18"/>
       <c r="K785" s="10"/>
     </row>
     <row r="786" spans="1:11">
       <c r="A786" s="20"/>
-      <c r="D786" s="9"/>
-      <c r="E786" s="7"/>
-      <c r="F786" s="7"/>
-      <c r="G786" s="7"/>
+      <c r="D786" s="56"/>
+      <c r="E786" s="24">
+        <v>8</v>
+      </c>
+      <c r="F786" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="G786" s="24" t="s">
+        <v>557</v>
+      </c>
       <c r="H786" s="18"/>
       <c r="K786" s="10"/>
     </row>
-    <row r="787" spans="1:11">
+    <row r="787" spans="1:11" ht="30">
       <c r="A787" s="20"/>
-      <c r="D787" s="9"/>
-      <c r="E787" s="7"/>
-      <c r="F787" s="7"/>
-      <c r="G787" s="7"/>
+      <c r="D787" s="56"/>
+      <c r="E787" s="24">
+        <v>9</v>
+      </c>
+      <c r="F787" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="G787" s="24" t="s">
+        <v>559</v>
+      </c>
       <c r="H787" s="18"/>
       <c r="K787" s="10"/>
     </row>
     <row r="788" spans="1:11">
       <c r="A788" s="20"/>
-      <c r="D788" s="9"/>
-      <c r="E788" s="7"/>
-      <c r="F788" s="7"/>
-      <c r="G788" s="7"/>
+      <c r="D788" s="56"/>
+      <c r="E788" s="24">
+        <v>10</v>
+      </c>
+      <c r="F788" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="G788" s="24" t="s">
+        <v>561</v>
+      </c>
       <c r="H788" s="18"/>
       <c r="K788" s="10"/>
     </row>
-    <row r="789" spans="1:11">
+    <row r="789" spans="1:11" ht="30">
       <c r="A789" s="20"/>
-      <c r="D789" s="9"/>
-      <c r="E789" s="7"/>
-      <c r="F789" s="7"/>
-      <c r="G789" s="7"/>
+      <c r="D789" s="56"/>
+      <c r="E789" s="24">
+        <v>11</v>
+      </c>
+      <c r="F789" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="G789" s="24" t="s">
+        <v>563</v>
+      </c>
       <c r="H789" s="18"/>
       <c r="K789" s="10"/>
     </row>
     <row r="790" spans="1:11">
       <c r="A790" s="20"/>
-      <c r="D790" s="7"/>
-      <c r="E790" s="7"/>
-      <c r="F790" s="7"/>
-      <c r="G790" s="7"/>
+      <c r="D790" s="56"/>
+      <c r="E790" s="24">
+        <v>12</v>
+      </c>
+      <c r="F790" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="G790" s="24" t="s">
+        <v>565</v>
+      </c>
       <c r="K790" s="10"/>
     </row>
     <row r="791" spans="1:11">
       <c r="A791" s="20"/>
       <c r="D791" s="7"/>
-      <c r="E791" s="7"/>
-      <c r="F791" s="7"/>
-      <c r="G791" s="7"/>
+      <c r="E791" s="24"/>
+      <c r="F791" s="24"/>
+      <c r="G791" s="24"/>
       <c r="K791" s="10"/>
     </row>
-    <row r="792" spans="1:11">
-      <c r="A792" s="20"/>
-      <c r="D792" s="7"/>
-      <c r="E792" s="7"/>
-      <c r="F792" s="7"/>
-      <c r="G792" s="7"/>
+    <row r="792" spans="1:11" ht="30" customHeight="1">
+      <c r="A792" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="B792" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C792" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="D792" s="56" t="s">
+        <v>575</v>
+      </c>
+      <c r="E792" s="24">
+        <v>1</v>
+      </c>
+      <c r="F792" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G792" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="H792" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="K792" s="10"/>
     </row>
-    <row r="793" spans="1:11">
+    <row r="793" spans="1:11" ht="30">
       <c r="A793" s="20"/>
-      <c r="D793" s="9"/>
-      <c r="E793" s="7"/>
-      <c r="F793" s="7"/>
-      <c r="G793" s="7"/>
-      <c r="H793" s="18"/>
+      <c r="D793" s="56"/>
+      <c r="E793" s="24">
+        <v>2</v>
+      </c>
+      <c r="F793" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="G793" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H793" s="33" t="s">
+        <v>301</v>
+      </c>
       <c r="K793" s="10"/>
     </row>
     <row r="794" spans="1:11">
       <c r="A794" s="20"/>
-      <c r="D794" s="9"/>
-      <c r="E794" s="7"/>
-      <c r="F794" s="7"/>
-      <c r="G794" s="7"/>
+      <c r="D794" s="56"/>
+      <c r="E794" s="24">
+        <v>3</v>
+      </c>
+      <c r="F794" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G794" s="24" t="s">
+        <v>306</v>
+      </c>
       <c r="H794" s="18"/>
       <c r="K794" s="10"/>
     </row>
-    <row r="795" spans="1:11">
+    <row r="795" spans="1:11" ht="30">
       <c r="A795" s="20"/>
-      <c r="D795" s="9"/>
-      <c r="E795" s="7"/>
-      <c r="F795" s="7"/>
-      <c r="G795" s="7"/>
-      <c r="H795" s="18"/>
+      <c r="D795" s="56"/>
+      <c r="E795" s="24">
+        <v>4</v>
+      </c>
+      <c r="F795" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G795" s="24" t="s">
+        <v>336</v>
+      </c>
       <c r="K795" s="10"/>
     </row>
     <row r="796" spans="1:11">
       <c r="A796" s="20"/>
-      <c r="D796" s="9"/>
-      <c r="E796" s="7"/>
-      <c r="F796" s="7"/>
-      <c r="G796" s="7"/>
+      <c r="D796" s="56"/>
+      <c r="E796" s="24">
+        <v>5</v>
+      </c>
+      <c r="F796" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="G796" s="24" t="s">
+        <v>531</v>
+      </c>
       <c r="H796" s="18"/>
       <c r="K796" s="10"/>
     </row>
-    <row r="797" spans="1:11">
+    <row r="797" spans="1:11" ht="30">
       <c r="A797" s="20"/>
-      <c r="D797" s="9"/>
-      <c r="E797" s="7"/>
-      <c r="F797" s="7"/>
-      <c r="G797" s="7"/>
+      <c r="D797" s="56"/>
+      <c r="E797" s="24">
+        <v>6</v>
+      </c>
+      <c r="F797" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="G797" s="9" t="s">
+        <v>567</v>
+      </c>
       <c r="K797" s="10"/>
     </row>
-    <row r="798" spans="1:11">
+    <row r="798" spans="1:11" ht="30">
       <c r="A798" s="20"/>
-      <c r="D798" s="9"/>
-      <c r="E798" s="7"/>
-      <c r="F798" s="7"/>
-      <c r="G798" s="7"/>
+      <c r="D798" s="56"/>
+      <c r="E798" s="24">
+        <v>7</v>
+      </c>
+      <c r="F798" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="G798" s="9" t="s">
+        <v>569</v>
+      </c>
       <c r="H798" s="18"/>
       <c r="K798" s="10"/>
     </row>
-    <row r="799" spans="1:11">
+    <row r="799" spans="1:11" ht="30">
       <c r="A799" s="20"/>
-      <c r="D799" s="9"/>
-      <c r="E799" s="7"/>
-      <c r="G799" s="7"/>
+      <c r="D799" s="56"/>
+      <c r="E799" s="24">
+        <v>8</v>
+      </c>
+      <c r="F799" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="G799" s="9" t="s">
+        <v>571</v>
+      </c>
       <c r="H799" s="18"/>
       <c r="K799" s="10"/>
     </row>
     <row r="800" spans="1:11">
       <c r="A800" s="20"/>
       <c r="D800" s="9"/>
-      <c r="E800" s="7"/>
-      <c r="F800" s="7"/>
-      <c r="G800" s="7"/>
+      <c r="E800" s="7">
+        <v>9</v>
+      </c>
+      <c r="F800" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="G800" s="9" t="s">
+        <v>574</v>
+      </c>
       <c r="K800" s="10"/>
     </row>
     <row r="801" spans="1:11">
@@ -15552,57 +16058,106 @@
       <c r="H801" s="18"/>
       <c r="K801" s="10"/>
     </row>
-    <row r="802" spans="1:11">
-      <c r="A802" s="20"/>
-      <c r="D802" s="9"/>
-      <c r="E802" s="7"/>
-      <c r="F802" s="7"/>
-      <c r="G802" s="7"/>
-      <c r="H802" s="18"/>
+    <row r="802" spans="1:11" ht="75" customHeight="1">
+      <c r="A802" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="B802" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C802" s="54" t="s">
+        <v>528</v>
+      </c>
+      <c r="D802" s="56" t="s">
+        <v>576</v>
+      </c>
+      <c r="E802" s="24">
+        <v>1</v>
+      </c>
+      <c r="F802" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G802" s="68" t="s">
+        <v>303</v>
+      </c>
+      <c r="H802" s="18" t="s">
+        <v>304</v>
+      </c>
       <c r="K802" s="10"/>
     </row>
-    <row r="803" spans="1:11">
+    <row r="803" spans="1:11" ht="30">
       <c r="A803" s="20"/>
-      <c r="D803" s="7"/>
-      <c r="E803" s="7"/>
-      <c r="F803" s="7"/>
-      <c r="G803" s="7"/>
-      <c r="H803" s="18"/>
+      <c r="D803" s="56"/>
+      <c r="E803" s="24">
+        <v>2</v>
+      </c>
+      <c r="F803" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="G803" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="H803" s="33" t="s">
+        <v>301</v>
+      </c>
       <c r="K803" s="10"/>
     </row>
     <row r="804" spans="1:11">
       <c r="A804" s="20"/>
-      <c r="D804" s="7"/>
-      <c r="E804" s="7"/>
-      <c r="F804" s="7"/>
-      <c r="G804" s="7"/>
+      <c r="D804" s="56"/>
+      <c r="E804" s="24">
+        <v>3</v>
+      </c>
+      <c r="F804" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G804" s="24" t="s">
+        <v>306</v>
+      </c>
       <c r="H804" s="18"/>
       <c r="K804" s="10"/>
     </row>
-    <row r="805" spans="1:11">
+    <row r="805" spans="1:11" ht="30">
       <c r="A805" s="20"/>
-      <c r="D805" s="7"/>
-      <c r="E805" s="7"/>
-      <c r="F805" s="7"/>
-      <c r="G805" s="7"/>
-      <c r="H805" s="18"/>
+      <c r="D805" s="56"/>
+      <c r="E805" s="24">
+        <v>4</v>
+      </c>
+      <c r="F805" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G805" s="24" t="s">
+        <v>336</v>
+      </c>
       <c r="K805" s="10"/>
     </row>
     <row r="806" spans="1:11">
       <c r="A806" s="20"/>
-      <c r="D806" s="9"/>
-      <c r="E806" s="7"/>
-      <c r="F806" s="7"/>
-      <c r="G806" s="7"/>
+      <c r="D806" s="56"/>
+      <c r="E806" s="24">
+        <v>5</v>
+      </c>
+      <c r="F806" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="G806" s="9" t="s">
+        <v>578</v>
+      </c>
       <c r="H806" s="18"/>
       <c r="K806" s="10"/>
     </row>
-    <row r="807" spans="1:11">
+    <row r="807" spans="1:11" ht="30">
       <c r="A807" s="20"/>
-      <c r="D807" s="7"/>
-      <c r="E807" s="7"/>
-      <c r="F807" s="7"/>
-      <c r="G807" s="7"/>
+      <c r="D807" s="56"/>
+      <c r="E807" s="24">
+        <v>6</v>
+      </c>
+      <c r="F807" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="G807" s="9" t="s">
+        <v>580</v>
+      </c>
       <c r="H807" s="18"/>
       <c r="K807" s="10"/>
     </row>
@@ -17520,7 +18075,81 @@
       <c r="K1308" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
+    <mergeCell ref="D759:D763"/>
+    <mergeCell ref="D765:D777"/>
+    <mergeCell ref="D779:D790"/>
+    <mergeCell ref="D792:D799"/>
+    <mergeCell ref="D802:D807"/>
+    <mergeCell ref="D545:D554"/>
+    <mergeCell ref="D556:D565"/>
+    <mergeCell ref="D567:D575"/>
+    <mergeCell ref="D577:D583"/>
+    <mergeCell ref="D585:D591"/>
+    <mergeCell ref="D490:D497"/>
+    <mergeCell ref="D499:D507"/>
+    <mergeCell ref="D509:D518"/>
+    <mergeCell ref="D520:D530"/>
+    <mergeCell ref="D532:D543"/>
+    <mergeCell ref="D435:D444"/>
+    <mergeCell ref="D446:D455"/>
+    <mergeCell ref="D457:D467"/>
+    <mergeCell ref="D469:D480"/>
+    <mergeCell ref="D482:D488"/>
+    <mergeCell ref="D403:D411"/>
+    <mergeCell ref="D413:D422"/>
+    <mergeCell ref="D424:D433"/>
+    <mergeCell ref="D365:D374"/>
+    <mergeCell ref="D352:D363"/>
+    <mergeCell ref="D376:D385"/>
+    <mergeCell ref="D387:D392"/>
+    <mergeCell ref="D394:D401"/>
+    <mergeCell ref="D279:D288"/>
+    <mergeCell ref="D290:D301"/>
+    <mergeCell ref="D303:D312"/>
+    <mergeCell ref="D339:D350"/>
+    <mergeCell ref="D327:D337"/>
+    <mergeCell ref="D314:D325"/>
+    <mergeCell ref="D183:D189"/>
+    <mergeCell ref="D191:D198"/>
+    <mergeCell ref="D200:D208"/>
+    <mergeCell ref="D150:D155"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D169:D174"/>
+    <mergeCell ref="D125:D129"/>
+    <mergeCell ref="D176:D181"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="D132:D139"/>
+    <mergeCell ref="D141:D148"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D56:D61"/>
+    <mergeCell ref="D63:D74"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D83:D93"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="D262:D269"/>
+    <mergeCell ref="D271:D277"/>
+    <mergeCell ref="D221:D231"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="D233:D241"/>
+    <mergeCell ref="D243:D250"/>
+    <mergeCell ref="D252:D260"/>
+    <mergeCell ref="D593:D599"/>
+    <mergeCell ref="D601:D607"/>
+    <mergeCell ref="D609:D615"/>
+    <mergeCell ref="D617:D623"/>
+    <mergeCell ref="D625:D631"/>
+    <mergeCell ref="D633:D639"/>
+    <mergeCell ref="D641:D647"/>
+    <mergeCell ref="D649:D659"/>
+    <mergeCell ref="D661:D670"/>
+    <mergeCell ref="D672:D678"/>
     <mergeCell ref="D732:D738"/>
     <mergeCell ref="D740:D746"/>
     <mergeCell ref="D748:D756"/>
@@ -17529,81 +18158,12 @@
     <mergeCell ref="D703:D710"/>
     <mergeCell ref="D712:D719"/>
     <mergeCell ref="D721:D730"/>
-    <mergeCell ref="D633:D639"/>
-    <mergeCell ref="D641:D647"/>
-    <mergeCell ref="D649:D659"/>
-    <mergeCell ref="D661:D670"/>
-    <mergeCell ref="D672:D678"/>
-    <mergeCell ref="D593:D599"/>
-    <mergeCell ref="D601:D607"/>
-    <mergeCell ref="D609:D615"/>
-    <mergeCell ref="D617:D623"/>
-    <mergeCell ref="D625:D631"/>
-    <mergeCell ref="D262:D269"/>
-    <mergeCell ref="D271:D277"/>
-    <mergeCell ref="D221:D231"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="D233:D241"/>
-    <mergeCell ref="D243:D250"/>
-    <mergeCell ref="D252:D260"/>
-    <mergeCell ref="D56:D61"/>
-    <mergeCell ref="D63:D74"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D83:D93"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D125:D129"/>
-    <mergeCell ref="D176:D181"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="D132:D139"/>
-    <mergeCell ref="D141:D148"/>
-    <mergeCell ref="D183:D189"/>
-    <mergeCell ref="D191:D198"/>
-    <mergeCell ref="D200:D208"/>
-    <mergeCell ref="D150:D155"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D169:D174"/>
-    <mergeCell ref="D279:D288"/>
-    <mergeCell ref="D290:D301"/>
-    <mergeCell ref="D303:D312"/>
-    <mergeCell ref="D339:D350"/>
-    <mergeCell ref="D327:D337"/>
-    <mergeCell ref="D314:D325"/>
-    <mergeCell ref="D403:D411"/>
-    <mergeCell ref="D413:D422"/>
-    <mergeCell ref="D424:D433"/>
-    <mergeCell ref="D365:D374"/>
-    <mergeCell ref="D352:D363"/>
-    <mergeCell ref="D376:D385"/>
-    <mergeCell ref="D387:D392"/>
-    <mergeCell ref="D394:D401"/>
-    <mergeCell ref="D435:D444"/>
-    <mergeCell ref="D446:D455"/>
-    <mergeCell ref="D457:D467"/>
-    <mergeCell ref="D469:D480"/>
-    <mergeCell ref="D482:D488"/>
-    <mergeCell ref="D490:D497"/>
-    <mergeCell ref="D499:D507"/>
-    <mergeCell ref="D509:D518"/>
-    <mergeCell ref="D520:D530"/>
-    <mergeCell ref="D532:D543"/>
-    <mergeCell ref="D545:D554"/>
-    <mergeCell ref="D556:D565"/>
-    <mergeCell ref="D567:D575"/>
-    <mergeCell ref="D577:D583"/>
-    <mergeCell ref="D585:D591"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1067:J1263">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C374 C376:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C374 C376:C758 C760:C764 C766:C778 C780:C791 C793:C801 C803:C1048576">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B374 B376:B1048576">
@@ -17614,6 +18174,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1066">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C759 C765 C779 C792 C802">
+      <formula1>"Bharath,Moses,  Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -17695,9 +18258,14 @@
     <hyperlink ref="H733" r:id="rId76"/>
     <hyperlink ref="H741" r:id="rId77"/>
     <hyperlink ref="H749" r:id="rId78"/>
+    <hyperlink ref="H759" r:id="rId79"/>
+    <hyperlink ref="H765" r:id="rId80"/>
+    <hyperlink ref="H779" r:id="rId81"/>
+    <hyperlink ref="H792" r:id="rId82"/>
+    <hyperlink ref="H802" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
+  <pageSetup orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
 

--- a/Test Cases/Prapancha/Test Case- EMR IP_Reviewed.xlsx
+++ b/Test Cases/Prapancha/Test Case- EMR IP_Reviewed.xlsx
@@ -2309,27 +2309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2348,6 +2327,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2656,7 +2656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2667,8 +2667,8 @@
   <dimension ref="A1:R1308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A802" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A809" sqref="A809"/>
+      <pane ySplit="1" topLeftCell="A784" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E792" sqref="E792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2743,7 +2743,7 @@
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="66" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="7"/>
@@ -2775,7 +2775,7 @@
       <c r="A3" s="9"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="62"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="15">
         <v>1</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="62"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="15">
         <v>2</v>
       </c>
@@ -2827,7 +2827,7 @@
       <c r="A5" s="9"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
-      <c r="D5" s="62"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="15">
         <v>3</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="A6" s="9"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="56"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="15">
         <v>4</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="56"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="15">
         <v>5</v>
       </c>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="8" spans="1:18" ht="30">
       <c r="A8" s="9"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="15">
         <v>6</v>
       </c>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="9" spans="1:18" ht="165">
       <c r="A9" s="9"/>
-      <c r="D9" s="56"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="15">
         <v>7</v>
       </c>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="10" spans="1:18" ht="30">
       <c r="A10" s="9"/>
-      <c r="D10" s="56"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="15">
         <v>8</v>
       </c>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="11" spans="1:18" ht="30" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="D11" s="56"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="15">
         <v>9</v>
       </c>
@@ -2999,7 +2999,7 @@
       <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="65" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="7"/>
@@ -3012,7 +3012,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="59"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="7">
         <v>1</v>
       </c>
@@ -3031,7 +3031,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="59"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="7">
         <v>2</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="A16" s="9"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="59"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="7">
         <v>3</v>
       </c>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="9"/>
-      <c r="D17" s="59"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="7">
         <v>4</v>
       </c>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="9"/>
-      <c r="D18" s="59"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="7">
         <v>5</v>
       </c>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="9"/>
-      <c r="D19" s="59"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="7">
         <v>6</v>
       </c>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="20" spans="1:11" ht="45" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="D20" s="59"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="7">
         <v>7</v>
       </c>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="9"/>
-      <c r="D21" s="59"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="7">
         <v>8</v>
       </c>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="22" spans="1:11" ht="30">
       <c r="A22" s="9"/>
-      <c r="D22" s="59"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="7">
         <v>9</v>
       </c>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="9"/>
-      <c r="D23" s="59"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="7">
         <v>10</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="63" t="s">
         <v>207</v>
       </c>
       <c r="E25" s="37"/>
@@ -3194,7 +3194,7 @@
       <c r="A26" s="9"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="56"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="7">
         <v>1</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="A27" s="9"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="56"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="7">
         <v>2</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="A28" s="9"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="56"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="7">
         <v>3</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="A29" s="9"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="56"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="7">
         <v>4</v>
       </c>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="7">
         <v>5</v>
       </c>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="7"/>
-      <c r="D31" s="56"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="7">
         <v>6</v>
       </c>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="7"/>
-      <c r="D32" s="56"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="7">
         <v>7</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="C34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="65" t="s">
         <v>63</v>
       </c>
       <c r="E34" s="23"/>
@@ -3335,7 +3335,7 @@
       <c r="A35" s="9"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
-      <c r="D35" s="59"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="7">
         <v>1</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="A36" s="9"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="59"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="7">
         <v>2</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="A37" s="9"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="59"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="7">
         <v>3</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="A38" s="9"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="59"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="7">
         <v>4</v>
       </c>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="7"/>
-      <c r="D39" s="59"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="7">
         <v>5</v>
       </c>
@@ -3437,7 +3437,7 @@
       <c r="C41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="65" t="s">
         <v>68</v>
       </c>
       <c r="E41" s="23"/>
@@ -3451,7 +3451,7 @@
       <c r="A42" s="38"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="59"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="7">
         <v>1</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="A43" s="9"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
-      <c r="D43" s="59"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="7">
         <v>2</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="A44" s="9"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
-      <c r="D44" s="59"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="7">
         <v>3</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="A45" s="9"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
-      <c r="D45" s="59"/>
+      <c r="D45" s="65"/>
       <c r="E45" s="7">
         <v>4</v>
       </c>
@@ -3521,7 +3521,7 @@
       <c r="A46" s="9"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
-      <c r="D46" s="59"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="7">
         <v>5</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="C56" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="59" t="s">
+      <c r="D56" s="65" t="s">
         <v>71</v>
       </c>
       <c r="E56" s="23"/>
@@ -3697,7 +3697,7 @@
       <c r="A57" s="9"/>
       <c r="B57" s="31"/>
       <c r="C57" s="31"/>
-      <c r="D57" s="59"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="7">
         <v>1</v>
       </c>
@@ -3716,7 +3716,7 @@
       <c r="A58" s="9"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31"/>
-      <c r="D58" s="59"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="7">
         <v>2</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="A59" s="9"/>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
-      <c r="D59" s="59"/>
+      <c r="D59" s="65"/>
       <c r="E59" s="7">
         <v>3</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="A60" s="9"/>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
-      <c r="D60" s="59"/>
+      <c r="D60" s="65"/>
       <c r="E60" s="7">
         <v>4</v>
       </c>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="61" spans="1:11" ht="30">
       <c r="A61" s="7"/>
-      <c r="D61" s="59"/>
+      <c r="D61" s="65"/>
       <c r="E61" s="7">
         <v>5</v>
       </c>
@@ -3798,7 +3798,7 @@
       <c r="C63" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="65" t="s">
         <v>74</v>
       </c>
       <c r="E63" s="7"/>
@@ -3811,7 +3811,7 @@
       <c r="A64" s="9"/>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
-      <c r="D64" s="59"/>
+      <c r="D64" s="65"/>
       <c r="E64" s="7">
         <v>1</v>
       </c>
@@ -3830,7 +3830,7 @@
       <c r="A65" s="9"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
-      <c r="D65" s="59"/>
+      <c r="D65" s="65"/>
       <c r="E65" s="7">
         <v>2</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="A66" s="9"/>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
-      <c r="D66" s="59"/>
+      <c r="D66" s="65"/>
       <c r="E66" s="7">
         <v>3</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="A67" s="9"/>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
-      <c r="D67" s="59"/>
+      <c r="D67" s="65"/>
       <c r="E67" s="7">
         <v>4</v>
       </c>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="68" spans="1:11" ht="30">
       <c r="A68" s="7"/>
-      <c r="D68" s="59"/>
+      <c r="D68" s="65"/>
       <c r="E68" s="7">
         <v>5</v>
       </c>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="69" spans="1:11" ht="105">
       <c r="A69" s="7"/>
-      <c r="D69" s="59"/>
+      <c r="D69" s="65"/>
       <c r="E69" s="7">
         <v>6</v>
       </c>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="70" spans="1:11" ht="45">
       <c r="A70" s="7"/>
-      <c r="D70" s="59"/>
+      <c r="D70" s="65"/>
       <c r="E70" s="7">
         <v>7</v>
       </c>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="71" spans="1:11" ht="60" customHeight="1">
       <c r="A71" s="7"/>
-      <c r="D71" s="59"/>
+      <c r="D71" s="65"/>
       <c r="E71" s="7">
         <v>8</v>
       </c>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="72" spans="1:11" ht="30">
       <c r="A72" s="7"/>
-      <c r="D72" s="59"/>
+      <c r="D72" s="65"/>
       <c r="E72" s="7">
         <v>9</v>
       </c>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="73" spans="1:11" ht="30">
       <c r="A73" s="7"/>
-      <c r="D73" s="59"/>
+      <c r="D73" s="65"/>
       <c r="E73" s="7">
         <v>10</v>
       </c>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="7"/>
-      <c r="D74" s="59"/>
+      <c r="D74" s="65"/>
       <c r="E74" s="7">
         <v>11</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="C76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="58" t="s">
+      <c r="D76" s="64" t="s">
         <v>316</v>
       </c>
       <c r="E76" s="23"/>
@@ -4013,7 +4013,7 @@
       <c r="A77" s="9"/>
       <c r="B77" s="31"/>
       <c r="C77" s="31"/>
-      <c r="D77" s="58"/>
+      <c r="D77" s="64"/>
       <c r="E77" s="7">
         <v>1</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="A78" s="9"/>
       <c r="B78" s="31"/>
       <c r="C78" s="31"/>
-      <c r="D78" s="58"/>
+      <c r="D78" s="64"/>
       <c r="E78" s="7">
         <v>2</v>
       </c>
@@ -4051,7 +4051,7 @@
       <c r="A79" s="9"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31"/>
-      <c r="D79" s="58"/>
+      <c r="D79" s="64"/>
       <c r="E79" s="7">
         <v>3</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="A80" s="9"/>
       <c r="B80" s="31"/>
       <c r="C80" s="31"/>
-      <c r="D80" s="58"/>
+      <c r="D80" s="64"/>
       <c r="E80" s="7">
         <v>4</v>
       </c>
@@ -4085,7 +4085,7 @@
       <c r="A81" s="9"/>
       <c r="B81" s="31"/>
       <c r="C81" s="31"/>
-      <c r="D81" s="58"/>
+      <c r="D81" s="64"/>
       <c r="E81" s="43">
         <v>5</v>
       </c>
@@ -4119,7 +4119,7 @@
       <c r="C83" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="58" t="s">
+      <c r="D83" s="64" t="s">
         <v>320</v>
       </c>
       <c r="E83" s="7"/>
@@ -4133,7 +4133,7 @@
       <c r="A84" s="9"/>
       <c r="B84" s="31"/>
       <c r="C84" s="31"/>
-      <c r="D84" s="58"/>
+      <c r="D84" s="64"/>
       <c r="E84" s="7">
         <v>1</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="A85" s="9"/>
       <c r="B85" s="31"/>
       <c r="C85" s="31"/>
-      <c r="D85" s="58"/>
+      <c r="D85" s="64"/>
       <c r="E85" s="7">
         <v>2</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="A86" s="9"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31"/>
-      <c r="D86" s="58"/>
+      <c r="D86" s="64"/>
       <c r="E86" s="7">
         <v>3</v>
       </c>
@@ -4187,7 +4187,7 @@
       <c r="A87" s="9"/>
       <c r="B87" s="31"/>
       <c r="C87" s="31"/>
-      <c r="D87" s="58"/>
+      <c r="D87" s="64"/>
       <c r="E87" s="7">
         <v>4</v>
       </c>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="88" spans="1:11" ht="30">
       <c r="A88" s="7"/>
-      <c r="D88" s="58"/>
+      <c r="D88" s="64"/>
       <c r="E88" s="7">
         <v>5</v>
       </c>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="89" spans="1:11" ht="45" customHeight="1">
       <c r="A89" s="7"/>
-      <c r="D89" s="58"/>
+      <c r="D89" s="64"/>
       <c r="E89" s="7">
         <v>6</v>
       </c>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="90" spans="1:11" ht="30">
       <c r="A90" s="7"/>
-      <c r="D90" s="58"/>
+      <c r="D90" s="64"/>
       <c r="E90" s="7">
         <v>7</v>
       </c>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="91" spans="1:11" ht="30">
       <c r="A91" s="7"/>
-      <c r="D91" s="58"/>
+      <c r="D91" s="64"/>
       <c r="E91" s="7">
         <v>8</v>
       </c>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="7"/>
-      <c r="D92" s="58"/>
+      <c r="D92" s="64"/>
       <c r="E92" s="7">
         <v>9</v>
       </c>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="7"/>
-      <c r="D93" s="58"/>
+      <c r="D93" s="64"/>
       <c r="E93" s="7">
         <v>10</v>
       </c>
@@ -4304,7 +4304,7 @@
       <c r="C95" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="59" t="s">
+      <c r="D95" s="65" t="s">
         <v>92</v>
       </c>
       <c r="E95" s="23"/>
@@ -4317,7 +4317,7 @@
       <c r="A96" s="9"/>
       <c r="B96" s="31"/>
       <c r="C96" s="31"/>
-      <c r="D96" s="59"/>
+      <c r="D96" s="65"/>
       <c r="E96" s="7">
         <v>1</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="A97" s="9"/>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
-      <c r="D97" s="59"/>
+      <c r="D97" s="65"/>
       <c r="E97" s="7">
         <v>2</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="A98" s="9"/>
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
-      <c r="D98" s="59"/>
+      <c r="D98" s="65"/>
       <c r="E98" s="7">
         <v>3</v>
       </c>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="99" spans="1:11" ht="45" customHeight="1">
       <c r="A99" s="7"/>
-      <c r="D99" s="59"/>
+      <c r="D99" s="65"/>
       <c r="E99" s="7">
         <v>4</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="A100" s="7"/>
       <c r="B100" s="31"/>
       <c r="C100" s="31"/>
-      <c r="D100" s="59"/>
+      <c r="D100" s="65"/>
       <c r="E100" s="7">
         <v>5</v>
       </c>
@@ -4403,7 +4403,7 @@
       <c r="A101" s="7"/>
       <c r="B101" s="31"/>
       <c r="C101" s="31"/>
-      <c r="D101" s="59"/>
+      <c r="D101" s="65"/>
       <c r="E101" s="7">
         <v>6</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="A102" s="7"/>
       <c r="B102" s="31"/>
       <c r="C102" s="31"/>
-      <c r="D102" s="59"/>
+      <c r="D102" s="65"/>
       <c r="E102" s="7">
         <v>7</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="A103" s="7"/>
       <c r="B103" s="31"/>
       <c r="C103" s="31"/>
-      <c r="D103" s="59"/>
+      <c r="D103" s="65"/>
       <c r="E103" s="7">
         <v>8</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="C105" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="58" t="s">
+      <c r="D105" s="64" t="s">
         <v>333</v>
       </c>
       <c r="E105" s="7"/>
@@ -4483,7 +4483,7 @@
       <c r="A106" s="9"/>
       <c r="B106" s="31"/>
       <c r="C106" s="31"/>
-      <c r="D106" s="58"/>
+      <c r="D106" s="64"/>
       <c r="E106" s="7">
         <v>1</v>
       </c>
@@ -4502,7 +4502,7 @@
       <c r="A107" s="9"/>
       <c r="B107" s="31"/>
       <c r="C107" s="31"/>
-      <c r="D107" s="58"/>
+      <c r="D107" s="64"/>
       <c r="E107" s="7">
         <v>2</v>
       </c>
@@ -4521,7 +4521,7 @@
       <c r="A108" s="9"/>
       <c r="B108" s="31"/>
       <c r="C108" s="31"/>
-      <c r="D108" s="58"/>
+      <c r="D108" s="64"/>
       <c r="E108" s="7">
         <v>3</v>
       </c>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="109" spans="1:11" ht="45">
       <c r="A109" s="9"/>
-      <c r="D109" s="58"/>
+      <c r="D109" s="64"/>
       <c r="E109" s="7">
         <v>4</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="C111" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="56" t="s">
+      <c r="D111" s="63" t="s">
         <v>208</v>
       </c>
       <c r="E111" s="7"/>
@@ -4583,7 +4583,7 @@
       <c r="A112" s="9"/>
       <c r="B112" s="41"/>
       <c r="C112" s="41"/>
-      <c r="D112" s="56"/>
+      <c r="D112" s="63"/>
       <c r="E112" s="7">
         <v>1</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="A113" s="9"/>
       <c r="B113" s="41"/>
       <c r="C113" s="41"/>
-      <c r="D113" s="56"/>
+      <c r="D113" s="63"/>
       <c r="E113" s="7">
         <v>2</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="A114" s="9"/>
       <c r="B114" s="41"/>
       <c r="C114" s="41"/>
-      <c r="D114" s="56"/>
+      <c r="D114" s="63"/>
       <c r="E114" s="7">
         <v>3</v>
       </c>
@@ -4638,7 +4638,7 @@
       <c r="A115" s="9"/>
       <c r="B115" s="41"/>
       <c r="C115" s="41"/>
-      <c r="D115" s="56"/>
+      <c r="D115" s="63"/>
       <c r="E115" s="7">
         <v>4</v>
       </c>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="116" spans="1:11" ht="150">
       <c r="A116" s="7"/>
-      <c r="D116" s="56"/>
+      <c r="D116" s="63"/>
       <c r="E116" s="7">
         <v>5</v>
       </c>
@@ -4684,7 +4684,7 @@
       <c r="C118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D118" s="56" t="s">
+      <c r="D118" s="63" t="s">
         <v>340</v>
       </c>
       <c r="E118" s="7"/>
@@ -4697,7 +4697,7 @@
     <row r="119" spans="1:11" ht="30">
       <c r="B119" s="41"/>
       <c r="C119" s="41"/>
-      <c r="D119" s="56"/>
+      <c r="D119" s="63"/>
       <c r="E119" s="7">
         <v>1</v>
       </c>
@@ -4715,7 +4715,7 @@
     <row r="120" spans="1:11" ht="30">
       <c r="B120" s="41"/>
       <c r="C120" s="41"/>
-      <c r="D120" s="56"/>
+      <c r="D120" s="63"/>
       <c r="E120" s="7">
         <v>2</v>
       </c>
@@ -4733,7 +4733,7 @@
     <row r="121" spans="1:11">
       <c r="B121" s="41"/>
       <c r="C121" s="41"/>
-      <c r="D121" s="56"/>
+      <c r="D121" s="63"/>
       <c r="E121" s="7">
         <v>3</v>
       </c>
@@ -4749,7 +4749,7 @@
     <row r="122" spans="1:11" ht="30">
       <c r="B122" s="41"/>
       <c r="C122" s="41"/>
-      <c r="D122" s="56"/>
+      <c r="D122" s="63"/>
       <c r="E122" s="7">
         <v>4</v>
       </c>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="123" spans="1:11" ht="45" customHeight="1">
       <c r="A123" s="7"/>
-      <c r="D123" s="56"/>
+      <c r="D123" s="63"/>
       <c r="E123" s="36">
         <v>5</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="C125" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="59" t="s">
+      <c r="D125" s="65" t="s">
         <v>339</v>
       </c>
       <c r="E125" s="7"/>
@@ -4809,7 +4809,7 @@
       <c r="A126" s="9"/>
       <c r="B126" s="41"/>
       <c r="C126" s="41"/>
-      <c r="D126" s="59"/>
+      <c r="D126" s="65"/>
       <c r="E126" s="7">
         <v>1</v>
       </c>
@@ -4828,7 +4828,7 @@
       <c r="A127" s="9"/>
       <c r="B127" s="41"/>
       <c r="C127" s="41"/>
-      <c r="D127" s="59"/>
+      <c r="D127" s="65"/>
       <c r="E127" s="7">
         <v>2</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="A128" s="9"/>
       <c r="B128" s="41"/>
       <c r="C128" s="41"/>
-      <c r="D128" s="59"/>
+      <c r="D128" s="65"/>
       <c r="E128" s="7">
         <v>3</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="A129" s="9"/>
       <c r="B129" s="41"/>
       <c r="C129" s="41"/>
-      <c r="D129" s="59"/>
+      <c r="D129" s="65"/>
       <c r="E129" s="7">
         <v>4</v>
       </c>
@@ -4910,7 +4910,7 @@
       <c r="C132" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="59" t="s">
+      <c r="D132" s="65" t="s">
         <v>350</v>
       </c>
       <c r="E132" s="7"/>
@@ -4926,7 +4926,7 @@
       <c r="A133" s="9"/>
       <c r="B133" s="41"/>
       <c r="C133" s="41"/>
-      <c r="D133" s="59"/>
+      <c r="D133" s="65"/>
       <c r="E133" s="7">
         <v>1</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="A134" s="9"/>
       <c r="B134" s="41"/>
       <c r="C134" s="41"/>
-      <c r="D134" s="59"/>
+      <c r="D134" s="65"/>
       <c r="E134" s="7">
         <v>2</v>
       </c>
@@ -4964,7 +4964,7 @@
       <c r="A135" s="9"/>
       <c r="B135" s="41"/>
       <c r="C135" s="41"/>
-      <c r="D135" s="59"/>
+      <c r="D135" s="65"/>
       <c r="E135" s="7">
         <v>3</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="A136" s="9"/>
       <c r="B136" s="41"/>
       <c r="C136" s="41"/>
-      <c r="D136" s="59"/>
+      <c r="D136" s="65"/>
       <c r="E136" s="7">
         <v>4</v>
       </c>
@@ -4997,7 +4997,7 @@
       <c r="A137" s="9"/>
       <c r="B137" s="41"/>
       <c r="C137" s="41"/>
-      <c r="D137" s="59"/>
+      <c r="D137" s="65"/>
       <c r="E137" s="7">
         <v>5</v>
       </c>
@@ -5013,7 +5013,7 @@
       <c r="A138" s="9"/>
       <c r="B138" s="41"/>
       <c r="C138" s="41"/>
-      <c r="D138" s="59"/>
+      <c r="D138" s="65"/>
       <c r="E138" s="7">
         <v>6</v>
       </c>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="139" spans="1:11" ht="24" customHeight="1">
       <c r="A139" s="7"/>
-      <c r="D139" s="59"/>
+      <c r="D139" s="65"/>
       <c r="E139" s="7">
         <v>7</v>
       </c>
@@ -5058,7 +5058,7 @@
       <c r="C141" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D141" s="59" t="s">
+      <c r="D141" s="65" t="s">
         <v>349</v>
       </c>
       <c r="E141" s="7"/>
@@ -5074,7 +5074,7 @@
       <c r="A142" s="9"/>
       <c r="B142" s="41"/>
       <c r="C142" s="41"/>
-      <c r="D142" s="59"/>
+      <c r="D142" s="65"/>
       <c r="E142" s="7">
         <v>1</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="A143" s="9"/>
       <c r="B143" s="41"/>
       <c r="C143" s="41"/>
-      <c r="D143" s="59"/>
+      <c r="D143" s="65"/>
       <c r="E143" s="7">
         <v>2</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="A144" s="9"/>
       <c r="B144" s="41"/>
       <c r="C144" s="41"/>
-      <c r="D144" s="59"/>
+      <c r="D144" s="65"/>
       <c r="E144" s="7">
         <v>3</v>
       </c>
@@ -5129,7 +5129,7 @@
       <c r="A145" s="9"/>
       <c r="B145" s="41"/>
       <c r="C145" s="41"/>
-      <c r="D145" s="59"/>
+      <c r="D145" s="65"/>
       <c r="E145" s="7">
         <v>4</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="A146" s="9"/>
       <c r="B146" s="41"/>
       <c r="C146" s="41"/>
-      <c r="D146" s="59"/>
+      <c r="D146" s="65"/>
       <c r="E146" s="7">
         <v>5</v>
       </c>
@@ -5161,7 +5161,7 @@
       <c r="A147" s="9"/>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
-      <c r="D147" s="59"/>
+      <c r="D147" s="65"/>
       <c r="E147" s="7">
         <v>6</v>
       </c>
@@ -5177,7 +5177,7 @@
       <c r="A148" s="9"/>
       <c r="B148" s="41"/>
       <c r="C148" s="41"/>
-      <c r="D148" s="59"/>
+      <c r="D148" s="65"/>
       <c r="E148" s="7">
         <v>7</v>
       </c>
@@ -5209,7 +5209,7 @@
       <c r="C150" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D150" s="58" t="s">
+      <c r="D150" s="64" t="s">
         <v>354</v>
       </c>
       <c r="E150" s="7"/>
@@ -5223,7 +5223,7 @@
       <c r="A151" s="9"/>
       <c r="B151" s="41"/>
       <c r="C151" s="41"/>
-      <c r="D151" s="58"/>
+      <c r="D151" s="64"/>
       <c r="E151" s="7">
         <v>1</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="A152" s="9"/>
       <c r="B152" s="41"/>
       <c r="C152" s="41"/>
-      <c r="D152" s="58"/>
+      <c r="D152" s="64"/>
       <c r="E152" s="7">
         <v>2</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="A153" s="9"/>
       <c r="B153" s="41"/>
       <c r="C153" s="41"/>
-      <c r="D153" s="58"/>
+      <c r="D153" s="64"/>
       <c r="E153" s="7">
         <v>3</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="A154" s="9"/>
       <c r="B154" s="41"/>
       <c r="C154" s="41"/>
-      <c r="D154" s="58"/>
+      <c r="D154" s="64"/>
       <c r="E154" s="7">
         <v>4</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="A155" s="9"/>
       <c r="B155" s="41"/>
       <c r="C155" s="41"/>
-      <c r="D155" s="58"/>
+      <c r="D155" s="64"/>
       <c r="E155" s="7">
         <v>5</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="C162" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D162" s="58" t="s">
+      <c r="D162" s="64" t="s">
         <v>361</v>
       </c>
       <c r="E162" s="9"/>
@@ -5411,7 +5411,7 @@
       <c r="A163" s="9"/>
       <c r="B163" s="41"/>
       <c r="C163" s="41"/>
-      <c r="D163" s="58"/>
+      <c r="D163" s="64"/>
       <c r="E163" s="7">
         <v>1</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="A164" s="9"/>
       <c r="B164" s="41"/>
       <c r="C164" s="41"/>
-      <c r="D164" s="58"/>
+      <c r="D164" s="64"/>
       <c r="E164" s="7">
         <v>2</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="A165" s="9"/>
       <c r="B165" s="41"/>
       <c r="C165" s="41"/>
-      <c r="D165" s="58"/>
+      <c r="D165" s="64"/>
       <c r="E165" s="7">
         <v>3</v>
       </c>
@@ -5466,7 +5466,7 @@
       <c r="A166" s="9"/>
       <c r="B166" s="41"/>
       <c r="C166" s="41"/>
-      <c r="D166" s="58"/>
+      <c r="D166" s="64"/>
       <c r="E166" s="7">
         <v>4</v>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="A167" s="9"/>
       <c r="B167" s="41"/>
       <c r="C167" s="41"/>
-      <c r="D167" s="58"/>
+      <c r="D167" s="64"/>
       <c r="E167" s="7">
         <v>5</v>
       </c>
@@ -5516,7 +5516,7 @@
       <c r="C169" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D169" s="58" t="s">
+      <c r="D169" s="64" t="s">
         <v>363</v>
       </c>
       <c r="E169" s="7"/>
@@ -5531,7 +5531,7 @@
       <c r="A170" s="9"/>
       <c r="B170" s="41"/>
       <c r="C170" s="41"/>
-      <c r="D170" s="58"/>
+      <c r="D170" s="64"/>
       <c r="E170" s="7">
         <v>1</v>
       </c>
@@ -5550,7 +5550,7 @@
       <c r="A171" s="9"/>
       <c r="B171" s="41"/>
       <c r="C171" s="41"/>
-      <c r="D171" s="58"/>
+      <c r="D171" s="64"/>
       <c r="E171" s="7">
         <v>2</v>
       </c>
@@ -5569,7 +5569,7 @@
       <c r="A172" s="9"/>
       <c r="B172" s="41"/>
       <c r="C172" s="41"/>
-      <c r="D172" s="58"/>
+      <c r="D172" s="64"/>
       <c r="E172" s="7">
         <v>3</v>
       </c>
@@ -5586,7 +5586,7 @@
       <c r="A173" s="9"/>
       <c r="B173" s="41"/>
       <c r="C173" s="41"/>
-      <c r="D173" s="58"/>
+      <c r="D173" s="64"/>
       <c r="E173" s="7">
         <v>4</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="A174" s="9"/>
       <c r="B174" s="41"/>
       <c r="C174" s="41"/>
-      <c r="D174" s="58"/>
+      <c r="D174" s="64"/>
       <c r="E174" s="7">
         <v>5</v>
       </c>
@@ -5636,7 +5636,7 @@
       <c r="C176" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D176" s="58" t="s">
+      <c r="D176" s="64" t="s">
         <v>368</v>
       </c>
       <c r="E176" s="7"/>
@@ -5651,7 +5651,7 @@
       <c r="A177" s="9"/>
       <c r="B177" s="41"/>
       <c r="C177" s="41"/>
-      <c r="D177" s="58"/>
+      <c r="D177" s="64"/>
       <c r="E177" s="7">
         <v>1</v>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="A178" s="9"/>
       <c r="B178" s="41"/>
       <c r="C178" s="41"/>
-      <c r="D178" s="58"/>
+      <c r="D178" s="64"/>
       <c r="E178" s="7">
         <v>2</v>
       </c>
@@ -5689,7 +5689,7 @@
       <c r="A179" s="9"/>
       <c r="B179" s="41"/>
       <c r="C179" s="41"/>
-      <c r="D179" s="58"/>
+      <c r="D179" s="64"/>
       <c r="E179" s="7">
         <v>3</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="A180" s="9"/>
       <c r="B180" s="41"/>
       <c r="C180" s="41"/>
-      <c r="D180" s="58"/>
+      <c r="D180" s="64"/>
       <c r="E180" s="7">
         <v>4</v>
       </c>
@@ -5722,7 +5722,7 @@
       <c r="A181" s="9"/>
       <c r="B181" s="41"/>
       <c r="C181" s="41"/>
-      <c r="D181" s="58"/>
+      <c r="D181" s="64"/>
       <c r="E181" s="7">
         <v>5</v>
       </c>
@@ -5756,7 +5756,7 @@
       <c r="C183" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D183" s="59" t="s">
+      <c r="D183" s="65" t="s">
         <v>108</v>
       </c>
       <c r="E183" s="7"/>
@@ -5771,7 +5771,7 @@
       <c r="A184" s="9"/>
       <c r="B184" s="41"/>
       <c r="C184" s="41"/>
-      <c r="D184" s="59"/>
+      <c r="D184" s="65"/>
       <c r="E184" s="7">
         <v>1</v>
       </c>
@@ -5790,7 +5790,7 @@
       <c r="A185" s="9"/>
       <c r="B185" s="41"/>
       <c r="C185" s="41"/>
-      <c r="D185" s="59"/>
+      <c r="D185" s="65"/>
       <c r="E185" s="7">
         <v>2</v>
       </c>
@@ -5809,7 +5809,7 @@
       <c r="A186" s="9"/>
       <c r="B186" s="41"/>
       <c r="C186" s="41"/>
-      <c r="D186" s="59"/>
+      <c r="D186" s="65"/>
       <c r="E186" s="7">
         <v>3</v>
       </c>
@@ -5826,7 +5826,7 @@
       <c r="A187" s="9"/>
       <c r="B187" s="41"/>
       <c r="C187" s="41"/>
-      <c r="D187" s="59"/>
+      <c r="D187" s="65"/>
       <c r="E187" s="7">
         <v>4</v>
       </c>
@@ -5842,7 +5842,7 @@
       <c r="A188" s="9"/>
       <c r="B188" s="41"/>
       <c r="C188" s="41"/>
-      <c r="D188" s="59"/>
+      <c r="D188" s="65"/>
       <c r="E188" s="7">
         <v>5</v>
       </c>
@@ -5859,7 +5859,7 @@
       <c r="A189" s="9"/>
       <c r="B189" s="41"/>
       <c r="C189" s="41"/>
-      <c r="D189" s="59"/>
+      <c r="D189" s="65"/>
       <c r="E189" s="7">
         <v>6</v>
       </c>
@@ -5893,7 +5893,7 @@
       <c r="C191" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D191" s="59" t="s">
+      <c r="D191" s="65" t="s">
         <v>109</v>
       </c>
       <c r="E191" s="7">
@@ -5910,7 +5910,7 @@
       <c r="A192" s="9"/>
       <c r="B192" s="41"/>
       <c r="C192" s="41"/>
-      <c r="D192" s="59"/>
+      <c r="D192" s="65"/>
       <c r="E192" s="7">
         <v>1</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="A193" s="9"/>
       <c r="B193" s="41"/>
       <c r="C193" s="41"/>
-      <c r="D193" s="59"/>
+      <c r="D193" s="65"/>
       <c r="E193" s="7">
         <v>2</v>
       </c>
@@ -5948,7 +5948,7 @@
       <c r="A194" s="9"/>
       <c r="B194" s="41"/>
       <c r="C194" s="41"/>
-      <c r="D194" s="59"/>
+      <c r="D194" s="65"/>
       <c r="E194" s="7">
         <v>3</v>
       </c>
@@ -5965,7 +5965,7 @@
       <c r="A195" s="9"/>
       <c r="B195" s="41"/>
       <c r="C195" s="41"/>
-      <c r="D195" s="59"/>
+      <c r="D195" s="65"/>
       <c r="E195" s="7">
         <v>4</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="A196" s="9"/>
       <c r="B196" s="41"/>
       <c r="C196" s="41"/>
-      <c r="D196" s="59"/>
+      <c r="D196" s="65"/>
       <c r="E196" s="7">
         <v>5</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="A197" s="9"/>
       <c r="B197" s="41"/>
       <c r="C197" s="41"/>
-      <c r="D197" s="59"/>
+      <c r="D197" s="65"/>
       <c r="E197" s="7">
         <v>6</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="A198" s="9"/>
       <c r="B198" s="41"/>
       <c r="C198" s="41"/>
-      <c r="D198" s="59"/>
+      <c r="D198" s="65"/>
       <c r="E198" s="7">
         <v>7</v>
       </c>
@@ -6049,7 +6049,7 @@
       <c r="C200" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D200" s="58" t="s">
+      <c r="D200" s="64" t="s">
         <v>375</v>
       </c>
       <c r="E200" s="7"/>
@@ -6064,7 +6064,7 @@
       <c r="A201" s="9"/>
       <c r="B201" s="41"/>
       <c r="C201" s="41"/>
-      <c r="D201" s="58"/>
+      <c r="D201" s="64"/>
       <c r="E201" s="7">
         <v>1</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="A202" s="9"/>
       <c r="B202" s="41"/>
       <c r="C202" s="41"/>
-      <c r="D202" s="58"/>
+      <c r="D202" s="64"/>
       <c r="E202" s="7">
         <v>2</v>
       </c>
@@ -6102,7 +6102,7 @@
       <c r="A203" s="9"/>
       <c r="B203" s="41"/>
       <c r="C203" s="41"/>
-      <c r="D203" s="58"/>
+      <c r="D203" s="64"/>
       <c r="E203" s="7">
         <v>3</v>
       </c>
@@ -6119,7 +6119,7 @@
       <c r="A204" s="9"/>
       <c r="B204" s="41"/>
       <c r="C204" s="41"/>
-      <c r="D204" s="58"/>
+      <c r="D204" s="64"/>
       <c r="E204" s="7">
         <v>4</v>
       </c>
@@ -6135,7 +6135,7 @@
       <c r="A205" s="9"/>
       <c r="B205" s="41"/>
       <c r="C205" s="41"/>
-      <c r="D205" s="58"/>
+      <c r="D205" s="64"/>
       <c r="E205" s="7">
         <v>5</v>
       </c>
@@ -6152,7 +6152,7 @@
       <c r="A206" s="9"/>
       <c r="B206" s="41"/>
       <c r="C206" s="41"/>
-      <c r="D206" s="58"/>
+      <c r="D206" s="64"/>
       <c r="E206" s="7">
         <v>6</v>
       </c>
@@ -6169,7 +6169,7 @@
       <c r="A207" s="9"/>
       <c r="B207" s="41"/>
       <c r="C207" s="41"/>
-      <c r="D207" s="58"/>
+      <c r="D207" s="64"/>
       <c r="E207" s="7">
         <v>7</v>
       </c>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="7"/>
-      <c r="D208" s="58"/>
+      <c r="D208" s="64"/>
       <c r="E208" s="7">
         <v>8</v>
       </c>
@@ -6218,7 +6218,7 @@
       <c r="C210" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D210" s="60" t="s">
+      <c r="D210" s="68" t="s">
         <v>115</v>
       </c>
       <c r="E210" s="27">
@@ -6237,7 +6237,7 @@
       <c r="A211" s="25"/>
       <c r="B211" s="46"/>
       <c r="C211" s="40"/>
-      <c r="D211" s="60"/>
+      <c r="D211" s="68"/>
       <c r="E211" s="7">
         <v>1</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="A212" s="25"/>
       <c r="B212" s="40"/>
       <c r="C212" s="40"/>
-      <c r="D212" s="60"/>
+      <c r="D212" s="68"/>
       <c r="E212" s="7">
         <v>2</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="A213" s="25"/>
       <c r="B213" s="46"/>
       <c r="C213" s="46"/>
-      <c r="D213" s="60"/>
+      <c r="D213" s="68"/>
       <c r="E213" s="7">
         <v>3</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="A214" s="25"/>
       <c r="B214" s="46"/>
       <c r="C214" s="46"/>
-      <c r="D214" s="60"/>
+      <c r="D214" s="68"/>
       <c r="E214" s="7">
         <v>4</v>
       </c>
@@ -6308,7 +6308,7 @@
       <c r="A215" s="25"/>
       <c r="B215" s="40"/>
       <c r="C215" s="40"/>
-      <c r="D215" s="60"/>
+      <c r="D215" s="68"/>
       <c r="E215" s="7">
         <v>5</v>
       </c>
@@ -6325,7 +6325,7 @@
       <c r="A216" s="25"/>
       <c r="B216" s="40"/>
       <c r="C216" s="40"/>
-      <c r="D216" s="60"/>
+      <c r="D216" s="68"/>
       <c r="E216" s="7">
         <v>6</v>
       </c>
@@ -6342,7 +6342,7 @@
       <c r="A217" s="25"/>
       <c r="B217" s="40"/>
       <c r="C217" s="40"/>
-      <c r="D217" s="60"/>
+      <c r="D217" s="68"/>
       <c r="E217" s="7">
         <v>7</v>
       </c>
@@ -6359,7 +6359,7 @@
       <c r="A218" s="25"/>
       <c r="B218" s="40"/>
       <c r="C218" s="46"/>
-      <c r="D218" s="60"/>
+      <c r="D218" s="68"/>
       <c r="E218" s="7">
         <v>8</v>
       </c>
@@ -6376,7 +6376,7 @@
       <c r="A219" s="27"/>
       <c r="B219" s="26"/>
       <c r="C219" s="46"/>
-      <c r="D219" s="60"/>
+      <c r="D219" s="68"/>
       <c r="E219" s="27">
         <v>9</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="C221" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D221" s="59" t="s">
+      <c r="D221" s="65" t="s">
         <v>118</v>
       </c>
       <c r="E221" s="7">
@@ -6427,7 +6427,7 @@
       <c r="A222" s="9"/>
       <c r="B222" s="47"/>
       <c r="C222" s="47"/>
-      <c r="D222" s="59"/>
+      <c r="D222" s="65"/>
       <c r="E222" s="7">
         <v>1</v>
       </c>
@@ -6446,7 +6446,7 @@
       <c r="A223" s="9"/>
       <c r="B223" s="47"/>
       <c r="C223" s="47"/>
-      <c r="D223" s="59"/>
+      <c r="D223" s="65"/>
       <c r="E223" s="7">
         <v>2</v>
       </c>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="7"/>
-      <c r="D224" s="59"/>
+      <c r="D224" s="65"/>
       <c r="E224" s="7">
         <v>3</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="A225" s="7"/>
       <c r="B225" s="47"/>
       <c r="C225" s="47"/>
-      <c r="D225" s="59"/>
+      <c r="D225" s="65"/>
       <c r="E225" s="7">
         <v>4</v>
       </c>
@@ -6496,7 +6496,7 @@
       <c r="A226" s="7"/>
       <c r="B226" s="47"/>
       <c r="C226" s="47"/>
-      <c r="D226" s="59"/>
+      <c r="D226" s="65"/>
       <c r="E226" s="7">
         <v>5</v>
       </c>
@@ -6513,7 +6513,7 @@
       <c r="A227" s="7"/>
       <c r="B227" s="47"/>
       <c r="C227" s="47"/>
-      <c r="D227" s="59"/>
+      <c r="D227" s="65"/>
       <c r="E227" s="7">
         <v>6</v>
       </c>
@@ -6530,7 +6530,7 @@
       <c r="A228" s="7"/>
       <c r="B228" s="47"/>
       <c r="C228" s="47"/>
-      <c r="D228" s="59"/>
+      <c r="D228" s="65"/>
       <c r="E228" s="7">
         <v>7</v>
       </c>
@@ -6547,7 +6547,7 @@
       <c r="A229" s="7"/>
       <c r="B229" s="47"/>
       <c r="C229" s="47"/>
-      <c r="D229" s="59"/>
+      <c r="D229" s="65"/>
       <c r="E229" s="7">
         <v>8</v>
       </c>
@@ -6564,7 +6564,7 @@
       <c r="A230" s="7"/>
       <c r="B230" s="47"/>
       <c r="C230" s="47"/>
-      <c r="D230" s="59"/>
+      <c r="D230" s="65"/>
       <c r="E230" s="27">
         <v>9</v>
       </c>
@@ -6581,7 +6581,7 @@
       <c r="A231" s="7"/>
       <c r="B231" s="47"/>
       <c r="C231" s="47"/>
-      <c r="D231" s="59"/>
+      <c r="D231" s="65"/>
       <c r="E231" s="7">
         <v>10</v>
       </c>
@@ -6615,7 +6615,7 @@
       <c r="C233" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D233" s="56" t="s">
+      <c r="D233" s="63" t="s">
         <v>209</v>
       </c>
       <c r="E233" s="7"/>
@@ -6630,7 +6630,7 @@
       <c r="A234" s="9"/>
       <c r="B234" s="47"/>
       <c r="C234" s="47"/>
-      <c r="D234" s="56"/>
+      <c r="D234" s="63"/>
       <c r="E234" s="7">
         <v>1</v>
       </c>
@@ -6649,7 +6649,7 @@
       <c r="A235" s="9"/>
       <c r="B235" s="47"/>
       <c r="C235" s="47"/>
-      <c r="D235" s="56"/>
+      <c r="D235" s="63"/>
       <c r="E235" s="7">
         <v>2</v>
       </c>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="7"/>
-      <c r="D236" s="56"/>
+      <c r="D236" s="63"/>
       <c r="E236" s="7">
         <v>3</v>
       </c>
@@ -6683,7 +6683,7 @@
       <c r="A237" s="7"/>
       <c r="B237" s="47"/>
       <c r="C237" s="47"/>
-      <c r="D237" s="56"/>
+      <c r="D237" s="63"/>
       <c r="E237" s="7">
         <v>4</v>
       </c>
@@ -6699,7 +6699,7 @@
       <c r="A238" s="7"/>
       <c r="B238" s="47"/>
       <c r="C238" s="47"/>
-      <c r="D238" s="56"/>
+      <c r="D238" s="63"/>
       <c r="E238" s="7">
         <v>5</v>
       </c>
@@ -6716,7 +6716,7 @@
       <c r="A239" s="7"/>
       <c r="B239" s="47"/>
       <c r="C239" s="47"/>
-      <c r="D239" s="56"/>
+      <c r="D239" s="63"/>
       <c r="E239" s="7">
         <v>6</v>
       </c>
@@ -6733,7 +6733,7 @@
       <c r="A240" s="7"/>
       <c r="B240" s="47"/>
       <c r="C240" s="47"/>
-      <c r="D240" s="56"/>
+      <c r="D240" s="63"/>
       <c r="E240" s="7">
         <v>7</v>
       </c>
@@ -6750,7 +6750,7 @@
       <c r="A241" s="7"/>
       <c r="B241" s="47"/>
       <c r="C241" s="47"/>
-      <c r="D241" s="56"/>
+      <c r="D241" s="63"/>
       <c r="E241" s="7">
         <v>8</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="C243" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D243" s="56" t="s">
+      <c r="D243" s="63" t="s">
         <v>210</v>
       </c>
       <c r="E243" s="7"/>
@@ -6799,7 +6799,7 @@
       <c r="A244" s="9"/>
       <c r="B244" s="47"/>
       <c r="C244" s="47"/>
-      <c r="D244" s="56"/>
+      <c r="D244" s="63"/>
       <c r="E244" s="7">
         <v>1</v>
       </c>
@@ -6818,7 +6818,7 @@
       <c r="A245" s="9"/>
       <c r="B245" s="47"/>
       <c r="C245" s="47"/>
-      <c r="D245" s="56"/>
+      <c r="D245" s="63"/>
       <c r="E245" s="7">
         <v>2</v>
       </c>
@@ -6837,7 +6837,7 @@
       <c r="A246" s="9"/>
       <c r="B246" s="47"/>
       <c r="C246" s="47"/>
-      <c r="D246" s="56"/>
+      <c r="D246" s="63"/>
       <c r="E246" s="7">
         <v>3</v>
       </c>
@@ -6854,7 +6854,7 @@
       <c r="A247" s="9"/>
       <c r="B247" s="47"/>
       <c r="C247" s="47"/>
-      <c r="D247" s="56"/>
+      <c r="D247" s="63"/>
       <c r="E247" s="7">
         <v>4</v>
       </c>
@@ -6870,7 +6870,7 @@
       <c r="A248" s="9"/>
       <c r="B248" s="47"/>
       <c r="C248" s="47"/>
-      <c r="D248" s="56"/>
+      <c r="D248" s="63"/>
       <c r="E248" s="7">
         <v>5</v>
       </c>
@@ -6887,7 +6887,7 @@
       <c r="A249" s="9"/>
       <c r="B249" s="47"/>
       <c r="C249" s="47"/>
-      <c r="D249" s="56"/>
+      <c r="D249" s="63"/>
       <c r="E249" s="7">
         <v>6</v>
       </c>
@@ -6904,7 +6904,7 @@
       <c r="A250" s="9"/>
       <c r="B250" s="47"/>
       <c r="C250" s="47"/>
-      <c r="D250" s="56"/>
+      <c r="D250" s="63"/>
       <c r="E250" s="7">
         <v>7</v>
       </c>
@@ -6938,7 +6938,7 @@
       <c r="C252" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D252" s="56" t="s">
+      <c r="D252" s="63" t="s">
         <v>211</v>
       </c>
       <c r="E252" s="7"/>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="253" spans="1:11" ht="30">
       <c r="A253" s="7"/>
-      <c r="D253" s="56"/>
+      <c r="D253" s="63"/>
       <c r="E253" s="7">
         <v>1</v>
       </c>
@@ -6970,7 +6970,7 @@
       <c r="A254" s="7"/>
       <c r="B254" s="47"/>
       <c r="C254" s="47"/>
-      <c r="D254" s="56"/>
+      <c r="D254" s="63"/>
       <c r="E254" s="7">
         <v>2</v>
       </c>
@@ -6989,7 +6989,7 @@
       <c r="A255" s="7"/>
       <c r="B255" s="47"/>
       <c r="C255" s="47"/>
-      <c r="D255" s="56"/>
+      <c r="D255" s="63"/>
       <c r="E255" s="7">
         <v>3</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="A256" s="7"/>
       <c r="B256" s="47"/>
       <c r="C256" s="47"/>
-      <c r="D256" s="56"/>
+      <c r="D256" s="63"/>
       <c r="E256" s="7">
         <v>4</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="A257" s="7"/>
       <c r="B257" s="47"/>
       <c r="C257" s="47"/>
-      <c r="D257" s="56"/>
+      <c r="D257" s="63"/>
       <c r="E257" s="7">
         <v>5</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="A258" s="7"/>
       <c r="B258" s="47"/>
       <c r="C258" s="47"/>
-      <c r="D258" s="56"/>
+      <c r="D258" s="63"/>
       <c r="E258" s="7">
         <v>6</v>
       </c>
@@ -7056,7 +7056,7 @@
       <c r="A259" s="7"/>
       <c r="B259" s="47"/>
       <c r="C259" s="47"/>
-      <c r="D259" s="56"/>
+      <c r="D259" s="63"/>
       <c r="E259" s="7">
         <v>7</v>
       </c>
@@ -7073,7 +7073,7 @@
       <c r="A260" s="7"/>
       <c r="B260" s="47"/>
       <c r="C260" s="47"/>
-      <c r="D260" s="56"/>
+      <c r="D260" s="63"/>
       <c r="E260" s="7">
         <v>8</v>
       </c>
@@ -7107,7 +7107,7 @@
       <c r="C262" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D262" s="56" t="s">
+      <c r="D262" s="63" t="s">
         <v>212</v>
       </c>
       <c r="E262" s="7"/>
@@ -7122,7 +7122,7 @@
       <c r="A263" s="9"/>
       <c r="B263" s="47"/>
       <c r="C263" s="47"/>
-      <c r="D263" s="56"/>
+      <c r="D263" s="63"/>
       <c r="E263" s="7">
         <v>1</v>
       </c>
@@ -7141,7 +7141,7 @@
       <c r="A264" s="9"/>
       <c r="B264" s="47"/>
       <c r="C264" s="47"/>
-      <c r="D264" s="56"/>
+      <c r="D264" s="63"/>
       <c r="E264" s="7">
         <v>2</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="A265" s="9"/>
       <c r="B265" s="47"/>
       <c r="C265" s="47"/>
-      <c r="D265" s="56"/>
+      <c r="D265" s="63"/>
       <c r="E265" s="7">
         <v>3</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="A266" s="9"/>
       <c r="B266" s="47"/>
       <c r="C266" s="47"/>
-      <c r="D266" s="56"/>
+      <c r="D266" s="63"/>
       <c r="E266" s="7">
         <v>4</v>
       </c>
@@ -7193,7 +7193,7 @@
       <c r="A267" s="9"/>
       <c r="B267" s="47"/>
       <c r="C267" s="47"/>
-      <c r="D267" s="56"/>
+      <c r="D267" s="63"/>
       <c r="E267" s="7">
         <v>5</v>
       </c>
@@ -7210,7 +7210,7 @@
       <c r="A268" s="9"/>
       <c r="B268" s="47"/>
       <c r="C268" s="47"/>
-      <c r="D268" s="56"/>
+      <c r="D268" s="63"/>
       <c r="E268" s="7">
         <v>6</v>
       </c>
@@ -7227,7 +7227,7 @@
       <c r="A269" s="9"/>
       <c r="B269" s="47"/>
       <c r="C269" s="47"/>
-      <c r="D269" s="56"/>
+      <c r="D269" s="63"/>
       <c r="E269" s="7">
         <v>7</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="C271" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D271" s="56" t="s">
+      <c r="D271" s="63" t="s">
         <v>213</v>
       </c>
       <c r="E271" s="7"/>
@@ -7276,7 +7276,7 @@
       <c r="A272" s="9"/>
       <c r="B272" s="47"/>
       <c r="C272" s="47"/>
-      <c r="D272" s="56"/>
+      <c r="D272" s="63"/>
       <c r="E272" s="7">
         <v>1</v>
       </c>
@@ -7295,7 +7295,7 @@
       <c r="A273" s="9"/>
       <c r="B273" s="47"/>
       <c r="C273" s="47"/>
-      <c r="D273" s="56"/>
+      <c r="D273" s="63"/>
       <c r="E273" s="7">
         <v>2</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="A274" s="9"/>
       <c r="B274" s="47"/>
       <c r="C274" s="47"/>
-      <c r="D274" s="56"/>
+      <c r="D274" s="63"/>
       <c r="E274" s="7">
         <v>3</v>
       </c>
@@ -7331,7 +7331,7 @@
       <c r="A275" s="9"/>
       <c r="B275" s="47"/>
       <c r="C275" s="47"/>
-      <c r="D275" s="56"/>
+      <c r="D275" s="63"/>
       <c r="E275" s="7">
         <v>4</v>
       </c>
@@ -7347,7 +7347,7 @@
       <c r="A276" s="9"/>
       <c r="B276" s="47"/>
       <c r="C276" s="47"/>
-      <c r="D276" s="56"/>
+      <c r="D276" s="63"/>
       <c r="E276" s="7">
         <v>5</v>
       </c>
@@ -7364,7 +7364,7 @@
       <c r="A277" s="9"/>
       <c r="B277" s="47"/>
       <c r="C277" s="47"/>
-      <c r="D277" s="56"/>
+      <c r="D277" s="63"/>
       <c r="E277" s="7">
         <v>6</v>
       </c>
@@ -7398,7 +7398,7 @@
       <c r="C279" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D279" s="56" t="s">
+      <c r="D279" s="63" t="s">
         <v>390</v>
       </c>
       <c r="E279" s="7"/>
@@ -7413,7 +7413,7 @@
       <c r="A280" s="9"/>
       <c r="B280" s="47"/>
       <c r="C280" s="47"/>
-      <c r="D280" s="56"/>
+      <c r="D280" s="63"/>
       <c r="E280" s="7">
         <v>1</v>
       </c>
@@ -7432,7 +7432,7 @@
       <c r="A281" s="9"/>
       <c r="B281" s="47"/>
       <c r="C281" s="47"/>
-      <c r="D281" s="56"/>
+      <c r="D281" s="63"/>
       <c r="E281" s="7">
         <v>2</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="A282" s="9"/>
       <c r="B282" s="47"/>
       <c r="C282" s="47"/>
-      <c r="D282" s="56"/>
+      <c r="D282" s="63"/>
       <c r="E282" s="7">
         <v>3</v>
       </c>
@@ -7468,7 +7468,7 @@
       <c r="A283" s="9"/>
       <c r="B283" s="47"/>
       <c r="C283" s="47"/>
-      <c r="D283" s="56"/>
+      <c r="D283" s="63"/>
       <c r="E283" s="7">
         <v>4</v>
       </c>
@@ -7484,7 +7484,7 @@
       <c r="A284" s="9"/>
       <c r="B284" s="47"/>
       <c r="C284" s="47"/>
-      <c r="D284" s="56"/>
+      <c r="D284" s="63"/>
       <c r="E284" s="7">
         <v>5</v>
       </c>
@@ -7501,7 +7501,7 @@
       <c r="A285" s="9"/>
       <c r="B285" s="47"/>
       <c r="C285" s="47"/>
-      <c r="D285" s="56"/>
+      <c r="D285" s="63"/>
       <c r="E285" s="7">
         <v>6</v>
       </c>
@@ -7516,7 +7516,7 @@
     </row>
     <row r="286" spans="1:11" ht="38.25" customHeight="1">
       <c r="A286" s="7"/>
-      <c r="D286" s="56"/>
+      <c r="D286" s="63"/>
       <c r="E286" s="7">
         <v>7</v>
       </c>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="7"/>
-      <c r="D287" s="56"/>
+      <c r="D287" s="63"/>
       <c r="E287" s="7">
         <v>8</v>
       </c>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="288" spans="1:11">
       <c r="A288" s="7"/>
-      <c r="D288" s="56"/>
+      <c r="D288" s="63"/>
       <c r="E288" s="7">
         <v>9</v>
       </c>
@@ -7579,7 +7579,7 @@
       <c r="C290" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D290" s="58" t="s">
+      <c r="D290" s="64" t="s">
         <v>391</v>
       </c>
       <c r="E290" s="7"/>
@@ -7594,7 +7594,7 @@
       <c r="A291" s="9"/>
       <c r="B291" s="49"/>
       <c r="C291" s="49"/>
-      <c r="D291" s="58"/>
+      <c r="D291" s="64"/>
       <c r="E291" s="7">
         <v>1</v>
       </c>
@@ -7613,7 +7613,7 @@
       <c r="A292" s="9"/>
       <c r="B292" s="49"/>
       <c r="C292" s="49"/>
-      <c r="D292" s="58"/>
+      <c r="D292" s="64"/>
       <c r="E292" s="7">
         <v>2</v>
       </c>
@@ -7632,7 +7632,7 @@
       <c r="A293" s="9"/>
       <c r="B293" s="49"/>
       <c r="C293" s="49"/>
-      <c r="D293" s="58"/>
+      <c r="D293" s="64"/>
       <c r="E293" s="7">
         <v>3</v>
       </c>
@@ -7649,7 +7649,7 @@
       <c r="A294" s="9"/>
       <c r="B294" s="49"/>
       <c r="C294" s="49"/>
-      <c r="D294" s="58"/>
+      <c r="D294" s="64"/>
       <c r="E294" s="7">
         <v>4</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="A295" s="9"/>
       <c r="B295" s="49"/>
       <c r="C295" s="49"/>
-      <c r="D295" s="58"/>
+      <c r="D295" s="64"/>
       <c r="E295" s="7">
         <v>5</v>
       </c>
@@ -7682,7 +7682,7 @@
       <c r="A296" s="9"/>
       <c r="B296" s="49"/>
       <c r="C296" s="49"/>
-      <c r="D296" s="58"/>
+      <c r="D296" s="64"/>
       <c r="E296" s="7">
         <v>6</v>
       </c>
@@ -7699,7 +7699,7 @@
       <c r="A297" s="9"/>
       <c r="B297" s="49"/>
       <c r="C297" s="49"/>
-      <c r="D297" s="58"/>
+      <c r="D297" s="64"/>
       <c r="E297" s="7">
         <v>7</v>
       </c>
@@ -7716,7 +7716,7 @@
       <c r="A298" s="9"/>
       <c r="B298" s="49"/>
       <c r="C298" s="49"/>
-      <c r="D298" s="58"/>
+      <c r="D298" s="64"/>
       <c r="E298" s="7">
         <v>8</v>
       </c>
@@ -7733,7 +7733,7 @@
       <c r="A299" s="9"/>
       <c r="B299" s="49"/>
       <c r="C299" s="49"/>
-      <c r="D299" s="58"/>
+      <c r="D299" s="64"/>
       <c r="E299" s="7">
         <v>9</v>
       </c>
@@ -7748,7 +7748,7 @@
     </row>
     <row r="300" spans="1:11" ht="30">
       <c r="A300" s="7"/>
-      <c r="D300" s="58"/>
+      <c r="D300" s="64"/>
       <c r="E300" s="7">
         <v>10</v>
       </c>
@@ -7763,7 +7763,7 @@
     </row>
     <row r="301" spans="1:11" ht="39.75" customHeight="1">
       <c r="A301" s="7"/>
-      <c r="D301" s="58"/>
+      <c r="D301" s="64"/>
       <c r="E301" s="7">
         <v>11</v>
       </c>
@@ -7797,7 +7797,7 @@
       <c r="C303" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D303" s="58" t="s">
+      <c r="D303" s="64" t="s">
         <v>392</v>
       </c>
       <c r="E303" s="7"/>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="304" spans="1:11" ht="30">
       <c r="A304" s="7"/>
-      <c r="D304" s="58"/>
+      <c r="D304" s="64"/>
       <c r="E304" s="7">
         <v>1</v>
       </c>
@@ -7829,7 +7829,7 @@
       <c r="A305" s="7"/>
       <c r="B305" s="49"/>
       <c r="C305" s="49"/>
-      <c r="D305" s="58"/>
+      <c r="D305" s="64"/>
       <c r="E305" s="7">
         <v>2</v>
       </c>
@@ -7848,7 +7848,7 @@
       <c r="A306" s="7"/>
       <c r="B306" s="49"/>
       <c r="C306" s="49"/>
-      <c r="D306" s="58"/>
+      <c r="D306" s="64"/>
       <c r="E306" s="7">
         <v>3</v>
       </c>
@@ -7865,7 +7865,7 @@
       <c r="A307" s="7"/>
       <c r="B307" s="49"/>
       <c r="C307" s="49"/>
-      <c r="D307" s="58"/>
+      <c r="D307" s="64"/>
       <c r="E307" s="7">
         <v>4</v>
       </c>
@@ -7881,7 +7881,7 @@
       <c r="A308" s="7"/>
       <c r="B308" s="49"/>
       <c r="C308" s="49"/>
-      <c r="D308" s="58"/>
+      <c r="D308" s="64"/>
       <c r="E308" s="7">
         <v>5</v>
       </c>
@@ -7898,7 +7898,7 @@
       <c r="A309" s="7"/>
       <c r="B309" s="49"/>
       <c r="C309" s="49"/>
-      <c r="D309" s="58"/>
+      <c r="D309" s="64"/>
       <c r="E309" s="7">
         <v>6</v>
       </c>
@@ -7915,7 +7915,7 @@
       <c r="A310" s="7"/>
       <c r="B310" s="49"/>
       <c r="C310" s="49"/>
-      <c r="D310" s="58"/>
+      <c r="D310" s="64"/>
       <c r="E310" s="7">
         <v>7</v>
       </c>
@@ -7932,7 +7932,7 @@
       <c r="A311" s="7"/>
       <c r="B311" s="49"/>
       <c r="C311" s="49"/>
-      <c r="D311" s="58"/>
+      <c r="D311" s="64"/>
       <c r="E311" s="7">
         <v>8</v>
       </c>
@@ -7949,7 +7949,7 @@
       <c r="A312" s="7"/>
       <c r="B312" s="49"/>
       <c r="C312" s="49"/>
-      <c r="D312" s="58"/>
+      <c r="D312" s="64"/>
       <c r="E312" s="7">
         <v>9</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="C314" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D314" s="58" t="s">
+      <c r="D314" s="64" t="s">
         <v>393</v>
       </c>
       <c r="E314" s="7"/>
@@ -7998,7 +7998,7 @@
       <c r="A315" s="9"/>
       <c r="B315" s="49"/>
       <c r="C315" s="49"/>
-      <c r="D315" s="58"/>
+      <c r="D315" s="64"/>
       <c r="E315" s="7">
         <v>1</v>
       </c>
@@ -8017,7 +8017,7 @@
       <c r="A316" s="9"/>
       <c r="B316" s="49"/>
       <c r="C316" s="49"/>
-      <c r="D316" s="58"/>
+      <c r="D316" s="64"/>
       <c r="E316" s="7">
         <v>2</v>
       </c>
@@ -8036,7 +8036,7 @@
       <c r="A317" s="9"/>
       <c r="B317" s="49"/>
       <c r="C317" s="49"/>
-      <c r="D317" s="58"/>
+      <c r="D317" s="64"/>
       <c r="E317" s="7">
         <v>3</v>
       </c>
@@ -8053,7 +8053,7 @@
       <c r="A318" s="9"/>
       <c r="B318" s="49"/>
       <c r="C318" s="49"/>
-      <c r="D318" s="58"/>
+      <c r="D318" s="64"/>
       <c r="E318" s="7">
         <v>4</v>
       </c>
@@ -8069,7 +8069,7 @@
       <c r="A319" s="9"/>
       <c r="B319" s="49"/>
       <c r="C319" s="49"/>
-      <c r="D319" s="58"/>
+      <c r="D319" s="64"/>
       <c r="E319" s="7">
         <v>5</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="A320" s="9"/>
       <c r="B320" s="49"/>
       <c r="C320" s="49"/>
-      <c r="D320" s="58"/>
+      <c r="D320" s="64"/>
       <c r="E320" s="7">
         <v>6</v>
       </c>
@@ -8103,7 +8103,7 @@
       <c r="A321" s="9"/>
       <c r="B321" s="49"/>
       <c r="C321" s="49"/>
-      <c r="D321" s="58"/>
+      <c r="D321" s="64"/>
       <c r="E321" s="7">
         <v>7</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="A322" s="9"/>
       <c r="B322" s="49"/>
       <c r="C322" s="49"/>
-      <c r="D322" s="58"/>
+      <c r="D322" s="64"/>
       <c r="E322" s="7">
         <v>8</v>
       </c>
@@ -8137,7 +8137,7 @@
       <c r="A323" s="9"/>
       <c r="B323" s="49"/>
       <c r="C323" s="49"/>
-      <c r="D323" s="58"/>
+      <c r="D323" s="64"/>
       <c r="E323" s="7">
         <v>9</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="A324" s="9"/>
       <c r="B324" s="49"/>
       <c r="C324" s="49"/>
-      <c r="D324" s="58"/>
+      <c r="D324" s="64"/>
       <c r="E324" s="7">
         <v>10</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="A325" s="9"/>
       <c r="B325" s="49"/>
       <c r="C325" s="49"/>
-      <c r="D325" s="58"/>
+      <c r="D325" s="64"/>
       <c r="E325" s="7">
         <v>11</v>
       </c>
@@ -8205,7 +8205,7 @@
       <c r="C327" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D327" s="58" t="s">
+      <c r="D327" s="64" t="s">
         <v>394</v>
       </c>
       <c r="E327" s="7"/>
@@ -8220,7 +8220,7 @@
       <c r="A328" s="9"/>
       <c r="B328" s="49"/>
       <c r="C328" s="49"/>
-      <c r="D328" s="58"/>
+      <c r="D328" s="64"/>
       <c r="E328" s="7">
         <v>1</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="A329" s="9"/>
       <c r="B329" s="49"/>
       <c r="C329" s="49"/>
-      <c r="D329" s="58"/>
+      <c r="D329" s="64"/>
       <c r="E329" s="7">
         <v>2</v>
       </c>
@@ -8258,7 +8258,7 @@
       <c r="A330" s="9"/>
       <c r="B330" s="49"/>
       <c r="C330" s="49"/>
-      <c r="D330" s="58"/>
+      <c r="D330" s="64"/>
       <c r="E330" s="7">
         <v>3</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="A331" s="9"/>
       <c r="B331" s="49"/>
       <c r="C331" s="49"/>
-      <c r="D331" s="58"/>
+      <c r="D331" s="64"/>
       <c r="E331" s="7">
         <v>4</v>
       </c>
@@ -8291,7 +8291,7 @@
       <c r="A332" s="9"/>
       <c r="B332" s="49"/>
       <c r="C332" s="49"/>
-      <c r="D332" s="58"/>
+      <c r="D332" s="64"/>
       <c r="E332" s="7">
         <v>5</v>
       </c>
@@ -8308,7 +8308,7 @@
       <c r="A333" s="9"/>
       <c r="B333" s="49"/>
       <c r="C333" s="49"/>
-      <c r="D333" s="58"/>
+      <c r="D333" s="64"/>
       <c r="E333" s="7">
         <v>6</v>
       </c>
@@ -8325,7 +8325,7 @@
       <c r="A334" s="9"/>
       <c r="B334" s="49"/>
       <c r="C334" s="49"/>
-      <c r="D334" s="58"/>
+      <c r="D334" s="64"/>
       <c r="E334" s="7">
         <v>7</v>
       </c>
@@ -8342,7 +8342,7 @@
       <c r="A335" s="9"/>
       <c r="B335" s="49"/>
       <c r="C335" s="49"/>
-      <c r="D335" s="58"/>
+      <c r="D335" s="64"/>
       <c r="E335" s="7">
         <v>8</v>
       </c>
@@ -8359,7 +8359,7 @@
       <c r="A336" s="9"/>
       <c r="B336" s="49"/>
       <c r="C336" s="49"/>
-      <c r="D336" s="58"/>
+      <c r="D336" s="64"/>
       <c r="E336" s="7">
         <v>9</v>
       </c>
@@ -8376,7 +8376,7 @@
       <c r="A337" s="9"/>
       <c r="B337" s="49"/>
       <c r="C337" s="49"/>
-      <c r="D337" s="58"/>
+      <c r="D337" s="64"/>
       <c r="E337" s="7">
         <v>10</v>
       </c>
@@ -8408,7 +8408,7 @@
       <c r="C339" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D339" s="58" t="s">
+      <c r="D339" s="64" t="s">
         <v>403</v>
       </c>
       <c r="E339" s="7"/>
@@ -8423,7 +8423,7 @@
       <c r="A340" s="9"/>
       <c r="B340" s="49"/>
       <c r="C340" s="49"/>
-      <c r="D340" s="58"/>
+      <c r="D340" s="64"/>
       <c r="E340" s="7">
         <v>1</v>
       </c>
@@ -8442,7 +8442,7 @@
       <c r="A341" s="9"/>
       <c r="B341" s="49"/>
       <c r="C341" s="49"/>
-      <c r="D341" s="58"/>
+      <c r="D341" s="64"/>
       <c r="E341" s="7">
         <v>2</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="A342" s="9"/>
       <c r="B342" s="49"/>
       <c r="C342" s="49"/>
-      <c r="D342" s="58"/>
+      <c r="D342" s="64"/>
       <c r="E342" s="7">
         <v>3</v>
       </c>
@@ -8478,7 +8478,7 @@
       <c r="A343" s="9"/>
       <c r="B343" s="49"/>
       <c r="C343" s="49"/>
-      <c r="D343" s="58"/>
+      <c r="D343" s="64"/>
       <c r="E343" s="7">
         <v>4</v>
       </c>
@@ -8494,7 +8494,7 @@
       <c r="A344" s="9"/>
       <c r="B344" s="49"/>
       <c r="C344" s="49"/>
-      <c r="D344" s="58"/>
+      <c r="D344" s="64"/>
       <c r="E344" s="7">
         <v>5</v>
       </c>
@@ -8511,7 +8511,7 @@
       <c r="A345" s="9"/>
       <c r="B345" s="49"/>
       <c r="C345" s="49"/>
-      <c r="D345" s="58"/>
+      <c r="D345" s="64"/>
       <c r="E345" s="7">
         <v>6</v>
       </c>
@@ -8528,7 +8528,7 @@
       <c r="A346" s="9"/>
       <c r="B346" s="49"/>
       <c r="C346" s="49"/>
-      <c r="D346" s="58"/>
+      <c r="D346" s="64"/>
       <c r="E346" s="7">
         <v>7</v>
       </c>
@@ -8545,7 +8545,7 @@
       <c r="A347" s="9"/>
       <c r="B347" s="49"/>
       <c r="C347" s="49"/>
-      <c r="D347" s="58"/>
+      <c r="D347" s="64"/>
       <c r="E347" s="7">
         <v>8</v>
       </c>
@@ -8562,7 +8562,7 @@
       <c r="A348" s="9"/>
       <c r="B348" s="49"/>
       <c r="C348" s="49"/>
-      <c r="D348" s="58"/>
+      <c r="D348" s="64"/>
       <c r="E348" s="7">
         <v>9</v>
       </c>
@@ -8579,7 +8579,7 @@
       <c r="A349" s="9"/>
       <c r="B349" s="49"/>
       <c r="C349" s="49"/>
-      <c r="D349" s="58"/>
+      <c r="D349" s="64"/>
       <c r="E349" s="7">
         <v>10</v>
       </c>
@@ -8596,7 +8596,7 @@
       <c r="A350" s="9"/>
       <c r="B350" s="49"/>
       <c r="C350" s="49"/>
-      <c r="D350" s="58"/>
+      <c r="D350" s="64"/>
       <c r="E350" s="7">
         <v>11</v>
       </c>
@@ -8630,7 +8630,7 @@
       <c r="C352" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D352" s="58" t="s">
+      <c r="D352" s="64" t="s">
         <v>406</v>
       </c>
       <c r="E352" s="7"/>
@@ -8645,7 +8645,7 @@
       <c r="A353" s="9"/>
       <c r="B353" s="49"/>
       <c r="C353" s="49"/>
-      <c r="D353" s="58"/>
+      <c r="D353" s="64"/>
       <c r="E353" s="7">
         <v>1</v>
       </c>
@@ -8664,7 +8664,7 @@
       <c r="A354" s="9"/>
       <c r="B354" s="49"/>
       <c r="C354" s="49"/>
-      <c r="D354" s="58"/>
+      <c r="D354" s="64"/>
       <c r="E354" s="7">
         <v>2</v>
       </c>
@@ -8683,7 +8683,7 @@
       <c r="A355" s="9"/>
       <c r="B355" s="49"/>
       <c r="C355" s="49"/>
-      <c r="D355" s="58"/>
+      <c r="D355" s="64"/>
       <c r="E355" s="7">
         <v>3</v>
       </c>
@@ -8700,7 +8700,7 @@
       <c r="A356" s="9"/>
       <c r="B356" s="49"/>
       <c r="C356" s="49"/>
-      <c r="D356" s="58"/>
+      <c r="D356" s="64"/>
       <c r="E356" s="7">
         <v>4</v>
       </c>
@@ -8716,7 +8716,7 @@
       <c r="A357" s="9"/>
       <c r="B357" s="49"/>
       <c r="C357" s="49"/>
-      <c r="D357" s="58"/>
+      <c r="D357" s="64"/>
       <c r="E357" s="7">
         <v>5</v>
       </c>
@@ -8733,7 +8733,7 @@
       <c r="A358" s="9"/>
       <c r="B358" s="49"/>
       <c r="C358" s="49"/>
-      <c r="D358" s="58"/>
+      <c r="D358" s="64"/>
       <c r="E358" s="7">
         <v>6</v>
       </c>
@@ -8750,7 +8750,7 @@
       <c r="A359" s="9"/>
       <c r="B359" s="49"/>
       <c r="C359" s="49"/>
-      <c r="D359" s="58"/>
+      <c r="D359" s="64"/>
       <c r="E359" s="7">
         <v>7</v>
       </c>
@@ -8767,7 +8767,7 @@
       <c r="A360" s="9"/>
       <c r="B360" s="49"/>
       <c r="C360" s="49"/>
-      <c r="D360" s="58"/>
+      <c r="D360" s="64"/>
       <c r="E360" s="7">
         <v>8</v>
       </c>
@@ -8784,7 +8784,7 @@
       <c r="A361" s="9"/>
       <c r="B361" s="49"/>
       <c r="C361" s="49"/>
-      <c r="D361" s="58"/>
+      <c r="D361" s="64"/>
       <c r="E361" s="7">
         <v>9</v>
       </c>
@@ -8801,7 +8801,7 @@
       <c r="A362" s="9"/>
       <c r="B362" s="49"/>
       <c r="C362" s="49"/>
-      <c r="D362" s="58"/>
+      <c r="D362" s="64"/>
       <c r="E362" s="7">
         <v>10</v>
       </c>
@@ -8818,7 +8818,7 @@
       <c r="A363" s="9"/>
       <c r="B363" s="49"/>
       <c r="C363" s="49"/>
-      <c r="D363" s="58"/>
+      <c r="D363" s="64"/>
       <c r="E363" s="7">
         <v>11</v>
       </c>
@@ -8850,7 +8850,7 @@
       <c r="C365" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D365" s="58" t="s">
+      <c r="D365" s="64" t="s">
         <v>395</v>
       </c>
       <c r="E365" s="7"/>
@@ -8865,7 +8865,7 @@
       <c r="A366" s="9"/>
       <c r="B366" s="49"/>
       <c r="C366" s="49"/>
-      <c r="D366" s="58"/>
+      <c r="D366" s="64"/>
       <c r="E366" s="7">
         <v>1</v>
       </c>
@@ -8884,7 +8884,7 @@
       <c r="A367" s="9"/>
       <c r="B367" s="49"/>
       <c r="C367" s="49"/>
-      <c r="D367" s="58"/>
+      <c r="D367" s="64"/>
       <c r="E367" s="7">
         <v>2</v>
       </c>
@@ -8903,7 +8903,7 @@
       <c r="A368" s="9"/>
       <c r="B368" s="49"/>
       <c r="C368" s="49"/>
-      <c r="D368" s="58"/>
+      <c r="D368" s="64"/>
       <c r="E368" s="7">
         <v>3</v>
       </c>
@@ -8920,7 +8920,7 @@
       <c r="A369" s="9"/>
       <c r="B369" s="49"/>
       <c r="C369" s="49"/>
-      <c r="D369" s="58"/>
+      <c r="D369" s="64"/>
       <c r="E369" s="7">
         <v>4</v>
       </c>
@@ -8936,7 +8936,7 @@
       <c r="A370" s="9"/>
       <c r="B370" s="49"/>
       <c r="C370" s="49"/>
-      <c r="D370" s="58"/>
+      <c r="D370" s="64"/>
       <c r="E370" s="7">
         <v>5</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="A371" s="9"/>
       <c r="B371" s="49"/>
       <c r="C371" s="49"/>
-      <c r="D371" s="58"/>
+      <c r="D371" s="64"/>
       <c r="E371" s="7">
         <v>6</v>
       </c>
@@ -8970,7 +8970,7 @@
       <c r="A372" s="9"/>
       <c r="B372" s="49"/>
       <c r="C372" s="49"/>
-      <c r="D372" s="58"/>
+      <c r="D372" s="64"/>
       <c r="E372" s="7">
         <v>7</v>
       </c>
@@ -8987,7 +8987,7 @@
       <c r="A373" s="9"/>
       <c r="B373" s="49"/>
       <c r="C373" s="49"/>
-      <c r="D373" s="58"/>
+      <c r="D373" s="64"/>
       <c r="E373" s="7">
         <v>8</v>
       </c>
@@ -9004,7 +9004,7 @@
       <c r="A374" s="9"/>
       <c r="B374" s="49"/>
       <c r="C374" s="49"/>
-      <c r="D374" s="58"/>
+      <c r="D374" s="64"/>
       <c r="E374" s="7">
         <v>9</v>
       </c>
@@ -9037,7 +9037,7 @@
       <c r="C376" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D376" s="58" t="s">
+      <c r="D376" s="64" t="s">
         <v>408</v>
       </c>
       <c r="E376" s="7"/>
@@ -9050,7 +9050,7 @@
     </row>
     <row r="377" spans="1:11" ht="30">
       <c r="A377" s="7"/>
-      <c r="D377" s="58"/>
+      <c r="D377" s="64"/>
       <c r="E377" s="7">
         <v>1</v>
       </c>
@@ -9069,7 +9069,7 @@
       <c r="A378" s="7"/>
       <c r="B378" s="49"/>
       <c r="C378" s="49"/>
-      <c r="D378" s="58"/>
+      <c r="D378" s="64"/>
       <c r="E378" s="7">
         <v>2</v>
       </c>
@@ -9088,7 +9088,7 @@
       <c r="A379" s="7"/>
       <c r="B379" s="49"/>
       <c r="C379" s="49"/>
-      <c r="D379" s="58"/>
+      <c r="D379" s="64"/>
       <c r="E379" s="7">
         <v>3</v>
       </c>
@@ -9105,7 +9105,7 @@
       <c r="A380" s="7"/>
       <c r="B380" s="49"/>
       <c r="C380" s="49"/>
-      <c r="D380" s="58"/>
+      <c r="D380" s="64"/>
       <c r="E380" s="7">
         <v>4</v>
       </c>
@@ -9121,7 +9121,7 @@
       <c r="A381" s="7"/>
       <c r="B381" s="49"/>
       <c r="C381" s="49"/>
-      <c r="D381" s="58"/>
+      <c r="D381" s="64"/>
       <c r="E381" s="7">
         <v>5</v>
       </c>
@@ -9138,7 +9138,7 @@
       <c r="A382" s="7"/>
       <c r="B382" s="49"/>
       <c r="C382" s="49"/>
-      <c r="D382" s="58"/>
+      <c r="D382" s="64"/>
       <c r="E382" s="7">
         <v>6</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="A383" s="7"/>
       <c r="B383" s="49"/>
       <c r="C383" s="49"/>
-      <c r="D383" s="58"/>
+      <c r="D383" s="64"/>
       <c r="E383" s="7">
         <v>7</v>
       </c>
@@ -9172,7 +9172,7 @@
       <c r="A384" s="7"/>
       <c r="B384" s="49"/>
       <c r="C384" s="49"/>
-      <c r="D384" s="58"/>
+      <c r="D384" s="64"/>
       <c r="E384" s="7">
         <v>8</v>
       </c>
@@ -9189,7 +9189,7 @@
       <c r="A385" s="7"/>
       <c r="B385" s="49"/>
       <c r="C385" s="49"/>
-      <c r="D385" s="58"/>
+      <c r="D385" s="64"/>
       <c r="E385" s="7">
         <v>9</v>
       </c>
@@ -9221,7 +9221,7 @@
       <c r="C387" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D387" s="58" t="s">
+      <c r="D387" s="64" t="s">
         <v>410</v>
       </c>
       <c r="E387" s="7"/>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="388" spans="1:11" ht="30">
       <c r="A388" s="20"/>
-      <c r="D388" s="58"/>
+      <c r="D388" s="64"/>
       <c r="E388" s="7">
         <v>1</v>
       </c>
@@ -9252,7 +9252,7 @@
       <c r="A389" s="20"/>
       <c r="B389" s="49"/>
       <c r="C389" s="49"/>
-      <c r="D389" s="58"/>
+      <c r="D389" s="64"/>
       <c r="E389" s="7">
         <v>2</v>
       </c>
@@ -9271,7 +9271,7 @@
       <c r="A390" s="20"/>
       <c r="B390" s="49"/>
       <c r="C390" s="49"/>
-      <c r="D390" s="58"/>
+      <c r="D390" s="64"/>
       <c r="E390" s="7">
         <v>3</v>
       </c>
@@ -9288,7 +9288,7 @@
       <c r="A391" s="20"/>
       <c r="B391" s="49"/>
       <c r="C391" s="49"/>
-      <c r="D391" s="58"/>
+      <c r="D391" s="64"/>
       <c r="E391" s="7">
         <v>4</v>
       </c>
@@ -9304,7 +9304,7 @@
       <c r="A392" s="20"/>
       <c r="B392" s="49"/>
       <c r="C392" s="49"/>
-      <c r="D392" s="58"/>
+      <c r="D392" s="64"/>
       <c r="E392" s="7">
         <v>5</v>
       </c>
@@ -9338,7 +9338,7 @@
       <c r="C394" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D394" s="56" t="s">
+      <c r="D394" s="63" t="s">
         <v>214</v>
       </c>
       <c r="E394" s="9" t="s">
@@ -9355,7 +9355,7 @@
       <c r="A395" s="9"/>
       <c r="B395" s="49"/>
       <c r="C395" s="49"/>
-      <c r="D395" s="56"/>
+      <c r="D395" s="63"/>
       <c r="E395" s="7">
         <v>1</v>
       </c>
@@ -9374,7 +9374,7 @@
       <c r="A396" s="9"/>
       <c r="B396" s="49"/>
       <c r="C396" s="49"/>
-      <c r="D396" s="56"/>
+      <c r="D396" s="63"/>
       <c r="E396" s="7">
         <v>2</v>
       </c>
@@ -9393,7 +9393,7 @@
       <c r="A397" s="9"/>
       <c r="B397" s="49"/>
       <c r="C397" s="49"/>
-      <c r="D397" s="56"/>
+      <c r="D397" s="63"/>
       <c r="E397" s="7">
         <v>3</v>
       </c>
@@ -9410,7 +9410,7 @@
       <c r="A398" s="9"/>
       <c r="B398" s="49"/>
       <c r="C398" s="49"/>
-      <c r="D398" s="56"/>
+      <c r="D398" s="63"/>
       <c r="E398" s="7">
         <v>4</v>
       </c>
@@ -9426,7 +9426,7 @@
       <c r="A399" s="9"/>
       <c r="B399" s="49"/>
       <c r="C399" s="49"/>
-      <c r="D399" s="56"/>
+      <c r="D399" s="63"/>
       <c r="E399" s="7">
         <v>5</v>
       </c>
@@ -9443,7 +9443,7 @@
       <c r="A400" s="9"/>
       <c r="B400" s="49"/>
       <c r="C400" s="49"/>
-      <c r="D400" s="56"/>
+      <c r="D400" s="63"/>
       <c r="E400" s="7">
         <v>6</v>
       </c>
@@ -9460,7 +9460,7 @@
       <c r="A401" s="9"/>
       <c r="B401" s="49"/>
       <c r="C401" s="49"/>
-      <c r="D401" s="56"/>
+      <c r="D401" s="63"/>
       <c r="E401" s="9">
         <v>7</v>
       </c>
@@ -9493,7 +9493,7 @@
       <c r="C403" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D403" s="58" t="s">
+      <c r="D403" s="64" t="s">
         <v>415</v>
       </c>
       <c r="E403" s="7"/>
@@ -9505,7 +9505,7 @@
     </row>
     <row r="404" spans="1:11" ht="54.75" customHeight="1">
       <c r="A404" s="7"/>
-      <c r="D404" s="58"/>
+      <c r="D404" s="64"/>
       <c r="E404" s="7">
         <v>1</v>
       </c>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="405" spans="1:11" ht="30" customHeight="1">
       <c r="A405" s="7"/>
-      <c r="D405" s="58"/>
+      <c r="D405" s="64"/>
       <c r="E405" s="7">
         <v>2</v>
       </c>
@@ -9541,7 +9541,7 @@
       <c r="A406" s="7"/>
       <c r="B406" s="49"/>
       <c r="C406" s="49"/>
-      <c r="D406" s="58"/>
+      <c r="D406" s="64"/>
       <c r="E406" s="7">
         <v>3</v>
       </c>
@@ -9558,7 +9558,7 @@
       <c r="A407" s="7"/>
       <c r="B407" s="49"/>
       <c r="C407" s="49"/>
-      <c r="D407" s="58"/>
+      <c r="D407" s="64"/>
       <c r="E407" s="7">
         <v>4</v>
       </c>
@@ -9574,7 +9574,7 @@
       <c r="A408" s="7"/>
       <c r="B408" s="49"/>
       <c r="C408" s="49"/>
-      <c r="D408" s="58"/>
+      <c r="D408" s="64"/>
       <c r="E408" s="7">
         <v>5</v>
       </c>
@@ -9591,7 +9591,7 @@
       <c r="A409" s="7"/>
       <c r="B409" s="49"/>
       <c r="C409" s="49"/>
-      <c r="D409" s="58"/>
+      <c r="D409" s="64"/>
       <c r="E409" s="7">
         <v>6</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="A410" s="7"/>
       <c r="B410" s="49"/>
       <c r="C410" s="49"/>
-      <c r="D410" s="58"/>
+      <c r="D410" s="64"/>
       <c r="E410" s="7">
         <v>7</v>
       </c>
@@ -9624,7 +9624,7 @@
       <c r="A411" s="7"/>
       <c r="B411" s="49"/>
       <c r="C411" s="49"/>
-      <c r="D411" s="58"/>
+      <c r="D411" s="64"/>
       <c r="E411" s="7">
         <v>8</v>
       </c>
@@ -9654,7 +9654,7 @@
       <c r="C413" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D413" s="58" t="s">
+      <c r="D413" s="64" t="s">
         <v>416</v>
       </c>
       <c r="E413" s="7"/>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="414" spans="1:11" ht="30">
       <c r="A414" s="7"/>
-      <c r="D414" s="58"/>
+      <c r="D414" s="64"/>
       <c r="E414" s="7">
         <v>1</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="A415" s="7"/>
       <c r="B415" s="49"/>
       <c r="C415" s="49"/>
-      <c r="D415" s="58"/>
+      <c r="D415" s="64"/>
       <c r="E415" s="7">
         <v>2</v>
       </c>
@@ -9707,7 +9707,7 @@
       <c r="A416" s="7"/>
       <c r="B416" s="49"/>
       <c r="C416" s="49"/>
-      <c r="D416" s="58"/>
+      <c r="D416" s="64"/>
       <c r="E416" s="7">
         <v>3</v>
       </c>
@@ -9724,7 +9724,7 @@
       <c r="A417" s="7"/>
       <c r="B417" s="49"/>
       <c r="C417" s="49"/>
-      <c r="D417" s="58"/>
+      <c r="D417" s="64"/>
       <c r="E417" s="7">
         <v>4</v>
       </c>
@@ -9740,7 +9740,7 @@
       <c r="A418" s="7"/>
       <c r="B418" s="49"/>
       <c r="C418" s="49"/>
-      <c r="D418" s="58"/>
+      <c r="D418" s="64"/>
       <c r="E418" s="7">
         <v>5</v>
       </c>
@@ -9757,7 +9757,7 @@
       <c r="A419" s="7"/>
       <c r="B419" s="49"/>
       <c r="C419" s="49"/>
-      <c r="D419" s="58"/>
+      <c r="D419" s="64"/>
       <c r="E419" s="7">
         <v>6</v>
       </c>
@@ -9774,7 +9774,7 @@
       <c r="A420" s="7"/>
       <c r="B420" s="49"/>
       <c r="C420" s="49"/>
-      <c r="D420" s="58"/>
+      <c r="D420" s="64"/>
       <c r="E420" s="7">
         <v>7</v>
       </c>
@@ -9790,7 +9790,7 @@
       <c r="A421" s="7"/>
       <c r="B421" s="49"/>
       <c r="C421" s="49"/>
-      <c r="D421" s="58"/>
+      <c r="D421" s="64"/>
       <c r="E421" s="7">
         <v>8</v>
       </c>
@@ -9806,7 +9806,7 @@
       <c r="A422" s="7"/>
       <c r="B422" s="49"/>
       <c r="C422" s="49"/>
-      <c r="D422" s="58"/>
+      <c r="D422" s="64"/>
       <c r="E422" s="7">
         <v>9</v>
       </c>
@@ -9836,7 +9836,7 @@
       <c r="C424" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D424" s="58" t="s">
+      <c r="D424" s="64" t="s">
         <v>418</v>
       </c>
       <c r="E424" s="7">
@@ -9853,7 +9853,7 @@
     </row>
     <row r="425" spans="1:11" ht="64.5" customHeight="1">
       <c r="A425" s="7"/>
-      <c r="D425" s="58"/>
+      <c r="D425" s="64"/>
       <c r="E425" s="7">
         <v>1</v>
       </c>
@@ -9872,7 +9872,7 @@
       <c r="A426" s="7"/>
       <c r="B426" s="49"/>
       <c r="C426" s="49"/>
-      <c r="D426" s="58"/>
+      <c r="D426" s="64"/>
       <c r="E426" s="7">
         <v>2</v>
       </c>
@@ -9891,7 +9891,7 @@
       <c r="A427" s="7"/>
       <c r="B427" s="49"/>
       <c r="C427" s="49"/>
-      <c r="D427" s="58"/>
+      <c r="D427" s="64"/>
       <c r="E427" s="7">
         <v>3</v>
       </c>
@@ -9908,7 +9908,7 @@
       <c r="A428" s="7"/>
       <c r="B428" s="49"/>
       <c r="C428" s="49"/>
-      <c r="D428" s="58"/>
+      <c r="D428" s="64"/>
       <c r="E428" s="7">
         <v>4</v>
       </c>
@@ -9924,7 +9924,7 @@
       <c r="A429" s="7"/>
       <c r="B429" s="49"/>
       <c r="C429" s="49"/>
-      <c r="D429" s="58"/>
+      <c r="D429" s="64"/>
       <c r="E429" s="7">
         <v>5</v>
       </c>
@@ -9941,7 +9941,7 @@
       <c r="A430" s="7"/>
       <c r="B430" s="49"/>
       <c r="C430" s="49"/>
-      <c r="D430" s="58"/>
+      <c r="D430" s="64"/>
       <c r="E430" s="7">
         <v>6</v>
       </c>
@@ -9958,7 +9958,7 @@
       <c r="A431" s="7"/>
       <c r="B431" s="49"/>
       <c r="C431" s="49"/>
-      <c r="D431" s="58"/>
+      <c r="D431" s="64"/>
       <c r="E431" s="7">
         <v>7</v>
       </c>
@@ -9974,7 +9974,7 @@
       <c r="A432" s="7"/>
       <c r="B432" s="49"/>
       <c r="C432" s="49"/>
-      <c r="D432" s="58"/>
+      <c r="D432" s="64"/>
       <c r="E432" s="7">
         <v>8</v>
       </c>
@@ -9990,7 +9990,7 @@
       <c r="A433" s="7"/>
       <c r="B433" s="49"/>
       <c r="C433" s="49"/>
-      <c r="D433" s="58"/>
+      <c r="D433" s="64"/>
       <c r="E433" s="7">
         <v>9</v>
       </c>
@@ -10022,7 +10022,7 @@
       <c r="C435" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D435" s="58" t="s">
+      <c r="D435" s="64" t="s">
         <v>420</v>
       </c>
       <c r="E435" s="7"/>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="436" spans="1:11" ht="30">
       <c r="A436" s="7"/>
-      <c r="D436" s="58"/>
+      <c r="D436" s="64"/>
       <c r="E436" s="7">
         <v>1</v>
       </c>
@@ -10056,7 +10056,7 @@
       <c r="A437" s="7"/>
       <c r="B437" s="49"/>
       <c r="C437" s="49"/>
-      <c r="D437" s="58"/>
+      <c r="D437" s="64"/>
       <c r="E437" s="7">
         <v>2</v>
       </c>
@@ -10075,7 +10075,7 @@
       <c r="A438" s="7"/>
       <c r="B438" s="49"/>
       <c r="C438" s="49"/>
-      <c r="D438" s="58"/>
+      <c r="D438" s="64"/>
       <c r="E438" s="7">
         <v>3</v>
       </c>
@@ -10092,7 +10092,7 @@
       <c r="A439" s="7"/>
       <c r="B439" s="49"/>
       <c r="C439" s="49"/>
-      <c r="D439" s="58"/>
+      <c r="D439" s="64"/>
       <c r="E439" s="7">
         <v>4</v>
       </c>
@@ -10108,7 +10108,7 @@
       <c r="A440" s="7"/>
       <c r="B440" s="49"/>
       <c r="C440" s="49"/>
-      <c r="D440" s="58"/>
+      <c r="D440" s="64"/>
       <c r="E440" s="7">
         <v>5</v>
       </c>
@@ -10125,7 +10125,7 @@
       <c r="A441" s="7"/>
       <c r="B441" s="49"/>
       <c r="C441" s="49"/>
-      <c r="D441" s="58"/>
+      <c r="D441" s="64"/>
       <c r="E441" s="7">
         <v>6</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="A442" s="7"/>
       <c r="B442" s="49"/>
       <c r="C442" s="49"/>
-      <c r="D442" s="58"/>
+      <c r="D442" s="64"/>
       <c r="E442" s="7">
         <v>7</v>
       </c>
@@ -10158,7 +10158,7 @@
       <c r="A443" s="7"/>
       <c r="B443" s="49"/>
       <c r="C443" s="49"/>
-      <c r="D443" s="58"/>
+      <c r="D443" s="64"/>
       <c r="E443" s="7">
         <v>8</v>
       </c>
@@ -10174,7 +10174,7 @@
       <c r="A444" s="7"/>
       <c r="B444" s="49"/>
       <c r="C444" s="49"/>
-      <c r="D444" s="58"/>
+      <c r="D444" s="64"/>
       <c r="E444" s="7">
         <v>9</v>
       </c>
@@ -10204,7 +10204,7 @@
       <c r="C446" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D446" s="58" t="s">
+      <c r="D446" s="64" t="s">
         <v>425</v>
       </c>
       <c r="E446" s="7"/>
@@ -10217,7 +10217,7 @@
     </row>
     <row r="447" spans="1:11" ht="15" customHeight="1">
       <c r="A447" s="9"/>
-      <c r="D447" s="58"/>
+      <c r="D447" s="64"/>
       <c r="E447" s="7">
         <v>1</v>
       </c>
@@ -10236,7 +10236,7 @@
       <c r="A448" s="9"/>
       <c r="B448" s="49"/>
       <c r="C448" s="49"/>
-      <c r="D448" s="58"/>
+      <c r="D448" s="64"/>
       <c r="E448" s="7">
         <v>2</v>
       </c>
@@ -10255,7 +10255,7 @@
       <c r="A449" s="9"/>
       <c r="B449" s="49"/>
       <c r="C449" s="49"/>
-      <c r="D449" s="58"/>
+      <c r="D449" s="64"/>
       <c r="E449" s="7">
         <v>3</v>
       </c>
@@ -10272,7 +10272,7 @@
       <c r="A450" s="9"/>
       <c r="B450" s="49"/>
       <c r="C450" s="49"/>
-      <c r="D450" s="58"/>
+      <c r="D450" s="64"/>
       <c r="E450" s="7">
         <v>4</v>
       </c>
@@ -10288,7 +10288,7 @@
       <c r="A451" s="9"/>
       <c r="B451" s="49"/>
       <c r="C451" s="49"/>
-      <c r="D451" s="58"/>
+      <c r="D451" s="64"/>
       <c r="E451" s="7">
         <v>5</v>
       </c>
@@ -10305,7 +10305,7 @@
       <c r="A452" s="9"/>
       <c r="B452" s="49"/>
       <c r="C452" s="49"/>
-      <c r="D452" s="58"/>
+      <c r="D452" s="64"/>
       <c r="E452" s="7">
         <v>6</v>
       </c>
@@ -10322,7 +10322,7 @@
       <c r="A453" s="9"/>
       <c r="B453" s="49"/>
       <c r="C453" s="49"/>
-      <c r="D453" s="58"/>
+      <c r="D453" s="64"/>
       <c r="E453" s="7">
         <v>7</v>
       </c>
@@ -10338,7 +10338,7 @@
       <c r="A454" s="9"/>
       <c r="B454" s="49"/>
       <c r="C454" s="49"/>
-      <c r="D454" s="58"/>
+      <c r="D454" s="64"/>
       <c r="E454" s="7">
         <v>8</v>
       </c>
@@ -10354,7 +10354,7 @@
       <c r="A455" s="9"/>
       <c r="B455" s="49"/>
       <c r="C455" s="49"/>
-      <c r="D455" s="58"/>
+      <c r="D455" s="64"/>
       <c r="E455" s="15">
         <v>9</v>
       </c>
@@ -10385,7 +10385,7 @@
       <c r="C457" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D457" s="58" t="s">
+      <c r="D457" s="64" t="s">
         <v>426</v>
       </c>
       <c r="E457" s="7"/>
@@ -10400,7 +10400,7 @@
       <c r="A458" s="9"/>
       <c r="B458" s="49"/>
       <c r="C458" s="49"/>
-      <c r="D458" s="58"/>
+      <c r="D458" s="64"/>
       <c r="E458" s="7">
         <v>1</v>
       </c>
@@ -10419,7 +10419,7 @@
       <c r="A459" s="9"/>
       <c r="B459" s="49"/>
       <c r="C459" s="49"/>
-      <c r="D459" s="58"/>
+      <c r="D459" s="64"/>
       <c r="E459" s="7">
         <v>2</v>
       </c>
@@ -10438,7 +10438,7 @@
       <c r="A460" s="9"/>
       <c r="B460" s="49"/>
       <c r="C460" s="49"/>
-      <c r="D460" s="58"/>
+      <c r="D460" s="64"/>
       <c r="E460" s="7">
         <v>3</v>
       </c>
@@ -10455,7 +10455,7 @@
       <c r="A461" s="9"/>
       <c r="B461" s="49"/>
       <c r="C461" s="49"/>
-      <c r="D461" s="58"/>
+      <c r="D461" s="64"/>
       <c r="E461" s="7">
         <v>4</v>
       </c>
@@ -10471,7 +10471,7 @@
       <c r="A462" s="9"/>
       <c r="B462" s="49"/>
       <c r="C462" s="49"/>
-      <c r="D462" s="58"/>
+      <c r="D462" s="64"/>
       <c r="E462" s="7">
         <v>5</v>
       </c>
@@ -10488,7 +10488,7 @@
       <c r="A463" s="9"/>
       <c r="B463" s="49"/>
       <c r="C463" s="49"/>
-      <c r="D463" s="58"/>
+      <c r="D463" s="64"/>
       <c r="E463" s="7">
         <v>6</v>
       </c>
@@ -10505,7 +10505,7 @@
       <c r="A464" s="9"/>
       <c r="B464" s="49"/>
       <c r="C464" s="49"/>
-      <c r="D464" s="58"/>
+      <c r="D464" s="64"/>
       <c r="E464" s="7">
         <v>7</v>
       </c>
@@ -10521,7 +10521,7 @@
       <c r="A465" s="9"/>
       <c r="B465" s="49"/>
       <c r="C465" s="49"/>
-      <c r="D465" s="58"/>
+      <c r="D465" s="64"/>
       <c r="E465" s="7">
         <v>8</v>
       </c>
@@ -10537,7 +10537,7 @@
       <c r="A466" s="9"/>
       <c r="B466" s="49"/>
       <c r="C466" s="49"/>
-      <c r="D466" s="58"/>
+      <c r="D466" s="64"/>
       <c r="E466" s="15">
         <v>9</v>
       </c>
@@ -10553,7 +10553,7 @@
       <c r="A467" s="9"/>
       <c r="B467" s="49"/>
       <c r="C467" s="49"/>
-      <c r="D467" s="58"/>
+      <c r="D467" s="64"/>
       <c r="E467" s="7">
         <v>10</v>
       </c>
@@ -10587,7 +10587,7 @@
       <c r="C469" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D469" s="58" t="s">
+      <c r="D469" s="64" t="s">
         <v>430</v>
       </c>
       <c r="E469" s="7"/>
@@ -10602,7 +10602,7 @@
       <c r="A470" s="9"/>
       <c r="B470" s="49"/>
       <c r="C470" s="49"/>
-      <c r="D470" s="58"/>
+      <c r="D470" s="64"/>
       <c r="E470" s="7">
         <v>1</v>
       </c>
@@ -10621,7 +10621,7 @@
       <c r="A471" s="9"/>
       <c r="B471" s="49"/>
       <c r="C471" s="49"/>
-      <c r="D471" s="58"/>
+      <c r="D471" s="64"/>
       <c r="E471" s="7">
         <v>2</v>
       </c>
@@ -10640,7 +10640,7 @@
       <c r="A472" s="9"/>
       <c r="B472" s="49"/>
       <c r="C472" s="49"/>
-      <c r="D472" s="58"/>
+      <c r="D472" s="64"/>
       <c r="E472" s="7">
         <v>3</v>
       </c>
@@ -10657,7 +10657,7 @@
       <c r="A473" s="9"/>
       <c r="B473" s="49"/>
       <c r="C473" s="49"/>
-      <c r="D473" s="58"/>
+      <c r="D473" s="64"/>
       <c r="E473" s="7">
         <v>4</v>
       </c>
@@ -10673,7 +10673,7 @@
       <c r="A474" s="9"/>
       <c r="B474" s="49"/>
       <c r="C474" s="49"/>
-      <c r="D474" s="58"/>
+      <c r="D474" s="64"/>
       <c r="E474" s="7">
         <v>5</v>
       </c>
@@ -10690,7 +10690,7 @@
       <c r="A475" s="9"/>
       <c r="B475" s="49"/>
       <c r="C475" s="49"/>
-      <c r="D475" s="58"/>
+      <c r="D475" s="64"/>
       <c r="E475" s="7">
         <v>6</v>
       </c>
@@ -10707,7 +10707,7 @@
       <c r="A476" s="9"/>
       <c r="B476" s="49"/>
       <c r="C476" s="49"/>
-      <c r="D476" s="58"/>
+      <c r="D476" s="64"/>
       <c r="E476" s="7">
         <v>7</v>
       </c>
@@ -10723,7 +10723,7 @@
       <c r="A477" s="9"/>
       <c r="B477" s="49"/>
       <c r="C477" s="49"/>
-      <c r="D477" s="58"/>
+      <c r="D477" s="64"/>
       <c r="E477" s="7">
         <v>8</v>
       </c>
@@ -10739,7 +10739,7 @@
       <c r="A478" s="9"/>
       <c r="B478" s="49"/>
       <c r="C478" s="49"/>
-      <c r="D478" s="58"/>
+      <c r="D478" s="64"/>
       <c r="E478" s="15">
         <v>9</v>
       </c>
@@ -10755,7 +10755,7 @@
       <c r="A479" s="9"/>
       <c r="B479" s="49"/>
       <c r="C479" s="49"/>
-      <c r="D479" s="58"/>
+      <c r="D479" s="64"/>
       <c r="E479" s="7">
         <v>10</v>
       </c>
@@ -10772,7 +10772,7 @@
       <c r="A480" s="9"/>
       <c r="B480" s="49"/>
       <c r="C480" s="49"/>
-      <c r="D480" s="58"/>
+      <c r="D480" s="64"/>
       <c r="E480" s="7">
         <v>11</v>
       </c>
@@ -10806,7 +10806,7 @@
       <c r="C482" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D482" s="58" t="s">
+      <c r="D482" s="64" t="s">
         <v>435</v>
       </c>
       <c r="E482" s="7"/>
@@ -10820,7 +10820,7 @@
       <c r="A483" s="9"/>
       <c r="B483" s="49"/>
       <c r="C483" s="49"/>
-      <c r="D483" s="58"/>
+      <c r="D483" s="64"/>
       <c r="E483" s="7">
         <v>1</v>
       </c>
@@ -10839,7 +10839,7 @@
       <c r="A484" s="9"/>
       <c r="B484" s="49"/>
       <c r="C484" s="49"/>
-      <c r="D484" s="58"/>
+      <c r="D484" s="64"/>
       <c r="E484" s="7">
         <v>2</v>
       </c>
@@ -10858,7 +10858,7 @@
       <c r="A485" s="9"/>
       <c r="B485" s="49"/>
       <c r="C485" s="49"/>
-      <c r="D485" s="58"/>
+      <c r="D485" s="64"/>
       <c r="E485" s="7">
         <v>3</v>
       </c>
@@ -10875,7 +10875,7 @@
       <c r="A486" s="9"/>
       <c r="B486" s="49"/>
       <c r="C486" s="49"/>
-      <c r="D486" s="58"/>
+      <c r="D486" s="64"/>
       <c r="E486" s="7">
         <v>4</v>
       </c>
@@ -10891,7 +10891,7 @@
       <c r="A487" s="9"/>
       <c r="B487" s="49"/>
       <c r="C487" s="49"/>
-      <c r="D487" s="58"/>
+      <c r="D487" s="64"/>
       <c r="E487" s="7">
         <v>5</v>
       </c>
@@ -10908,7 +10908,7 @@
       <c r="A488" s="9"/>
       <c r="B488" s="49"/>
       <c r="C488" s="49"/>
-      <c r="D488" s="58"/>
+      <c r="D488" s="64"/>
       <c r="E488" s="7">
         <v>6</v>
       </c>
@@ -10942,7 +10942,7 @@
       <c r="C490" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D490" s="58" t="s">
+      <c r="D490" s="64" t="s">
         <v>438</v>
       </c>
       <c r="E490" s="7"/>
@@ -10957,7 +10957,7 @@
       <c r="A491" s="9"/>
       <c r="B491" s="49"/>
       <c r="C491" s="49"/>
-      <c r="D491" s="58"/>
+      <c r="D491" s="64"/>
       <c r="E491" s="7">
         <v>1</v>
       </c>
@@ -10976,7 +10976,7 @@
       <c r="A492" s="9"/>
       <c r="B492" s="49"/>
       <c r="C492" s="49"/>
-      <c r="D492" s="58"/>
+      <c r="D492" s="64"/>
       <c r="E492" s="7">
         <v>2</v>
       </c>
@@ -10995,7 +10995,7 @@
       <c r="A493" s="9"/>
       <c r="B493" s="49"/>
       <c r="C493" s="49"/>
-      <c r="D493" s="58"/>
+      <c r="D493" s="64"/>
       <c r="E493" s="7">
         <v>3</v>
       </c>
@@ -11012,7 +11012,7 @@
       <c r="A494" s="9"/>
       <c r="B494" s="49"/>
       <c r="C494" s="49"/>
-      <c r="D494" s="58"/>
+      <c r="D494" s="64"/>
       <c r="E494" s="7">
         <v>4</v>
       </c>
@@ -11028,7 +11028,7 @@
       <c r="A495" s="9"/>
       <c r="B495" s="49"/>
       <c r="C495" s="49"/>
-      <c r="D495" s="58"/>
+      <c r="D495" s="64"/>
       <c r="E495" s="7">
         <v>5</v>
       </c>
@@ -11045,7 +11045,7 @@
       <c r="A496" s="9"/>
       <c r="B496" s="49"/>
       <c r="C496" s="49"/>
-      <c r="D496" s="58"/>
+      <c r="D496" s="64"/>
       <c r="E496" s="7">
         <v>6</v>
       </c>
@@ -11062,7 +11062,7 @@
       <c r="A497" s="9"/>
       <c r="B497" s="49"/>
       <c r="C497" s="49"/>
-      <c r="D497" s="58"/>
+      <c r="D497" s="64"/>
       <c r="E497" s="7">
         <v>7</v>
       </c>
@@ -11096,7 +11096,7 @@
       <c r="C499" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D499" s="58" t="s">
+      <c r="D499" s="64" t="s">
         <v>443</v>
       </c>
       <c r="E499" s="7"/>
@@ -11110,7 +11110,7 @@
       <c r="A500" s="9"/>
       <c r="B500" s="49"/>
       <c r="C500" s="49"/>
-      <c r="D500" s="58"/>
+      <c r="D500" s="64"/>
       <c r="E500" s="7">
         <v>1</v>
       </c>
@@ -11129,7 +11129,7 @@
       <c r="A501" s="9"/>
       <c r="B501" s="49"/>
       <c r="C501" s="49"/>
-      <c r="D501" s="58"/>
+      <c r="D501" s="64"/>
       <c r="E501" s="7">
         <v>2</v>
       </c>
@@ -11148,7 +11148,7 @@
       <c r="A502" s="9"/>
       <c r="B502" s="49"/>
       <c r="C502" s="49"/>
-      <c r="D502" s="58"/>
+      <c r="D502" s="64"/>
       <c r="E502" s="7">
         <v>3</v>
       </c>
@@ -11165,7 +11165,7 @@
       <c r="A503" s="9"/>
       <c r="B503" s="49"/>
       <c r="C503" s="49"/>
-      <c r="D503" s="58"/>
+      <c r="D503" s="64"/>
       <c r="E503" s="7">
         <v>4</v>
       </c>
@@ -11181,7 +11181,7 @@
       <c r="A504" s="9"/>
       <c r="B504" s="49"/>
       <c r="C504" s="49"/>
-      <c r="D504" s="58"/>
+      <c r="D504" s="64"/>
       <c r="E504" s="7">
         <v>5</v>
       </c>
@@ -11198,7 +11198,7 @@
       <c r="A505" s="9"/>
       <c r="B505" s="49"/>
       <c r="C505" s="49"/>
-      <c r="D505" s="58"/>
+      <c r="D505" s="64"/>
       <c r="E505" s="7">
         <v>6</v>
       </c>
@@ -11215,7 +11215,7 @@
       <c r="A506" s="9"/>
       <c r="B506" s="49"/>
       <c r="C506" s="49"/>
-      <c r="D506" s="58"/>
+      <c r="D506" s="64"/>
       <c r="E506" s="7">
         <v>7</v>
       </c>
@@ -11232,7 +11232,7 @@
       <c r="A507" s="9"/>
       <c r="B507" s="49"/>
       <c r="C507" s="49"/>
-      <c r="D507" s="58"/>
+      <c r="D507" s="64"/>
       <c r="E507" s="7">
         <v>8</v>
       </c>
@@ -11265,7 +11265,7 @@
       <c r="C509" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D509" s="58" t="s">
+      <c r="D509" s="64" t="s">
         <v>447</v>
       </c>
       <c r="E509" s="7"/>
@@ -11279,7 +11279,7 @@
       <c r="A510" s="9"/>
       <c r="B510" s="49"/>
       <c r="C510" s="49"/>
-      <c r="D510" s="58"/>
+      <c r="D510" s="64"/>
       <c r="E510" s="7">
         <v>1</v>
       </c>
@@ -11298,7 +11298,7 @@
       <c r="A511" s="9"/>
       <c r="B511" s="49"/>
       <c r="C511" s="49"/>
-      <c r="D511" s="58"/>
+      <c r="D511" s="64"/>
       <c r="E511" s="7">
         <v>2</v>
       </c>
@@ -11317,7 +11317,7 @@
       <c r="A512" s="9"/>
       <c r="B512" s="49"/>
       <c r="C512" s="49"/>
-      <c r="D512" s="58"/>
+      <c r="D512" s="64"/>
       <c r="E512" s="7">
         <v>3</v>
       </c>
@@ -11334,7 +11334,7 @@
       <c r="A513" s="9"/>
       <c r="B513" s="49"/>
       <c r="C513" s="49"/>
-      <c r="D513" s="58"/>
+      <c r="D513" s="64"/>
       <c r="E513" s="7">
         <v>4</v>
       </c>
@@ -11350,7 +11350,7 @@
       <c r="A514" s="9"/>
       <c r="B514" s="49"/>
       <c r="C514" s="49"/>
-      <c r="D514" s="58"/>
+      <c r="D514" s="64"/>
       <c r="E514" s="7">
         <v>5</v>
       </c>
@@ -11367,7 +11367,7 @@
       <c r="A515" s="9"/>
       <c r="B515" s="49"/>
       <c r="C515" s="49"/>
-      <c r="D515" s="58"/>
+      <c r="D515" s="64"/>
       <c r="E515" s="7">
         <v>6</v>
       </c>
@@ -11384,7 +11384,7 @@
       <c r="A516" s="9"/>
       <c r="B516" s="49"/>
       <c r="C516" s="49"/>
-      <c r="D516" s="58"/>
+      <c r="D516" s="64"/>
       <c r="E516" s="7">
         <v>7</v>
       </c>
@@ -11401,7 +11401,7 @@
       <c r="A517" s="9"/>
       <c r="B517" s="49"/>
       <c r="C517" s="49"/>
-      <c r="D517" s="58"/>
+      <c r="D517" s="64"/>
       <c r="E517" s="7">
         <v>8</v>
       </c>
@@ -11418,7 +11418,7 @@
       <c r="A518" s="9"/>
       <c r="B518" s="49"/>
       <c r="C518" s="49"/>
-      <c r="D518" s="58"/>
+      <c r="D518" s="64"/>
       <c r="E518" s="7">
         <v>9</v>
       </c>
@@ -11452,7 +11452,7 @@
       <c r="C520" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D520" s="58" t="s">
+      <c r="D520" s="64" t="s">
         <v>450</v>
       </c>
       <c r="E520" s="7"/>
@@ -11466,7 +11466,7 @@
       <c r="A521" s="9"/>
       <c r="B521" s="49"/>
       <c r="C521" s="49"/>
-      <c r="D521" s="58"/>
+      <c r="D521" s="64"/>
       <c r="E521" s="7">
         <v>1</v>
       </c>
@@ -11485,7 +11485,7 @@
       <c r="A522" s="9"/>
       <c r="B522" s="49"/>
       <c r="C522" s="49"/>
-      <c r="D522" s="58"/>
+      <c r="D522" s="64"/>
       <c r="E522" s="7">
         <v>2</v>
       </c>
@@ -11504,7 +11504,7 @@
       <c r="A523" s="9"/>
       <c r="B523" s="49"/>
       <c r="C523" s="49"/>
-      <c r="D523" s="58"/>
+      <c r="D523" s="64"/>
       <c r="E523" s="7">
         <v>3</v>
       </c>
@@ -11521,7 +11521,7 @@
       <c r="A524" s="9"/>
       <c r="B524" s="49"/>
       <c r="C524" s="49"/>
-      <c r="D524" s="58"/>
+      <c r="D524" s="64"/>
       <c r="E524" s="7">
         <v>4</v>
       </c>
@@ -11537,7 +11537,7 @@
       <c r="A525" s="9"/>
       <c r="B525" s="49"/>
       <c r="C525" s="49"/>
-      <c r="D525" s="58"/>
+      <c r="D525" s="64"/>
       <c r="E525" s="7">
         <v>5</v>
       </c>
@@ -11554,7 +11554,7 @@
       <c r="A526" s="9"/>
       <c r="B526" s="49"/>
       <c r="C526" s="49"/>
-      <c r="D526" s="58"/>
+      <c r="D526" s="64"/>
       <c r="E526" s="7">
         <v>6</v>
       </c>
@@ -11571,7 +11571,7 @@
       <c r="A527" s="9"/>
       <c r="B527" s="49"/>
       <c r="C527" s="49"/>
-      <c r="D527" s="58"/>
+      <c r="D527" s="64"/>
       <c r="E527" s="7">
         <v>7</v>
       </c>
@@ -11588,7 +11588,7 @@
       <c r="A528" s="9"/>
       <c r="B528" s="49"/>
       <c r="C528" s="49"/>
-      <c r="D528" s="58"/>
+      <c r="D528" s="64"/>
       <c r="E528" s="7">
         <v>8</v>
       </c>
@@ -11605,7 +11605,7 @@
       <c r="A529" s="9"/>
       <c r="B529" s="49"/>
       <c r="C529" s="49"/>
-      <c r="D529" s="58"/>
+      <c r="D529" s="64"/>
       <c r="E529" s="7">
         <v>9</v>
       </c>
@@ -11622,7 +11622,7 @@
       <c r="A530" s="9"/>
       <c r="B530" s="49"/>
       <c r="C530" s="49"/>
-      <c r="D530" s="58"/>
+      <c r="D530" s="64"/>
       <c r="E530" s="7">
         <v>10</v>
       </c>
@@ -11656,7 +11656,7 @@
       <c r="C532" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D532" s="58" t="s">
+      <c r="D532" s="64" t="s">
         <v>453</v>
       </c>
       <c r="E532" s="7"/>
@@ -11670,7 +11670,7 @@
       <c r="A533" s="9"/>
       <c r="B533" s="49"/>
       <c r="C533" s="49"/>
-      <c r="D533" s="58"/>
+      <c r="D533" s="64"/>
       <c r="E533" s="7">
         <v>1</v>
       </c>
@@ -11689,7 +11689,7 @@
       <c r="A534" s="9"/>
       <c r="B534" s="49"/>
       <c r="C534" s="49"/>
-      <c r="D534" s="58"/>
+      <c r="D534" s="64"/>
       <c r="E534" s="7">
         <v>2</v>
       </c>
@@ -11708,7 +11708,7 @@
       <c r="A535" s="9"/>
       <c r="B535" s="49"/>
       <c r="C535" s="49"/>
-      <c r="D535" s="58"/>
+      <c r="D535" s="64"/>
       <c r="E535" s="7">
         <v>3</v>
       </c>
@@ -11725,7 +11725,7 @@
       <c r="A536" s="9"/>
       <c r="B536" s="49"/>
       <c r="C536" s="49"/>
-      <c r="D536" s="58"/>
+      <c r="D536" s="64"/>
       <c r="E536" s="7">
         <v>4</v>
       </c>
@@ -11741,7 +11741,7 @@
       <c r="A537" s="9"/>
       <c r="B537" s="49"/>
       <c r="C537" s="49"/>
-      <c r="D537" s="58"/>
+      <c r="D537" s="64"/>
       <c r="E537" s="7">
         <v>5</v>
       </c>
@@ -11758,7 +11758,7 @@
       <c r="A538" s="9"/>
       <c r="B538" s="49"/>
       <c r="C538" s="49"/>
-      <c r="D538" s="58"/>
+      <c r="D538" s="64"/>
       <c r="E538" s="7">
         <v>6</v>
       </c>
@@ -11775,7 +11775,7 @@
       <c r="A539" s="9"/>
       <c r="B539" s="49"/>
       <c r="C539" s="49"/>
-      <c r="D539" s="58"/>
+      <c r="D539" s="64"/>
       <c r="E539" s="7">
         <v>7</v>
       </c>
@@ -11792,7 +11792,7 @@
       <c r="A540" s="9"/>
       <c r="B540" s="49"/>
       <c r="C540" s="49"/>
-      <c r="D540" s="58"/>
+      <c r="D540" s="64"/>
       <c r="E540" s="7">
         <v>8</v>
       </c>
@@ -11809,7 +11809,7 @@
       <c r="A541" s="9"/>
       <c r="B541" s="49"/>
       <c r="C541" s="49"/>
-      <c r="D541" s="58"/>
+      <c r="D541" s="64"/>
       <c r="E541" s="7">
         <v>9</v>
       </c>
@@ -11826,7 +11826,7 @@
       <c r="A542" s="9"/>
       <c r="B542" s="49"/>
       <c r="C542" s="49"/>
-      <c r="D542" s="58"/>
+      <c r="D542" s="64"/>
       <c r="E542" s="7">
         <v>10</v>
       </c>
@@ -11843,7 +11843,7 @@
       <c r="A543" s="9"/>
       <c r="B543" s="49"/>
       <c r="C543" s="49"/>
-      <c r="D543" s="58"/>
+      <c r="D543" s="64"/>
       <c r="E543" s="7">
         <v>11</v>
       </c>
@@ -11877,7 +11877,7 @@
       <c r="C545" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D545" s="58" t="s">
+      <c r="D545" s="64" t="s">
         <v>454</v>
       </c>
       <c r="E545" s="7"/>
@@ -11891,7 +11891,7 @@
       <c r="A546" s="9"/>
       <c r="B546" s="49"/>
       <c r="C546" s="49"/>
-      <c r="D546" s="58"/>
+      <c r="D546" s="64"/>
       <c r="E546" s="7">
         <v>1</v>
       </c>
@@ -11910,7 +11910,7 @@
       <c r="A547" s="9"/>
       <c r="B547" s="49"/>
       <c r="C547" s="49"/>
-      <c r="D547" s="58"/>
+      <c r="D547" s="64"/>
       <c r="E547" s="7">
         <v>2</v>
       </c>
@@ -11929,7 +11929,7 @@
       <c r="A548" s="9"/>
       <c r="B548" s="49"/>
       <c r="C548" s="49"/>
-      <c r="D548" s="58"/>
+      <c r="D548" s="64"/>
       <c r="E548" s="7">
         <v>3</v>
       </c>
@@ -11946,7 +11946,7 @@
       <c r="A549" s="9"/>
       <c r="B549" s="49"/>
       <c r="C549" s="49"/>
-      <c r="D549" s="58"/>
+      <c r="D549" s="64"/>
       <c r="E549" s="7">
         <v>4</v>
       </c>
@@ -11962,7 +11962,7 @@
       <c r="A550" s="9"/>
       <c r="B550" s="49"/>
       <c r="C550" s="49"/>
-      <c r="D550" s="58"/>
+      <c r="D550" s="64"/>
       <c r="E550" s="7">
         <v>5</v>
       </c>
@@ -11979,7 +11979,7 @@
       <c r="A551" s="9"/>
       <c r="B551" s="49"/>
       <c r="C551" s="49"/>
-      <c r="D551" s="58"/>
+      <c r="D551" s="64"/>
       <c r="E551" s="7">
         <v>6</v>
       </c>
@@ -11996,7 +11996,7 @@
       <c r="A552" s="9"/>
       <c r="B552" s="49"/>
       <c r="C552" s="49"/>
-      <c r="D552" s="58"/>
+      <c r="D552" s="64"/>
       <c r="E552" s="7">
         <v>7</v>
       </c>
@@ -12013,7 +12013,7 @@
       <c r="A553" s="9"/>
       <c r="B553" s="49"/>
       <c r="C553" s="49"/>
-      <c r="D553" s="58"/>
+      <c r="D553" s="64"/>
       <c r="E553" s="7">
         <v>8</v>
       </c>
@@ -12030,7 +12030,7 @@
       <c r="A554" s="9"/>
       <c r="B554" s="49"/>
       <c r="C554" s="49"/>
-      <c r="D554" s="58"/>
+      <c r="D554" s="64"/>
       <c r="E554" s="7">
         <v>9</v>
       </c>
@@ -12064,7 +12064,7 @@
       <c r="C556" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D556" s="58" t="s">
+      <c r="D556" s="64" t="s">
         <v>457</v>
       </c>
       <c r="E556" s="7"/>
@@ -12078,7 +12078,7 @@
       <c r="A557" s="9"/>
       <c r="B557" s="49"/>
       <c r="C557" s="49"/>
-      <c r="D557" s="58"/>
+      <c r="D557" s="64"/>
       <c r="E557" s="7">
         <v>1</v>
       </c>
@@ -12097,7 +12097,7 @@
       <c r="A558" s="9"/>
       <c r="B558" s="49"/>
       <c r="C558" s="49"/>
-      <c r="D558" s="58"/>
+      <c r="D558" s="64"/>
       <c r="E558" s="7">
         <v>2</v>
       </c>
@@ -12116,7 +12116,7 @@
       <c r="A559" s="9"/>
       <c r="B559" s="49"/>
       <c r="C559" s="49"/>
-      <c r="D559" s="58"/>
+      <c r="D559" s="64"/>
       <c r="E559" s="7">
         <v>3</v>
       </c>
@@ -12133,7 +12133,7 @@
       <c r="A560" s="9"/>
       <c r="B560" s="49"/>
       <c r="C560" s="49"/>
-      <c r="D560" s="58"/>
+      <c r="D560" s="64"/>
       <c r="E560" s="7">
         <v>4</v>
       </c>
@@ -12149,7 +12149,7 @@
       <c r="A561" s="9"/>
       <c r="B561" s="49"/>
       <c r="C561" s="49"/>
-      <c r="D561" s="58"/>
+      <c r="D561" s="64"/>
       <c r="E561" s="7">
         <v>5</v>
       </c>
@@ -12166,7 +12166,7 @@
       <c r="A562" s="9"/>
       <c r="B562" s="49"/>
       <c r="C562" s="49"/>
-      <c r="D562" s="58"/>
+      <c r="D562" s="64"/>
       <c r="E562" s="7">
         <v>6</v>
       </c>
@@ -12183,7 +12183,7 @@
       <c r="A563" s="9"/>
       <c r="B563" s="49"/>
       <c r="C563" s="49"/>
-      <c r="D563" s="58"/>
+      <c r="D563" s="64"/>
       <c r="E563" s="7">
         <v>7</v>
       </c>
@@ -12200,7 +12200,7 @@
       <c r="A564" s="9"/>
       <c r="B564" s="49"/>
       <c r="C564" s="49"/>
-      <c r="D564" s="58"/>
+      <c r="D564" s="64"/>
       <c r="E564" s="7">
         <v>8</v>
       </c>
@@ -12217,7 +12217,7 @@
       <c r="A565" s="9"/>
       <c r="B565" s="49"/>
       <c r="C565" s="49"/>
-      <c r="D565" s="58"/>
+      <c r="D565" s="64"/>
       <c r="E565" s="7">
         <v>9</v>
       </c>
@@ -12251,7 +12251,7 @@
       <c r="C567" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D567" s="56" t="s">
+      <c r="D567" s="63" t="s">
         <v>458</v>
       </c>
       <c r="E567" s="7"/>
@@ -12266,7 +12266,7 @@
       <c r="A568" s="9"/>
       <c r="B568" s="49"/>
       <c r="C568" s="49"/>
-      <c r="D568" s="56"/>
+      <c r="D568" s="63"/>
       <c r="E568" s="7">
         <v>1</v>
       </c>
@@ -12285,7 +12285,7 @@
       <c r="A569" s="9"/>
       <c r="B569" s="49"/>
       <c r="C569" s="49"/>
-      <c r="D569" s="56"/>
+      <c r="D569" s="63"/>
       <c r="E569" s="7">
         <v>2</v>
       </c>
@@ -12304,7 +12304,7 @@
       <c r="A570" s="9"/>
       <c r="B570" s="49"/>
       <c r="C570" s="49"/>
-      <c r="D570" s="56"/>
+      <c r="D570" s="63"/>
       <c r="E570" s="7">
         <v>3</v>
       </c>
@@ -12321,7 +12321,7 @@
       <c r="A571" s="9"/>
       <c r="B571" s="49"/>
       <c r="C571" s="49"/>
-      <c r="D571" s="56"/>
+      <c r="D571" s="63"/>
       <c r="E571" s="7">
         <v>4</v>
       </c>
@@ -12337,7 +12337,7 @@
       <c r="A572" s="9"/>
       <c r="B572" s="49"/>
       <c r="C572" s="49"/>
-      <c r="D572" s="56"/>
+      <c r="D572" s="63"/>
       <c r="E572" s="7">
         <v>5</v>
       </c>
@@ -12351,7 +12351,7 @@
     </row>
     <row r="573" spans="1:11" ht="30">
       <c r="A573" s="7"/>
-      <c r="D573" s="56"/>
+      <c r="D573" s="63"/>
       <c r="E573" s="7">
         <v>6</v>
       </c>
@@ -12365,7 +12365,7 @@
     </row>
     <row r="574" spans="1:11">
       <c r="A574" s="7"/>
-      <c r="D574" s="56"/>
+      <c r="D574" s="63"/>
       <c r="E574" s="7">
         <v>7</v>
       </c>
@@ -12379,7 +12379,7 @@
     </row>
     <row r="575" spans="1:11" ht="30" customHeight="1">
       <c r="A575" s="7"/>
-      <c r="D575" s="56"/>
+      <c r="D575" s="63"/>
       <c r="E575" s="7">
         <v>8</v>
       </c>
@@ -12411,7 +12411,7 @@
       <c r="C577" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D577" s="56" t="s">
+      <c r="D577" s="63" t="s">
         <v>215</v>
       </c>
       <c r="E577" s="7"/>
@@ -12426,7 +12426,7 @@
       <c r="A578" s="9"/>
       <c r="B578" s="49"/>
       <c r="C578" s="49"/>
-      <c r="D578" s="56"/>
+      <c r="D578" s="63"/>
       <c r="E578" s="7">
         <v>1</v>
       </c>
@@ -12445,7 +12445,7 @@
       <c r="A579" s="9"/>
       <c r="B579" s="49"/>
       <c r="C579" s="49"/>
-      <c r="D579" s="56"/>
+      <c r="D579" s="63"/>
       <c r="E579" s="7">
         <v>2</v>
       </c>
@@ -12464,7 +12464,7 @@
       <c r="A580" s="9"/>
       <c r="B580" s="49"/>
       <c r="C580" s="49"/>
-      <c r="D580" s="56"/>
+      <c r="D580" s="63"/>
       <c r="E580" s="7">
         <v>3</v>
       </c>
@@ -12481,7 +12481,7 @@
       <c r="A581" s="9"/>
       <c r="B581" s="49"/>
       <c r="C581" s="49"/>
-      <c r="D581" s="56"/>
+      <c r="D581" s="63"/>
       <c r="E581" s="7">
         <v>4</v>
       </c>
@@ -12497,7 +12497,7 @@
       <c r="A582" s="9"/>
       <c r="B582" s="49"/>
       <c r="C582" s="49"/>
-      <c r="D582" s="56"/>
+      <c r="D582" s="63"/>
       <c r="E582" s="7">
         <v>5</v>
       </c>
@@ -12513,7 +12513,7 @@
       <c r="A583" s="9"/>
       <c r="B583" s="49"/>
       <c r="C583" s="49"/>
-      <c r="D583" s="56"/>
+      <c r="D583" s="63"/>
       <c r="E583" s="7">
         <v>6</v>
       </c>
@@ -12547,7 +12547,7 @@
       <c r="C585" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D585" s="56" t="s">
+      <c r="D585" s="63" t="s">
         <v>216</v>
       </c>
       <c r="E585" s="7">
@@ -12563,7 +12563,7 @@
       <c r="A586" s="9"/>
       <c r="B586" s="49"/>
       <c r="C586" s="49"/>
-      <c r="D586" s="56"/>
+      <c r="D586" s="63"/>
       <c r="E586" s="7">
         <v>1</v>
       </c>
@@ -12582,7 +12582,7 @@
       <c r="A587" s="9"/>
       <c r="B587" s="49"/>
       <c r="C587" s="49"/>
-      <c r="D587" s="56"/>
+      <c r="D587" s="63"/>
       <c r="E587" s="7">
         <v>2</v>
       </c>
@@ -12601,7 +12601,7 @@
       <c r="A588" s="9"/>
       <c r="B588" s="49"/>
       <c r="C588" s="49"/>
-      <c r="D588" s="56"/>
+      <c r="D588" s="63"/>
       <c r="E588" s="7">
         <v>3</v>
       </c>
@@ -12618,7 +12618,7 @@
       <c r="A589" s="9"/>
       <c r="B589" s="49"/>
       <c r="C589" s="49"/>
-      <c r="D589" s="56"/>
+      <c r="D589" s="63"/>
       <c r="E589" s="7">
         <v>4</v>
       </c>
@@ -12634,7 +12634,7 @@
       <c r="A590" s="9"/>
       <c r="B590" s="49"/>
       <c r="C590" s="49"/>
-      <c r="D590" s="56"/>
+      <c r="D590" s="63"/>
       <c r="E590" s="7">
         <v>5</v>
       </c>
@@ -12650,7 +12650,7 @@
       <c r="A591" s="9"/>
       <c r="B591" s="49"/>
       <c r="C591" s="49"/>
-      <c r="D591" s="56"/>
+      <c r="D591" s="63"/>
       <c r="E591" s="7">
         <v>6</v>
       </c>
@@ -12682,7 +12682,7 @@
       <c r="C593" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D593" s="58" t="s">
+      <c r="D593" s="64" t="s">
         <v>468</v>
       </c>
       <c r="E593" s="7"/>
@@ -12696,7 +12696,7 @@
       <c r="A594" s="9"/>
       <c r="B594" s="51"/>
       <c r="C594" s="51"/>
-      <c r="D594" s="58"/>
+      <c r="D594" s="64"/>
       <c r="E594" s="7">
         <v>1</v>
       </c>
@@ -12715,7 +12715,7 @@
       <c r="A595" s="9"/>
       <c r="B595" s="51"/>
       <c r="C595" s="51"/>
-      <c r="D595" s="58"/>
+      <c r="D595" s="64"/>
       <c r="E595" s="7">
         <v>2</v>
       </c>
@@ -12734,7 +12734,7 @@
       <c r="A596" s="9"/>
       <c r="B596" s="51"/>
       <c r="C596" s="51"/>
-      <c r="D596" s="58"/>
+      <c r="D596" s="64"/>
       <c r="E596" s="7">
         <v>3</v>
       </c>
@@ -12751,7 +12751,7 @@
       <c r="A597" s="9"/>
       <c r="B597" s="51"/>
       <c r="C597" s="51"/>
-      <c r="D597" s="58"/>
+      <c r="D597" s="64"/>
       <c r="E597" s="7">
         <v>4</v>
       </c>
@@ -12767,7 +12767,7 @@
       <c r="A598" s="9"/>
       <c r="B598" s="51"/>
       <c r="C598" s="51"/>
-      <c r="D598" s="58"/>
+      <c r="D598" s="64"/>
       <c r="E598" s="7">
         <v>5</v>
       </c>
@@ -12783,7 +12783,7 @@
       <c r="A599" s="9"/>
       <c r="B599" s="51"/>
       <c r="C599" s="51"/>
-      <c r="D599" s="58"/>
+      <c r="D599" s="64"/>
       <c r="E599" s="7">
         <v>6</v>
       </c>
@@ -12815,7 +12815,7 @@
       <c r="C601" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D601" s="58" t="s">
+      <c r="D601" s="64" t="s">
         <v>472</v>
       </c>
       <c r="E601" s="7"/>
@@ -12829,7 +12829,7 @@
       <c r="A602" s="9"/>
       <c r="B602" s="51"/>
       <c r="C602" s="51"/>
-      <c r="D602" s="58"/>
+      <c r="D602" s="64"/>
       <c r="E602" s="7">
         <v>1</v>
       </c>
@@ -12848,7 +12848,7 @@
       <c r="A603" s="9"/>
       <c r="B603" s="51"/>
       <c r="C603" s="51"/>
-      <c r="D603" s="58"/>
+      <c r="D603" s="64"/>
       <c r="E603" s="7">
         <v>2</v>
       </c>
@@ -12867,7 +12867,7 @@
       <c r="A604" s="9"/>
       <c r="B604" s="51"/>
       <c r="C604" s="51"/>
-      <c r="D604" s="58"/>
+      <c r="D604" s="64"/>
       <c r="E604" s="7">
         <v>3</v>
       </c>
@@ -12884,7 +12884,7 @@
       <c r="A605" s="9"/>
       <c r="B605" s="51"/>
       <c r="C605" s="51"/>
-      <c r="D605" s="58"/>
+      <c r="D605" s="64"/>
       <c r="E605" s="7">
         <v>4</v>
       </c>
@@ -12900,7 +12900,7 @@
       <c r="A606" s="9"/>
       <c r="B606" s="51"/>
       <c r="C606" s="51"/>
-      <c r="D606" s="58"/>
+      <c r="D606" s="64"/>
       <c r="E606" s="7">
         <v>5</v>
       </c>
@@ -12916,7 +12916,7 @@
       <c r="A607" s="9"/>
       <c r="B607" s="51"/>
       <c r="C607" s="51"/>
-      <c r="D607" s="58"/>
+      <c r="D607" s="64"/>
       <c r="E607" s="7">
         <v>6</v>
       </c>
@@ -12949,7 +12949,7 @@
       <c r="C609" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D609" s="58" t="s">
+      <c r="D609" s="64" t="s">
         <v>474</v>
       </c>
       <c r="E609" s="7"/>
@@ -12962,7 +12962,7 @@
       <c r="A610" s="9"/>
       <c r="B610" s="51"/>
       <c r="C610" s="51"/>
-      <c r="D610" s="58"/>
+      <c r="D610" s="64"/>
       <c r="E610" s="7">
         <v>1</v>
       </c>
@@ -12981,7 +12981,7 @@
       <c r="A611" s="9"/>
       <c r="B611" s="51"/>
       <c r="C611" s="51"/>
-      <c r="D611" s="58"/>
+      <c r="D611" s="64"/>
       <c r="E611" s="7">
         <v>2</v>
       </c>
@@ -13000,7 +13000,7 @@
       <c r="A612" s="9"/>
       <c r="B612" s="51"/>
       <c r="C612" s="51"/>
-      <c r="D612" s="58"/>
+      <c r="D612" s="64"/>
       <c r="E612" s="7">
         <v>3</v>
       </c>
@@ -13017,7 +13017,7 @@
       <c r="A613" s="9"/>
       <c r="B613" s="51"/>
       <c r="C613" s="51"/>
-      <c r="D613" s="58"/>
+      <c r="D613" s="64"/>
       <c r="E613" s="7">
         <v>4</v>
       </c>
@@ -13033,7 +13033,7 @@
       <c r="A614" s="9"/>
       <c r="B614" s="51"/>
       <c r="C614" s="51"/>
-      <c r="D614" s="58"/>
+      <c r="D614" s="64"/>
       <c r="E614" s="7">
         <v>5</v>
       </c>
@@ -13049,7 +13049,7 @@
       <c r="A615" s="9"/>
       <c r="B615" s="51"/>
       <c r="C615" s="51"/>
-      <c r="D615" s="58"/>
+      <c r="D615" s="64"/>
       <c r="E615" s="7">
         <v>6</v>
       </c>
@@ -13081,7 +13081,7 @@
       <c r="C617" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D617" s="58" t="s">
+      <c r="D617" s="64" t="s">
         <v>476</v>
       </c>
       <c r="E617" s="7"/>
@@ -13096,7 +13096,7 @@
       <c r="A618" s="9"/>
       <c r="B618" s="51"/>
       <c r="C618" s="51"/>
-      <c r="D618" s="58"/>
+      <c r="D618" s="64"/>
       <c r="E618" s="7">
         <v>1</v>
       </c>
@@ -13115,7 +13115,7 @@
       <c r="A619" s="9"/>
       <c r="B619" s="51"/>
       <c r="C619" s="51"/>
-      <c r="D619" s="58"/>
+      <c r="D619" s="64"/>
       <c r="E619" s="7">
         <v>2</v>
       </c>
@@ -13134,7 +13134,7 @@
       <c r="A620" s="9"/>
       <c r="B620" s="51"/>
       <c r="C620" s="51"/>
-      <c r="D620" s="58"/>
+      <c r="D620" s="64"/>
       <c r="E620" s="7">
         <v>3</v>
       </c>
@@ -13151,7 +13151,7 @@
       <c r="A621" s="9"/>
       <c r="B621" s="51"/>
       <c r="C621" s="51"/>
-      <c r="D621" s="58"/>
+      <c r="D621" s="64"/>
       <c r="E621" s="7">
         <v>4</v>
       </c>
@@ -13167,7 +13167,7 @@
       <c r="A622" s="9"/>
       <c r="B622" s="51"/>
       <c r="C622" s="51"/>
-      <c r="D622" s="58"/>
+      <c r="D622" s="64"/>
       <c r="E622" s="7">
         <v>5</v>
       </c>
@@ -13183,7 +13183,7 @@
       <c r="A623" s="9"/>
       <c r="B623" s="51"/>
       <c r="C623" s="51"/>
-      <c r="D623" s="58"/>
+      <c r="D623" s="64"/>
       <c r="E623" s="7">
         <v>6</v>
       </c>
@@ -13216,7 +13216,7 @@
       <c r="C625" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D625" s="58" t="s">
+      <c r="D625" s="64" t="s">
         <v>480</v>
       </c>
       <c r="E625" s="9"/>
@@ -13231,7 +13231,7 @@
       <c r="A626" s="9"/>
       <c r="B626" s="51"/>
       <c r="C626" s="51"/>
-      <c r="D626" s="58"/>
+      <c r="D626" s="64"/>
       <c r="E626" s="7">
         <v>1</v>
       </c>
@@ -13250,7 +13250,7 @@
       <c r="A627" s="9"/>
       <c r="B627" s="51"/>
       <c r="C627" s="51"/>
-      <c r="D627" s="58"/>
+      <c r="D627" s="64"/>
       <c r="E627" s="7">
         <v>2</v>
       </c>
@@ -13269,7 +13269,7 @@
       <c r="A628" s="9"/>
       <c r="B628" s="51"/>
       <c r="C628" s="51"/>
-      <c r="D628" s="58"/>
+      <c r="D628" s="64"/>
       <c r="E628" s="7">
         <v>3</v>
       </c>
@@ -13286,7 +13286,7 @@
       <c r="A629" s="9"/>
       <c r="B629" s="51"/>
       <c r="C629" s="51"/>
-      <c r="D629" s="58"/>
+      <c r="D629" s="64"/>
       <c r="E629" s="7">
         <v>4</v>
       </c>
@@ -13302,7 +13302,7 @@
       <c r="A630" s="9"/>
       <c r="B630" s="51"/>
       <c r="C630" s="51"/>
-      <c r="D630" s="58"/>
+      <c r="D630" s="64"/>
       <c r="E630" s="7">
         <v>5</v>
       </c>
@@ -13318,7 +13318,7 @@
       <c r="A631" s="9"/>
       <c r="B631" s="51"/>
       <c r="C631" s="51"/>
-      <c r="D631" s="58"/>
+      <c r="D631" s="64"/>
       <c r="E631" s="7">
         <v>6</v>
       </c>
@@ -13350,7 +13350,7 @@
       <c r="C633" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D633" s="58" t="s">
+      <c r="D633" s="64" t="s">
         <v>484</v>
       </c>
       <c r="E633" s="9"/>
@@ -13364,7 +13364,7 @@
       <c r="A634" s="9"/>
       <c r="B634" s="51"/>
       <c r="C634" s="51"/>
-      <c r="D634" s="58"/>
+      <c r="D634" s="64"/>
       <c r="E634" s="7">
         <v>1</v>
       </c>
@@ -13383,7 +13383,7 @@
       <c r="A635" s="9"/>
       <c r="B635" s="51"/>
       <c r="C635" s="51"/>
-      <c r="D635" s="58"/>
+      <c r="D635" s="64"/>
       <c r="E635" s="7">
         <v>2</v>
       </c>
@@ -13402,7 +13402,7 @@
       <c r="A636" s="9"/>
       <c r="B636" s="51"/>
       <c r="C636" s="51"/>
-      <c r="D636" s="58"/>
+      <c r="D636" s="64"/>
       <c r="E636" s="7">
         <v>3</v>
       </c>
@@ -13419,7 +13419,7 @@
       <c r="A637" s="9"/>
       <c r="B637" s="51"/>
       <c r="C637" s="51"/>
-      <c r="D637" s="58"/>
+      <c r="D637" s="64"/>
       <c r="E637" s="7">
         <v>4</v>
       </c>
@@ -13435,7 +13435,7 @@
       <c r="A638" s="9"/>
       <c r="B638" s="51"/>
       <c r="C638" s="51"/>
-      <c r="D638" s="58"/>
+      <c r="D638" s="64"/>
       <c r="E638" s="7">
         <v>5</v>
       </c>
@@ -13451,7 +13451,7 @@
       <c r="A639" s="9"/>
       <c r="B639" s="51"/>
       <c r="C639" s="51"/>
-      <c r="D639" s="58"/>
+      <c r="D639" s="64"/>
       <c r="E639" s="7">
         <v>6</v>
       </c>
@@ -13483,7 +13483,7 @@
       <c r="C641" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D641" s="58" t="s">
+      <c r="D641" s="64" t="s">
         <v>490</v>
       </c>
       <c r="E641" s="9"/>
@@ -13498,7 +13498,7 @@
       <c r="A642" s="9"/>
       <c r="B642" s="51"/>
       <c r="C642" s="51"/>
-      <c r="D642" s="58"/>
+      <c r="D642" s="64"/>
       <c r="E642" s="7">
         <v>1</v>
       </c>
@@ -13517,7 +13517,7 @@
       <c r="A643" s="9"/>
       <c r="B643" s="51"/>
       <c r="C643" s="51"/>
-      <c r="D643" s="58"/>
+      <c r="D643" s="64"/>
       <c r="E643" s="7">
         <v>2</v>
       </c>
@@ -13536,7 +13536,7 @@
       <c r="A644" s="9"/>
       <c r="B644" s="51"/>
       <c r="C644" s="51"/>
-      <c r="D644" s="58"/>
+      <c r="D644" s="64"/>
       <c r="E644" s="7">
         <v>3</v>
       </c>
@@ -13553,7 +13553,7 @@
       <c r="A645" s="9"/>
       <c r="B645" s="51"/>
       <c r="C645" s="51"/>
-      <c r="D645" s="58"/>
+      <c r="D645" s="64"/>
       <c r="E645" s="7">
         <v>4</v>
       </c>
@@ -13569,7 +13569,7 @@
       <c r="A646" s="9"/>
       <c r="B646" s="51"/>
       <c r="C646" s="51"/>
-      <c r="D646" s="58"/>
+      <c r="D646" s="64"/>
       <c r="E646" s="7">
         <v>5</v>
       </c>
@@ -13585,7 +13585,7 @@
       <c r="A647" s="9"/>
       <c r="B647" s="51"/>
       <c r="C647" s="51"/>
-      <c r="D647" s="58"/>
+      <c r="D647" s="64"/>
       <c r="E647" s="7">
         <v>6</v>
       </c>
@@ -13618,7 +13618,7 @@
       <c r="C649" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D649" s="56" t="s">
+      <c r="D649" s="63" t="s">
         <v>493</v>
       </c>
       <c r="E649" s="7"/>
@@ -13632,7 +13632,7 @@
       <c r="A650" s="9"/>
       <c r="B650" s="51"/>
       <c r="C650" s="51"/>
-      <c r="D650" s="56"/>
+      <c r="D650" s="63"/>
       <c r="E650" s="7">
         <v>1</v>
       </c>
@@ -13651,7 +13651,7 @@
       <c r="A651" s="9"/>
       <c r="B651" s="51"/>
       <c r="C651" s="51"/>
-      <c r="D651" s="56"/>
+      <c r="D651" s="63"/>
       <c r="E651" s="7">
         <v>2</v>
       </c>
@@ -13670,7 +13670,7 @@
       <c r="A652" s="9"/>
       <c r="B652" s="51"/>
       <c r="C652" s="51"/>
-      <c r="D652" s="56"/>
+      <c r="D652" s="63"/>
       <c r="E652" s="7">
         <v>3</v>
       </c>
@@ -13687,7 +13687,7 @@
       <c r="A653" s="9"/>
       <c r="B653" s="51"/>
       <c r="C653" s="51"/>
-      <c r="D653" s="56"/>
+      <c r="D653" s="63"/>
       <c r="E653" s="7">
         <v>4</v>
       </c>
@@ -13703,7 +13703,7 @@
       <c r="A654" s="9"/>
       <c r="B654" s="51"/>
       <c r="C654" s="51"/>
-      <c r="D654" s="56"/>
+      <c r="D654" s="63"/>
       <c r="E654" s="7">
         <v>5</v>
       </c>
@@ -13719,7 +13719,7 @@
       <c r="A655" s="9"/>
       <c r="B655" s="51"/>
       <c r="C655" s="51"/>
-      <c r="D655" s="56"/>
+      <c r="D655" s="63"/>
       <c r="E655" s="7">
         <v>6</v>
       </c>
@@ -13733,7 +13733,7 @@
     </row>
     <row r="656" spans="1:11">
       <c r="A656" s="7"/>
-      <c r="D656" s="56"/>
+      <c r="D656" s="63"/>
       <c r="E656" s="7">
         <v>7</v>
       </c>
@@ -13748,7 +13748,7 @@
     </row>
     <row r="657" spans="1:11" ht="30">
       <c r="A657" s="7"/>
-      <c r="D657" s="56"/>
+      <c r="D657" s="63"/>
       <c r="E657" s="7">
         <v>8</v>
       </c>
@@ -13763,7 +13763,7 @@
     </row>
     <row r="658" spans="1:11">
       <c r="A658" s="7"/>
-      <c r="D658" s="56"/>
+      <c r="D658" s="63"/>
       <c r="E658" s="7">
         <v>9</v>
       </c>
@@ -13780,7 +13780,7 @@
       <c r="A659" s="7"/>
       <c r="B659" s="51"/>
       <c r="C659" s="51"/>
-      <c r="D659" s="56"/>
+      <c r="D659" s="63"/>
       <c r="E659" s="7">
         <v>10</v>
       </c>
@@ -13814,7 +13814,7 @@
       <c r="C661" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D661" s="56" t="s">
+      <c r="D661" s="63" t="s">
         <v>496</v>
       </c>
       <c r="E661" s="9"/>
@@ -13828,7 +13828,7 @@
       <c r="A662" s="9"/>
       <c r="B662" s="51"/>
       <c r="C662" s="51"/>
-      <c r="D662" s="56"/>
+      <c r="D662" s="63"/>
       <c r="E662" s="7">
         <v>1</v>
       </c>
@@ -13847,7 +13847,7 @@
       <c r="A663" s="9"/>
       <c r="B663" s="51"/>
       <c r="C663" s="51"/>
-      <c r="D663" s="56"/>
+      <c r="D663" s="63"/>
       <c r="E663" s="7">
         <v>2</v>
       </c>
@@ -13866,7 +13866,7 @@
       <c r="A664" s="9"/>
       <c r="B664" s="51"/>
       <c r="C664" s="51"/>
-      <c r="D664" s="56"/>
+      <c r="D664" s="63"/>
       <c r="E664" s="7">
         <v>3</v>
       </c>
@@ -13883,7 +13883,7 @@
       <c r="A665" s="9"/>
       <c r="B665" s="51"/>
       <c r="C665" s="51"/>
-      <c r="D665" s="56"/>
+      <c r="D665" s="63"/>
       <c r="E665" s="7">
         <v>4</v>
       </c>
@@ -13899,7 +13899,7 @@
       <c r="A666" s="9"/>
       <c r="B666" s="51"/>
       <c r="C666" s="51"/>
-      <c r="D666" s="56"/>
+      <c r="D666" s="63"/>
       <c r="E666" s="7">
         <v>5</v>
       </c>
@@ -13915,7 +13915,7 @@
       <c r="A667" s="9"/>
       <c r="B667" s="51"/>
       <c r="C667" s="51"/>
-      <c r="D667" s="56"/>
+      <c r="D667" s="63"/>
       <c r="E667" s="7">
         <v>6</v>
       </c>
@@ -13929,7 +13929,7 @@
     </row>
     <row r="668" spans="1:11" ht="30">
       <c r="A668" s="7"/>
-      <c r="D668" s="56"/>
+      <c r="D668" s="63"/>
       <c r="E668" s="7">
         <v>7</v>
       </c>
@@ -13944,7 +13944,7 @@
     </row>
     <row r="669" spans="1:11" ht="45" customHeight="1">
       <c r="A669" s="7"/>
-      <c r="D669" s="56"/>
+      <c r="D669" s="63"/>
       <c r="E669" s="7">
         <v>8</v>
       </c>
@@ -13960,7 +13960,7 @@
       <c r="A670" s="7"/>
       <c r="B670" s="51"/>
       <c r="C670" s="51"/>
-      <c r="D670" s="56"/>
+      <c r="D670" s="63"/>
       <c r="E670" s="7">
         <v>9</v>
       </c>
@@ -13991,7 +13991,7 @@
       <c r="C672" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D672" s="56" t="s">
+      <c r="D672" s="63" t="s">
         <v>502</v>
       </c>
       <c r="E672" s="7"/>
@@ -14004,7 +14004,7 @@
       <c r="A673" s="9"/>
       <c r="B673" s="51"/>
       <c r="C673" s="51"/>
-      <c r="D673" s="56"/>
+      <c r="D673" s="63"/>
       <c r="E673" s="7">
         <v>1</v>
       </c>
@@ -14023,7 +14023,7 @@
       <c r="A674" s="9"/>
       <c r="B674" s="51"/>
       <c r="C674" s="51"/>
-      <c r="D674" s="56"/>
+      <c r="D674" s="63"/>
       <c r="E674" s="7">
         <v>2</v>
       </c>
@@ -14042,7 +14042,7 @@
       <c r="A675" s="9"/>
       <c r="B675" s="51"/>
       <c r="C675" s="51"/>
-      <c r="D675" s="56"/>
+      <c r="D675" s="63"/>
       <c r="E675" s="7">
         <v>3</v>
       </c>
@@ -14059,7 +14059,7 @@
       <c r="A676" s="9"/>
       <c r="B676" s="51"/>
       <c r="C676" s="51"/>
-      <c r="D676" s="56"/>
+      <c r="D676" s="63"/>
       <c r="E676" s="7">
         <v>4</v>
       </c>
@@ -14075,7 +14075,7 @@
       <c r="A677" s="9"/>
       <c r="B677" s="51"/>
       <c r="C677" s="51"/>
-      <c r="D677" s="56"/>
+      <c r="D677" s="63"/>
       <c r="E677" s="7">
         <v>5</v>
       </c>
@@ -14091,7 +14091,7 @@
       <c r="A678" s="9"/>
       <c r="B678" s="51"/>
       <c r="C678" s="51"/>
-      <c r="D678" s="56"/>
+      <c r="D678" s="63"/>
       <c r="E678" s="7">
         <v>6</v>
       </c>
@@ -14120,7 +14120,7 @@
       <c r="C680" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D680" s="56" t="s">
+      <c r="D680" s="63" t="s">
         <v>217</v>
       </c>
       <c r="E680" s="7"/>
@@ -14133,7 +14133,7 @@
       <c r="A681" s="7"/>
       <c r="B681" s="51"/>
       <c r="C681" s="51"/>
-      <c r="D681" s="56"/>
+      <c r="D681" s="63"/>
       <c r="E681" s="7">
         <v>1</v>
       </c>
@@ -14152,7 +14152,7 @@
       <c r="A682" s="7"/>
       <c r="B682" s="51"/>
       <c r="C682" s="51"/>
-      <c r="D682" s="56"/>
+      <c r="D682" s="63"/>
       <c r="E682" s="7">
         <v>2</v>
       </c>
@@ -14171,7 +14171,7 @@
       <c r="A683" s="7"/>
       <c r="B683" s="51"/>
       <c r="C683" s="51"/>
-      <c r="D683" s="56"/>
+      <c r="D683" s="63"/>
       <c r="E683" s="7">
         <v>3</v>
       </c>
@@ -14188,7 +14188,7 @@
       <c r="A684" s="7"/>
       <c r="B684" s="51"/>
       <c r="C684" s="51"/>
-      <c r="D684" s="56"/>
+      <c r="D684" s="63"/>
       <c r="E684" s="7">
         <v>4</v>
       </c>
@@ -14204,7 +14204,7 @@
       <c r="A685" s="7"/>
       <c r="B685" s="51"/>
       <c r="C685" s="51"/>
-      <c r="D685" s="56"/>
+      <c r="D685" s="63"/>
       <c r="E685" s="7">
         <v>5</v>
       </c>
@@ -14220,7 +14220,7 @@
       <c r="A686" s="7"/>
       <c r="B686" s="51"/>
       <c r="C686" s="51"/>
-      <c r="D686" s="56"/>
+      <c r="D686" s="63"/>
       <c r="E686" s="7">
         <v>6</v>
       </c>
@@ -14236,7 +14236,7 @@
       <c r="A687" s="7"/>
       <c r="B687" s="51"/>
       <c r="C687" s="51"/>
-      <c r="D687" s="56"/>
+      <c r="D687" s="63"/>
       <c r="E687" s="7">
         <v>7</v>
       </c>
@@ -14252,7 +14252,7 @@
       <c r="A688" s="7"/>
       <c r="B688" s="51"/>
       <c r="C688" s="51"/>
-      <c r="D688" s="56"/>
+      <c r="D688" s="63"/>
       <c r="E688" s="7">
         <v>8</v>
       </c>
@@ -14283,7 +14283,7 @@
       <c r="C690" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D690" s="56" t="s">
+      <c r="D690" s="63" t="s">
         <v>218</v>
       </c>
       <c r="E690" s="7"/>
@@ -14297,7 +14297,7 @@
       <c r="A691" s="9"/>
       <c r="B691" s="51"/>
       <c r="C691" s="51"/>
-      <c r="D691" s="56"/>
+      <c r="D691" s="63"/>
       <c r="E691" s="7">
         <v>1</v>
       </c>
@@ -14316,7 +14316,7 @@
       <c r="A692" s="9"/>
       <c r="B692" s="51"/>
       <c r="C692" s="51"/>
-      <c r="D692" s="56"/>
+      <c r="D692" s="63"/>
       <c r="E692" s="7">
         <v>2</v>
       </c>
@@ -14335,7 +14335,7 @@
       <c r="A693" s="9"/>
       <c r="B693" s="51"/>
       <c r="C693" s="51"/>
-      <c r="D693" s="56"/>
+      <c r="D693" s="63"/>
       <c r="E693" s="7">
         <v>3</v>
       </c>
@@ -14352,7 +14352,7 @@
       <c r="A694" s="9"/>
       <c r="B694" s="51"/>
       <c r="C694" s="51"/>
-      <c r="D694" s="56"/>
+      <c r="D694" s="63"/>
       <c r="E694" s="7">
         <v>4</v>
       </c>
@@ -14368,7 +14368,7 @@
       <c r="A695" s="9"/>
       <c r="B695" s="51"/>
       <c r="C695" s="51"/>
-      <c r="D695" s="56"/>
+      <c r="D695" s="63"/>
       <c r="E695" s="7">
         <v>5</v>
       </c>
@@ -14382,7 +14382,7 @@
     </row>
     <row r="696" spans="1:11" ht="45">
       <c r="A696" s="7"/>
-      <c r="D696" s="56"/>
+      <c r="D696" s="63"/>
       <c r="E696" s="7">
         <v>6</v>
       </c>
@@ -14396,7 +14396,7 @@
     </row>
     <row r="697" spans="1:11" ht="45">
       <c r="A697" s="7"/>
-      <c r="D697" s="56"/>
+      <c r="D697" s="63"/>
       <c r="E697" s="7">
         <v>7</v>
       </c>
@@ -14410,7 +14410,7 @@
     </row>
     <row r="698" spans="1:11" ht="36.75" customHeight="1">
       <c r="A698" s="7"/>
-      <c r="D698" s="56"/>
+      <c r="D698" s="63"/>
       <c r="E698" s="7">
         <v>8</v>
       </c>
@@ -14424,7 +14424,7 @@
     </row>
     <row r="699" spans="1:11">
       <c r="A699" s="7"/>
-      <c r="D699" s="56"/>
+      <c r="D699" s="63"/>
       <c r="E699" s="7">
         <v>9</v>
       </c>
@@ -14438,7 +14438,7 @@
     </row>
     <row r="700" spans="1:11" ht="42" customHeight="1">
       <c r="A700" s="7"/>
-      <c r="D700" s="56"/>
+      <c r="D700" s="63"/>
       <c r="E700" s="7">
         <v>10</v>
       </c>
@@ -14452,7 +14452,7 @@
     </row>
     <row r="701" spans="1:11" ht="25.5" customHeight="1">
       <c r="A701" s="7"/>
-      <c r="D701" s="56"/>
+      <c r="D701" s="63"/>
       <c r="E701" s="7">
         <v>11</v>
       </c>
@@ -14484,7 +14484,7 @@
       <c r="C703" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D703" s="56" t="s">
+      <c r="D703" s="63" t="s">
         <v>514</v>
       </c>
       <c r="E703" s="7"/>
@@ -14501,7 +14501,7 @@
       <c r="A704" s="9"/>
       <c r="B704" s="51"/>
       <c r="C704" s="51"/>
-      <c r="D704" s="56"/>
+      <c r="D704" s="63"/>
       <c r="E704" s="7">
         <v>1</v>
       </c>
@@ -14520,7 +14520,7 @@
       <c r="A705" s="9"/>
       <c r="B705" s="51"/>
       <c r="C705" s="51"/>
-      <c r="D705" s="56"/>
+      <c r="D705" s="63"/>
       <c r="E705" s="7">
         <v>2</v>
       </c>
@@ -14539,7 +14539,7 @@
       <c r="A706" s="9"/>
       <c r="B706" s="51"/>
       <c r="C706" s="51"/>
-      <c r="D706" s="56"/>
+      <c r="D706" s="63"/>
       <c r="E706" s="7">
         <v>3</v>
       </c>
@@ -14556,7 +14556,7 @@
       <c r="A707" s="9"/>
       <c r="B707" s="51"/>
       <c r="C707" s="51"/>
-      <c r="D707" s="56"/>
+      <c r="D707" s="63"/>
       <c r="E707" s="7">
         <v>4</v>
       </c>
@@ -14572,7 +14572,7 @@
       <c r="A708" s="9"/>
       <c r="B708" s="51"/>
       <c r="C708" s="51"/>
-      <c r="D708" s="56"/>
+      <c r="D708" s="63"/>
       <c r="E708" s="7">
         <v>5</v>
       </c>
@@ -14586,7 +14586,7 @@
     </row>
     <row r="709" spans="1:11">
       <c r="A709" s="7"/>
-      <c r="D709" s="56"/>
+      <c r="D709" s="63"/>
       <c r="E709" s="7">
         <v>6</v>
       </c>
@@ -14601,7 +14601,7 @@
     </row>
     <row r="710" spans="1:11">
       <c r="A710" s="7"/>
-      <c r="D710" s="56"/>
+      <c r="D710" s="63"/>
       <c r="E710" s="7">
         <v>7</v>
       </c>
@@ -14635,7 +14635,7 @@
       <c r="C712" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D712" s="56" t="s">
+      <c r="D712" s="63" t="s">
         <v>515</v>
       </c>
       <c r="E712" s="7">
@@ -14649,7 +14649,7 @@
     </row>
     <row r="713" spans="1:11" ht="30">
       <c r="A713" s="7"/>
-      <c r="D713" s="56"/>
+      <c r="D713" s="63"/>
       <c r="E713" s="7">
         <v>1</v>
       </c>
@@ -14666,7 +14666,7 @@
     </row>
     <row r="714" spans="1:11" ht="30">
       <c r="A714" s="7"/>
-      <c r="D714" s="56"/>
+      <c r="D714" s="63"/>
       <c r="E714" s="7">
         <v>2</v>
       </c>
@@ -14685,7 +14685,7 @@
       <c r="A715" s="7"/>
       <c r="B715" s="51"/>
       <c r="C715" s="51"/>
-      <c r="D715" s="56"/>
+      <c r="D715" s="63"/>
       <c r="E715" s="7">
         <v>3</v>
       </c>
@@ -14702,7 +14702,7 @@
       <c r="A716" s="7"/>
       <c r="B716" s="51"/>
       <c r="C716" s="51"/>
-      <c r="D716" s="56"/>
+      <c r="D716" s="63"/>
       <c r="E716" s="7">
         <v>4</v>
       </c>
@@ -14718,7 +14718,7 @@
       <c r="A717" s="7"/>
       <c r="B717" s="51"/>
       <c r="C717" s="51"/>
-      <c r="D717" s="56"/>
+      <c r="D717" s="63"/>
       <c r="E717" s="7">
         <v>5</v>
       </c>
@@ -14734,7 +14734,7 @@
       <c r="A718" s="7"/>
       <c r="B718" s="51"/>
       <c r="C718" s="51"/>
-      <c r="D718" s="56"/>
+      <c r="D718" s="63"/>
       <c r="E718" s="7">
         <v>6</v>
       </c>
@@ -14751,7 +14751,7 @@
       <c r="A719" s="7"/>
       <c r="B719" s="51"/>
       <c r="C719" s="51"/>
-      <c r="D719" s="56"/>
+      <c r="D719" s="63"/>
       <c r="E719" s="7">
         <v>7</v>
       </c>
@@ -14785,7 +14785,7 @@
       <c r="C721" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D721" s="56" t="s">
+      <c r="D721" s="63" t="s">
         <v>517</v>
       </c>
       <c r="E721" s="7">
@@ -14801,7 +14801,7 @@
       <c r="A722" s="9"/>
       <c r="B722" s="51"/>
       <c r="C722" s="51"/>
-      <c r="D722" s="56"/>
+      <c r="D722" s="63"/>
       <c r="E722" s="7">
         <v>1</v>
       </c>
@@ -14820,7 +14820,7 @@
       <c r="A723" s="9"/>
       <c r="B723" s="51"/>
       <c r="C723" s="51"/>
-      <c r="D723" s="56"/>
+      <c r="D723" s="63"/>
       <c r="E723" s="7">
         <v>2</v>
       </c>
@@ -14839,7 +14839,7 @@
       <c r="A724" s="9"/>
       <c r="B724" s="51"/>
       <c r="C724" s="51"/>
-      <c r="D724" s="56"/>
+      <c r="D724" s="63"/>
       <c r="E724" s="7">
         <v>3</v>
       </c>
@@ -14856,7 +14856,7 @@
       <c r="A725" s="9"/>
       <c r="B725" s="51"/>
       <c r="C725" s="51"/>
-      <c r="D725" s="56"/>
+      <c r="D725" s="63"/>
       <c r="E725" s="7">
         <v>4</v>
       </c>
@@ -14872,7 +14872,7 @@
       <c r="A726" s="9"/>
       <c r="B726" s="51"/>
       <c r="C726" s="51"/>
-      <c r="D726" s="56"/>
+      <c r="D726" s="63"/>
       <c r="E726" s="7">
         <v>5</v>
       </c>
@@ -14886,7 +14886,7 @@
     </row>
     <row r="727" spans="1:11" ht="30">
       <c r="A727" s="7"/>
-      <c r="D727" s="56"/>
+      <c r="D727" s="63"/>
       <c r="E727" s="7">
         <v>6</v>
       </c>
@@ -14901,7 +14901,7 @@
     </row>
     <row r="728" spans="1:11">
       <c r="A728" s="7"/>
-      <c r="D728" s="56"/>
+      <c r="D728" s="63"/>
       <c r="E728" s="7">
         <v>7</v>
       </c>
@@ -14916,7 +14916,7 @@
     </row>
     <row r="729" spans="1:11">
       <c r="A729" s="7"/>
-      <c r="D729" s="56"/>
+      <c r="D729" s="63"/>
       <c r="E729" s="7">
         <v>8</v>
       </c>
@@ -14931,7 +14931,7 @@
     </row>
     <row r="730" spans="1:11">
       <c r="A730" s="7"/>
-      <c r="D730" s="56"/>
+      <c r="D730" s="63"/>
       <c r="E730" s="7">
         <v>9</v>
       </c>
@@ -14965,7 +14965,7 @@
       <c r="C732" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D732" s="56" t="s">
+      <c r="D732" s="63" t="s">
         <v>519</v>
       </c>
       <c r="E732" s="7"/>
@@ -14979,7 +14979,7 @@
       <c r="A733" s="9"/>
       <c r="B733" s="51"/>
       <c r="C733" s="51"/>
-      <c r="D733" s="56"/>
+      <c r="D733" s="63"/>
       <c r="E733" s="7">
         <v>1</v>
       </c>
@@ -14998,7 +14998,7 @@
       <c r="A734" s="9"/>
       <c r="B734" s="51"/>
       <c r="C734" s="51"/>
-      <c r="D734" s="56"/>
+      <c r="D734" s="63"/>
       <c r="E734" s="7">
         <v>2</v>
       </c>
@@ -15017,7 +15017,7 @@
       <c r="A735" s="9"/>
       <c r="B735" s="51"/>
       <c r="C735" s="51"/>
-      <c r="D735" s="56"/>
+      <c r="D735" s="63"/>
       <c r="E735" s="7">
         <v>3</v>
       </c>
@@ -15034,7 +15034,7 @@
       <c r="A736" s="9"/>
       <c r="B736" s="51"/>
       <c r="C736" s="51"/>
-      <c r="D736" s="56"/>
+      <c r="D736" s="63"/>
       <c r="E736" s="7">
         <v>4</v>
       </c>
@@ -15050,7 +15050,7 @@
       <c r="A737" s="9"/>
       <c r="B737" s="51"/>
       <c r="C737" s="51"/>
-      <c r="D737" s="56"/>
+      <c r="D737" s="63"/>
       <c r="E737" s="7">
         <v>5</v>
       </c>
@@ -15066,7 +15066,7 @@
       <c r="A738" s="9"/>
       <c r="B738" s="51"/>
       <c r="C738" s="51"/>
-      <c r="D738" s="56"/>
+      <c r="D738" s="63"/>
       <c r="E738" s="7">
         <v>6</v>
       </c>
@@ -15099,7 +15099,7 @@
       <c r="C740" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D740" s="56" t="s">
+      <c r="D740" s="63" t="s">
         <v>521</v>
       </c>
       <c r="E740" s="22"/>
@@ -15113,7 +15113,7 @@
       <c r="A741" s="9"/>
       <c r="B741" s="51"/>
       <c r="C741" s="51"/>
-      <c r="D741" s="57"/>
+      <c r="D741" s="69"/>
       <c r="E741" s="7">
         <v>1</v>
       </c>
@@ -15132,7 +15132,7 @@
       <c r="A742" s="9"/>
       <c r="B742" s="51"/>
       <c r="C742" s="51"/>
-      <c r="D742" s="57"/>
+      <c r="D742" s="69"/>
       <c r="E742" s="7">
         <v>2</v>
       </c>
@@ -15151,7 +15151,7 @@
       <c r="A743" s="9"/>
       <c r="B743" s="51"/>
       <c r="C743" s="51"/>
-      <c r="D743" s="57"/>
+      <c r="D743" s="69"/>
       <c r="E743" s="7">
         <v>3</v>
       </c>
@@ -15168,7 +15168,7 @@
       <c r="A744" s="9"/>
       <c r="B744" s="51"/>
       <c r="C744" s="51"/>
-      <c r="D744" s="57"/>
+      <c r="D744" s="69"/>
       <c r="E744" s="7">
         <v>4</v>
       </c>
@@ -15184,7 +15184,7 @@
       <c r="A745" s="9"/>
       <c r="B745" s="51"/>
       <c r="C745" s="51"/>
-      <c r="D745" s="57"/>
+      <c r="D745" s="69"/>
       <c r="E745" s="7">
         <v>5</v>
       </c>
@@ -15200,7 +15200,7 @@
       <c r="A746" s="9"/>
       <c r="B746" s="51"/>
       <c r="C746" s="51"/>
-      <c r="D746" s="57"/>
+      <c r="D746" s="69"/>
       <c r="E746" s="36">
         <v>6</v>
       </c>
@@ -15233,7 +15233,7 @@
       <c r="C748" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D748" s="56" t="s">
+      <c r="D748" s="63" t="s">
         <v>525</v>
       </c>
       <c r="E748" s="7">
@@ -15247,7 +15247,7 @@
     </row>
     <row r="749" spans="1:11" ht="30">
       <c r="A749" s="7"/>
-      <c r="D749" s="56"/>
+      <c r="D749" s="63"/>
       <c r="E749" s="7">
         <v>1</v>
       </c>
@@ -15266,7 +15266,7 @@
       <c r="A750" s="7"/>
       <c r="B750" s="51"/>
       <c r="C750" s="51"/>
-      <c r="D750" s="56"/>
+      <c r="D750" s="63"/>
       <c r="E750" s="7">
         <v>2</v>
       </c>
@@ -15285,7 +15285,7 @@
       <c r="A751" s="7"/>
       <c r="B751" s="51"/>
       <c r="C751" s="51"/>
-      <c r="D751" s="56"/>
+      <c r="D751" s="63"/>
       <c r="E751" s="7">
         <v>3</v>
       </c>
@@ -15302,7 +15302,7 @@
       <c r="A752" s="7"/>
       <c r="B752" s="51"/>
       <c r="C752" s="51"/>
-      <c r="D752" s="56"/>
+      <c r="D752" s="63"/>
       <c r="E752" s="7">
         <v>4</v>
       </c>
@@ -15318,7 +15318,7 @@
       <c r="A753" s="7"/>
       <c r="B753" s="51"/>
       <c r="C753" s="51"/>
-      <c r="D753" s="56"/>
+      <c r="D753" s="63"/>
       <c r="E753" s="7">
         <v>5</v>
       </c>
@@ -15334,7 +15334,7 @@
       <c r="A754" s="7"/>
       <c r="B754" s="51"/>
       <c r="C754" s="51"/>
-      <c r="D754" s="56"/>
+      <c r="D754" s="63"/>
       <c r="E754" s="7">
         <v>6</v>
       </c>
@@ -15351,7 +15351,7 @@
       <c r="A755" s="7"/>
       <c r="B755" s="51"/>
       <c r="C755" s="51"/>
-      <c r="D755" s="56"/>
+      <c r="D755" s="63"/>
       <c r="E755" s="7">
         <v>7</v>
       </c>
@@ -15367,7 +15367,7 @@
       <c r="A756" s="7"/>
       <c r="B756" s="51"/>
       <c r="C756" s="51"/>
-      <c r="D756" s="56"/>
+      <c r="D756" s="63"/>
       <c r="E756" s="7">
         <v>8</v>
       </c>
@@ -15381,15 +15381,15 @@
       <c r="K756" s="10"/>
     </row>
     <row r="757" spans="1:11" ht="6.75" customHeight="1">
-      <c r="A757" s="63"/>
-      <c r="B757" s="64"/>
-      <c r="C757" s="64"/>
-      <c r="D757" s="65"/>
-      <c r="E757" s="63"/>
-      <c r="F757" s="66"/>
-      <c r="G757" s="66"/>
-      <c r="H757" s="67"/>
-      <c r="I757" s="66"/>
+      <c r="A757" s="56"/>
+      <c r="B757" s="57"/>
+      <c r="C757" s="57"/>
+      <c r="D757" s="58"/>
+      <c r="E757" s="56"/>
+      <c r="F757" s="59"/>
+      <c r="G757" s="59"/>
+      <c r="H757" s="60"/>
+      <c r="I757" s="59"/>
       <c r="K757" s="10"/>
     </row>
     <row r="758" spans="1:11">
@@ -15409,7 +15409,7 @@
       <c r="C759" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="D759" s="56" t="s">
+      <c r="D759" s="63" t="s">
         <v>529</v>
       </c>
       <c r="E759" s="24">
@@ -15418,7 +15418,7 @@
       <c r="F759" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="G759" s="68" t="s">
+      <c r="G759" s="61" t="s">
         <v>303</v>
       </c>
       <c r="H759" s="18" t="s">
@@ -15428,7 +15428,7 @@
     </row>
     <row r="760" spans="1:11" ht="30">
       <c r="A760" s="20"/>
-      <c r="D760" s="56"/>
+      <c r="D760" s="63"/>
       <c r="E760" s="24">
         <v>2</v>
       </c>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="761" spans="1:11">
       <c r="A761" s="20"/>
-      <c r="D761" s="56"/>
+      <c r="D761" s="63"/>
       <c r="E761" s="24">
         <v>3</v>
       </c>
@@ -15461,7 +15461,7 @@
     <row r="762" spans="1:11" ht="30">
       <c r="A762" s="20"/>
       <c r="B762" s="55"/>
-      <c r="D762" s="56"/>
+      <c r="D762" s="63"/>
       <c r="E762" s="24">
         <v>4</v>
       </c>
@@ -15475,7 +15475,7 @@
     </row>
     <row r="763" spans="1:11">
       <c r="A763" s="20"/>
-      <c r="D763" s="56"/>
+      <c r="D763" s="63"/>
       <c r="E763" s="24">
         <v>5</v>
       </c>
@@ -15489,7 +15489,7 @@
       <c r="K763" s="10"/>
     </row>
     <row r="764" spans="1:11">
-      <c r="E764" s="69"/>
+      <c r="E764" s="62"/>
       <c r="F764" s="24"/>
       <c r="G764" s="24"/>
       <c r="K764" s="10"/>
@@ -15504,7 +15504,7 @@
       <c r="C765" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="D765" s="56" t="s">
+      <c r="D765" s="63" t="s">
         <v>533</v>
       </c>
       <c r="E765" s="24">
@@ -15513,7 +15513,7 @@
       <c r="F765" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="G765" s="68" t="s">
+      <c r="G765" s="61" t="s">
         <v>303</v>
       </c>
       <c r="H765" s="18" t="s">
@@ -15522,7 +15522,7 @@
       <c r="K765" s="10"/>
     </row>
     <row r="766" spans="1:11" ht="30">
-      <c r="D766" s="56"/>
+      <c r="D766" s="63"/>
       <c r="E766" s="24">
         <v>2</v>
       </c>
@@ -15539,7 +15539,7 @@
     </row>
     <row r="767" spans="1:11">
       <c r="A767" s="20"/>
-      <c r="D767" s="56"/>
+      <c r="D767" s="63"/>
       <c r="E767" s="24">
         <v>3</v>
       </c>
@@ -15554,7 +15554,7 @@
     </row>
     <row r="768" spans="1:11" ht="30">
       <c r="A768" s="20"/>
-      <c r="D768" s="56"/>
+      <c r="D768" s="63"/>
       <c r="E768" s="24">
         <v>4</v>
       </c>
@@ -15568,7 +15568,7 @@
     </row>
     <row r="769" spans="1:11">
       <c r="A769" s="20"/>
-      <c r="D769" s="56"/>
+      <c r="D769" s="63"/>
       <c r="E769" s="24">
         <v>5</v>
       </c>
@@ -15583,7 +15583,7 @@
     </row>
     <row r="770" spans="1:11" ht="30">
       <c r="A770" s="20"/>
-      <c r="D770" s="56"/>
+      <c r="D770" s="63"/>
       <c r="E770" s="24">
         <v>6</v>
       </c>
@@ -15597,7 +15597,7 @@
     </row>
     <row r="771" spans="1:11" ht="30">
       <c r="A771" s="20"/>
-      <c r="D771" s="56"/>
+      <c r="D771" s="63"/>
       <c r="E771" s="24">
         <v>7</v>
       </c>
@@ -15612,7 +15612,7 @@
     </row>
     <row r="772" spans="1:11" ht="30">
       <c r="A772" s="20"/>
-      <c r="D772" s="56"/>
+      <c r="D772" s="63"/>
       <c r="E772" s="24">
         <v>8</v>
       </c>
@@ -15626,7 +15626,7 @@
     </row>
     <row r="773" spans="1:11" ht="30">
       <c r="A773" s="20"/>
-      <c r="D773" s="56"/>
+      <c r="D773" s="63"/>
       <c r="E773" s="24">
         <v>9</v>
       </c>
@@ -15641,7 +15641,7 @@
     </row>
     <row r="774" spans="1:11" ht="30">
       <c r="A774" s="20"/>
-      <c r="D774" s="56"/>
+      <c r="D774" s="63"/>
       <c r="E774" s="24">
         <v>10</v>
       </c>
@@ -15655,7 +15655,7 @@
     </row>
     <row r="775" spans="1:11">
       <c r="A775" s="20"/>
-      <c r="D775" s="56"/>
+      <c r="D775" s="63"/>
       <c r="E775" s="24">
         <v>11</v>
       </c>
@@ -15670,7 +15670,7 @@
     </row>
     <row r="776" spans="1:11">
       <c r="A776" s="20"/>
-      <c r="D776" s="56"/>
+      <c r="D776" s="63"/>
       <c r="E776" s="24">
         <v>12</v>
       </c>
@@ -15684,7 +15684,7 @@
     </row>
     <row r="777" spans="1:11">
       <c r="A777" s="20"/>
-      <c r="D777" s="56"/>
+      <c r="D777" s="63"/>
       <c r="E777" s="24">
         <v>13</v>
       </c>
@@ -15698,7 +15698,7 @@
       <c r="K777" s="10"/>
     </row>
     <row r="778" spans="1:11">
-      <c r="E778" s="69"/>
+      <c r="E778" s="62"/>
       <c r="F778" s="24"/>
       <c r="G778" s="24"/>
       <c r="K778" s="10"/>
@@ -15713,7 +15713,7 @@
       <c r="C779" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="D779" s="56" t="s">
+      <c r="D779" s="63" t="s">
         <v>550</v>
       </c>
       <c r="E779" s="24">
@@ -15722,7 +15722,7 @@
       <c r="F779" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="G779" s="68" t="s">
+      <c r="G779" s="61" t="s">
         <v>303</v>
       </c>
       <c r="H779" s="18" t="s">
@@ -15732,7 +15732,7 @@
     </row>
     <row r="780" spans="1:11" ht="30">
       <c r="A780" s="20"/>
-      <c r="D780" s="56"/>
+      <c r="D780" s="63"/>
       <c r="E780" s="24">
         <v>2</v>
       </c>
@@ -15749,7 +15749,7 @@
     </row>
     <row r="781" spans="1:11">
       <c r="A781" s="20"/>
-      <c r="D781" s="56"/>
+      <c r="D781" s="63"/>
       <c r="E781" s="24">
         <v>3</v>
       </c>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="782" spans="1:11" ht="30">
       <c r="A782" s="20"/>
-      <c r="D782" s="56"/>
+      <c r="D782" s="63"/>
       <c r="E782" s="24">
         <v>4</v>
       </c>
@@ -15778,7 +15778,7 @@
     </row>
     <row r="783" spans="1:11">
       <c r="A783" s="20"/>
-      <c r="D783" s="56"/>
+      <c r="D783" s="63"/>
       <c r="E783" s="24">
         <v>5</v>
       </c>
@@ -15793,7 +15793,7 @@
     </row>
     <row r="784" spans="1:11" ht="30">
       <c r="A784" s="20"/>
-      <c r="D784" s="56"/>
+      <c r="D784" s="63"/>
       <c r="E784" s="24">
         <v>6</v>
       </c>
@@ -15808,7 +15808,7 @@
     </row>
     <row r="785" spans="1:11" ht="30">
       <c r="A785" s="20"/>
-      <c r="D785" s="56"/>
+      <c r="D785" s="63"/>
       <c r="E785" s="24">
         <v>7</v>
       </c>
@@ -15823,7 +15823,7 @@
     </row>
     <row r="786" spans="1:11">
       <c r="A786" s="20"/>
-      <c r="D786" s="56"/>
+      <c r="D786" s="63"/>
       <c r="E786" s="24">
         <v>8</v>
       </c>
@@ -15838,7 +15838,7 @@
     </row>
     <row r="787" spans="1:11" ht="30">
       <c r="A787" s="20"/>
-      <c r="D787" s="56"/>
+      <c r="D787" s="63"/>
       <c r="E787" s="24">
         <v>9</v>
       </c>
@@ -15853,7 +15853,7 @@
     </row>
     <row r="788" spans="1:11">
       <c r="A788" s="20"/>
-      <c r="D788" s="56"/>
+      <c r="D788" s="63"/>
       <c r="E788" s="24">
         <v>10</v>
       </c>
@@ -15868,7 +15868,7 @@
     </row>
     <row r="789" spans="1:11" ht="30">
       <c r="A789" s="20"/>
-      <c r="D789" s="56"/>
+      <c r="D789" s="63"/>
       <c r="E789" s="24">
         <v>11</v>
       </c>
@@ -15883,7 +15883,7 @@
     </row>
     <row r="790" spans="1:11">
       <c r="A790" s="20"/>
-      <c r="D790" s="56"/>
+      <c r="D790" s="63"/>
       <c r="E790" s="24">
         <v>12</v>
       </c>
@@ -15913,7 +15913,7 @@
       <c r="C792" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="D792" s="56" t="s">
+      <c r="D792" s="63" t="s">
         <v>575</v>
       </c>
       <c r="E792" s="24">
@@ -15922,7 +15922,7 @@
       <c r="F792" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="G792" s="68" t="s">
+      <c r="G792" s="61" t="s">
         <v>303</v>
       </c>
       <c r="H792" s="18" t="s">
@@ -15932,7 +15932,7 @@
     </row>
     <row r="793" spans="1:11" ht="30">
       <c r="A793" s="20"/>
-      <c r="D793" s="56"/>
+      <c r="D793" s="63"/>
       <c r="E793" s="24">
         <v>2</v>
       </c>
@@ -15949,7 +15949,7 @@
     </row>
     <row r="794" spans="1:11">
       <c r="A794" s="20"/>
-      <c r="D794" s="56"/>
+      <c r="D794" s="63"/>
       <c r="E794" s="24">
         <v>3</v>
       </c>
@@ -15964,7 +15964,7 @@
     </row>
     <row r="795" spans="1:11" ht="30">
       <c r="A795" s="20"/>
-      <c r="D795" s="56"/>
+      <c r="D795" s="63"/>
       <c r="E795" s="24">
         <v>4</v>
       </c>
@@ -15978,7 +15978,7 @@
     </row>
     <row r="796" spans="1:11">
       <c r="A796" s="20"/>
-      <c r="D796" s="56"/>
+      <c r="D796" s="63"/>
       <c r="E796" s="24">
         <v>5</v>
       </c>
@@ -15993,7 +15993,7 @@
     </row>
     <row r="797" spans="1:11" ht="30">
       <c r="A797" s="20"/>
-      <c r="D797" s="56"/>
+      <c r="D797" s="63"/>
       <c r="E797" s="24">
         <v>6</v>
       </c>
@@ -16007,7 +16007,7 @@
     </row>
     <row r="798" spans="1:11" ht="30">
       <c r="A798" s="20"/>
-      <c r="D798" s="56"/>
+      <c r="D798" s="63"/>
       <c r="E798" s="24">
         <v>7</v>
       </c>
@@ -16022,7 +16022,7 @@
     </row>
     <row r="799" spans="1:11" ht="30">
       <c r="A799" s="20"/>
-      <c r="D799" s="56"/>
+      <c r="D799" s="63"/>
       <c r="E799" s="24">
         <v>8</v>
       </c>
@@ -16037,7 +16037,7 @@
     </row>
     <row r="800" spans="1:11">
       <c r="A800" s="20"/>
-      <c r="D800" s="9"/>
+      <c r="D800" s="63"/>
       <c r="E800" s="7">
         <v>9</v>
       </c>
@@ -16068,7 +16068,7 @@
       <c r="C802" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="D802" s="56" t="s">
+      <c r="D802" s="63" t="s">
         <v>576</v>
       </c>
       <c r="E802" s="24">
@@ -16077,7 +16077,7 @@
       <c r="F802" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="G802" s="68" t="s">
+      <c r="G802" s="61" t="s">
         <v>303</v>
       </c>
       <c r="H802" s="18" t="s">
@@ -16087,7 +16087,7 @@
     </row>
     <row r="803" spans="1:11" ht="30">
       <c r="A803" s="20"/>
-      <c r="D803" s="56"/>
+      <c r="D803" s="63"/>
       <c r="E803" s="24">
         <v>2</v>
       </c>
@@ -16104,7 +16104,7 @@
     </row>
     <row r="804" spans="1:11">
       <c r="A804" s="20"/>
-      <c r="D804" s="56"/>
+      <c r="D804" s="63"/>
       <c r="E804" s="24">
         <v>3</v>
       </c>
@@ -16119,7 +16119,7 @@
     </row>
     <row r="805" spans="1:11" ht="30">
       <c r="A805" s="20"/>
-      <c r="D805" s="56"/>
+      <c r="D805" s="63"/>
       <c r="E805" s="24">
         <v>4</v>
       </c>
@@ -16133,7 +16133,7 @@
     </row>
     <row r="806" spans="1:11">
       <c r="A806" s="20"/>
-      <c r="D806" s="56"/>
+      <c r="D806" s="63"/>
       <c r="E806" s="24">
         <v>5</v>
       </c>
@@ -16148,7 +16148,7 @@
     </row>
     <row r="807" spans="1:11" ht="30">
       <c r="A807" s="20"/>
-      <c r="D807" s="56"/>
+      <c r="D807" s="63"/>
       <c r="E807" s="24">
         <v>6</v>
       </c>
@@ -18076,26 +18076,60 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="D759:D763"/>
-    <mergeCell ref="D765:D777"/>
-    <mergeCell ref="D779:D790"/>
-    <mergeCell ref="D792:D799"/>
-    <mergeCell ref="D802:D807"/>
-    <mergeCell ref="D545:D554"/>
-    <mergeCell ref="D556:D565"/>
-    <mergeCell ref="D567:D575"/>
-    <mergeCell ref="D577:D583"/>
-    <mergeCell ref="D585:D591"/>
-    <mergeCell ref="D490:D497"/>
-    <mergeCell ref="D499:D507"/>
-    <mergeCell ref="D509:D518"/>
-    <mergeCell ref="D520:D530"/>
-    <mergeCell ref="D532:D543"/>
-    <mergeCell ref="D435:D444"/>
-    <mergeCell ref="D446:D455"/>
-    <mergeCell ref="D457:D467"/>
-    <mergeCell ref="D469:D480"/>
-    <mergeCell ref="D482:D488"/>
+    <mergeCell ref="D732:D738"/>
+    <mergeCell ref="D740:D746"/>
+    <mergeCell ref="D748:D756"/>
+    <mergeCell ref="D680:D688"/>
+    <mergeCell ref="D690:D701"/>
+    <mergeCell ref="D703:D710"/>
+    <mergeCell ref="D712:D719"/>
+    <mergeCell ref="D721:D730"/>
+    <mergeCell ref="D633:D639"/>
+    <mergeCell ref="D641:D647"/>
+    <mergeCell ref="D649:D659"/>
+    <mergeCell ref="D661:D670"/>
+    <mergeCell ref="D672:D678"/>
+    <mergeCell ref="D593:D599"/>
+    <mergeCell ref="D601:D607"/>
+    <mergeCell ref="D609:D615"/>
+    <mergeCell ref="D617:D623"/>
+    <mergeCell ref="D625:D631"/>
+    <mergeCell ref="D262:D269"/>
+    <mergeCell ref="D271:D277"/>
+    <mergeCell ref="D221:D231"/>
+    <mergeCell ref="D210:D219"/>
+    <mergeCell ref="D233:D241"/>
+    <mergeCell ref="D243:D250"/>
+    <mergeCell ref="D252:D260"/>
+    <mergeCell ref="D56:D61"/>
+    <mergeCell ref="D63:D74"/>
+    <mergeCell ref="D76:D81"/>
+    <mergeCell ref="D83:D93"/>
+    <mergeCell ref="D95:D103"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="D13:D23"/>
+    <mergeCell ref="D25:D32"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="D125:D129"/>
+    <mergeCell ref="D176:D181"/>
+    <mergeCell ref="D111:D116"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D118:D123"/>
+    <mergeCell ref="D132:D139"/>
+    <mergeCell ref="D141:D148"/>
+    <mergeCell ref="D183:D189"/>
+    <mergeCell ref="D191:D198"/>
+    <mergeCell ref="D200:D208"/>
+    <mergeCell ref="D150:D155"/>
+    <mergeCell ref="D162:D167"/>
+    <mergeCell ref="D169:D174"/>
+    <mergeCell ref="D279:D288"/>
+    <mergeCell ref="D290:D301"/>
+    <mergeCell ref="D303:D312"/>
+    <mergeCell ref="D339:D350"/>
+    <mergeCell ref="D327:D337"/>
+    <mergeCell ref="D314:D325"/>
     <mergeCell ref="D403:D411"/>
     <mergeCell ref="D413:D422"/>
     <mergeCell ref="D424:D433"/>
@@ -18104,60 +18138,26 @@
     <mergeCell ref="D376:D385"/>
     <mergeCell ref="D387:D392"/>
     <mergeCell ref="D394:D401"/>
-    <mergeCell ref="D279:D288"/>
-    <mergeCell ref="D290:D301"/>
-    <mergeCell ref="D303:D312"/>
-    <mergeCell ref="D339:D350"/>
-    <mergeCell ref="D327:D337"/>
-    <mergeCell ref="D314:D325"/>
-    <mergeCell ref="D183:D189"/>
-    <mergeCell ref="D191:D198"/>
-    <mergeCell ref="D200:D208"/>
-    <mergeCell ref="D150:D155"/>
-    <mergeCell ref="D162:D167"/>
-    <mergeCell ref="D169:D174"/>
-    <mergeCell ref="D125:D129"/>
-    <mergeCell ref="D176:D181"/>
-    <mergeCell ref="D111:D116"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D118:D123"/>
-    <mergeCell ref="D132:D139"/>
-    <mergeCell ref="D141:D148"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="D13:D23"/>
-    <mergeCell ref="D25:D32"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="D56:D61"/>
-    <mergeCell ref="D63:D74"/>
-    <mergeCell ref="D76:D81"/>
-    <mergeCell ref="D83:D93"/>
-    <mergeCell ref="D95:D103"/>
-    <mergeCell ref="D262:D269"/>
-    <mergeCell ref="D271:D277"/>
-    <mergeCell ref="D221:D231"/>
-    <mergeCell ref="D210:D219"/>
-    <mergeCell ref="D233:D241"/>
-    <mergeCell ref="D243:D250"/>
-    <mergeCell ref="D252:D260"/>
-    <mergeCell ref="D593:D599"/>
-    <mergeCell ref="D601:D607"/>
-    <mergeCell ref="D609:D615"/>
-    <mergeCell ref="D617:D623"/>
-    <mergeCell ref="D625:D631"/>
-    <mergeCell ref="D633:D639"/>
-    <mergeCell ref="D641:D647"/>
-    <mergeCell ref="D649:D659"/>
-    <mergeCell ref="D661:D670"/>
-    <mergeCell ref="D672:D678"/>
-    <mergeCell ref="D732:D738"/>
-    <mergeCell ref="D740:D746"/>
-    <mergeCell ref="D748:D756"/>
-    <mergeCell ref="D680:D688"/>
-    <mergeCell ref="D690:D701"/>
-    <mergeCell ref="D703:D710"/>
-    <mergeCell ref="D712:D719"/>
-    <mergeCell ref="D721:D730"/>
+    <mergeCell ref="D435:D444"/>
+    <mergeCell ref="D446:D455"/>
+    <mergeCell ref="D457:D467"/>
+    <mergeCell ref="D469:D480"/>
+    <mergeCell ref="D482:D488"/>
+    <mergeCell ref="D490:D497"/>
+    <mergeCell ref="D499:D507"/>
+    <mergeCell ref="D509:D518"/>
+    <mergeCell ref="D520:D530"/>
+    <mergeCell ref="D532:D543"/>
+    <mergeCell ref="D545:D554"/>
+    <mergeCell ref="D556:D565"/>
+    <mergeCell ref="D567:D575"/>
+    <mergeCell ref="D577:D583"/>
+    <mergeCell ref="D585:D591"/>
+    <mergeCell ref="D759:D763"/>
+    <mergeCell ref="D765:D777"/>
+    <mergeCell ref="D779:D790"/>
+    <mergeCell ref="D802:D807"/>
+    <mergeCell ref="D792:D800"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1067:J1263">
